--- a/2-Requisitos/2.5-Planilha_de_Contagem/[SISCEI] Planilha de Contagem em APF.xlsx
+++ b/2-Requisitos/2.5-Planilha_de_Contagem/[SISCEI] Planilha de Contagem em APF.xlsx
@@ -1625,8 +1625,20 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1636,57 +1648,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1700,25 +1721,10 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1748,12 +1754,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3136,6 +3136,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3909,6 +3957,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4746,6 +4842,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5032,36 +5176,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="117"/>
-      <c r="AA1" s="117"/>
-      <c r="AB1" s="118"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="124"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
@@ -5070,34 +5214,34 @@
       <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:35" ht="12" customHeight="1">
-      <c r="A2" s="119"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="120"/>
-      <c r="AA2" s="120"/>
-      <c r="AB2" s="121"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="127"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -5107,34 +5251,34 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="12" customHeight="1">
-      <c r="A3" s="122"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="124"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129"/>
+      <c r="W3" s="129"/>
+      <c r="X3" s="129"/>
+      <c r="Y3" s="129"/>
+      <c r="Z3" s="129"/>
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="130"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -5144,45 +5288,45 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="131" t="s">
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="127"/>
+      <c r="S4" s="119"/>
       <c r="T4" s="2">
         <v>0</v>
       </c>
-      <c r="U4" s="131" t="s">
+      <c r="U4" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="127"/>
-      <c r="W4" s="134">
+      <c r="V4" s="119"/>
+      <c r="W4" s="139">
         <f>W5*T4</f>
         <v>0</v>
       </c>
-      <c r="X4" s="126"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="126"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="127"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="117"/>
+      <c r="AB4" s="119"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -5192,43 +5336,43 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" ht="12" customHeight="1">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="125" t="s">
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
-      <c r="S5" s="126"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="131" t="s">
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="V5" s="127"/>
-      <c r="W5" s="133">
+      <c r="V5" s="119"/>
+      <c r="W5" s="132">
         <f>SUM(Y11:Y14)</f>
         <v>421</v>
       </c>
-      <c r="X5" s="126"/>
-      <c r="Y5" s="126"/>
-      <c r="Z5" s="126"/>
-      <c r="AA5" s="126"/>
-      <c r="AB5" s="127"/>
+      <c r="X5" s="117"/>
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="117"/>
+      <c r="AA5" s="117"/>
+      <c r="AB5" s="119"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -5238,38 +5382,38 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" ht="12" customHeight="1">
-      <c r="A6" s="128" t="s">
+      <c r="A6" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="125" t="s">
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="127"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="117"/>
+      <c r="S6" s="117"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="117"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="117"/>
+      <c r="X6" s="117"/>
+      <c r="Y6" s="117"/>
+      <c r="Z6" s="117"/>
+      <c r="AA6" s="117"/>
+      <c r="AB6" s="119"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -5279,40 +5423,40 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="125" t="s">
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="127"/>
-      <c r="U7" s="130" t="s">
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="126"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="139"/>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="126"/>
-      <c r="AB7" s="127"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="131"/>
+      <c r="Y7" s="117"/>
+      <c r="Z7" s="117"/>
+      <c r="AA7" s="117"/>
+      <c r="AB7" s="119"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -5322,38 +5466,38 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1">
-      <c r="A8" s="128" t="s">
+      <c r="A8" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="127"/>
-      <c r="U8" s="130" t="s">
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="126"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="139"/>
-      <c r="Y8" s="126"/>
-      <c r="Z8" s="126"/>
-      <c r="AA8" s="126"/>
-      <c r="AB8" s="127"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="131"/>
+      <c r="Y8" s="117"/>
+      <c r="Z8" s="117"/>
+      <c r="AA8" s="117"/>
+      <c r="AB8" s="119"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
@@ -5399,46 +5543,46 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="129" t="s">
+      <c r="B10" s="124"/>
+      <c r="C10" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="127"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="119"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="132" t="s">
+      <c r="O10" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="131" t="s">
+      <c r="P10" s="123"/>
+      <c r="Q10" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="126"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="131" t="s">
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="126"/>
-      <c r="W10" s="126"/>
-      <c r="X10" s="127"/>
-      <c r="Y10" s="131" t="s">
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="119"/>
+      <c r="Y10" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="Z10" s="126"/>
-      <c r="AA10" s="126"/>
-      <c r="AB10" s="127"/>
+      <c r="Z10" s="117"/>
+      <c r="AA10" s="117"/>
+      <c r="AB10" s="119"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -5448,46 +5592,46 @@
       <c r="AI10" s="1"/>
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1">
-      <c r="A11" s="119"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="129" t="s">
+      <c r="A11" s="125"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="127"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="119"/>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="130" t="s">
+      <c r="O11" s="125"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="127"/>
-      <c r="S11" s="133">
+      <c r="R11" s="119"/>
+      <c r="S11" s="132">
         <f>Sumário!E55</f>
         <v>421</v>
       </c>
-      <c r="T11" s="127"/>
-      <c r="U11" s="138">
+      <c r="T11" s="119"/>
+      <c r="U11" s="121">
         <v>1</v>
       </c>
-      <c r="V11" s="126"/>
-      <c r="W11" s="126"/>
-      <c r="X11" s="127"/>
-      <c r="Y11" s="133">
+      <c r="V11" s="117"/>
+      <c r="W11" s="117"/>
+      <c r="X11" s="119"/>
+      <c r="Y11" s="132">
         <f>S11*U11</f>
         <v>421</v>
       </c>
-      <c r="Z11" s="126"/>
-      <c r="AA11" s="126"/>
-      <c r="AB11" s="127"/>
+      <c r="Z11" s="117"/>
+      <c r="AA11" s="117"/>
+      <c r="AB11" s="119"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -5497,46 +5641,46 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1">
-      <c r="A12" s="119"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="129" t="s">
+      <c r="A12" s="125"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="127"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="119"/>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="120"/>
-      <c r="Q12" s="130" t="s">
+      <c r="O12" s="125"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="126"/>
-      <c r="S12" s="133">
+      <c r="R12" s="117"/>
+      <c r="S12" s="132">
         <f>Sumário!E56</f>
         <v>0</v>
       </c>
-      <c r="T12" s="127"/>
-      <c r="U12" s="138">
+      <c r="T12" s="119"/>
+      <c r="U12" s="121">
         <v>1</v>
       </c>
-      <c r="V12" s="126"/>
-      <c r="W12" s="126"/>
-      <c r="X12" s="127"/>
-      <c r="Y12" s="133">
+      <c r="V12" s="117"/>
+      <c r="W12" s="117"/>
+      <c r="X12" s="119"/>
+      <c r="Y12" s="132">
         <f t="shared" ref="Y12:Y14" si="0">S12*U12</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="126"/>
-      <c r="AA12" s="126"/>
-      <c r="AB12" s="127"/>
+      <c r="Z12" s="117"/>
+      <c r="AA12" s="117"/>
+      <c r="AB12" s="119"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -5546,46 +5690,46 @@
       <c r="AI12" s="1"/>
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1">
-      <c r="A13" s="119"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="129" t="s">
+      <c r="A13" s="125"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="127"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="119"/>
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="120"/>
-      <c r="Q13" s="130" t="s">
+      <c r="O13" s="125"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="126"/>
-      <c r="S13" s="133">
+      <c r="R13" s="117"/>
+      <c r="S13" s="132">
         <f>Sumário!E57</f>
         <v>0</v>
       </c>
-      <c r="T13" s="127"/>
-      <c r="U13" s="138">
+      <c r="T13" s="119"/>
+      <c r="U13" s="121">
         <v>1</v>
       </c>
-      <c r="V13" s="126"/>
-      <c r="W13" s="126"/>
-      <c r="X13" s="127"/>
-      <c r="Y13" s="133">
+      <c r="V13" s="117"/>
+      <c r="W13" s="117"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="132">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="126"/>
-      <c r="AA13" s="126"/>
-      <c r="AB13" s="127"/>
+      <c r="Z13" s="117"/>
+      <c r="AA13" s="117"/>
+      <c r="AB13" s="119"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -5595,8 +5739,8 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1">
-      <c r="A14" s="122"/>
-      <c r="B14" s="124"/>
+      <c r="A14" s="128"/>
+      <c r="B14" s="130"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -5609,26 +5753,26 @@
       <c r="L14" s="1"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="126"/>
-      <c r="S14" s="133">
+      <c r="O14" s="128"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="132">
         <f>Sumário!E58</f>
         <v>0</v>
       </c>
-      <c r="T14" s="127"/>
-      <c r="U14" s="138"/>
-      <c r="V14" s="126"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="133">
+      <c r="T14" s="119"/>
+      <c r="U14" s="121"/>
+      <c r="V14" s="117"/>
+      <c r="W14" s="117"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="132">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="126"/>
-      <c r="AA14" s="126"/>
-      <c r="AB14" s="127"/>
+      <c r="Z14" s="117"/>
+      <c r="AA14" s="117"/>
+      <c r="AB14" s="119"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -5688,17 +5832,17 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="137" t="s">
+      <c r="K16" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="123"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -5717,34 +5861,34 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1">
-      <c r="A17" s="136"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="117"/>
-      <c r="R17" s="117"/>
-      <c r="S17" s="117"/>
-      <c r="T17" s="117"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="117"/>
-      <c r="W17" s="117"/>
-      <c r="X17" s="117"/>
-      <c r="Y17" s="117"/>
-      <c r="Z17" s="117"/>
-      <c r="AA17" s="117"/>
-      <c r="AB17" s="118"/>
+      <c r="A17" s="122"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="123"/>
+      <c r="T17" s="123"/>
+      <c r="U17" s="123"/>
+      <c r="V17" s="123"/>
+      <c r="W17" s="123"/>
+      <c r="X17" s="123"/>
+      <c r="Y17" s="123"/>
+      <c r="Z17" s="123"/>
+      <c r="AA17" s="123"/>
+      <c r="AB17" s="124"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
@@ -5754,34 +5898,34 @@
       <c r="AI17" s="1"/>
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1">
-      <c r="A18" s="119"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="120"/>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="120"/>
-      <c r="S18" s="120"/>
-      <c r="T18" s="120"/>
-      <c r="U18" s="120"/>
-      <c r="V18" s="120"/>
-      <c r="W18" s="120"/>
-      <c r="X18" s="120"/>
-      <c r="Y18" s="120"/>
-      <c r="Z18" s="120"/>
-      <c r="AA18" s="120"/>
-      <c r="AB18" s="121"/>
+      <c r="A18" s="125"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="126"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="126"/>
+      <c r="N18" s="126"/>
+      <c r="O18" s="126"/>
+      <c r="P18" s="126"/>
+      <c r="Q18" s="126"/>
+      <c r="R18" s="126"/>
+      <c r="S18" s="126"/>
+      <c r="T18" s="126"/>
+      <c r="U18" s="126"/>
+      <c r="V18" s="126"/>
+      <c r="W18" s="126"/>
+      <c r="X18" s="126"/>
+      <c r="Y18" s="126"/>
+      <c r="Z18" s="126"/>
+      <c r="AA18" s="126"/>
+      <c r="AB18" s="127"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
@@ -5791,34 +5935,34 @@
       <c r="AI18" s="1"/>
     </row>
     <row r="19" spans="1:35" ht="12" customHeight="1">
-      <c r="A19" s="119"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="120"/>
-      <c r="R19" s="120"/>
-      <c r="S19" s="120"/>
-      <c r="T19" s="120"/>
-      <c r="U19" s="120"/>
-      <c r="V19" s="120"/>
-      <c r="W19" s="120"/>
-      <c r="X19" s="120"/>
-      <c r="Y19" s="120"/>
-      <c r="Z19" s="120"/>
-      <c r="AA19" s="120"/>
-      <c r="AB19" s="121"/>
+      <c r="A19" s="125"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="126"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="126"/>
+      <c r="R19" s="126"/>
+      <c r="S19" s="126"/>
+      <c r="T19" s="126"/>
+      <c r="U19" s="126"/>
+      <c r="V19" s="126"/>
+      <c r="W19" s="126"/>
+      <c r="X19" s="126"/>
+      <c r="Y19" s="126"/>
+      <c r="Z19" s="126"/>
+      <c r="AA19" s="126"/>
+      <c r="AB19" s="127"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
@@ -5828,34 +5972,34 @@
       <c r="AI19" s="1"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
-      <c r="A20" s="119"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="120"/>
-      <c r="O20" s="120"/>
-      <c r="P20" s="120"/>
-      <c r="Q20" s="120"/>
-      <c r="R20" s="120"/>
-      <c r="S20" s="120"/>
-      <c r="T20" s="120"/>
-      <c r="U20" s="120"/>
-      <c r="V20" s="120"/>
-      <c r="W20" s="120"/>
-      <c r="X20" s="120"/>
-      <c r="Y20" s="120"/>
-      <c r="Z20" s="120"/>
-      <c r="AA20" s="120"/>
-      <c r="AB20" s="121"/>
+      <c r="A20" s="125"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="126"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="126"/>
+      <c r="N20" s="126"/>
+      <c r="O20" s="126"/>
+      <c r="P20" s="126"/>
+      <c r="Q20" s="126"/>
+      <c r="R20" s="126"/>
+      <c r="S20" s="126"/>
+      <c r="T20" s="126"/>
+      <c r="U20" s="126"/>
+      <c r="V20" s="126"/>
+      <c r="W20" s="126"/>
+      <c r="X20" s="126"/>
+      <c r="Y20" s="126"/>
+      <c r="Z20" s="126"/>
+      <c r="AA20" s="126"/>
+      <c r="AB20" s="127"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
@@ -5865,34 +6009,34 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1">
-      <c r="A21" s="119"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="120"/>
-      <c r="Q21" s="120"/>
-      <c r="R21" s="120"/>
-      <c r="S21" s="120"/>
-      <c r="T21" s="120"/>
-      <c r="U21" s="120"/>
-      <c r="V21" s="120"/>
-      <c r="W21" s="120"/>
-      <c r="X21" s="120"/>
-      <c r="Y21" s="120"/>
-      <c r="Z21" s="120"/>
-      <c r="AA21" s="120"/>
-      <c r="AB21" s="121"/>
+      <c r="A21" s="125"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="126"/>
+      <c r="N21" s="126"/>
+      <c r="O21" s="126"/>
+      <c r="P21" s="126"/>
+      <c r="Q21" s="126"/>
+      <c r="R21" s="126"/>
+      <c r="S21" s="126"/>
+      <c r="T21" s="126"/>
+      <c r="U21" s="126"/>
+      <c r="V21" s="126"/>
+      <c r="W21" s="126"/>
+      <c r="X21" s="126"/>
+      <c r="Y21" s="126"/>
+      <c r="Z21" s="126"/>
+      <c r="AA21" s="126"/>
+      <c r="AB21" s="127"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
@@ -5902,34 +6046,34 @@
       <c r="AI21" s="1"/>
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1">
-      <c r="A22" s="119"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="120"/>
-      <c r="O22" s="120"/>
-      <c r="P22" s="120"/>
-      <c r="Q22" s="120"/>
-      <c r="R22" s="120"/>
-      <c r="S22" s="120"/>
-      <c r="T22" s="120"/>
-      <c r="U22" s="120"/>
-      <c r="V22" s="120"/>
-      <c r="W22" s="120"/>
-      <c r="X22" s="120"/>
-      <c r="Y22" s="120"/>
-      <c r="Z22" s="120"/>
-      <c r="AA22" s="120"/>
-      <c r="AB22" s="121"/>
+      <c r="A22" s="125"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="126"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="126"/>
+      <c r="R22" s="126"/>
+      <c r="S22" s="126"/>
+      <c r="T22" s="126"/>
+      <c r="U22" s="126"/>
+      <c r="V22" s="126"/>
+      <c r="W22" s="126"/>
+      <c r="X22" s="126"/>
+      <c r="Y22" s="126"/>
+      <c r="Z22" s="126"/>
+      <c r="AA22" s="126"/>
+      <c r="AB22" s="127"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
@@ -5939,34 +6083,34 @@
       <c r="AI22" s="1"/>
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1">
-      <c r="A23" s="119"/>
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="120"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="120"/>
-      <c r="N23" s="120"/>
-      <c r="O23" s="120"/>
-      <c r="P23" s="120"/>
-      <c r="Q23" s="120"/>
-      <c r="R23" s="120"/>
-      <c r="S23" s="120"/>
-      <c r="T23" s="120"/>
-      <c r="U23" s="120"/>
-      <c r="V23" s="120"/>
-      <c r="W23" s="120"/>
-      <c r="X23" s="120"/>
-      <c r="Y23" s="120"/>
-      <c r="Z23" s="120"/>
-      <c r="AA23" s="120"/>
-      <c r="AB23" s="121"/>
+      <c r="A23" s="125"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="126"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="126"/>
+      <c r="N23" s="126"/>
+      <c r="O23" s="126"/>
+      <c r="P23" s="126"/>
+      <c r="Q23" s="126"/>
+      <c r="R23" s="126"/>
+      <c r="S23" s="126"/>
+      <c r="T23" s="126"/>
+      <c r="U23" s="126"/>
+      <c r="V23" s="126"/>
+      <c r="W23" s="126"/>
+      <c r="X23" s="126"/>
+      <c r="Y23" s="126"/>
+      <c r="Z23" s="126"/>
+      <c r="AA23" s="126"/>
+      <c r="AB23" s="127"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
@@ -5976,34 +6120,34 @@
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1">
-      <c r="A24" s="119"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="120"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="120"/>
-      <c r="N24" s="120"/>
-      <c r="O24" s="120"/>
-      <c r="P24" s="120"/>
-      <c r="Q24" s="120"/>
-      <c r="R24" s="120"/>
-      <c r="S24" s="120"/>
-      <c r="T24" s="120"/>
-      <c r="U24" s="120"/>
-      <c r="V24" s="120"/>
-      <c r="W24" s="120"/>
-      <c r="X24" s="120"/>
-      <c r="Y24" s="120"/>
-      <c r="Z24" s="120"/>
-      <c r="AA24" s="120"/>
-      <c r="AB24" s="121"/>
+      <c r="A24" s="125"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="126"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="126"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="126"/>
+      <c r="R24" s="126"/>
+      <c r="S24" s="126"/>
+      <c r="T24" s="126"/>
+      <c r="U24" s="126"/>
+      <c r="V24" s="126"/>
+      <c r="W24" s="126"/>
+      <c r="X24" s="126"/>
+      <c r="Y24" s="126"/>
+      <c r="Z24" s="126"/>
+      <c r="AA24" s="126"/>
+      <c r="AB24" s="127"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
@@ -6013,34 +6157,34 @@
       <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" ht="12" customHeight="1">
-      <c r="A25" s="119"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="120"/>
-      <c r="K25" s="120"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="120"/>
-      <c r="N25" s="120"/>
-      <c r="O25" s="120"/>
-      <c r="P25" s="120"/>
-      <c r="Q25" s="120"/>
-      <c r="R25" s="120"/>
-      <c r="S25" s="120"/>
-      <c r="T25" s="120"/>
-      <c r="U25" s="120"/>
-      <c r="V25" s="120"/>
-      <c r="W25" s="120"/>
-      <c r="X25" s="120"/>
-      <c r="Y25" s="120"/>
-      <c r="Z25" s="120"/>
-      <c r="AA25" s="120"/>
-      <c r="AB25" s="121"/>
+      <c r="A25" s="125"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="126"/>
+      <c r="O25" s="126"/>
+      <c r="P25" s="126"/>
+      <c r="Q25" s="126"/>
+      <c r="R25" s="126"/>
+      <c r="S25" s="126"/>
+      <c r="T25" s="126"/>
+      <c r="U25" s="126"/>
+      <c r="V25" s="126"/>
+      <c r="W25" s="126"/>
+      <c r="X25" s="126"/>
+      <c r="Y25" s="126"/>
+      <c r="Z25" s="126"/>
+      <c r="AA25" s="126"/>
+      <c r="AB25" s="127"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
@@ -6050,34 +6194,34 @@
       <c r="AI25" s="1"/>
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1">
-      <c r="A26" s="119"/>
-      <c r="B26" s="120"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="120"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="120"/>
-      <c r="N26" s="120"/>
-      <c r="O26" s="120"/>
-      <c r="P26" s="120"/>
-      <c r="Q26" s="120"/>
-      <c r="R26" s="120"/>
-      <c r="S26" s="120"/>
-      <c r="T26" s="120"/>
-      <c r="U26" s="120"/>
-      <c r="V26" s="120"/>
-      <c r="W26" s="120"/>
-      <c r="X26" s="120"/>
-      <c r="Y26" s="120"/>
-      <c r="Z26" s="120"/>
-      <c r="AA26" s="120"/>
-      <c r="AB26" s="121"/>
+      <c r="A26" s="125"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="126"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="126"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="126"/>
+      <c r="P26" s="126"/>
+      <c r="Q26" s="126"/>
+      <c r="R26" s="126"/>
+      <c r="S26" s="126"/>
+      <c r="T26" s="126"/>
+      <c r="U26" s="126"/>
+      <c r="V26" s="126"/>
+      <c r="W26" s="126"/>
+      <c r="X26" s="126"/>
+      <c r="Y26" s="126"/>
+      <c r="Z26" s="126"/>
+      <c r="AA26" s="126"/>
+      <c r="AB26" s="127"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
@@ -6087,34 +6231,34 @@
       <c r="AI26" s="1"/>
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1">
-      <c r="A27" s="119"/>
-      <c r="B27" s="120"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="120"/>
-      <c r="N27" s="120"/>
-      <c r="O27" s="120"/>
-      <c r="P27" s="120"/>
-      <c r="Q27" s="120"/>
-      <c r="R27" s="120"/>
-      <c r="S27" s="120"/>
-      <c r="T27" s="120"/>
-      <c r="U27" s="120"/>
-      <c r="V27" s="120"/>
-      <c r="W27" s="120"/>
-      <c r="X27" s="120"/>
-      <c r="Y27" s="120"/>
-      <c r="Z27" s="120"/>
-      <c r="AA27" s="120"/>
-      <c r="AB27" s="121"/>
+      <c r="A27" s="125"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="126"/>
+      <c r="O27" s="126"/>
+      <c r="P27" s="126"/>
+      <c r="Q27" s="126"/>
+      <c r="R27" s="126"/>
+      <c r="S27" s="126"/>
+      <c r="T27" s="126"/>
+      <c r="U27" s="126"/>
+      <c r="V27" s="126"/>
+      <c r="W27" s="126"/>
+      <c r="X27" s="126"/>
+      <c r="Y27" s="126"/>
+      <c r="Z27" s="126"/>
+      <c r="AA27" s="126"/>
+      <c r="AB27" s="127"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
@@ -6124,34 +6268,34 @@
       <c r="AI27" s="1"/>
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1">
-      <c r="A28" s="119"/>
-      <c r="B28" s="120"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="120"/>
-      <c r="N28" s="120"/>
-      <c r="O28" s="120"/>
-      <c r="P28" s="120"/>
-      <c r="Q28" s="120"/>
-      <c r="R28" s="120"/>
-      <c r="S28" s="120"/>
-      <c r="T28" s="120"/>
-      <c r="U28" s="120"/>
-      <c r="V28" s="120"/>
-      <c r="W28" s="120"/>
-      <c r="X28" s="120"/>
-      <c r="Y28" s="120"/>
-      <c r="Z28" s="120"/>
-      <c r="AA28" s="120"/>
-      <c r="AB28" s="121"/>
+      <c r="A28" s="125"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="126"/>
+      <c r="K28" s="126"/>
+      <c r="L28" s="126"/>
+      <c r="M28" s="126"/>
+      <c r="N28" s="126"/>
+      <c r="O28" s="126"/>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="126"/>
+      <c r="R28" s="126"/>
+      <c r="S28" s="126"/>
+      <c r="T28" s="126"/>
+      <c r="U28" s="126"/>
+      <c r="V28" s="126"/>
+      <c r="W28" s="126"/>
+      <c r="X28" s="126"/>
+      <c r="Y28" s="126"/>
+      <c r="Z28" s="126"/>
+      <c r="AA28" s="126"/>
+      <c r="AB28" s="127"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
@@ -6161,34 +6305,34 @@
       <c r="AI28" s="1"/>
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1">
-      <c r="A29" s="119"/>
-      <c r="B29" s="120"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="120"/>
-      <c r="L29" s="120"/>
-      <c r="M29" s="120"/>
-      <c r="N29" s="120"/>
-      <c r="O29" s="120"/>
-      <c r="P29" s="120"/>
-      <c r="Q29" s="120"/>
-      <c r="R29" s="120"/>
-      <c r="S29" s="120"/>
-      <c r="T29" s="120"/>
-      <c r="U29" s="120"/>
-      <c r="V29" s="120"/>
-      <c r="W29" s="120"/>
-      <c r="X29" s="120"/>
-      <c r="Y29" s="120"/>
-      <c r="Z29" s="120"/>
-      <c r="AA29" s="120"/>
-      <c r="AB29" s="121"/>
+      <c r="A29" s="125"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="126"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="126"/>
+      <c r="N29" s="126"/>
+      <c r="O29" s="126"/>
+      <c r="P29" s="126"/>
+      <c r="Q29" s="126"/>
+      <c r="R29" s="126"/>
+      <c r="S29" s="126"/>
+      <c r="T29" s="126"/>
+      <c r="U29" s="126"/>
+      <c r="V29" s="126"/>
+      <c r="W29" s="126"/>
+      <c r="X29" s="126"/>
+      <c r="Y29" s="126"/>
+      <c r="Z29" s="126"/>
+      <c r="AA29" s="126"/>
+      <c r="AB29" s="127"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
@@ -6198,34 +6342,34 @@
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1">
-      <c r="A30" s="119"/>
-      <c r="B30" s="120"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="120"/>
-      <c r="O30" s="120"/>
-      <c r="P30" s="120"/>
-      <c r="Q30" s="120"/>
-      <c r="R30" s="120"/>
-      <c r="S30" s="120"/>
-      <c r="T30" s="120"/>
-      <c r="U30" s="120"/>
-      <c r="V30" s="120"/>
-      <c r="W30" s="120"/>
-      <c r="X30" s="120"/>
-      <c r="Y30" s="120"/>
-      <c r="Z30" s="120"/>
-      <c r="AA30" s="120"/>
-      <c r="AB30" s="121"/>
+      <c r="A30" s="125"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="126"/>
+      <c r="O30" s="126"/>
+      <c r="P30" s="126"/>
+      <c r="Q30" s="126"/>
+      <c r="R30" s="126"/>
+      <c r="S30" s="126"/>
+      <c r="T30" s="126"/>
+      <c r="U30" s="126"/>
+      <c r="V30" s="126"/>
+      <c r="W30" s="126"/>
+      <c r="X30" s="126"/>
+      <c r="Y30" s="126"/>
+      <c r="Z30" s="126"/>
+      <c r="AA30" s="126"/>
+      <c r="AB30" s="127"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
@@ -6235,34 +6379,34 @@
       <c r="AI30" s="1"/>
     </row>
     <row r="31" spans="1:35" ht="12" customHeight="1">
-      <c r="A31" s="119"/>
-      <c r="B31" s="120"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="120"/>
-      <c r="K31" s="120"/>
-      <c r="L31" s="120"/>
-      <c r="M31" s="120"/>
-      <c r="N31" s="120"/>
-      <c r="O31" s="120"/>
-      <c r="P31" s="120"/>
-      <c r="Q31" s="120"/>
-      <c r="R31" s="120"/>
-      <c r="S31" s="120"/>
-      <c r="T31" s="120"/>
-      <c r="U31" s="120"/>
-      <c r="V31" s="120"/>
-      <c r="W31" s="120"/>
-      <c r="X31" s="120"/>
-      <c r="Y31" s="120"/>
-      <c r="Z31" s="120"/>
-      <c r="AA31" s="120"/>
-      <c r="AB31" s="121"/>
+      <c r="A31" s="125"/>
+      <c r="B31" s="126"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="126"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="126"/>
+      <c r="M31" s="126"/>
+      <c r="N31" s="126"/>
+      <c r="O31" s="126"/>
+      <c r="P31" s="126"/>
+      <c r="Q31" s="126"/>
+      <c r="R31" s="126"/>
+      <c r="S31" s="126"/>
+      <c r="T31" s="126"/>
+      <c r="U31" s="126"/>
+      <c r="V31" s="126"/>
+      <c r="W31" s="126"/>
+      <c r="X31" s="126"/>
+      <c r="Y31" s="126"/>
+      <c r="Z31" s="126"/>
+      <c r="AA31" s="126"/>
+      <c r="AB31" s="127"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
@@ -6272,34 +6416,34 @@
       <c r="AI31" s="1"/>
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1">
-      <c r="A32" s="119"/>
-      <c r="B32" s="120"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="120"/>
-      <c r="J32" s="120"/>
-      <c r="K32" s="120"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="120"/>
-      <c r="N32" s="120"/>
-      <c r="O32" s="120"/>
-      <c r="P32" s="120"/>
-      <c r="Q32" s="120"/>
-      <c r="R32" s="120"/>
-      <c r="S32" s="120"/>
-      <c r="T32" s="120"/>
-      <c r="U32" s="120"/>
-      <c r="V32" s="120"/>
-      <c r="W32" s="120"/>
-      <c r="X32" s="120"/>
-      <c r="Y32" s="120"/>
-      <c r="Z32" s="120"/>
-      <c r="AA32" s="120"/>
-      <c r="AB32" s="121"/>
+      <c r="A32" s="125"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="126"/>
+      <c r="O32" s="126"/>
+      <c r="P32" s="126"/>
+      <c r="Q32" s="126"/>
+      <c r="R32" s="126"/>
+      <c r="S32" s="126"/>
+      <c r="T32" s="126"/>
+      <c r="U32" s="126"/>
+      <c r="V32" s="126"/>
+      <c r="W32" s="126"/>
+      <c r="X32" s="126"/>
+      <c r="Y32" s="126"/>
+      <c r="Z32" s="126"/>
+      <c r="AA32" s="126"/>
+      <c r="AB32" s="127"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
@@ -6309,34 +6453,34 @@
       <c r="AI32" s="1"/>
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1">
-      <c r="A33" s="119"/>
-      <c r="B33" s="120"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="120"/>
-      <c r="K33" s="120"/>
-      <c r="L33" s="120"/>
-      <c r="M33" s="120"/>
-      <c r="N33" s="120"/>
-      <c r="O33" s="120"/>
-      <c r="P33" s="120"/>
-      <c r="Q33" s="120"/>
-      <c r="R33" s="120"/>
-      <c r="S33" s="120"/>
-      <c r="T33" s="120"/>
-      <c r="U33" s="120"/>
-      <c r="V33" s="120"/>
-      <c r="W33" s="120"/>
-      <c r="X33" s="120"/>
-      <c r="Y33" s="120"/>
-      <c r="Z33" s="120"/>
-      <c r="AA33" s="120"/>
-      <c r="AB33" s="121"/>
+      <c r="A33" s="125"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="126"/>
+      <c r="M33" s="126"/>
+      <c r="N33" s="126"/>
+      <c r="O33" s="126"/>
+      <c r="P33" s="126"/>
+      <c r="Q33" s="126"/>
+      <c r="R33" s="126"/>
+      <c r="S33" s="126"/>
+      <c r="T33" s="126"/>
+      <c r="U33" s="126"/>
+      <c r="V33" s="126"/>
+      <c r="W33" s="126"/>
+      <c r="X33" s="126"/>
+      <c r="Y33" s="126"/>
+      <c r="Z33" s="126"/>
+      <c r="AA33" s="126"/>
+      <c r="AB33" s="127"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
@@ -6346,34 +6490,34 @@
       <c r="AI33" s="1"/>
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1">
-      <c r="A34" s="119"/>
-      <c r="B34" s="120"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="120"/>
-      <c r="J34" s="120"/>
-      <c r="K34" s="120"/>
-      <c r="L34" s="120"/>
-      <c r="M34" s="120"/>
-      <c r="N34" s="120"/>
-      <c r="O34" s="120"/>
-      <c r="P34" s="120"/>
-      <c r="Q34" s="120"/>
-      <c r="R34" s="120"/>
-      <c r="S34" s="120"/>
-      <c r="T34" s="120"/>
-      <c r="U34" s="120"/>
-      <c r="V34" s="120"/>
-      <c r="W34" s="120"/>
-      <c r="X34" s="120"/>
-      <c r="Y34" s="120"/>
-      <c r="Z34" s="120"/>
-      <c r="AA34" s="120"/>
-      <c r="AB34" s="121"/>
+      <c r="A34" s="125"/>
+      <c r="B34" s="126"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="126"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="126"/>
+      <c r="K34" s="126"/>
+      <c r="L34" s="126"/>
+      <c r="M34" s="126"/>
+      <c r="N34" s="126"/>
+      <c r="O34" s="126"/>
+      <c r="P34" s="126"/>
+      <c r="Q34" s="126"/>
+      <c r="R34" s="126"/>
+      <c r="S34" s="126"/>
+      <c r="T34" s="126"/>
+      <c r="U34" s="126"/>
+      <c r="V34" s="126"/>
+      <c r="W34" s="126"/>
+      <c r="X34" s="126"/>
+      <c r="Y34" s="126"/>
+      <c r="Z34" s="126"/>
+      <c r="AA34" s="126"/>
+      <c r="AB34" s="127"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
@@ -6383,34 +6527,34 @@
       <c r="AI34" s="1"/>
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1">
-      <c r="A35" s="119"/>
-      <c r="B35" s="120"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="120"/>
-      <c r="K35" s="120"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="120"/>
-      <c r="N35" s="120"/>
-      <c r="O35" s="120"/>
-      <c r="P35" s="120"/>
-      <c r="Q35" s="120"/>
-      <c r="R35" s="120"/>
-      <c r="S35" s="120"/>
-      <c r="T35" s="120"/>
-      <c r="U35" s="120"/>
-      <c r="V35" s="120"/>
-      <c r="W35" s="120"/>
-      <c r="X35" s="120"/>
-      <c r="Y35" s="120"/>
-      <c r="Z35" s="120"/>
-      <c r="AA35" s="120"/>
-      <c r="AB35" s="121"/>
+      <c r="A35" s="125"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="126"/>
+      <c r="K35" s="126"/>
+      <c r="L35" s="126"/>
+      <c r="M35" s="126"/>
+      <c r="N35" s="126"/>
+      <c r="O35" s="126"/>
+      <c r="P35" s="126"/>
+      <c r="Q35" s="126"/>
+      <c r="R35" s="126"/>
+      <c r="S35" s="126"/>
+      <c r="T35" s="126"/>
+      <c r="U35" s="126"/>
+      <c r="V35" s="126"/>
+      <c r="W35" s="126"/>
+      <c r="X35" s="126"/>
+      <c r="Y35" s="126"/>
+      <c r="Z35" s="126"/>
+      <c r="AA35" s="126"/>
+      <c r="AB35" s="127"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
@@ -6420,34 +6564,34 @@
       <c r="AI35" s="1"/>
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1">
-      <c r="A36" s="119"/>
-      <c r="B36" s="120"/>
-      <c r="C36" s="120"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="120"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="120"/>
-      <c r="N36" s="120"/>
-      <c r="O36" s="120"/>
-      <c r="P36" s="120"/>
-      <c r="Q36" s="120"/>
-      <c r="R36" s="120"/>
-      <c r="S36" s="120"/>
-      <c r="T36" s="120"/>
-      <c r="U36" s="120"/>
-      <c r="V36" s="120"/>
-      <c r="W36" s="120"/>
-      <c r="X36" s="120"/>
-      <c r="Y36" s="120"/>
-      <c r="Z36" s="120"/>
-      <c r="AA36" s="120"/>
-      <c r="AB36" s="121"/>
+      <c r="A36" s="125"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="126"/>
+      <c r="H36" s="126"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="126"/>
+      <c r="K36" s="126"/>
+      <c r="L36" s="126"/>
+      <c r="M36" s="126"/>
+      <c r="N36" s="126"/>
+      <c r="O36" s="126"/>
+      <c r="P36" s="126"/>
+      <c r="Q36" s="126"/>
+      <c r="R36" s="126"/>
+      <c r="S36" s="126"/>
+      <c r="T36" s="126"/>
+      <c r="U36" s="126"/>
+      <c r="V36" s="126"/>
+      <c r="W36" s="126"/>
+      <c r="X36" s="126"/>
+      <c r="Y36" s="126"/>
+      <c r="Z36" s="126"/>
+      <c r="AA36" s="126"/>
+      <c r="AB36" s="127"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
@@ -6457,34 +6601,34 @@
       <c r="AI36" s="1"/>
     </row>
     <row r="37" spans="1:35" ht="12" customHeight="1">
-      <c r="A37" s="119"/>
-      <c r="B37" s="120"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="120"/>
-      <c r="H37" s="120"/>
-      <c r="I37" s="120"/>
-      <c r="J37" s="120"/>
-      <c r="K37" s="120"/>
-      <c r="L37" s="120"/>
-      <c r="M37" s="120"/>
-      <c r="N37" s="120"/>
-      <c r="O37" s="120"/>
-      <c r="P37" s="120"/>
-      <c r="Q37" s="120"/>
-      <c r="R37" s="120"/>
-      <c r="S37" s="120"/>
-      <c r="T37" s="120"/>
-      <c r="U37" s="120"/>
-      <c r="V37" s="120"/>
-      <c r="W37" s="120"/>
-      <c r="X37" s="120"/>
-      <c r="Y37" s="120"/>
-      <c r="Z37" s="120"/>
-      <c r="AA37" s="120"/>
-      <c r="AB37" s="121"/>
+      <c r="A37" s="125"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="126"/>
+      <c r="I37" s="126"/>
+      <c r="J37" s="126"/>
+      <c r="K37" s="126"/>
+      <c r="L37" s="126"/>
+      <c r="M37" s="126"/>
+      <c r="N37" s="126"/>
+      <c r="O37" s="126"/>
+      <c r="P37" s="126"/>
+      <c r="Q37" s="126"/>
+      <c r="R37" s="126"/>
+      <c r="S37" s="126"/>
+      <c r="T37" s="126"/>
+      <c r="U37" s="126"/>
+      <c r="V37" s="126"/>
+      <c r="W37" s="126"/>
+      <c r="X37" s="126"/>
+      <c r="Y37" s="126"/>
+      <c r="Z37" s="126"/>
+      <c r="AA37" s="126"/>
+      <c r="AB37" s="127"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
@@ -6494,34 +6638,34 @@
       <c r="AI37" s="1"/>
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1">
-      <c r="A38" s="122"/>
-      <c r="B38" s="123"/>
-      <c r="C38" s="123"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="123"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="123"/>
-      <c r="I38" s="123"/>
-      <c r="J38" s="123"/>
-      <c r="K38" s="123"/>
-      <c r="L38" s="123"/>
-      <c r="M38" s="123"/>
-      <c r="N38" s="123"/>
-      <c r="O38" s="123"/>
-      <c r="P38" s="123"/>
-      <c r="Q38" s="123"/>
-      <c r="R38" s="123"/>
-      <c r="S38" s="123"/>
-      <c r="T38" s="123"/>
-      <c r="U38" s="123"/>
-      <c r="V38" s="123"/>
-      <c r="W38" s="123"/>
-      <c r="X38" s="123"/>
-      <c r="Y38" s="123"/>
-      <c r="Z38" s="123"/>
-      <c r="AA38" s="123"/>
-      <c r="AB38" s="124"/>
+      <c r="A38" s="128"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="129"/>
+      <c r="K38" s="129"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="129"/>
+      <c r="N38" s="129"/>
+      <c r="O38" s="129"/>
+      <c r="P38" s="129"/>
+      <c r="Q38" s="129"/>
+      <c r="R38" s="129"/>
+      <c r="S38" s="129"/>
+      <c r="T38" s="129"/>
+      <c r="U38" s="129"/>
+      <c r="V38" s="129"/>
+      <c r="W38" s="129"/>
+      <c r="X38" s="129"/>
+      <c r="Y38" s="129"/>
+      <c r="Z38" s="129"/>
+      <c r="AA38" s="129"/>
+      <c r="AB38" s="130"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
@@ -6578,17 +6722,17 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="137" t="s">
+      <c r="K40" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="123"/>
-      <c r="M40" s="123"/>
-      <c r="N40" s="123"/>
-      <c r="O40" s="123"/>
-      <c r="P40" s="123"/>
-      <c r="Q40" s="123"/>
-      <c r="R40" s="123"/>
-      <c r="S40" s="123"/>
+      <c r="L40" s="129"/>
+      <c r="M40" s="129"/>
+      <c r="N40" s="129"/>
+      <c r="O40" s="129"/>
+      <c r="P40" s="129"/>
+      <c r="Q40" s="129"/>
+      <c r="R40" s="129"/>
+      <c r="S40" s="129"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -6607,34 +6751,34 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1">
-      <c r="A41" s="136"/>
-      <c r="B41" s="117"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="117"/>
-      <c r="K41" s="117"/>
-      <c r="L41" s="117"/>
-      <c r="M41" s="117"/>
-      <c r="N41" s="117"/>
-      <c r="O41" s="117"/>
-      <c r="P41" s="117"/>
-      <c r="Q41" s="117"/>
-      <c r="R41" s="117"/>
-      <c r="S41" s="117"/>
-      <c r="T41" s="117"/>
-      <c r="U41" s="117"/>
-      <c r="V41" s="117"/>
-      <c r="W41" s="117"/>
-      <c r="X41" s="117"/>
-      <c r="Y41" s="117"/>
-      <c r="Z41" s="117"/>
-      <c r="AA41" s="117"/>
-      <c r="AB41" s="118"/>
+      <c r="A41" s="122"/>
+      <c r="B41" s="123"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="123"/>
+      <c r="K41" s="123"/>
+      <c r="L41" s="123"/>
+      <c r="M41" s="123"/>
+      <c r="N41" s="123"/>
+      <c r="O41" s="123"/>
+      <c r="P41" s="123"/>
+      <c r="Q41" s="123"/>
+      <c r="R41" s="123"/>
+      <c r="S41" s="123"/>
+      <c r="T41" s="123"/>
+      <c r="U41" s="123"/>
+      <c r="V41" s="123"/>
+      <c r="W41" s="123"/>
+      <c r="X41" s="123"/>
+      <c r="Y41" s="123"/>
+      <c r="Z41" s="123"/>
+      <c r="AA41" s="123"/>
+      <c r="AB41" s="124"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
@@ -6644,34 +6788,34 @@
       <c r="AI41" s="1"/>
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1">
-      <c r="A42" s="119"/>
-      <c r="B42" s="120"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="120"/>
-      <c r="J42" s="120"/>
-      <c r="K42" s="120"/>
-      <c r="L42" s="120"/>
-      <c r="M42" s="120"/>
-      <c r="N42" s="120"/>
-      <c r="O42" s="120"/>
-      <c r="P42" s="120"/>
-      <c r="Q42" s="120"/>
-      <c r="R42" s="120"/>
-      <c r="S42" s="120"/>
-      <c r="T42" s="120"/>
-      <c r="U42" s="120"/>
-      <c r="V42" s="120"/>
-      <c r="W42" s="120"/>
-      <c r="X42" s="120"/>
-      <c r="Y42" s="120"/>
-      <c r="Z42" s="120"/>
-      <c r="AA42" s="120"/>
-      <c r="AB42" s="121"/>
+      <c r="A42" s="125"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="126"/>
+      <c r="K42" s="126"/>
+      <c r="L42" s="126"/>
+      <c r="M42" s="126"/>
+      <c r="N42" s="126"/>
+      <c r="O42" s="126"/>
+      <c r="P42" s="126"/>
+      <c r="Q42" s="126"/>
+      <c r="R42" s="126"/>
+      <c r="S42" s="126"/>
+      <c r="T42" s="126"/>
+      <c r="U42" s="126"/>
+      <c r="V42" s="126"/>
+      <c r="W42" s="126"/>
+      <c r="X42" s="126"/>
+      <c r="Y42" s="126"/>
+      <c r="Z42" s="126"/>
+      <c r="AA42" s="126"/>
+      <c r="AB42" s="127"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
@@ -6681,34 +6825,34 @@
       <c r="AI42" s="1"/>
     </row>
     <row r="43" spans="1:35" ht="12" customHeight="1">
-      <c r="A43" s="119"/>
-      <c r="B43" s="120"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="120"/>
-      <c r="K43" s="120"/>
-      <c r="L43" s="120"/>
-      <c r="M43" s="120"/>
-      <c r="N43" s="120"/>
-      <c r="O43" s="120"/>
-      <c r="P43" s="120"/>
-      <c r="Q43" s="120"/>
-      <c r="R43" s="120"/>
-      <c r="S43" s="120"/>
-      <c r="T43" s="120"/>
-      <c r="U43" s="120"/>
-      <c r="V43" s="120"/>
-      <c r="W43" s="120"/>
-      <c r="X43" s="120"/>
-      <c r="Y43" s="120"/>
-      <c r="Z43" s="120"/>
-      <c r="AA43" s="120"/>
-      <c r="AB43" s="121"/>
+      <c r="A43" s="125"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="126"/>
+      <c r="G43" s="126"/>
+      <c r="H43" s="126"/>
+      <c r="I43" s="126"/>
+      <c r="J43" s="126"/>
+      <c r="K43" s="126"/>
+      <c r="L43" s="126"/>
+      <c r="M43" s="126"/>
+      <c r="N43" s="126"/>
+      <c r="O43" s="126"/>
+      <c r="P43" s="126"/>
+      <c r="Q43" s="126"/>
+      <c r="R43" s="126"/>
+      <c r="S43" s="126"/>
+      <c r="T43" s="126"/>
+      <c r="U43" s="126"/>
+      <c r="V43" s="126"/>
+      <c r="W43" s="126"/>
+      <c r="X43" s="126"/>
+      <c r="Y43" s="126"/>
+      <c r="Z43" s="126"/>
+      <c r="AA43" s="126"/>
+      <c r="AB43" s="127"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
@@ -6718,34 +6862,34 @@
       <c r="AI43" s="1"/>
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1">
-      <c r="A44" s="119"/>
-      <c r="B44" s="120"/>
-      <c r="C44" s="120"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="120"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="120"/>
-      <c r="K44" s="120"/>
-      <c r="L44" s="120"/>
-      <c r="M44" s="120"/>
-      <c r="N44" s="120"/>
-      <c r="O44" s="120"/>
-      <c r="P44" s="120"/>
-      <c r="Q44" s="120"/>
-      <c r="R44" s="120"/>
-      <c r="S44" s="120"/>
-      <c r="T44" s="120"/>
-      <c r="U44" s="120"/>
-      <c r="V44" s="120"/>
-      <c r="W44" s="120"/>
-      <c r="X44" s="120"/>
-      <c r="Y44" s="120"/>
-      <c r="Z44" s="120"/>
-      <c r="AA44" s="120"/>
-      <c r="AB44" s="121"/>
+      <c r="A44" s="125"/>
+      <c r="B44" s="126"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="126"/>
+      <c r="F44" s="126"/>
+      <c r="G44" s="126"/>
+      <c r="H44" s="126"/>
+      <c r="I44" s="126"/>
+      <c r="J44" s="126"/>
+      <c r="K44" s="126"/>
+      <c r="L44" s="126"/>
+      <c r="M44" s="126"/>
+      <c r="N44" s="126"/>
+      <c r="O44" s="126"/>
+      <c r="P44" s="126"/>
+      <c r="Q44" s="126"/>
+      <c r="R44" s="126"/>
+      <c r="S44" s="126"/>
+      <c r="T44" s="126"/>
+      <c r="U44" s="126"/>
+      <c r="V44" s="126"/>
+      <c r="W44" s="126"/>
+      <c r="X44" s="126"/>
+      <c r="Y44" s="126"/>
+      <c r="Z44" s="126"/>
+      <c r="AA44" s="126"/>
+      <c r="AB44" s="127"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -6755,34 +6899,34 @@
       <c r="AI44" s="1"/>
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1">
-      <c r="A45" s="119"/>
-      <c r="B45" s="120"/>
-      <c r="C45" s="120"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="120"/>
-      <c r="G45" s="120"/>
-      <c r="H45" s="120"/>
-      <c r="I45" s="120"/>
-      <c r="J45" s="120"/>
-      <c r="K45" s="120"/>
-      <c r="L45" s="120"/>
-      <c r="M45" s="120"/>
-      <c r="N45" s="120"/>
-      <c r="O45" s="120"/>
-      <c r="P45" s="120"/>
-      <c r="Q45" s="120"/>
-      <c r="R45" s="120"/>
-      <c r="S45" s="120"/>
-      <c r="T45" s="120"/>
-      <c r="U45" s="120"/>
-      <c r="V45" s="120"/>
-      <c r="W45" s="120"/>
-      <c r="X45" s="120"/>
-      <c r="Y45" s="120"/>
-      <c r="Z45" s="120"/>
-      <c r="AA45" s="120"/>
-      <c r="AB45" s="121"/>
+      <c r="A45" s="125"/>
+      <c r="B45" s="126"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="126"/>
+      <c r="E45" s="126"/>
+      <c r="F45" s="126"/>
+      <c r="G45" s="126"/>
+      <c r="H45" s="126"/>
+      <c r="I45" s="126"/>
+      <c r="J45" s="126"/>
+      <c r="K45" s="126"/>
+      <c r="L45" s="126"/>
+      <c r="M45" s="126"/>
+      <c r="N45" s="126"/>
+      <c r="O45" s="126"/>
+      <c r="P45" s="126"/>
+      <c r="Q45" s="126"/>
+      <c r="R45" s="126"/>
+      <c r="S45" s="126"/>
+      <c r="T45" s="126"/>
+      <c r="U45" s="126"/>
+      <c r="V45" s="126"/>
+      <c r="W45" s="126"/>
+      <c r="X45" s="126"/>
+      <c r="Y45" s="126"/>
+      <c r="Z45" s="126"/>
+      <c r="AA45" s="126"/>
+      <c r="AB45" s="127"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
@@ -6792,34 +6936,34 @@
       <c r="AI45" s="1"/>
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1">
-      <c r="A46" s="119"/>
-      <c r="B46" s="120"/>
-      <c r="C46" s="120"/>
-      <c r="D46" s="120"/>
-      <c r="E46" s="120"/>
-      <c r="F46" s="120"/>
-      <c r="G46" s="120"/>
-      <c r="H46" s="120"/>
-      <c r="I46" s="120"/>
-      <c r="J46" s="120"/>
-      <c r="K46" s="120"/>
-      <c r="L46" s="120"/>
-      <c r="M46" s="120"/>
-      <c r="N46" s="120"/>
-      <c r="O46" s="120"/>
-      <c r="P46" s="120"/>
-      <c r="Q46" s="120"/>
-      <c r="R46" s="120"/>
-      <c r="S46" s="120"/>
-      <c r="T46" s="120"/>
-      <c r="U46" s="120"/>
-      <c r="V46" s="120"/>
-      <c r="W46" s="120"/>
-      <c r="X46" s="120"/>
-      <c r="Y46" s="120"/>
-      <c r="Z46" s="120"/>
-      <c r="AA46" s="120"/>
-      <c r="AB46" s="121"/>
+      <c r="A46" s="125"/>
+      <c r="B46" s="126"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="126"/>
+      <c r="H46" s="126"/>
+      <c r="I46" s="126"/>
+      <c r="J46" s="126"/>
+      <c r="K46" s="126"/>
+      <c r="L46" s="126"/>
+      <c r="M46" s="126"/>
+      <c r="N46" s="126"/>
+      <c r="O46" s="126"/>
+      <c r="P46" s="126"/>
+      <c r="Q46" s="126"/>
+      <c r="R46" s="126"/>
+      <c r="S46" s="126"/>
+      <c r="T46" s="126"/>
+      <c r="U46" s="126"/>
+      <c r="V46" s="126"/>
+      <c r="W46" s="126"/>
+      <c r="X46" s="126"/>
+      <c r="Y46" s="126"/>
+      <c r="Z46" s="126"/>
+      <c r="AA46" s="126"/>
+      <c r="AB46" s="127"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -6829,34 +6973,34 @@
       <c r="AI46" s="1"/>
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1">
-      <c r="A47" s="119"/>
-      <c r="B47" s="120"/>
-      <c r="C47" s="120"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="120"/>
-      <c r="J47" s="120"/>
-      <c r="K47" s="120"/>
-      <c r="L47" s="120"/>
-      <c r="M47" s="120"/>
-      <c r="N47" s="120"/>
-      <c r="O47" s="120"/>
-      <c r="P47" s="120"/>
-      <c r="Q47" s="120"/>
-      <c r="R47" s="120"/>
-      <c r="S47" s="120"/>
-      <c r="T47" s="120"/>
-      <c r="U47" s="120"/>
-      <c r="V47" s="120"/>
-      <c r="W47" s="120"/>
-      <c r="X47" s="120"/>
-      <c r="Y47" s="120"/>
-      <c r="Z47" s="120"/>
-      <c r="AA47" s="120"/>
-      <c r="AB47" s="121"/>
+      <c r="A47" s="125"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="126"/>
+      <c r="E47" s="126"/>
+      <c r="F47" s="126"/>
+      <c r="G47" s="126"/>
+      <c r="H47" s="126"/>
+      <c r="I47" s="126"/>
+      <c r="J47" s="126"/>
+      <c r="K47" s="126"/>
+      <c r="L47" s="126"/>
+      <c r="M47" s="126"/>
+      <c r="N47" s="126"/>
+      <c r="O47" s="126"/>
+      <c r="P47" s="126"/>
+      <c r="Q47" s="126"/>
+      <c r="R47" s="126"/>
+      <c r="S47" s="126"/>
+      <c r="T47" s="126"/>
+      <c r="U47" s="126"/>
+      <c r="V47" s="126"/>
+      <c r="W47" s="126"/>
+      <c r="X47" s="126"/>
+      <c r="Y47" s="126"/>
+      <c r="Z47" s="126"/>
+      <c r="AA47" s="126"/>
+      <c r="AB47" s="127"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
@@ -6866,34 +7010,34 @@
       <c r="AI47" s="1"/>
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1">
-      <c r="A48" s="119"/>
-      <c r="B48" s="120"/>
-      <c r="C48" s="120"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="120"/>
-      <c r="F48" s="120"/>
-      <c r="G48" s="120"/>
-      <c r="H48" s="120"/>
-      <c r="I48" s="120"/>
-      <c r="J48" s="120"/>
-      <c r="K48" s="120"/>
-      <c r="L48" s="120"/>
-      <c r="M48" s="120"/>
-      <c r="N48" s="120"/>
-      <c r="O48" s="120"/>
-      <c r="P48" s="120"/>
-      <c r="Q48" s="120"/>
-      <c r="R48" s="120"/>
-      <c r="S48" s="120"/>
-      <c r="T48" s="120"/>
-      <c r="U48" s="120"/>
-      <c r="V48" s="120"/>
-      <c r="W48" s="120"/>
-      <c r="X48" s="120"/>
-      <c r="Y48" s="120"/>
-      <c r="Z48" s="120"/>
-      <c r="AA48" s="120"/>
-      <c r="AB48" s="121"/>
+      <c r="A48" s="125"/>
+      <c r="B48" s="126"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="126"/>
+      <c r="F48" s="126"/>
+      <c r="G48" s="126"/>
+      <c r="H48" s="126"/>
+      <c r="I48" s="126"/>
+      <c r="J48" s="126"/>
+      <c r="K48" s="126"/>
+      <c r="L48" s="126"/>
+      <c r="M48" s="126"/>
+      <c r="N48" s="126"/>
+      <c r="O48" s="126"/>
+      <c r="P48" s="126"/>
+      <c r="Q48" s="126"/>
+      <c r="R48" s="126"/>
+      <c r="S48" s="126"/>
+      <c r="T48" s="126"/>
+      <c r="U48" s="126"/>
+      <c r="V48" s="126"/>
+      <c r="W48" s="126"/>
+      <c r="X48" s="126"/>
+      <c r="Y48" s="126"/>
+      <c r="Z48" s="126"/>
+      <c r="AA48" s="126"/>
+      <c r="AB48" s="127"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
@@ -6903,34 +7047,34 @@
       <c r="AI48" s="1"/>
     </row>
     <row r="49" spans="1:35" ht="12" customHeight="1">
-      <c r="A49" s="119"/>
-      <c r="B49" s="120"/>
-      <c r="C49" s="120"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="120"/>
-      <c r="F49" s="120"/>
-      <c r="G49" s="120"/>
-      <c r="H49" s="120"/>
-      <c r="I49" s="120"/>
-      <c r="J49" s="120"/>
-      <c r="K49" s="120"/>
-      <c r="L49" s="120"/>
-      <c r="M49" s="120"/>
-      <c r="N49" s="120"/>
-      <c r="O49" s="120"/>
-      <c r="P49" s="120"/>
-      <c r="Q49" s="120"/>
-      <c r="R49" s="120"/>
-      <c r="S49" s="120"/>
-      <c r="T49" s="120"/>
-      <c r="U49" s="120"/>
-      <c r="V49" s="120"/>
-      <c r="W49" s="120"/>
-      <c r="X49" s="120"/>
-      <c r="Y49" s="120"/>
-      <c r="Z49" s="120"/>
-      <c r="AA49" s="120"/>
-      <c r="AB49" s="121"/>
+      <c r="A49" s="125"/>
+      <c r="B49" s="126"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="126"/>
+      <c r="E49" s="126"/>
+      <c r="F49" s="126"/>
+      <c r="G49" s="126"/>
+      <c r="H49" s="126"/>
+      <c r="I49" s="126"/>
+      <c r="J49" s="126"/>
+      <c r="K49" s="126"/>
+      <c r="L49" s="126"/>
+      <c r="M49" s="126"/>
+      <c r="N49" s="126"/>
+      <c r="O49" s="126"/>
+      <c r="P49" s="126"/>
+      <c r="Q49" s="126"/>
+      <c r="R49" s="126"/>
+      <c r="S49" s="126"/>
+      <c r="T49" s="126"/>
+      <c r="U49" s="126"/>
+      <c r="V49" s="126"/>
+      <c r="W49" s="126"/>
+      <c r="X49" s="126"/>
+      <c r="Y49" s="126"/>
+      <c r="Z49" s="126"/>
+      <c r="AA49" s="126"/>
+      <c r="AB49" s="127"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
@@ -6940,34 +7084,34 @@
       <c r="AI49" s="1"/>
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1">
-      <c r="A50" s="119"/>
-      <c r="B50" s="120"/>
-      <c r="C50" s="120"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="120"/>
-      <c r="F50" s="120"/>
-      <c r="G50" s="120"/>
-      <c r="H50" s="120"/>
-      <c r="I50" s="120"/>
-      <c r="J50" s="120"/>
-      <c r="K50" s="120"/>
-      <c r="L50" s="120"/>
-      <c r="M50" s="120"/>
-      <c r="N50" s="120"/>
-      <c r="O50" s="120"/>
-      <c r="P50" s="120"/>
-      <c r="Q50" s="120"/>
-      <c r="R50" s="120"/>
-      <c r="S50" s="120"/>
-      <c r="T50" s="120"/>
-      <c r="U50" s="120"/>
-      <c r="V50" s="120"/>
-      <c r="W50" s="120"/>
-      <c r="X50" s="120"/>
-      <c r="Y50" s="120"/>
-      <c r="Z50" s="120"/>
-      <c r="AA50" s="120"/>
-      <c r="AB50" s="121"/>
+      <c r="A50" s="125"/>
+      <c r="B50" s="126"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="126"/>
+      <c r="E50" s="126"/>
+      <c r="F50" s="126"/>
+      <c r="G50" s="126"/>
+      <c r="H50" s="126"/>
+      <c r="I50" s="126"/>
+      <c r="J50" s="126"/>
+      <c r="K50" s="126"/>
+      <c r="L50" s="126"/>
+      <c r="M50" s="126"/>
+      <c r="N50" s="126"/>
+      <c r="O50" s="126"/>
+      <c r="P50" s="126"/>
+      <c r="Q50" s="126"/>
+      <c r="R50" s="126"/>
+      <c r="S50" s="126"/>
+      <c r="T50" s="126"/>
+      <c r="U50" s="126"/>
+      <c r="V50" s="126"/>
+      <c r="W50" s="126"/>
+      <c r="X50" s="126"/>
+      <c r="Y50" s="126"/>
+      <c r="Z50" s="126"/>
+      <c r="AA50" s="126"/>
+      <c r="AB50" s="127"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
@@ -6977,34 +7121,34 @@
       <c r="AI50" s="1"/>
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1">
-      <c r="A51" s="119"/>
-      <c r="B51" s="120"/>
-      <c r="C51" s="120"/>
-      <c r="D51" s="120"/>
-      <c r="E51" s="120"/>
-      <c r="F51" s="120"/>
-      <c r="G51" s="120"/>
-      <c r="H51" s="120"/>
-      <c r="I51" s="120"/>
-      <c r="J51" s="120"/>
-      <c r="K51" s="120"/>
-      <c r="L51" s="120"/>
-      <c r="M51" s="120"/>
-      <c r="N51" s="120"/>
-      <c r="O51" s="120"/>
-      <c r="P51" s="120"/>
-      <c r="Q51" s="120"/>
-      <c r="R51" s="120"/>
-      <c r="S51" s="120"/>
-      <c r="T51" s="120"/>
-      <c r="U51" s="120"/>
-      <c r="V51" s="120"/>
-      <c r="W51" s="120"/>
-      <c r="X51" s="120"/>
-      <c r="Y51" s="120"/>
-      <c r="Z51" s="120"/>
-      <c r="AA51" s="120"/>
-      <c r="AB51" s="121"/>
+      <c r="A51" s="125"/>
+      <c r="B51" s="126"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="126"/>
+      <c r="F51" s="126"/>
+      <c r="G51" s="126"/>
+      <c r="H51" s="126"/>
+      <c r="I51" s="126"/>
+      <c r="J51" s="126"/>
+      <c r="K51" s="126"/>
+      <c r="L51" s="126"/>
+      <c r="M51" s="126"/>
+      <c r="N51" s="126"/>
+      <c r="O51" s="126"/>
+      <c r="P51" s="126"/>
+      <c r="Q51" s="126"/>
+      <c r="R51" s="126"/>
+      <c r="S51" s="126"/>
+      <c r="T51" s="126"/>
+      <c r="U51" s="126"/>
+      <c r="V51" s="126"/>
+      <c r="W51" s="126"/>
+      <c r="X51" s="126"/>
+      <c r="Y51" s="126"/>
+      <c r="Z51" s="126"/>
+      <c r="AA51" s="126"/>
+      <c r="AB51" s="127"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
@@ -7014,34 +7158,34 @@
       <c r="AI51" s="1"/>
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1">
-      <c r="A52" s="119"/>
-      <c r="B52" s="120"/>
-      <c r="C52" s="120"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="120"/>
-      <c r="F52" s="120"/>
-      <c r="G52" s="120"/>
-      <c r="H52" s="120"/>
-      <c r="I52" s="120"/>
-      <c r="J52" s="120"/>
-      <c r="K52" s="120"/>
-      <c r="L52" s="120"/>
-      <c r="M52" s="120"/>
-      <c r="N52" s="120"/>
-      <c r="O52" s="120"/>
-      <c r="P52" s="120"/>
-      <c r="Q52" s="120"/>
-      <c r="R52" s="120"/>
-      <c r="S52" s="120"/>
-      <c r="T52" s="120"/>
-      <c r="U52" s="120"/>
-      <c r="V52" s="120"/>
-      <c r="W52" s="120"/>
-      <c r="X52" s="120"/>
-      <c r="Y52" s="120"/>
-      <c r="Z52" s="120"/>
-      <c r="AA52" s="120"/>
-      <c r="AB52" s="121"/>
+      <c r="A52" s="125"/>
+      <c r="B52" s="126"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="126"/>
+      <c r="F52" s="126"/>
+      <c r="G52" s="126"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="126"/>
+      <c r="J52" s="126"/>
+      <c r="K52" s="126"/>
+      <c r="L52" s="126"/>
+      <c r="M52" s="126"/>
+      <c r="N52" s="126"/>
+      <c r="O52" s="126"/>
+      <c r="P52" s="126"/>
+      <c r="Q52" s="126"/>
+      <c r="R52" s="126"/>
+      <c r="S52" s="126"/>
+      <c r="T52" s="126"/>
+      <c r="U52" s="126"/>
+      <c r="V52" s="126"/>
+      <c r="W52" s="126"/>
+      <c r="X52" s="126"/>
+      <c r="Y52" s="126"/>
+      <c r="Z52" s="126"/>
+      <c r="AA52" s="126"/>
+      <c r="AB52" s="127"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
@@ -7051,34 +7195,34 @@
       <c r="AI52" s="1"/>
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1">
-      <c r="A53" s="119"/>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="120"/>
-      <c r="J53" s="120"/>
-      <c r="K53" s="120"/>
-      <c r="L53" s="120"/>
-      <c r="M53" s="120"/>
-      <c r="N53" s="120"/>
-      <c r="O53" s="120"/>
-      <c r="P53" s="120"/>
-      <c r="Q53" s="120"/>
-      <c r="R53" s="120"/>
-      <c r="S53" s="120"/>
-      <c r="T53" s="120"/>
-      <c r="U53" s="120"/>
-      <c r="V53" s="120"/>
-      <c r="W53" s="120"/>
-      <c r="X53" s="120"/>
-      <c r="Y53" s="120"/>
-      <c r="Z53" s="120"/>
-      <c r="AA53" s="120"/>
-      <c r="AB53" s="121"/>
+      <c r="A53" s="125"/>
+      <c r="B53" s="126"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="126"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="126"/>
+      <c r="G53" s="126"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="126"/>
+      <c r="J53" s="126"/>
+      <c r="K53" s="126"/>
+      <c r="L53" s="126"/>
+      <c r="M53" s="126"/>
+      <c r="N53" s="126"/>
+      <c r="O53" s="126"/>
+      <c r="P53" s="126"/>
+      <c r="Q53" s="126"/>
+      <c r="R53" s="126"/>
+      <c r="S53" s="126"/>
+      <c r="T53" s="126"/>
+      <c r="U53" s="126"/>
+      <c r="V53" s="126"/>
+      <c r="W53" s="126"/>
+      <c r="X53" s="126"/>
+      <c r="Y53" s="126"/>
+      <c r="Z53" s="126"/>
+      <c r="AA53" s="126"/>
+      <c r="AB53" s="127"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
@@ -7088,34 +7232,34 @@
       <c r="AI53" s="1"/>
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1">
-      <c r="A54" s="119"/>
-      <c r="B54" s="120"/>
-      <c r="C54" s="120"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="120"/>
-      <c r="F54" s="120"/>
-      <c r="G54" s="120"/>
-      <c r="H54" s="120"/>
-      <c r="I54" s="120"/>
-      <c r="J54" s="120"/>
-      <c r="K54" s="120"/>
-      <c r="L54" s="120"/>
-      <c r="M54" s="120"/>
-      <c r="N54" s="120"/>
-      <c r="O54" s="120"/>
-      <c r="P54" s="120"/>
-      <c r="Q54" s="120"/>
-      <c r="R54" s="120"/>
-      <c r="S54" s="120"/>
-      <c r="T54" s="120"/>
-      <c r="U54" s="120"/>
-      <c r="V54" s="120"/>
-      <c r="W54" s="120"/>
-      <c r="X54" s="120"/>
-      <c r="Y54" s="120"/>
-      <c r="Z54" s="120"/>
-      <c r="AA54" s="120"/>
-      <c r="AB54" s="121"/>
+      <c r="A54" s="125"/>
+      <c r="B54" s="126"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="126"/>
+      <c r="E54" s="126"/>
+      <c r="F54" s="126"/>
+      <c r="G54" s="126"/>
+      <c r="H54" s="126"/>
+      <c r="I54" s="126"/>
+      <c r="J54" s="126"/>
+      <c r="K54" s="126"/>
+      <c r="L54" s="126"/>
+      <c r="M54" s="126"/>
+      <c r="N54" s="126"/>
+      <c r="O54" s="126"/>
+      <c r="P54" s="126"/>
+      <c r="Q54" s="126"/>
+      <c r="R54" s="126"/>
+      <c r="S54" s="126"/>
+      <c r="T54" s="126"/>
+      <c r="U54" s="126"/>
+      <c r="V54" s="126"/>
+      <c r="W54" s="126"/>
+      <c r="X54" s="126"/>
+      <c r="Y54" s="126"/>
+      <c r="Z54" s="126"/>
+      <c r="AA54" s="126"/>
+      <c r="AB54" s="127"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
@@ -7125,34 +7269,34 @@
       <c r="AI54" s="1"/>
     </row>
     <row r="55" spans="1:35" ht="12" customHeight="1">
-      <c r="A55" s="119"/>
-      <c r="B55" s="120"/>
-      <c r="C55" s="120"/>
-      <c r="D55" s="120"/>
-      <c r="E55" s="120"/>
-      <c r="F55" s="120"/>
-      <c r="G55" s="120"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="120"/>
-      <c r="J55" s="120"/>
-      <c r="K55" s="120"/>
-      <c r="L55" s="120"/>
-      <c r="M55" s="120"/>
-      <c r="N55" s="120"/>
-      <c r="O55" s="120"/>
-      <c r="P55" s="120"/>
-      <c r="Q55" s="120"/>
-      <c r="R55" s="120"/>
-      <c r="S55" s="120"/>
-      <c r="T55" s="120"/>
-      <c r="U55" s="120"/>
-      <c r="V55" s="120"/>
-      <c r="W55" s="120"/>
-      <c r="X55" s="120"/>
-      <c r="Y55" s="120"/>
-      <c r="Z55" s="120"/>
-      <c r="AA55" s="120"/>
-      <c r="AB55" s="121"/>
+      <c r="A55" s="125"/>
+      <c r="B55" s="126"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="126"/>
+      <c r="F55" s="126"/>
+      <c r="G55" s="126"/>
+      <c r="H55" s="126"/>
+      <c r="I55" s="126"/>
+      <c r="J55" s="126"/>
+      <c r="K55" s="126"/>
+      <c r="L55" s="126"/>
+      <c r="M55" s="126"/>
+      <c r="N55" s="126"/>
+      <c r="O55" s="126"/>
+      <c r="P55" s="126"/>
+      <c r="Q55" s="126"/>
+      <c r="R55" s="126"/>
+      <c r="S55" s="126"/>
+      <c r="T55" s="126"/>
+      <c r="U55" s="126"/>
+      <c r="V55" s="126"/>
+      <c r="W55" s="126"/>
+      <c r="X55" s="126"/>
+      <c r="Y55" s="126"/>
+      <c r="Z55" s="126"/>
+      <c r="AA55" s="126"/>
+      <c r="AB55" s="127"/>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
@@ -7162,34 +7306,34 @@
       <c r="AI55" s="1"/>
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1">
-      <c r="A56" s="119"/>
-      <c r="B56" s="120"/>
-      <c r="C56" s="120"/>
-      <c r="D56" s="120"/>
-      <c r="E56" s="120"/>
-      <c r="F56" s="120"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
-      <c r="J56" s="120"/>
-      <c r="K56" s="120"/>
-      <c r="L56" s="120"/>
-      <c r="M56" s="120"/>
-      <c r="N56" s="120"/>
-      <c r="O56" s="120"/>
-      <c r="P56" s="120"/>
-      <c r="Q56" s="120"/>
-      <c r="R56" s="120"/>
-      <c r="S56" s="120"/>
-      <c r="T56" s="120"/>
-      <c r="U56" s="120"/>
-      <c r="V56" s="120"/>
-      <c r="W56" s="120"/>
-      <c r="X56" s="120"/>
-      <c r="Y56" s="120"/>
-      <c r="Z56" s="120"/>
-      <c r="AA56" s="120"/>
-      <c r="AB56" s="121"/>
+      <c r="A56" s="125"/>
+      <c r="B56" s="126"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="126"/>
+      <c r="H56" s="126"/>
+      <c r="I56" s="126"/>
+      <c r="J56" s="126"/>
+      <c r="K56" s="126"/>
+      <c r="L56" s="126"/>
+      <c r="M56" s="126"/>
+      <c r="N56" s="126"/>
+      <c r="O56" s="126"/>
+      <c r="P56" s="126"/>
+      <c r="Q56" s="126"/>
+      <c r="R56" s="126"/>
+      <c r="S56" s="126"/>
+      <c r="T56" s="126"/>
+      <c r="U56" s="126"/>
+      <c r="V56" s="126"/>
+      <c r="W56" s="126"/>
+      <c r="X56" s="126"/>
+      <c r="Y56" s="126"/>
+      <c r="Z56" s="126"/>
+      <c r="AA56" s="126"/>
+      <c r="AB56" s="127"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
@@ -7199,34 +7343,34 @@
       <c r="AI56" s="1"/>
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1">
-      <c r="A57" s="119"/>
-      <c r="B57" s="120"/>
-      <c r="C57" s="120"/>
-      <c r="D57" s="120"/>
-      <c r="E57" s="120"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="120"/>
-      <c r="H57" s="120"/>
-      <c r="I57" s="120"/>
-      <c r="J57" s="120"/>
-      <c r="K57" s="120"/>
-      <c r="L57" s="120"/>
-      <c r="M57" s="120"/>
-      <c r="N57" s="120"/>
-      <c r="O57" s="120"/>
-      <c r="P57" s="120"/>
-      <c r="Q57" s="120"/>
-      <c r="R57" s="120"/>
-      <c r="S57" s="120"/>
-      <c r="T57" s="120"/>
-      <c r="U57" s="120"/>
-      <c r="V57" s="120"/>
-      <c r="W57" s="120"/>
-      <c r="X57" s="120"/>
-      <c r="Y57" s="120"/>
-      <c r="Z57" s="120"/>
-      <c r="AA57" s="120"/>
-      <c r="AB57" s="121"/>
+      <c r="A57" s="125"/>
+      <c r="B57" s="126"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="126"/>
+      <c r="E57" s="126"/>
+      <c r="F57" s="126"/>
+      <c r="G57" s="126"/>
+      <c r="H57" s="126"/>
+      <c r="I57" s="126"/>
+      <c r="J57" s="126"/>
+      <c r="K57" s="126"/>
+      <c r="L57" s="126"/>
+      <c r="M57" s="126"/>
+      <c r="N57" s="126"/>
+      <c r="O57" s="126"/>
+      <c r="P57" s="126"/>
+      <c r="Q57" s="126"/>
+      <c r="R57" s="126"/>
+      <c r="S57" s="126"/>
+      <c r="T57" s="126"/>
+      <c r="U57" s="126"/>
+      <c r="V57" s="126"/>
+      <c r="W57" s="126"/>
+      <c r="X57" s="126"/>
+      <c r="Y57" s="126"/>
+      <c r="Z57" s="126"/>
+      <c r="AA57" s="126"/>
+      <c r="AB57" s="127"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
@@ -7236,34 +7380,34 @@
       <c r="AI57" s="1"/>
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1">
-      <c r="A58" s="119"/>
-      <c r="B58" s="120"/>
-      <c r="C58" s="120"/>
-      <c r="D58" s="120"/>
-      <c r="E58" s="120"/>
-      <c r="F58" s="120"/>
-      <c r="G58" s="120"/>
-      <c r="H58" s="120"/>
-      <c r="I58" s="120"/>
-      <c r="J58" s="120"/>
-      <c r="K58" s="120"/>
-      <c r="L58" s="120"/>
-      <c r="M58" s="120"/>
-      <c r="N58" s="120"/>
-      <c r="O58" s="120"/>
-      <c r="P58" s="120"/>
-      <c r="Q58" s="120"/>
-      <c r="R58" s="120"/>
-      <c r="S58" s="120"/>
-      <c r="T58" s="120"/>
-      <c r="U58" s="120"/>
-      <c r="V58" s="120"/>
-      <c r="W58" s="120"/>
-      <c r="X58" s="120"/>
-      <c r="Y58" s="120"/>
-      <c r="Z58" s="120"/>
-      <c r="AA58" s="120"/>
-      <c r="AB58" s="121"/>
+      <c r="A58" s="125"/>
+      <c r="B58" s="126"/>
+      <c r="C58" s="126"/>
+      <c r="D58" s="126"/>
+      <c r="E58" s="126"/>
+      <c r="F58" s="126"/>
+      <c r="G58" s="126"/>
+      <c r="H58" s="126"/>
+      <c r="I58" s="126"/>
+      <c r="J58" s="126"/>
+      <c r="K58" s="126"/>
+      <c r="L58" s="126"/>
+      <c r="M58" s="126"/>
+      <c r="N58" s="126"/>
+      <c r="O58" s="126"/>
+      <c r="P58" s="126"/>
+      <c r="Q58" s="126"/>
+      <c r="R58" s="126"/>
+      <c r="S58" s="126"/>
+      <c r="T58" s="126"/>
+      <c r="U58" s="126"/>
+      <c r="V58" s="126"/>
+      <c r="W58" s="126"/>
+      <c r="X58" s="126"/>
+      <c r="Y58" s="126"/>
+      <c r="Z58" s="126"/>
+      <c r="AA58" s="126"/>
+      <c r="AB58" s="127"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
@@ -7273,34 +7417,34 @@
       <c r="AI58" s="1"/>
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1">
-      <c r="A59" s="119"/>
-      <c r="B59" s="120"/>
-      <c r="C59" s="120"/>
-      <c r="D59" s="120"/>
-      <c r="E59" s="120"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="120"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="120"/>
-      <c r="J59" s="120"/>
-      <c r="K59" s="120"/>
-      <c r="L59" s="120"/>
-      <c r="M59" s="120"/>
-      <c r="N59" s="120"/>
-      <c r="O59" s="120"/>
-      <c r="P59" s="120"/>
-      <c r="Q59" s="120"/>
-      <c r="R59" s="120"/>
-      <c r="S59" s="120"/>
-      <c r="T59" s="120"/>
-      <c r="U59" s="120"/>
-      <c r="V59" s="120"/>
-      <c r="W59" s="120"/>
-      <c r="X59" s="120"/>
-      <c r="Y59" s="120"/>
-      <c r="Z59" s="120"/>
-      <c r="AA59" s="120"/>
-      <c r="AB59" s="121"/>
+      <c r="A59" s="125"/>
+      <c r="B59" s="126"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="126"/>
+      <c r="F59" s="126"/>
+      <c r="G59" s="126"/>
+      <c r="H59" s="126"/>
+      <c r="I59" s="126"/>
+      <c r="J59" s="126"/>
+      <c r="K59" s="126"/>
+      <c r="L59" s="126"/>
+      <c r="M59" s="126"/>
+      <c r="N59" s="126"/>
+      <c r="O59" s="126"/>
+      <c r="P59" s="126"/>
+      <c r="Q59" s="126"/>
+      <c r="R59" s="126"/>
+      <c r="S59" s="126"/>
+      <c r="T59" s="126"/>
+      <c r="U59" s="126"/>
+      <c r="V59" s="126"/>
+      <c r="W59" s="126"/>
+      <c r="X59" s="126"/>
+      <c r="Y59" s="126"/>
+      <c r="Z59" s="126"/>
+      <c r="AA59" s="126"/>
+      <c r="AB59" s="127"/>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
@@ -7310,34 +7454,34 @@
       <c r="AI59" s="1"/>
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1">
-      <c r="A60" s="122"/>
-      <c r="B60" s="123"/>
-      <c r="C60" s="123"/>
-      <c r="D60" s="123"/>
-      <c r="E60" s="123"/>
-      <c r="F60" s="123"/>
-      <c r="G60" s="123"/>
-      <c r="H60" s="123"/>
-      <c r="I60" s="123"/>
-      <c r="J60" s="123"/>
-      <c r="K60" s="123"/>
-      <c r="L60" s="123"/>
-      <c r="M60" s="123"/>
-      <c r="N60" s="123"/>
-      <c r="O60" s="123"/>
-      <c r="P60" s="123"/>
-      <c r="Q60" s="123"/>
-      <c r="R60" s="123"/>
-      <c r="S60" s="123"/>
-      <c r="T60" s="123"/>
-      <c r="U60" s="123"/>
-      <c r="V60" s="123"/>
-      <c r="W60" s="123"/>
-      <c r="X60" s="123"/>
-      <c r="Y60" s="123"/>
-      <c r="Z60" s="123"/>
-      <c r="AA60" s="123"/>
-      <c r="AB60" s="124"/>
+      <c r="A60" s="128"/>
+      <c r="B60" s="129"/>
+      <c r="C60" s="129"/>
+      <c r="D60" s="129"/>
+      <c r="E60" s="129"/>
+      <c r="F60" s="129"/>
+      <c r="G60" s="129"/>
+      <c r="H60" s="129"/>
+      <c r="I60" s="129"/>
+      <c r="J60" s="129"/>
+      <c r="K60" s="129"/>
+      <c r="L60" s="129"/>
+      <c r="M60" s="129"/>
+      <c r="N60" s="129"/>
+      <c r="O60" s="129"/>
+      <c r="P60" s="129"/>
+      <c r="Q60" s="129"/>
+      <c r="R60" s="129"/>
+      <c r="S60" s="129"/>
+      <c r="T60" s="129"/>
+      <c r="U60" s="129"/>
+      <c r="V60" s="129"/>
+      <c r="W60" s="129"/>
+      <c r="X60" s="129"/>
+      <c r="Y60" s="129"/>
+      <c r="Z60" s="129"/>
+      <c r="AA60" s="129"/>
+      <c r="AB60" s="130"/>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
@@ -7385,39 +7529,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="A17:AB38"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="F8:T8"/>
-    <mergeCell ref="F7:T7"/>
-    <mergeCell ref="A41:AB60"/>
-    <mergeCell ref="K40:S40"/>
-    <mergeCell ref="K16:S16"/>
-    <mergeCell ref="A10:B14"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="F6:AB6"/>
     <mergeCell ref="A1:AB3"/>
     <mergeCell ref="F5:T5"/>
     <mergeCell ref="A4:E4"/>
@@ -7434,6 +7545,39 @@
     <mergeCell ref="Y12:AB12"/>
     <mergeCell ref="Y13:AB13"/>
     <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="F6:AB6"/>
+    <mergeCell ref="A41:AB60"/>
+    <mergeCell ref="K40:S40"/>
+    <mergeCell ref="K16:S16"/>
+    <mergeCell ref="A10:B14"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="A17:AB38"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="F8:T8"/>
+    <mergeCell ref="F7:T7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="http://www.fattocs.com.br/download/GuiaPlanilhaIFPUG.pdf"/>
@@ -7450,7 +7594,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -7473,23 +7617,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
@@ -7497,21 +7641,21 @@
       <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="146"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
+      <c r="A2" s="156"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
@@ -7519,21 +7663,21 @@
       <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="A3" s="146"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
+      <c r="A3" s="156"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -7541,89 +7685,89 @@
       <c r="T3" s="9"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="158" t="str">
+      <c r="A4" s="148" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : Siscei</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="147" t="str">
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="149" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v>Projeto : Siscei</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="127"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="119"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
-      <c r="A5" s="150" t="str">
+      <c r="A5" s="159" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v>Responsável : Felipe Nami</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="147" t="str">
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="149" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
-      <c r="S5" s="126"/>
-      <c r="T5" s="127"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="119"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="150" t="str">
+      <c r="A6" s="159" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v xml:space="preserve">Empresa : </v>
       </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="147" t="str">
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="149" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 0</v>
       </c>
-      <c r="G6" s="127"/>
-      <c r="H6" s="157" t="str">
+      <c r="G6" s="119"/>
+      <c r="H6" s="147" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 0,00</v>
       </c>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="155" t="str">
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="145" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
         <v>PF  = 421</v>
       </c>
-      <c r="O6" s="156"/>
+      <c r="O6" s="146"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -7631,14 +7775,14 @@
       <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="127"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="119"/>
       <c r="G7" s="12" t="s">
         <v>27</v>
       </c>
@@ -7666,23 +7810,23 @@
       <c r="O7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="159" t="s">
+      <c r="P7" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="160"/>
-      <c r="R7" s="160"/>
-      <c r="S7" s="160"/>
-      <c r="T7" s="160"/>
+      <c r="Q7" s="151"/>
+      <c r="R7" s="151"/>
+      <c r="S7" s="151"/>
+      <c r="T7" s="151"/>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1">
-      <c r="A8" s="151" t="s">
+      <c r="A8" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="152"/>
-      <c r="C8" s="152"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="153"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="162"/>
       <c r="G8" s="65"/>
       <c r="H8" s="66"/>
       <c r="I8" s="65"/>
@@ -7707,21 +7851,21 @@
         <f>IF(H8="I",N8*Contagem!$U$11,IF(H8="E",N8*Contagem!$U$13,IF(H8="A",N8*Contagem!$U$12,IF(H8="T",N8*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P8" s="161"/>
-      <c r="Q8" s="162"/>
-      <c r="R8" s="162"/>
-      <c r="S8" s="162"/>
-      <c r="T8" s="162"/>
+      <c r="P8" s="152"/>
+      <c r="Q8" s="153"/>
+      <c r="R8" s="153"/>
+      <c r="S8" s="153"/>
+      <c r="T8" s="153"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1">
-      <c r="A9" s="142" t="s">
+      <c r="A9" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="143"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="143"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="144"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="142"/>
       <c r="G9" s="16" t="s">
         <v>35</v>
       </c>
@@ -7754,24 +7898,24 @@
         <f>IF(H9="I",N9*Contagem!$U$11,IF(H9="E",N9*Contagem!$U$13,IF(H9="A",N9*Contagem!$U$12,IF(H9="T",N9*Contagem!$U$14,""))))</f>
         <v>15</v>
       </c>
-      <c r="P9" s="163">
-        <f>SUM(O9:O15,O49:O64,O77:O84)</f>
-        <v>139</v>
-      </c>
-      <c r="Q9" s="141"/>
-      <c r="R9" s="141"/>
-      <c r="S9" s="141"/>
-      <c r="T9" s="141"/>
+      <c r="P9" s="154">
+        <f>SUM(O9:O15,O49:O64,O77:O84)+O23+O31</f>
+        <v>153</v>
+      </c>
+      <c r="Q9" s="144"/>
+      <c r="R9" s="144"/>
+      <c r="S9" s="144"/>
+      <c r="T9" s="144"/>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="143"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="144"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="142"/>
       <c r="G10" s="16" t="s">
         <v>37</v>
       </c>
@@ -7804,21 +7948,21 @@
         <f>IF(H10="I",N10*Contagem!$U$11,IF(H10="E",N10*Contagem!$U$13,IF(H10="A",N10*Contagem!$U$12,IF(H10="T",N10*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P10" s="140"/>
-      <c r="Q10" s="141"/>
-      <c r="R10" s="141"/>
-      <c r="S10" s="141"/>
-      <c r="T10" s="141"/>
+      <c r="P10" s="143"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="144"/>
+      <c r="S10" s="144"/>
+      <c r="T10" s="144"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1">
-      <c r="A11" s="142" t="s">
+      <c r="A11" s="140" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="143"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="144"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="142"/>
       <c r="G11" s="16" t="s">
         <v>37</v>
       </c>
@@ -7851,21 +7995,21 @@
         <f>IF(H11="I",N11*Contagem!$U$11,IF(H11="E",N11*Contagem!$U$13,IF(H11="A",N11*Contagem!$U$12,IF(H11="T",N11*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P11" s="140"/>
-      <c r="Q11" s="141"/>
-      <c r="R11" s="141"/>
-      <c r="S11" s="141"/>
-      <c r="T11" s="141"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="144"/>
+      <c r="R11" s="144"/>
+      <c r="S11" s="144"/>
+      <c r="T11" s="144"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1">
-      <c r="A12" s="142" t="s">
+      <c r="A12" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="143"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="144"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="142"/>
       <c r="G12" s="16" t="s">
         <v>38</v>
       </c>
@@ -7898,21 +8042,21 @@
         <f>IF(H12="I",N12*Contagem!$U$11,IF(H12="E",N12*Contagem!$U$13,IF(H12="A",N12*Contagem!$U$12,IF(H12="T",N12*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P12" s="140"/>
-      <c r="Q12" s="141"/>
-      <c r="R12" s="141"/>
-      <c r="S12" s="141"/>
-      <c r="T12" s="141"/>
+      <c r="P12" s="143"/>
+      <c r="Q12" s="144"/>
+      <c r="R12" s="144"/>
+      <c r="S12" s="144"/>
+      <c r="T12" s="144"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1">
-      <c r="A13" s="142" t="s">
+      <c r="A13" s="140" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="144"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="142"/>
       <c r="G13" s="16" t="s">
         <v>38</v>
       </c>
@@ -7945,11 +8089,11 @@
         <f>IF(H13="I",N13*Contagem!$U$11,IF(H13="E",N13*Contagem!$U$13,IF(H13="A",N13*Contagem!$U$12,IF(H13="T",N13*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P13" s="140"/>
-      <c r="Q13" s="141"/>
-      <c r="R13" s="141"/>
-      <c r="S13" s="141"/>
-      <c r="T13" s="141"/>
+      <c r="P13" s="143"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="144"/>
+      <c r="S13" s="144"/>
+      <c r="T13" s="144"/>
     </row>
     <row r="14" spans="1:20" s="79" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="80" t="s">
@@ -8070,14 +8214,14 @@
       <c r="T16" s="72"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="142" t="s">
+      <c r="A17" s="140" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="148"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="149"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="158"/>
       <c r="G17" s="17" t="s">
         <v>35</v>
       </c>
@@ -8110,21 +8254,21 @@
         <f>IF(H17="I",N17*Contagem!$U$11,IF(H17="E",N17*Contagem!$U$13,IF(H17="A",N17*Contagem!$U$12,IF(H17="T",N17*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P17" s="140"/>
-      <c r="Q17" s="141"/>
-      <c r="R17" s="141"/>
-      <c r="S17" s="141"/>
-      <c r="T17" s="141"/>
+      <c r="P17" s="143"/>
+      <c r="Q17" s="144"/>
+      <c r="R17" s="144"/>
+      <c r="S17" s="144"/>
+      <c r="T17" s="144"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="142" t="s">
+      <c r="A18" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="143"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="144"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="142"/>
       <c r="G18" s="17" t="s">
         <v>37</v>
       </c>
@@ -8157,21 +8301,21 @@
         <f>IF(H18="I",N18*Contagem!$U$11,IF(H18="E",N18*Contagem!$U$13,IF(H18="A",N18*Contagem!$U$12,IF(H18="T",N18*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P18" s="140"/>
-      <c r="Q18" s="141"/>
-      <c r="R18" s="141"/>
-      <c r="S18" s="141"/>
-      <c r="T18" s="141"/>
+      <c r="P18" s="143"/>
+      <c r="Q18" s="144"/>
+      <c r="R18" s="144"/>
+      <c r="S18" s="144"/>
+      <c r="T18" s="144"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="142" t="s">
+      <c r="A19" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="143"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="144"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="142"/>
       <c r="G19" s="17" t="s">
         <v>37</v>
       </c>
@@ -8204,21 +8348,21 @@
         <f>IF(H19="I",N19*Contagem!$U$11,IF(H19="E",N19*Contagem!$U$13,IF(H19="A",N19*Contagem!$U$12,IF(H19="T",N19*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P19" s="140"/>
-      <c r="Q19" s="141"/>
-      <c r="R19" s="141"/>
-      <c r="S19" s="141"/>
-      <c r="T19" s="141"/>
+      <c r="P19" s="143"/>
+      <c r="Q19" s="144"/>
+      <c r="R19" s="144"/>
+      <c r="S19" s="144"/>
+      <c r="T19" s="144"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="142" t="s">
+      <c r="A20" s="140" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="144"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="142"/>
       <c r="G20" s="17" t="s">
         <v>51</v>
       </c>
@@ -8251,21 +8395,21 @@
         <f>IF(H20="I",N20*Contagem!$U$11,IF(H20="E",N20*Contagem!$U$13,IF(H20="A",N20*Contagem!$U$12,IF(H20="T",N20*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P20" s="140"/>
-      <c r="Q20" s="141"/>
-      <c r="R20" s="141"/>
-      <c r="S20" s="141"/>
-      <c r="T20" s="141"/>
+      <c r="P20" s="143"/>
+      <c r="Q20" s="144"/>
+      <c r="R20" s="144"/>
+      <c r="S20" s="144"/>
+      <c r="T20" s="144"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="142" t="s">
+      <c r="A21" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="143"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="144"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="142"/>
       <c r="G21" s="17" t="s">
         <v>38</v>
       </c>
@@ -8298,21 +8442,21 @@
         <f>IF(H21="I",N21*Contagem!$U$11,IF(H21="E",N21*Contagem!$U$13,IF(H21="A",N21*Contagem!$U$12,IF(H21="T",N21*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P21" s="140"/>
-      <c r="Q21" s="141"/>
-      <c r="R21" s="141"/>
-      <c r="S21" s="141"/>
-      <c r="T21" s="141"/>
+      <c r="P21" s="143"/>
+      <c r="Q21" s="144"/>
+      <c r="R21" s="144"/>
+      <c r="S21" s="144"/>
+      <c r="T21" s="144"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="142" t="s">
+      <c r="A22" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="143"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="144"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="142"/>
       <c r="G22" s="17" t="s">
         <v>38</v>
       </c>
@@ -8345,11 +8489,11 @@
         <f>IF(H22="I",N22*Contagem!$U$11,IF(H22="E",N22*Contagem!$U$13,IF(H22="A",N22*Contagem!$U$12,IF(H22="T",N22*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P22" s="140"/>
-      <c r="Q22" s="141"/>
-      <c r="R22" s="141"/>
-      <c r="S22" s="141"/>
-      <c r="T22" s="141"/>
+      <c r="P22" s="143"/>
+      <c r="Q22" s="144"/>
+      <c r="R22" s="144"/>
+      <c r="S22" s="144"/>
+      <c r="T22" s="144"/>
     </row>
     <row r="23" spans="1:20" s="79" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="80" t="s">
@@ -8392,11 +8536,11 @@
         <f>IF(H23="I",N23*Contagem!$U$11,IF(H23="E",N23*Contagem!$U$13,IF(H23="A",N23*Contagem!$U$12,IF(H23="T",N23*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P23" s="140"/>
-      <c r="Q23" s="141"/>
-      <c r="R23" s="141"/>
-      <c r="S23" s="141"/>
-      <c r="T23" s="141"/>
+      <c r="P23" s="143"/>
+      <c r="Q23" s="144"/>
+      <c r="R23" s="144"/>
+      <c r="S23" s="144"/>
+      <c r="T23" s="144"/>
     </row>
     <row r="24" spans="1:20" s="73" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="74" t="s">
@@ -8423,14 +8567,14 @@
       <c r="T24" s="78"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="142" t="s">
+      <c r="A25" s="140" t="s">
         <v>142</v>
       </c>
-      <c r="B25" s="143"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="144"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="142"/>
       <c r="G25" s="17" t="s">
         <v>35</v>
       </c>
@@ -8463,21 +8607,21 @@
         <f>IF(H25="I",N25*Contagem!$U$11,IF(H25="E",N25*Contagem!$U$13,IF(H25="A",N25*Contagem!$U$12,IF(H25="T",N25*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P25" s="140"/>
-      <c r="Q25" s="141"/>
-      <c r="R25" s="141"/>
-      <c r="S25" s="141"/>
-      <c r="T25" s="141"/>
+      <c r="P25" s="143"/>
+      <c r="Q25" s="144"/>
+      <c r="R25" s="144"/>
+      <c r="S25" s="144"/>
+      <c r="T25" s="144"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="142" t="s">
+      <c r="A26" s="140" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="143"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="144"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="142"/>
       <c r="G26" s="17" t="s">
         <v>37</v>
       </c>
@@ -8510,21 +8654,21 @@
         <f>IF(H26="I",N26*Contagem!$U$11,IF(H26="E",N26*Contagem!$U$13,IF(H26="A",N26*Contagem!$U$12,IF(H26="T",N26*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P26" s="140"/>
-      <c r="Q26" s="141"/>
-      <c r="R26" s="141"/>
-      <c r="S26" s="141"/>
-      <c r="T26" s="141"/>
+      <c r="P26" s="143"/>
+      <c r="Q26" s="144"/>
+      <c r="R26" s="144"/>
+      <c r="S26" s="144"/>
+      <c r="T26" s="144"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1">
-      <c r="A27" s="142" t="s">
+      <c r="A27" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="143"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="144"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="142"/>
       <c r="G27" s="17" t="s">
         <v>37</v>
       </c>
@@ -8557,21 +8701,21 @@
         <f>IF(H27="I",N27*Contagem!$U$11,IF(H27="E",N27*Contagem!$U$13,IF(H27="A",N27*Contagem!$U$12,IF(H27="T",N27*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P27" s="140"/>
-      <c r="Q27" s="141"/>
-      <c r="R27" s="141"/>
-      <c r="S27" s="141"/>
-      <c r="T27" s="141"/>
+      <c r="P27" s="143"/>
+      <c r="Q27" s="144"/>
+      <c r="R27" s="144"/>
+      <c r="S27" s="144"/>
+      <c r="T27" s="144"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1">
-      <c r="A28" s="142" t="s">
+      <c r="A28" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="143"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="144"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="17" t="s">
         <v>51</v>
       </c>
@@ -8604,21 +8748,21 @@
         <f>IF(H28="I",N28*Contagem!$U$11,IF(H28="E",N28*Contagem!$U$13,IF(H28="A",N28*Contagem!$U$12,IF(H28="T",N28*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P28" s="140"/>
-      <c r="Q28" s="141"/>
-      <c r="R28" s="141"/>
-      <c r="S28" s="141"/>
-      <c r="T28" s="141"/>
+      <c r="P28" s="143"/>
+      <c r="Q28" s="144"/>
+      <c r="R28" s="144"/>
+      <c r="S28" s="144"/>
+      <c r="T28" s="144"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="A29" s="142" t="s">
+      <c r="A29" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="143"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="143"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="144"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="142"/>
       <c r="G29" s="17" t="s">
         <v>38</v>
       </c>
@@ -8651,21 +8795,21 @@
         <f>IF(H29="I",N29*Contagem!$U$11,IF(H29="E",N29*Contagem!$U$13,IF(H29="A",N29*Contagem!$U$12,IF(H29="T",N29*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P29" s="140"/>
-      <c r="Q29" s="141"/>
-      <c r="R29" s="141"/>
-      <c r="S29" s="141"/>
-      <c r="T29" s="141"/>
+      <c r="P29" s="143"/>
+      <c r="Q29" s="144"/>
+      <c r="R29" s="144"/>
+      <c r="S29" s="144"/>
+      <c r="T29" s="144"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
-      <c r="A30" s="142" t="s">
+      <c r="A30" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="143"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="144"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="142"/>
       <c r="G30" s="17" t="s">
         <v>38</v>
       </c>
@@ -8698,11 +8842,11 @@
         <f>IF(H30="I",N30*Contagem!$U$11,IF(H30="E",N30*Contagem!$U$13,IF(H30="A",N30*Contagem!$U$12,IF(H30="T",N30*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P30" s="140"/>
-      <c r="Q30" s="141"/>
-      <c r="R30" s="141"/>
-      <c r="S30" s="141"/>
-      <c r="T30" s="141"/>
+      <c r="P30" s="143"/>
+      <c r="Q30" s="144"/>
+      <c r="R30" s="144"/>
+      <c r="S30" s="144"/>
+      <c r="T30" s="144"/>
     </row>
     <row r="31" spans="1:20" s="79" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="80" t="s">
@@ -8745,11 +8889,11 @@
         <f>IF(H31="I",N31*Contagem!$U$11,IF(H31="E",N31*Contagem!$U$13,IF(H31="A",N31*Contagem!$U$12,IF(H31="T",N31*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P31" s="140"/>
-      <c r="Q31" s="141"/>
-      <c r="R31" s="141"/>
-      <c r="S31" s="141"/>
-      <c r="T31" s="141"/>
+      <c r="P31" s="143"/>
+      <c r="Q31" s="144"/>
+      <c r="R31" s="144"/>
+      <c r="S31" s="144"/>
+      <c r="T31" s="144"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="94" t="s">
@@ -8776,14 +8920,14 @@
       <c r="T32" s="93"/>
     </row>
     <row r="33" spans="1:20" s="79" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="142" t="s">
+      <c r="A33" s="140" t="s">
         <v>141</v>
       </c>
-      <c r="B33" s="143"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="143"/>
-      <c r="E33" s="143"/>
-      <c r="F33" s="144"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="142"/>
       <c r="G33" s="17" t="s">
         <v>89</v>
       </c>
@@ -8816,21 +8960,21 @@
         <f>IF(H33="I",N33*Contagem!$U$11,IF(H33="E",N33*Contagem!$U$13,IF(H33="A",N33*Contagem!$U$12,IF(H33="T",N33*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P33" s="140"/>
-      <c r="Q33" s="141"/>
-      <c r="R33" s="141"/>
-      <c r="S33" s="141"/>
-      <c r="T33" s="141"/>
+      <c r="P33" s="143"/>
+      <c r="Q33" s="144"/>
+      <c r="R33" s="144"/>
+      <c r="S33" s="144"/>
+      <c r="T33" s="144"/>
     </row>
     <row r="34" spans="1:20" ht="18" customHeight="1">
-      <c r="A34" s="142" t="s">
+      <c r="A34" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="143"/>
-      <c r="C34" s="143"/>
-      <c r="D34" s="143"/>
-      <c r="E34" s="143"/>
-      <c r="F34" s="144"/>
+      <c r="B34" s="141"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="142"/>
       <c r="G34" s="17" t="s">
         <v>37</v>
       </c>
@@ -8863,21 +9007,21 @@
         <f>IF(H34="I",N34*Contagem!$U$11,IF(H34="E",N34*Contagem!$U$13,IF(H34="A",N34*Contagem!$U$12,IF(H34="T",N34*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P34" s="140"/>
-      <c r="Q34" s="141"/>
-      <c r="R34" s="141"/>
-      <c r="S34" s="141"/>
-      <c r="T34" s="141"/>
+      <c r="P34" s="143"/>
+      <c r="Q34" s="144"/>
+      <c r="R34" s="144"/>
+      <c r="S34" s="144"/>
+      <c r="T34" s="144"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
-      <c r="A35" s="142" t="s">
+      <c r="A35" s="140" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="143"/>
-      <c r="C35" s="143"/>
-      <c r="D35" s="143"/>
-      <c r="E35" s="143"/>
-      <c r="F35" s="144"/>
+      <c r="B35" s="141"/>
+      <c r="C35" s="141"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="142"/>
       <c r="G35" s="17" t="s">
         <v>37</v>
       </c>
@@ -8910,21 +9054,21 @@
         <f>IF(H35="I",N35*Contagem!$U$11,IF(H35="E",N35*Contagem!$U$13,IF(H35="A",N35*Contagem!$U$12,IF(H35="T",N35*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P35" s="140"/>
-      <c r="Q35" s="141"/>
-      <c r="R35" s="141"/>
-      <c r="S35" s="141"/>
-      <c r="T35" s="141"/>
+      <c r="P35" s="143"/>
+      <c r="Q35" s="144"/>
+      <c r="R35" s="144"/>
+      <c r="S35" s="144"/>
+      <c r="T35" s="144"/>
     </row>
     <row r="36" spans="1:20" ht="18" customHeight="1">
-      <c r="A36" s="142" t="s">
+      <c r="A36" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="143"/>
-      <c r="C36" s="143"/>
-      <c r="D36" s="143"/>
-      <c r="E36" s="143"/>
-      <c r="F36" s="144"/>
+      <c r="B36" s="141"/>
+      <c r="C36" s="141"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="142"/>
       <c r="G36" s="17" t="s">
         <v>38</v>
       </c>
@@ -8957,21 +9101,21 @@
         <f>IF(H36="I",N36*Contagem!$U$11,IF(H36="E",N36*Contagem!$U$13,IF(H36="A",N36*Contagem!$U$12,IF(H36="T",N36*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P36" s="140"/>
-      <c r="Q36" s="141"/>
-      <c r="R36" s="141"/>
-      <c r="S36" s="141"/>
-      <c r="T36" s="141"/>
+      <c r="P36" s="143"/>
+      <c r="Q36" s="144"/>
+      <c r="R36" s="144"/>
+      <c r="S36" s="144"/>
+      <c r="T36" s="144"/>
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1">
-      <c r="A37" s="142" t="s">
+      <c r="A37" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="143"/>
-      <c r="C37" s="143"/>
-      <c r="D37" s="143"/>
-      <c r="E37" s="143"/>
-      <c r="F37" s="144"/>
+      <c r="B37" s="141"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="141"/>
+      <c r="E37" s="141"/>
+      <c r="F37" s="142"/>
       <c r="G37" s="17" t="s">
         <v>51</v>
       </c>
@@ -9004,21 +9148,21 @@
         <f>IF(H37="I",N37*Contagem!$U$11,IF(H37="E",N37*Contagem!$U$13,IF(H37="A",N37*Contagem!$U$12,IF(H37="T",N37*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P37" s="140"/>
-      <c r="Q37" s="141"/>
-      <c r="R37" s="141"/>
-      <c r="S37" s="141"/>
-      <c r="T37" s="141"/>
+      <c r="P37" s="143"/>
+      <c r="Q37" s="144"/>
+      <c r="R37" s="144"/>
+      <c r="S37" s="144"/>
+      <c r="T37" s="144"/>
     </row>
     <row r="38" spans="1:20" ht="18" customHeight="1">
-      <c r="A38" s="142" t="s">
+      <c r="A38" s="140" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="143"/>
-      <c r="C38" s="143"/>
-      <c r="D38" s="143"/>
-      <c r="E38" s="143"/>
-      <c r="F38" s="144"/>
+      <c r="B38" s="141"/>
+      <c r="C38" s="141"/>
+      <c r="D38" s="141"/>
+      <c r="E38" s="141"/>
+      <c r="F38" s="142"/>
       <c r="G38" s="17" t="s">
         <v>38</v>
       </c>
@@ -9051,21 +9195,21 @@
         <f>IF(H38="I",N38*Contagem!$U$11,IF(H38="E",N38*Contagem!$U$13,IF(H38="A",N38*Contagem!$U$12,IF(H38="T",N38*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P38" s="140"/>
-      <c r="Q38" s="141"/>
-      <c r="R38" s="141"/>
-      <c r="S38" s="141"/>
-      <c r="T38" s="141"/>
+      <c r="P38" s="143"/>
+      <c r="Q38" s="144"/>
+      <c r="R38" s="144"/>
+      <c r="S38" s="144"/>
+      <c r="T38" s="144"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
-      <c r="A39" s="142" t="s">
+      <c r="A39" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="143"/>
-      <c r="C39" s="143"/>
-      <c r="D39" s="143"/>
-      <c r="E39" s="143"/>
-      <c r="F39" s="144"/>
+      <c r="B39" s="141"/>
+      <c r="C39" s="141"/>
+      <c r="D39" s="141"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="142"/>
       <c r="G39" s="17" t="s">
         <v>51</v>
       </c>
@@ -9098,11 +9242,11 @@
         <f>IF(H39="I",N39*Contagem!$U$11,IF(H39="E",N39*Contagem!$U$13,IF(H39="A",N39*Contagem!$U$12,IF(H39="T",N39*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P39" s="140"/>
-      <c r="Q39" s="141"/>
-      <c r="R39" s="141"/>
-      <c r="S39" s="141"/>
-      <c r="T39" s="141"/>
+      <c r="P39" s="143"/>
+      <c r="Q39" s="144"/>
+      <c r="R39" s="144"/>
+      <c r="S39" s="144"/>
+      <c r="T39" s="144"/>
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1">
       <c r="A40" s="94" t="s">
@@ -9144,14 +9288,14 @@
       <c r="T40" s="93"/>
     </row>
     <row r="41" spans="1:20" ht="18" customHeight="1">
-      <c r="A41" s="142" t="s">
+      <c r="A41" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="143"/>
-      <c r="C41" s="143"/>
-      <c r="D41" s="143"/>
-      <c r="E41" s="143"/>
-      <c r="F41" s="144"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="141"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="142"/>
       <c r="G41" s="17" t="s">
         <v>37</v>
       </c>
@@ -9184,21 +9328,21 @@
         <f>IF(H41="I",N41*Contagem!$U$11,IF(H41="E",N41*Contagem!$U$13,IF(H41="A",N41*Contagem!$U$12,IF(H41="T",N41*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P41" s="140"/>
-      <c r="Q41" s="141"/>
-      <c r="R41" s="141"/>
-      <c r="S41" s="141"/>
-      <c r="T41" s="141"/>
+      <c r="P41" s="143"/>
+      <c r="Q41" s="144"/>
+      <c r="R41" s="144"/>
+      <c r="S41" s="144"/>
+      <c r="T41" s="144"/>
     </row>
     <row r="42" spans="1:20" ht="18" customHeight="1">
-      <c r="A42" s="142" t="s">
+      <c r="A42" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="143"/>
-      <c r="C42" s="143"/>
-      <c r="D42" s="143"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="144"/>
+      <c r="B42" s="141"/>
+      <c r="C42" s="141"/>
+      <c r="D42" s="141"/>
+      <c r="E42" s="141"/>
+      <c r="F42" s="142"/>
       <c r="G42" s="17" t="s">
         <v>37</v>
       </c>
@@ -9231,21 +9375,21 @@
         <f>IF(H42="I",N42*Contagem!$U$11,IF(H42="E",N42*Contagem!$U$13,IF(H42="A",N42*Contagem!$U$12,IF(H42="T",N42*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P42" s="140"/>
-      <c r="Q42" s="141"/>
-      <c r="R42" s="141"/>
-      <c r="S42" s="141"/>
-      <c r="T42" s="141"/>
+      <c r="P42" s="143"/>
+      <c r="Q42" s="144"/>
+      <c r="R42" s="144"/>
+      <c r="S42" s="144"/>
+      <c r="T42" s="144"/>
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1">
-      <c r="A43" s="142" t="s">
+      <c r="A43" s="140" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="143"/>
-      <c r="C43" s="143"/>
-      <c r="D43" s="143"/>
-      <c r="E43" s="143"/>
-      <c r="F43" s="144"/>
+      <c r="B43" s="141"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="141"/>
+      <c r="E43" s="141"/>
+      <c r="F43" s="142"/>
       <c r="G43" s="17" t="s">
         <v>51</v>
       </c>
@@ -9278,21 +9422,21 @@
         <f>IF(H43="I",N43*Contagem!$U$11,IF(H43="E",N43*Contagem!$U$13,IF(H43="A",N43*Contagem!$U$12,IF(H43="T",N43*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P43" s="140"/>
-      <c r="Q43" s="141"/>
-      <c r="R43" s="141"/>
-      <c r="S43" s="141"/>
-      <c r="T43" s="141"/>
+      <c r="P43" s="143"/>
+      <c r="Q43" s="144"/>
+      <c r="R43" s="144"/>
+      <c r="S43" s="144"/>
+      <c r="T43" s="144"/>
     </row>
     <row r="44" spans="1:20" ht="18" customHeight="1">
-      <c r="A44" s="142" t="s">
+      <c r="A44" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="143"/>
-      <c r="C44" s="143"/>
-      <c r="D44" s="143"/>
-      <c r="E44" s="143"/>
-      <c r="F44" s="144"/>
+      <c r="B44" s="141"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="141"/>
+      <c r="E44" s="141"/>
+      <c r="F44" s="142"/>
       <c r="G44" s="17" t="s">
         <v>38</v>
       </c>
@@ -9325,21 +9469,21 @@
         <f>IF(H44="I",N44*Contagem!$U$11,IF(H44="E",N44*Contagem!$U$13,IF(H44="A",N44*Contagem!$U$12,IF(H44="T",N44*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P44" s="140"/>
-      <c r="Q44" s="141"/>
-      <c r="R44" s="141"/>
-      <c r="S44" s="141"/>
-      <c r="T44" s="141"/>
+      <c r="P44" s="143"/>
+      <c r="Q44" s="144"/>
+      <c r="R44" s="144"/>
+      <c r="S44" s="144"/>
+      <c r="T44" s="144"/>
     </row>
     <row r="45" spans="1:20" ht="18" customHeight="1">
-      <c r="A45" s="142" t="s">
+      <c r="A45" s="140" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="143"/>
-      <c r="C45" s="143"/>
-      <c r="D45" s="143"/>
-      <c r="E45" s="143"/>
-      <c r="F45" s="144"/>
+      <c r="B45" s="141"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="142"/>
       <c r="G45" s="17" t="s">
         <v>38</v>
       </c>
@@ -9372,21 +9516,21 @@
         <f>IF(H45="I",N45*Contagem!$U$11,IF(H45="E",N45*Contagem!$U$13,IF(H45="A",N45*Contagem!$U$12,IF(H45="T",N45*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P45" s="140"/>
-      <c r="Q45" s="141"/>
-      <c r="R45" s="141"/>
-      <c r="S45" s="141"/>
-      <c r="T45" s="141"/>
+      <c r="P45" s="143"/>
+      <c r="Q45" s="144"/>
+      <c r="R45" s="144"/>
+      <c r="S45" s="144"/>
+      <c r="T45" s="144"/>
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
-      <c r="A46" s="142" t="s">
+      <c r="A46" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="143"/>
-      <c r="C46" s="143"/>
-      <c r="D46" s="143"/>
-      <c r="E46" s="143"/>
-      <c r="F46" s="144"/>
+      <c r="B46" s="141"/>
+      <c r="C46" s="141"/>
+      <c r="D46" s="141"/>
+      <c r="E46" s="141"/>
+      <c r="F46" s="142"/>
       <c r="G46" s="17" t="s">
         <v>51</v>
       </c>
@@ -9419,21 +9563,21 @@
         <f>IF(H46="I",N46*Contagem!$U$11,IF(H46="E",N46*Contagem!$U$13,IF(H46="A",N46*Contagem!$U$12,IF(H46="T",N46*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P46" s="140"/>
-      <c r="Q46" s="141"/>
-      <c r="R46" s="141"/>
-      <c r="S46" s="141"/>
-      <c r="T46" s="141"/>
+      <c r="P46" s="143"/>
+      <c r="Q46" s="144"/>
+      <c r="R46" s="144"/>
+      <c r="S46" s="144"/>
+      <c r="T46" s="144"/>
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1">
-      <c r="A47" s="142" t="s">
+      <c r="A47" s="140" t="s">
         <v>140</v>
       </c>
-      <c r="B47" s="143"/>
-      <c r="C47" s="143"/>
-      <c r="D47" s="143"/>
-      <c r="E47" s="143"/>
-      <c r="F47" s="144"/>
+      <c r="B47" s="141"/>
+      <c r="C47" s="141"/>
+      <c r="D47" s="141"/>
+      <c r="E47" s="141"/>
+      <c r="F47" s="142"/>
       <c r="G47" s="17" t="s">
         <v>35</v>
       </c>
@@ -9466,11 +9610,11 @@
         <f>IF(H47="I",N47*Contagem!$U$11,IF(H47="E",N47*Contagem!$U$13,IF(H47="A",N47*Contagem!$U$12,IF(H47="T",N47*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P47" s="140"/>
-      <c r="Q47" s="141"/>
-      <c r="R47" s="141"/>
-      <c r="S47" s="141"/>
-      <c r="T47" s="141"/>
+      <c r="P47" s="143"/>
+      <c r="Q47" s="144"/>
+      <c r="R47" s="144"/>
+      <c r="S47" s="144"/>
+      <c r="T47" s="144"/>
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1">
       <c r="A48" s="85" t="s">
@@ -9512,14 +9656,14 @@
       <c r="T48" s="93"/>
     </row>
     <row r="49" spans="1:20" ht="18" customHeight="1">
-      <c r="A49" s="142" t="s">
+      <c r="A49" s="140" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="143"/>
-      <c r="C49" s="143"/>
-      <c r="D49" s="143"/>
-      <c r="E49" s="143"/>
-      <c r="F49" s="144"/>
+      <c r="B49" s="141"/>
+      <c r="C49" s="141"/>
+      <c r="D49" s="141"/>
+      <c r="E49" s="141"/>
+      <c r="F49" s="142"/>
       <c r="G49" s="17" t="s">
         <v>37</v>
       </c>
@@ -9552,21 +9696,21 @@
         <f>IF(H49="I",N49*Contagem!$U$11,IF(H49="E",N49*Contagem!$U$13,IF(H49="A",N49*Contagem!$U$12,IF(H49="T",N49*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P49" s="140"/>
-      <c r="Q49" s="141"/>
-      <c r="R49" s="141"/>
-      <c r="S49" s="141"/>
-      <c r="T49" s="141"/>
+      <c r="P49" s="143"/>
+      <c r="Q49" s="144"/>
+      <c r="R49" s="144"/>
+      <c r="S49" s="144"/>
+      <c r="T49" s="144"/>
     </row>
     <row r="50" spans="1:20" ht="18" customHeight="1">
-      <c r="A50" s="142" t="s">
+      <c r="A50" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="143"/>
-      <c r="C50" s="143"/>
-      <c r="D50" s="143"/>
-      <c r="E50" s="143"/>
-      <c r="F50" s="144"/>
+      <c r="B50" s="141"/>
+      <c r="C50" s="141"/>
+      <c r="D50" s="141"/>
+      <c r="E50" s="141"/>
+      <c r="F50" s="142"/>
       <c r="G50" s="17" t="s">
         <v>37</v>
       </c>
@@ -9599,21 +9743,21 @@
         <f>IF(H50="I",N50*Contagem!$U$11,IF(H50="E",N50*Contagem!$U$13,IF(H50="A",N50*Contagem!$U$12,IF(H50="T",N50*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P50" s="140"/>
-      <c r="Q50" s="141"/>
-      <c r="R50" s="141"/>
-      <c r="S50" s="141"/>
-      <c r="T50" s="141"/>
+      <c r="P50" s="143"/>
+      <c r="Q50" s="144"/>
+      <c r="R50" s="144"/>
+      <c r="S50" s="144"/>
+      <c r="T50" s="144"/>
     </row>
     <row r="51" spans="1:20" ht="18" customHeight="1">
-      <c r="A51" s="142" t="s">
+      <c r="A51" s="140" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="143"/>
-      <c r="C51" s="143"/>
-      <c r="D51" s="143"/>
-      <c r="E51" s="143"/>
-      <c r="F51" s="144"/>
+      <c r="B51" s="141"/>
+      <c r="C51" s="141"/>
+      <c r="D51" s="141"/>
+      <c r="E51" s="141"/>
+      <c r="F51" s="142"/>
       <c r="G51" s="17" t="s">
         <v>38</v>
       </c>
@@ -9646,21 +9790,21 @@
         <f>IF(H51="I",N51*Contagem!$U$11,IF(H51="E",N51*Contagem!$U$13,IF(H51="A",N51*Contagem!$U$12,IF(H51="T",N51*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P51" s="140"/>
-      <c r="Q51" s="141"/>
-      <c r="R51" s="141"/>
-      <c r="S51" s="141"/>
-      <c r="T51" s="141"/>
+      <c r="P51" s="143"/>
+      <c r="Q51" s="144"/>
+      <c r="R51" s="144"/>
+      <c r="S51" s="144"/>
+      <c r="T51" s="144"/>
     </row>
     <row r="52" spans="1:20" ht="18" customHeight="1">
-      <c r="A52" s="142" t="s">
+      <c r="A52" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="143"/>
-      <c r="C52" s="143"/>
-      <c r="D52" s="143"/>
-      <c r="E52" s="143"/>
-      <c r="F52" s="144"/>
+      <c r="B52" s="141"/>
+      <c r="C52" s="141"/>
+      <c r="D52" s="141"/>
+      <c r="E52" s="141"/>
+      <c r="F52" s="142"/>
       <c r="G52" s="17" t="s">
         <v>37</v>
       </c>
@@ -9693,11 +9837,11 @@
         <f>IF(H52="I",N52*Contagem!$U$11,IF(H52="E",N52*Contagem!$U$13,IF(H52="A",N52*Contagem!$U$12,IF(H52="T",N52*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P52" s="140"/>
-      <c r="Q52" s="141"/>
-      <c r="R52" s="141"/>
-      <c r="S52" s="141"/>
-      <c r="T52" s="141"/>
+      <c r="P52" s="143"/>
+      <c r="Q52" s="144"/>
+      <c r="R52" s="144"/>
+      <c r="S52" s="144"/>
+      <c r="T52" s="144"/>
     </row>
     <row r="53" spans="1:20" s="86" customFormat="1" ht="18" customHeight="1">
       <c r="A53" s="87" t="s">
@@ -9794,14 +9938,14 @@
       <c r="T54" s="115"/>
     </row>
     <row r="55" spans="1:20" ht="18" customHeight="1">
-      <c r="A55" s="142" t="s">
+      <c r="A55" s="140" t="s">
         <v>139</v>
       </c>
-      <c r="B55" s="143"/>
-      <c r="C55" s="143"/>
-      <c r="D55" s="143"/>
-      <c r="E55" s="143"/>
-      <c r="F55" s="144"/>
+      <c r="B55" s="141"/>
+      <c r="C55" s="141"/>
+      <c r="D55" s="141"/>
+      <c r="E55" s="141"/>
+      <c r="F55" s="142"/>
       <c r="G55" s="17" t="s">
         <v>35</v>
       </c>
@@ -9834,11 +9978,11 @@
         <f>IF(H55="I",N55*Contagem!$U$11,IF(H55="E",N55*Contagem!$U$13,IF(H55="A",N55*Contagem!$U$12,IF(H55="T",N55*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P55" s="140"/>
-      <c r="Q55" s="141"/>
-      <c r="R55" s="141"/>
-      <c r="S55" s="141"/>
-      <c r="T55" s="141"/>
+      <c r="P55" s="143"/>
+      <c r="Q55" s="144"/>
+      <c r="R55" s="144"/>
+      <c r="S55" s="144"/>
+      <c r="T55" s="144"/>
     </row>
     <row r="56" spans="1:20" ht="18" customHeight="1">
       <c r="A56" s="94" t="s">
@@ -9880,14 +10024,14 @@
       <c r="T56" s="93"/>
     </row>
     <row r="57" spans="1:20" ht="18" customHeight="1">
-      <c r="A57" s="142" t="s">
+      <c r="A57" s="140" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="143"/>
-      <c r="C57" s="143"/>
-      <c r="D57" s="143"/>
-      <c r="E57" s="143"/>
-      <c r="F57" s="144"/>
+      <c r="B57" s="141"/>
+      <c r="C57" s="141"/>
+      <c r="D57" s="141"/>
+      <c r="E57" s="141"/>
+      <c r="F57" s="142"/>
       <c r="G57" s="97" t="s">
         <v>37</v>
       </c>
@@ -9920,21 +10064,21 @@
         <f>IF(H57="I",N57*Contagem!$U$11,IF(H57="E",N57*Contagem!$U$13,IF(H57="A",N57*Contagem!$U$12,IF(H57="T",N57*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P57" s="140"/>
-      <c r="Q57" s="141"/>
-      <c r="R57" s="141"/>
-      <c r="S57" s="141"/>
-      <c r="T57" s="141"/>
+      <c r="P57" s="143"/>
+      <c r="Q57" s="144"/>
+      <c r="R57" s="144"/>
+      <c r="S57" s="144"/>
+      <c r="T57" s="144"/>
     </row>
     <row r="58" spans="1:20" ht="18" customHeight="1">
-      <c r="A58" s="142" t="s">
+      <c r="A58" s="140" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="143"/>
-      <c r="C58" s="143"/>
-      <c r="D58" s="143"/>
-      <c r="E58" s="143"/>
-      <c r="F58" s="144"/>
+      <c r="B58" s="141"/>
+      <c r="C58" s="141"/>
+      <c r="D58" s="141"/>
+      <c r="E58" s="141"/>
+      <c r="F58" s="142"/>
       <c r="G58" s="98" t="s">
         <v>37</v>
       </c>
@@ -9967,21 +10111,21 @@
         <f>IF(H58="I",N58*Contagem!$U$11,IF(H58="E",N58*Contagem!$U$13,IF(H58="A",N58*Contagem!$U$12,IF(H58="T",N58*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P58" s="140"/>
-      <c r="Q58" s="141"/>
-      <c r="R58" s="141"/>
-      <c r="S58" s="141"/>
-      <c r="T58" s="141"/>
+      <c r="P58" s="143"/>
+      <c r="Q58" s="144"/>
+      <c r="R58" s="144"/>
+      <c r="S58" s="144"/>
+      <c r="T58" s="144"/>
     </row>
     <row r="59" spans="1:20" ht="18" customHeight="1">
-      <c r="A59" s="142" t="s">
+      <c r="A59" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="B59" s="143"/>
-      <c r="C59" s="143"/>
-      <c r="D59" s="143"/>
-      <c r="E59" s="143"/>
-      <c r="F59" s="144"/>
+      <c r="B59" s="141"/>
+      <c r="C59" s="141"/>
+      <c r="D59" s="141"/>
+      <c r="E59" s="141"/>
+      <c r="F59" s="142"/>
       <c r="G59" s="98" t="s">
         <v>37</v>
       </c>
@@ -10014,21 +10158,21 @@
         <f>IF(H59="I",N59*Contagem!$U$11,IF(H59="E",N59*Contagem!$U$13,IF(H59="A",N59*Contagem!$U$12,IF(H59="T",N59*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P59" s="140"/>
-      <c r="Q59" s="141"/>
-      <c r="R59" s="141"/>
-      <c r="S59" s="141"/>
-      <c r="T59" s="141"/>
+      <c r="P59" s="143"/>
+      <c r="Q59" s="144"/>
+      <c r="R59" s="144"/>
+      <c r="S59" s="144"/>
+      <c r="T59" s="144"/>
     </row>
     <row r="60" spans="1:20" ht="18" customHeight="1">
-      <c r="A60" s="142" t="s">
+      <c r="A60" s="140" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="143"/>
-      <c r="C60" s="143"/>
-      <c r="D60" s="143"/>
-      <c r="E60" s="143"/>
-      <c r="F60" s="144"/>
+      <c r="B60" s="141"/>
+      <c r="C60" s="141"/>
+      <c r="D60" s="141"/>
+      <c r="E60" s="141"/>
+      <c r="F60" s="142"/>
       <c r="G60" s="98" t="s">
         <v>38</v>
       </c>
@@ -10061,21 +10205,21 @@
         <f>IF(H60="I",N60*Contagem!$U$11,IF(H60="E",N60*Contagem!$U$13,IF(H60="A",N60*Contagem!$U$12,IF(H60="T",N60*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P60" s="140"/>
-      <c r="Q60" s="141"/>
-      <c r="R60" s="141"/>
-      <c r="S60" s="141"/>
-      <c r="T60" s="141"/>
+      <c r="P60" s="143"/>
+      <c r="Q60" s="144"/>
+      <c r="R60" s="144"/>
+      <c r="S60" s="144"/>
+      <c r="T60" s="144"/>
     </row>
     <row r="61" spans="1:20" ht="18" customHeight="1">
-      <c r="A61" s="142" t="s">
+      <c r="A61" s="140" t="s">
         <v>111</v>
       </c>
-      <c r="B61" s="143"/>
-      <c r="C61" s="143"/>
-      <c r="D61" s="143"/>
-      <c r="E61" s="143"/>
-      <c r="F61" s="144"/>
+      <c r="B61" s="141"/>
+      <c r="C61" s="141"/>
+      <c r="D61" s="141"/>
+      <c r="E61" s="141"/>
+      <c r="F61" s="142"/>
       <c r="G61" s="98" t="s">
         <v>37</v>
       </c>
@@ -10108,21 +10252,21 @@
         <f>IF(H61="I",N61*Contagem!$U$11,IF(H61="E",N61*Contagem!$U$13,IF(H61="A",N61*Contagem!$U$12,IF(H61="T",N61*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P61" s="140"/>
-      <c r="Q61" s="141"/>
-      <c r="R61" s="141"/>
-      <c r="S61" s="141"/>
-      <c r="T61" s="141"/>
+      <c r="P61" s="143"/>
+      <c r="Q61" s="144"/>
+      <c r="R61" s="144"/>
+      <c r="S61" s="144"/>
+      <c r="T61" s="144"/>
     </row>
     <row r="62" spans="1:20" ht="18" customHeight="1">
-      <c r="A62" s="142" t="s">
+      <c r="A62" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="143"/>
-      <c r="C62" s="143"/>
-      <c r="D62" s="143"/>
-      <c r="E62" s="143"/>
-      <c r="F62" s="144"/>
+      <c r="B62" s="141"/>
+      <c r="C62" s="141"/>
+      <c r="D62" s="141"/>
+      <c r="E62" s="141"/>
+      <c r="F62" s="142"/>
       <c r="G62" s="98" t="s">
         <v>38</v>
       </c>
@@ -10155,21 +10299,21 @@
         <f>IF(H62="I",N62*Contagem!$U$11,IF(H62="E",N62*Contagem!$U$13,IF(H62="A",N62*Contagem!$U$12,IF(H62="T",N62*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P62" s="140"/>
-      <c r="Q62" s="141"/>
-      <c r="R62" s="141"/>
-      <c r="S62" s="141"/>
-      <c r="T62" s="141"/>
+      <c r="P62" s="143"/>
+      <c r="Q62" s="144"/>
+      <c r="R62" s="144"/>
+      <c r="S62" s="144"/>
+      <c r="T62" s="144"/>
     </row>
     <row r="63" spans="1:20" ht="18" customHeight="1">
-      <c r="A63" s="142" t="s">
+      <c r="A63" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="B63" s="143"/>
-      <c r="C63" s="143"/>
-      <c r="D63" s="143"/>
-      <c r="E63" s="143"/>
-      <c r="F63" s="144"/>
+      <c r="B63" s="141"/>
+      <c r="C63" s="141"/>
+      <c r="D63" s="141"/>
+      <c r="E63" s="141"/>
+      <c r="F63" s="142"/>
       <c r="G63" s="98" t="s">
         <v>51</v>
       </c>
@@ -10202,21 +10346,21 @@
         <f>IF(H63="I",N63*Contagem!$U$11,IF(H63="E",N63*Contagem!$U$13,IF(H63="A",N63*Contagem!$U$12,IF(H63="T",N63*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P63" s="140"/>
-      <c r="Q63" s="141"/>
-      <c r="R63" s="141"/>
-      <c r="S63" s="141"/>
-      <c r="T63" s="141"/>
+      <c r="P63" s="143"/>
+      <c r="Q63" s="144"/>
+      <c r="R63" s="144"/>
+      <c r="S63" s="144"/>
+      <c r="T63" s="144"/>
     </row>
     <row r="64" spans="1:20" ht="18" customHeight="1">
-      <c r="A64" s="142" t="s">
+      <c r="A64" s="140" t="s">
         <v>138</v>
       </c>
-      <c r="B64" s="143"/>
-      <c r="C64" s="143"/>
-      <c r="D64" s="143"/>
-      <c r="E64" s="143"/>
-      <c r="F64" s="144"/>
+      <c r="B64" s="141"/>
+      <c r="C64" s="141"/>
+      <c r="D64" s="141"/>
+      <c r="E64" s="141"/>
+      <c r="F64" s="142"/>
       <c r="G64" s="17" t="s">
         <v>35</v>
       </c>
@@ -10249,11 +10393,11 @@
         <f>IF(H64="I",N64*Contagem!$U$11,IF(H64="E",N64*Contagem!$U$13,IF(H64="A",N64*Contagem!$U$12,IF(H64="T",N64*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P64" s="140"/>
-      <c r="Q64" s="141"/>
-      <c r="R64" s="141"/>
-      <c r="S64" s="141"/>
-      <c r="T64" s="141"/>
+      <c r="P64" s="143"/>
+      <c r="Q64" s="144"/>
+      <c r="R64" s="144"/>
+      <c r="S64" s="144"/>
+      <c r="T64" s="144"/>
     </row>
     <row r="65" spans="1:20" ht="18" customHeight="1">
       <c r="A65" s="94" t="s">
@@ -10295,14 +10439,14 @@
       <c r="T65" s="93"/>
     </row>
     <row r="66" spans="1:20" ht="18" customHeight="1">
-      <c r="A66" s="142" t="s">
+      <c r="A66" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="B66" s="143"/>
-      <c r="C66" s="143"/>
-      <c r="D66" s="143"/>
-      <c r="E66" s="143"/>
-      <c r="F66" s="144"/>
+      <c r="B66" s="141"/>
+      <c r="C66" s="141"/>
+      <c r="D66" s="141"/>
+      <c r="E66" s="141"/>
+      <c r="F66" s="142"/>
       <c r="G66" s="17" t="s">
         <v>35</v>
       </c>
@@ -10331,21 +10475,21 @@
         <f>IF(H66="I",N66*Contagem!$U$11,IF(H66="E",N66*Contagem!$U$13,IF(H66="A",N66*Contagem!$U$12,IF(H66="T",N66*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P66" s="140"/>
-      <c r="Q66" s="141"/>
-      <c r="R66" s="141"/>
-      <c r="S66" s="141"/>
-      <c r="T66" s="141"/>
+      <c r="P66" s="143"/>
+      <c r="Q66" s="144"/>
+      <c r="R66" s="144"/>
+      <c r="S66" s="144"/>
+      <c r="T66" s="144"/>
     </row>
     <row r="67" spans="1:20" ht="18" customHeight="1">
-      <c r="A67" s="142" t="s">
+      <c r="A67" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="143"/>
-      <c r="C67" s="143"/>
-      <c r="D67" s="143"/>
-      <c r="E67" s="143"/>
-      <c r="F67" s="144"/>
+      <c r="B67" s="141"/>
+      <c r="C67" s="141"/>
+      <c r="D67" s="141"/>
+      <c r="E67" s="141"/>
+      <c r="F67" s="142"/>
       <c r="G67" s="17" t="s">
         <v>37</v>
       </c>
@@ -10374,21 +10518,21 @@
         <f>IF(H67="I",N67*Contagem!$U$11,IF(H67="E",N67*Contagem!$U$13,IF(H67="A",N67*Contagem!$U$12,IF(H67="T",N67*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P67" s="140"/>
-      <c r="Q67" s="141"/>
-      <c r="R67" s="141"/>
-      <c r="S67" s="141"/>
-      <c r="T67" s="141"/>
+      <c r="P67" s="143"/>
+      <c r="Q67" s="144"/>
+      <c r="R67" s="144"/>
+      <c r="S67" s="144"/>
+      <c r="T67" s="144"/>
     </row>
     <row r="68" spans="1:20" ht="18" customHeight="1">
-      <c r="A68" s="142" t="s">
+      <c r="A68" s="140" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="143"/>
-      <c r="C68" s="143"/>
-      <c r="D68" s="143"/>
-      <c r="E68" s="143"/>
-      <c r="F68" s="144"/>
+      <c r="B68" s="141"/>
+      <c r="C68" s="141"/>
+      <c r="D68" s="141"/>
+      <c r="E68" s="141"/>
+      <c r="F68" s="142"/>
       <c r="G68" s="17" t="s">
         <v>37</v>
       </c>
@@ -10417,21 +10561,21 @@
         <f>IF(H68="I",N68*Contagem!$U$11,IF(H68="E",N68*Contagem!$U$13,IF(H68="A",N68*Contagem!$U$12,IF(H68="T",N68*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P68" s="140"/>
-      <c r="Q68" s="141"/>
-      <c r="R68" s="141"/>
-      <c r="S68" s="141"/>
-      <c r="T68" s="141"/>
+      <c r="P68" s="143"/>
+      <c r="Q68" s="144"/>
+      <c r="R68" s="144"/>
+      <c r="S68" s="144"/>
+      <c r="T68" s="144"/>
     </row>
     <row r="69" spans="1:20" ht="18" customHeight="1">
-      <c r="A69" s="142" t="s">
+      <c r="A69" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="B69" s="143"/>
-      <c r="C69" s="143"/>
-      <c r="D69" s="143"/>
-      <c r="E69" s="143"/>
-      <c r="F69" s="144"/>
+      <c r="B69" s="141"/>
+      <c r="C69" s="141"/>
+      <c r="D69" s="141"/>
+      <c r="E69" s="141"/>
+      <c r="F69" s="142"/>
       <c r="G69" s="17" t="s">
         <v>38</v>
       </c>
@@ -10460,21 +10604,21 @@
         <f>IF(H69="I",N69*Contagem!$U$11,IF(H69="E",N69*Contagem!$U$13,IF(H69="A",N69*Contagem!$U$12,IF(H69="T",N69*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P69" s="140"/>
-      <c r="Q69" s="141"/>
-      <c r="R69" s="141"/>
-      <c r="S69" s="141"/>
-      <c r="T69" s="141"/>
+      <c r="P69" s="143"/>
+      <c r="Q69" s="144"/>
+      <c r="R69" s="144"/>
+      <c r="S69" s="144"/>
+      <c r="T69" s="144"/>
     </row>
     <row r="70" spans="1:20" ht="18" customHeight="1">
-      <c r="A70" s="142" t="s">
+      <c r="A70" s="140" t="s">
         <v>124</v>
       </c>
-      <c r="B70" s="143"/>
-      <c r="C70" s="143"/>
-      <c r="D70" s="143"/>
-      <c r="E70" s="143"/>
-      <c r="F70" s="144"/>
+      <c r="B70" s="141"/>
+      <c r="C70" s="141"/>
+      <c r="D70" s="141"/>
+      <c r="E70" s="141"/>
+      <c r="F70" s="142"/>
       <c r="G70" s="17" t="s">
         <v>37</v>
       </c>
@@ -10503,21 +10647,21 @@
         <f>IF(H70="I",N70*Contagem!$U$11,IF(H70="E",N70*Contagem!$U$13,IF(H70="A",N70*Contagem!$U$12,IF(H70="T",N70*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P70" s="140"/>
-      <c r="Q70" s="141"/>
-      <c r="R70" s="141"/>
-      <c r="S70" s="141"/>
-      <c r="T70" s="141"/>
+      <c r="P70" s="143"/>
+      <c r="Q70" s="144"/>
+      <c r="R70" s="144"/>
+      <c r="S70" s="144"/>
+      <c r="T70" s="144"/>
     </row>
     <row r="71" spans="1:20" ht="18" customHeight="1">
-      <c r="A71" s="142" t="s">
+      <c r="A71" s="140" t="s">
         <v>125</v>
       </c>
-      <c r="B71" s="143"/>
-      <c r="C71" s="143"/>
-      <c r="D71" s="143"/>
-      <c r="E71" s="143"/>
-      <c r="F71" s="144"/>
+      <c r="B71" s="141"/>
+      <c r="C71" s="141"/>
+      <c r="D71" s="141"/>
+      <c r="E71" s="141"/>
+      <c r="F71" s="142"/>
       <c r="G71" s="17" t="s">
         <v>51</v>
       </c>
@@ -10546,21 +10690,21 @@
         <f>IF(H71="I",N71*Contagem!$U$11,IF(H71="E",N71*Contagem!$U$13,IF(H71="A",N71*Contagem!$U$12,IF(H71="T",N71*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P71" s="140"/>
-      <c r="Q71" s="141"/>
-      <c r="R71" s="141"/>
-      <c r="S71" s="141"/>
-      <c r="T71" s="141"/>
+      <c r="P71" s="143"/>
+      <c r="Q71" s="144"/>
+      <c r="R71" s="144"/>
+      <c r="S71" s="144"/>
+      <c r="T71" s="144"/>
     </row>
     <row r="72" spans="1:20" ht="18" customHeight="1">
-      <c r="A72" s="142" t="s">
+      <c r="A72" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="143"/>
-      <c r="C72" s="143"/>
-      <c r="D72" s="143"/>
-      <c r="E72" s="143"/>
-      <c r="F72" s="144"/>
+      <c r="B72" s="141"/>
+      <c r="C72" s="141"/>
+      <c r="D72" s="141"/>
+      <c r="E72" s="141"/>
+      <c r="F72" s="142"/>
       <c r="G72" s="17" t="s">
         <v>51</v>
       </c>
@@ -10589,11 +10733,11 @@
         <f>IF(H72="I",N72*Contagem!$U$11,IF(H72="E",N72*Contagem!$U$13,IF(H72="A",N72*Contagem!$U$12,IF(H72="T",N72*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P72" s="140"/>
-      <c r="Q72" s="141"/>
-      <c r="R72" s="141"/>
-      <c r="S72" s="141"/>
-      <c r="T72" s="141"/>
+      <c r="P72" s="143"/>
+      <c r="Q72" s="144"/>
+      <c r="R72" s="144"/>
+      <c r="S72" s="144"/>
+      <c r="T72" s="144"/>
     </row>
     <row r="73" spans="1:20" s="110" customFormat="1" ht="18" customHeight="1">
       <c r="A73" s="111" t="s">
@@ -10682,14 +10826,14 @@
       <c r="T74" s="115"/>
     </row>
     <row r="75" spans="1:20" ht="18" customHeight="1">
-      <c r="A75" s="142" t="s">
+      <c r="A75" s="140" t="s">
         <v>126</v>
       </c>
-      <c r="B75" s="143"/>
-      <c r="C75" s="143"/>
-      <c r="D75" s="143"/>
-      <c r="E75" s="143"/>
-      <c r="F75" s="144"/>
+      <c r="B75" s="141"/>
+      <c r="C75" s="141"/>
+      <c r="D75" s="141"/>
+      <c r="E75" s="141"/>
+      <c r="F75" s="142"/>
       <c r="G75" s="17" t="s">
         <v>51</v>
       </c>
@@ -10718,11 +10862,11 @@
         <f>IF(H75="I",N75*Contagem!$U$11,IF(H75="E",N75*Contagem!$U$13,IF(H75="A",N75*Contagem!$U$12,IF(H75="T",N75*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P75" s="140"/>
-      <c r="Q75" s="141"/>
-      <c r="R75" s="141"/>
-      <c r="S75" s="141"/>
-      <c r="T75" s="141"/>
+      <c r="P75" s="143"/>
+      <c r="Q75" s="144"/>
+      <c r="R75" s="144"/>
+      <c r="S75" s="144"/>
+      <c r="T75" s="144"/>
     </row>
     <row r="76" spans="1:20" ht="18" customHeight="1">
       <c r="A76" s="94" t="s">
@@ -10764,14 +10908,14 @@
       <c r="T76" s="93"/>
     </row>
     <row r="77" spans="1:20" ht="18" customHeight="1">
-      <c r="A77" s="142" t="s">
+      <c r="A77" s="140" t="s">
         <v>136</v>
       </c>
-      <c r="B77" s="143"/>
-      <c r="C77" s="143"/>
-      <c r="D77" s="143"/>
-      <c r="E77" s="143"/>
-      <c r="F77" s="144"/>
+      <c r="B77" s="141"/>
+      <c r="C77" s="141"/>
+      <c r="D77" s="141"/>
+      <c r="E77" s="141"/>
+      <c r="F77" s="142"/>
       <c r="G77" s="17" t="s">
         <v>35</v>
       </c>
@@ -10804,21 +10948,21 @@
         <f>IF(H77="I",N77*Contagem!$U$11,IF(H77="E",N77*Contagem!$U$13,IF(H77="A",N77*Contagem!$U$12,IF(H77="T",N77*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P77" s="140"/>
-      <c r="Q77" s="141"/>
-      <c r="R77" s="141"/>
-      <c r="S77" s="141"/>
-      <c r="T77" s="141"/>
+      <c r="P77" s="143"/>
+      <c r="Q77" s="144"/>
+      <c r="R77" s="144"/>
+      <c r="S77" s="144"/>
+      <c r="T77" s="144"/>
     </row>
     <row r="78" spans="1:20" ht="18" customHeight="1">
-      <c r="A78" s="142" t="s">
+      <c r="A78" s="140" t="s">
         <v>129</v>
       </c>
-      <c r="B78" s="143"/>
-      <c r="C78" s="143"/>
-      <c r="D78" s="143"/>
-      <c r="E78" s="143"/>
-      <c r="F78" s="144"/>
+      <c r="B78" s="141"/>
+      <c r="C78" s="141"/>
+      <c r="D78" s="141"/>
+      <c r="E78" s="141"/>
+      <c r="F78" s="142"/>
       <c r="G78" s="17" t="s">
         <v>37</v>
       </c>
@@ -10851,21 +10995,21 @@
         <f>IF(H78="I",N78*Contagem!$U$11,IF(H78="E",N78*Contagem!$U$13,IF(H78="A",N78*Contagem!$U$12,IF(H78="T",N78*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P78" s="140"/>
-      <c r="Q78" s="141"/>
-      <c r="R78" s="141"/>
-      <c r="S78" s="141"/>
-      <c r="T78" s="141"/>
+      <c r="P78" s="143"/>
+      <c r="Q78" s="144"/>
+      <c r="R78" s="144"/>
+      <c r="S78" s="144"/>
+      <c r="T78" s="144"/>
     </row>
     <row r="79" spans="1:20" ht="18" customHeight="1">
-      <c r="A79" s="142" t="s">
+      <c r="A79" s="140" t="s">
         <v>130</v>
       </c>
-      <c r="B79" s="143"/>
-      <c r="C79" s="143"/>
-      <c r="D79" s="143"/>
-      <c r="E79" s="143"/>
-      <c r="F79" s="144"/>
+      <c r="B79" s="141"/>
+      <c r="C79" s="141"/>
+      <c r="D79" s="141"/>
+      <c r="E79" s="141"/>
+      <c r="F79" s="142"/>
       <c r="G79" s="17" t="s">
         <v>37</v>
       </c>
@@ -10898,21 +11042,21 @@
         <f>IF(H79="I",N79*Contagem!$U$11,IF(H79="E",N79*Contagem!$U$13,IF(H79="A",N79*Contagem!$U$12,IF(H79="T",N79*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P79" s="140"/>
-      <c r="Q79" s="141"/>
-      <c r="R79" s="141"/>
-      <c r="S79" s="141"/>
-      <c r="T79" s="141"/>
+      <c r="P79" s="143"/>
+      <c r="Q79" s="144"/>
+      <c r="R79" s="144"/>
+      <c r="S79" s="144"/>
+      <c r="T79" s="144"/>
     </row>
     <row r="80" spans="1:20" ht="18" customHeight="1">
-      <c r="A80" s="142" t="s">
+      <c r="A80" s="140" t="s">
         <v>131</v>
       </c>
-      <c r="B80" s="143"/>
-      <c r="C80" s="143"/>
-      <c r="D80" s="143"/>
-      <c r="E80" s="143"/>
-      <c r="F80" s="144"/>
+      <c r="B80" s="141"/>
+      <c r="C80" s="141"/>
+      <c r="D80" s="141"/>
+      <c r="E80" s="141"/>
+      <c r="F80" s="142"/>
       <c r="G80" s="17" t="s">
         <v>38</v>
       </c>
@@ -10945,21 +11089,21 @@
         <f>IF(H80="I",N80*Contagem!$U$11,IF(H80="E",N80*Contagem!$U$13,IF(H80="A",N80*Contagem!$U$12,IF(H80="T",N80*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P80" s="140"/>
-      <c r="Q80" s="141"/>
-      <c r="R80" s="141"/>
-      <c r="S80" s="141"/>
-      <c r="T80" s="141"/>
+      <c r="P80" s="143"/>
+      <c r="Q80" s="144"/>
+      <c r="R80" s="144"/>
+      <c r="S80" s="144"/>
+      <c r="T80" s="144"/>
     </row>
     <row r="81" spans="1:20" ht="18" customHeight="1">
-      <c r="A81" s="142" t="s">
+      <c r="A81" s="140" t="s">
         <v>132</v>
       </c>
-      <c r="B81" s="143"/>
-      <c r="C81" s="143"/>
-      <c r="D81" s="143"/>
-      <c r="E81" s="143"/>
-      <c r="F81" s="144"/>
+      <c r="B81" s="141"/>
+      <c r="C81" s="141"/>
+      <c r="D81" s="141"/>
+      <c r="E81" s="141"/>
+      <c r="F81" s="142"/>
       <c r="G81" s="17" t="s">
         <v>51</v>
       </c>
@@ -10992,21 +11136,21 @@
         <f>IF(H81="I",N81*Contagem!$U$11,IF(H81="E",N81*Contagem!$U$13,IF(H81="A",N81*Contagem!$U$12,IF(H81="T",N81*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P81" s="140"/>
-      <c r="Q81" s="141"/>
-      <c r="R81" s="141"/>
-      <c r="S81" s="141"/>
-      <c r="T81" s="141"/>
+      <c r="P81" s="143"/>
+      <c r="Q81" s="144"/>
+      <c r="R81" s="144"/>
+      <c r="S81" s="144"/>
+      <c r="T81" s="144"/>
     </row>
     <row r="82" spans="1:20" ht="18" customHeight="1">
-      <c r="A82" s="142" t="s">
+      <c r="A82" s="140" t="s">
         <v>133</v>
       </c>
-      <c r="B82" s="143"/>
-      <c r="C82" s="143"/>
-      <c r="D82" s="143"/>
-      <c r="E82" s="143"/>
-      <c r="F82" s="144"/>
+      <c r="B82" s="141"/>
+      <c r="C82" s="141"/>
+      <c r="D82" s="141"/>
+      <c r="E82" s="141"/>
+      <c r="F82" s="142"/>
       <c r="G82" s="17" t="s">
         <v>37</v>
       </c>
@@ -11039,21 +11183,21 @@
         <f>IF(H82="I",N82*Contagem!$U$11,IF(H82="E",N82*Contagem!$U$13,IF(H82="A",N82*Contagem!$U$12,IF(H82="T",N82*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P82" s="140"/>
-      <c r="Q82" s="141"/>
-      <c r="R82" s="141"/>
-      <c r="S82" s="141"/>
-      <c r="T82" s="141"/>
+      <c r="P82" s="143"/>
+      <c r="Q82" s="144"/>
+      <c r="R82" s="144"/>
+      <c r="S82" s="144"/>
+      <c r="T82" s="144"/>
     </row>
     <row r="83" spans="1:20" ht="18" customHeight="1">
-      <c r="A83" s="142" t="s">
+      <c r="A83" s="140" t="s">
         <v>134</v>
       </c>
-      <c r="B83" s="143"/>
-      <c r="C83" s="143"/>
-      <c r="D83" s="143"/>
-      <c r="E83" s="143"/>
-      <c r="F83" s="144"/>
+      <c r="B83" s="141"/>
+      <c r="C83" s="141"/>
+      <c r="D83" s="141"/>
+      <c r="E83" s="141"/>
+      <c r="F83" s="142"/>
       <c r="G83" s="17" t="s">
         <v>51</v>
       </c>
@@ -11086,21 +11230,21 @@
         <f>IF(H83="I",N83*Contagem!$U$11,IF(H83="E",N83*Contagem!$U$13,IF(H83="A",N83*Contagem!$U$12,IF(H83="T",N83*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P83" s="140"/>
-      <c r="Q83" s="141"/>
-      <c r="R83" s="141"/>
-      <c r="S83" s="141"/>
-      <c r="T83" s="141"/>
+      <c r="P83" s="143"/>
+      <c r="Q83" s="144"/>
+      <c r="R83" s="144"/>
+      <c r="S83" s="144"/>
+      <c r="T83" s="144"/>
     </row>
     <row r="84" spans="1:20" ht="18" customHeight="1">
-      <c r="A84" s="142" t="s">
+      <c r="A84" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="143"/>
-      <c r="C84" s="143"/>
-      <c r="D84" s="143"/>
-      <c r="E84" s="143"/>
-      <c r="F84" s="144"/>
+      <c r="B84" s="141"/>
+      <c r="C84" s="141"/>
+      <c r="D84" s="141"/>
+      <c r="E84" s="141"/>
+      <c r="F84" s="142"/>
       <c r="G84" s="17" t="s">
         <v>38</v>
       </c>
@@ -11133,11 +11277,11 @@
         <f>IF(H84="I",N84*Contagem!$U$11,IF(H84="E",N84*Contagem!$U$13,IF(H84="A",N84*Contagem!$U$12,IF(H84="T",N84*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P84" s="140"/>
-      <c r="Q84" s="141"/>
-      <c r="R84" s="141"/>
-      <c r="S84" s="141"/>
-      <c r="T84" s="141"/>
+      <c r="P84" s="143"/>
+      <c r="Q84" s="144"/>
+      <c r="R84" s="144"/>
+      <c r="S84" s="144"/>
+      <c r="T84" s="144"/>
     </row>
     <row r="85" spans="1:20" ht="18" customHeight="1">
       <c r="A85" s="100" t="s">
@@ -11179,14 +11323,14 @@
       <c r="T85" s="104"/>
     </row>
     <row r="86" spans="1:20" ht="18" customHeight="1">
-      <c r="A86" s="142" t="s">
+      <c r="A86" s="140" t="s">
         <v>152</v>
       </c>
-      <c r="B86" s="143"/>
-      <c r="C86" s="143"/>
-      <c r="D86" s="143"/>
-      <c r="E86" s="143"/>
-      <c r="F86" s="144"/>
+      <c r="B86" s="141"/>
+      <c r="C86" s="141"/>
+      <c r="D86" s="141"/>
+      <c r="E86" s="141"/>
+      <c r="F86" s="142"/>
       <c r="G86" s="17" t="s">
         <v>35</v>
       </c>
@@ -11215,21 +11359,21 @@
         <f>IF(H86="I",N86*Contagem!$U$11,IF(H86="E",N86*Contagem!$U$13,IF(H86="A",N86*Contagem!$U$12,IF(H86="T",N86*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P86" s="140"/>
-      <c r="Q86" s="141"/>
-      <c r="R86" s="141"/>
-      <c r="S86" s="141"/>
-      <c r="T86" s="141"/>
+      <c r="P86" s="143"/>
+      <c r="Q86" s="144"/>
+      <c r="R86" s="144"/>
+      <c r="S86" s="144"/>
+      <c r="T86" s="144"/>
     </row>
     <row r="87" spans="1:20" ht="18" customHeight="1">
-      <c r="A87" s="142" t="s">
+      <c r="A87" s="140" t="s">
         <v>144</v>
       </c>
-      <c r="B87" s="143"/>
-      <c r="C87" s="143"/>
-      <c r="D87" s="143"/>
-      <c r="E87" s="143"/>
-      <c r="F87" s="144"/>
+      <c r="B87" s="141"/>
+      <c r="C87" s="141"/>
+      <c r="D87" s="141"/>
+      <c r="E87" s="141"/>
+      <c r="F87" s="142"/>
       <c r="G87" s="17"/>
       <c r="H87" s="23"/>
       <c r="I87" s="17"/>
@@ -11254,21 +11398,21 @@
         <f>IF(H87="I",N87*Contagem!$U$11,IF(H87="E",N87*Contagem!$U$13,IF(H87="A",N87*Contagem!$U$12,IF(H87="T",N87*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P87" s="140"/>
-      <c r="Q87" s="141"/>
-      <c r="R87" s="141"/>
-      <c r="S87" s="141"/>
-      <c r="T87" s="141"/>
+      <c r="P87" s="143"/>
+      <c r="Q87" s="144"/>
+      <c r="R87" s="144"/>
+      <c r="S87" s="144"/>
+      <c r="T87" s="144"/>
     </row>
     <row r="88" spans="1:20" ht="18" customHeight="1">
-      <c r="A88" s="142" t="s">
+      <c r="A88" s="140" t="s">
         <v>147</v>
       </c>
-      <c r="B88" s="143"/>
-      <c r="C88" s="143"/>
-      <c r="D88" s="143"/>
-      <c r="E88" s="143"/>
-      <c r="F88" s="144"/>
+      <c r="B88" s="141"/>
+      <c r="C88" s="141"/>
+      <c r="D88" s="141"/>
+      <c r="E88" s="141"/>
+      <c r="F88" s="142"/>
       <c r="G88" s="17" t="s">
         <v>37</v>
       </c>
@@ -11297,21 +11441,21 @@
         <f>IF(H88="I",N88*Contagem!$U$11,IF(H88="E",N88*Contagem!$U$13,IF(H88="A",N88*Contagem!$U$12,IF(H88="T",N88*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P88" s="140"/>
-      <c r="Q88" s="141"/>
-      <c r="R88" s="141"/>
-      <c r="S88" s="141"/>
-      <c r="T88" s="141"/>
+      <c r="P88" s="143"/>
+      <c r="Q88" s="144"/>
+      <c r="R88" s="144"/>
+      <c r="S88" s="144"/>
+      <c r="T88" s="144"/>
     </row>
     <row r="89" spans="1:20" ht="18" customHeight="1">
-      <c r="A89" s="142" t="s">
+      <c r="A89" s="140" t="s">
         <v>146</v>
       </c>
-      <c r="B89" s="143"/>
-      <c r="C89" s="143"/>
-      <c r="D89" s="143"/>
-      <c r="E89" s="143"/>
-      <c r="F89" s="144"/>
+      <c r="B89" s="141"/>
+      <c r="C89" s="141"/>
+      <c r="D89" s="141"/>
+      <c r="E89" s="141"/>
+      <c r="F89" s="142"/>
       <c r="G89" s="17" t="s">
         <v>37</v>
       </c>
@@ -11340,21 +11484,21 @@
         <f>IF(H89="I",N89*Contagem!$U$11,IF(H89="E",N89*Contagem!$U$13,IF(H89="A",N89*Contagem!$U$12,IF(H89="T",N89*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P89" s="140"/>
-      <c r="Q89" s="141"/>
-      <c r="R89" s="141"/>
-      <c r="S89" s="141"/>
-      <c r="T89" s="141"/>
+      <c r="P89" s="143"/>
+      <c r="Q89" s="144"/>
+      <c r="R89" s="144"/>
+      <c r="S89" s="144"/>
+      <c r="T89" s="144"/>
     </row>
     <row r="90" spans="1:20" ht="18" customHeight="1">
-      <c r="A90" s="142" t="s">
+      <c r="A90" s="140" t="s">
         <v>145</v>
       </c>
-      <c r="B90" s="143"/>
-      <c r="C90" s="143"/>
-      <c r="D90" s="143"/>
-      <c r="E90" s="143"/>
-      <c r="F90" s="144"/>
+      <c r="B90" s="141"/>
+      <c r="C90" s="141"/>
+      <c r="D90" s="141"/>
+      <c r="E90" s="141"/>
+      <c r="F90" s="142"/>
       <c r="G90" s="17" t="s">
         <v>38</v>
       </c>
@@ -11383,21 +11527,21 @@
         <f>IF(H90="I",N90*Contagem!$U$11,IF(H90="E",N90*Contagem!$U$13,IF(H90="A",N90*Contagem!$U$12,IF(H90="T",N90*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P90" s="140"/>
-      <c r="Q90" s="141"/>
-      <c r="R90" s="141"/>
-      <c r="S90" s="141"/>
-      <c r="T90" s="141"/>
+      <c r="P90" s="143"/>
+      <c r="Q90" s="144"/>
+      <c r="R90" s="144"/>
+      <c r="S90" s="144"/>
+      <c r="T90" s="144"/>
     </row>
     <row r="91" spans="1:20" ht="18" customHeight="1">
-      <c r="A91" s="142" t="s">
+      <c r="A91" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="B91" s="143"/>
-      <c r="C91" s="143"/>
-      <c r="D91" s="143"/>
-      <c r="E91" s="143"/>
-      <c r="F91" s="144"/>
+      <c r="B91" s="141"/>
+      <c r="C91" s="141"/>
+      <c r="D91" s="141"/>
+      <c r="E91" s="141"/>
+      <c r="F91" s="142"/>
       <c r="G91" s="17" t="s">
         <v>38</v>
       </c>
@@ -11426,21 +11570,21 @@
         <f>IF(H91="I",N91*Contagem!$U$11,IF(H91="E",N91*Contagem!$U$13,IF(H91="A",N91*Contagem!$U$12,IF(H91="T",N91*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P91" s="140"/>
-      <c r="Q91" s="141"/>
-      <c r="R91" s="141"/>
-      <c r="S91" s="141"/>
-      <c r="T91" s="141"/>
+      <c r="P91" s="143"/>
+      <c r="Q91" s="144"/>
+      <c r="R91" s="144"/>
+      <c r="S91" s="144"/>
+      <c r="T91" s="144"/>
     </row>
     <row r="92" spans="1:20" ht="18" customHeight="1">
-      <c r="A92" s="142" t="s">
+      <c r="A92" s="140" t="s">
         <v>149</v>
       </c>
-      <c r="B92" s="143"/>
-      <c r="C92" s="143"/>
-      <c r="D92" s="143"/>
-      <c r="E92" s="143"/>
-      <c r="F92" s="144"/>
+      <c r="B92" s="141"/>
+      <c r="C92" s="141"/>
+      <c r="D92" s="141"/>
+      <c r="E92" s="141"/>
+      <c r="F92" s="142"/>
       <c r="G92" s="17" t="s">
         <v>37</v>
       </c>
@@ -11469,21 +11613,21 @@
         <f>IF(H92="I",N92*Contagem!$U$11,IF(H92="E",N92*Contagem!$U$13,IF(H92="A",N92*Contagem!$U$12,IF(H92="T",N92*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P92" s="140"/>
-      <c r="Q92" s="141"/>
-      <c r="R92" s="141"/>
-      <c r="S92" s="141"/>
-      <c r="T92" s="141"/>
+      <c r="P92" s="143"/>
+      <c r="Q92" s="144"/>
+      <c r="R92" s="144"/>
+      <c r="S92" s="144"/>
+      <c r="T92" s="144"/>
     </row>
     <row r="93" spans="1:20" ht="18" customHeight="1">
-      <c r="A93" s="142" t="s">
+      <c r="A93" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="B93" s="143"/>
-      <c r="C93" s="143"/>
-      <c r="D93" s="143"/>
-      <c r="E93" s="143"/>
-      <c r="F93" s="144"/>
+      <c r="B93" s="141"/>
+      <c r="C93" s="141"/>
+      <c r="D93" s="141"/>
+      <c r="E93" s="141"/>
+      <c r="F93" s="142"/>
       <c r="G93" s="17" t="s">
         <v>38</v>
       </c>
@@ -11512,21 +11656,21 @@
         <f>IF(H93="I",N93*Contagem!$U$11,IF(H93="E",N93*Contagem!$U$13,IF(H93="A",N93*Contagem!$U$12,IF(H93="T",N93*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P93" s="140"/>
-      <c r="Q93" s="141"/>
-      <c r="R93" s="141"/>
-      <c r="S93" s="141"/>
-      <c r="T93" s="141"/>
+      <c r="P93" s="143"/>
+      <c r="Q93" s="144"/>
+      <c r="R93" s="144"/>
+      <c r="S93" s="144"/>
+      <c r="T93" s="144"/>
     </row>
     <row r="94" spans="1:20" ht="18" customHeight="1">
-      <c r="A94" s="142" t="s">
+      <c r="A94" s="140" t="s">
         <v>150</v>
       </c>
-      <c r="B94" s="143"/>
-      <c r="C94" s="143"/>
-      <c r="D94" s="143"/>
-      <c r="E94" s="143"/>
-      <c r="F94" s="144"/>
+      <c r="B94" s="141"/>
+      <c r="C94" s="141"/>
+      <c r="D94" s="141"/>
+      <c r="E94" s="141"/>
+      <c r="F94" s="142"/>
       <c r="G94" s="17" t="s">
         <v>38</v>
       </c>
@@ -11555,21 +11699,21 @@
         <f>IF(H94="I",N94*Contagem!$U$11,IF(H94="E",N94*Contagem!$U$13,IF(H94="A",N94*Contagem!$U$12,IF(H94="T",N94*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P94" s="140"/>
-      <c r="Q94" s="141"/>
-      <c r="R94" s="141"/>
-      <c r="S94" s="141"/>
-      <c r="T94" s="141"/>
+      <c r="P94" s="143"/>
+      <c r="Q94" s="144"/>
+      <c r="R94" s="144"/>
+      <c r="S94" s="144"/>
+      <c r="T94" s="144"/>
     </row>
     <row r="95" spans="1:20" ht="18" customHeight="1">
-      <c r="A95" s="142" t="s">
+      <c r="A95" s="140" t="s">
         <v>151</v>
       </c>
-      <c r="B95" s="143"/>
-      <c r="C95" s="143"/>
-      <c r="D95" s="143"/>
-      <c r="E95" s="143"/>
-      <c r="F95" s="144"/>
+      <c r="B95" s="141"/>
+      <c r="C95" s="141"/>
+      <c r="D95" s="141"/>
+      <c r="E95" s="141"/>
+      <c r="F95" s="142"/>
       <c r="G95" s="17" t="s">
         <v>37</v>
       </c>
@@ -11598,21 +11742,21 @@
         <f>IF(H95="I",N95*Contagem!$U$11,IF(H95="E",N95*Contagem!$U$13,IF(H95="A",N95*Contagem!$U$12,IF(H95="T",N95*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P95" s="140"/>
-      <c r="Q95" s="141"/>
-      <c r="R95" s="141"/>
-      <c r="S95" s="141"/>
-      <c r="T95" s="141"/>
+      <c r="P95" s="143"/>
+      <c r="Q95" s="144"/>
+      <c r="R95" s="144"/>
+      <c r="S95" s="144"/>
+      <c r="T95" s="144"/>
     </row>
     <row r="96" spans="1:20" ht="18" customHeight="1">
-      <c r="A96" s="142" t="s">
+      <c r="A96" s="140" t="s">
         <v>153</v>
       </c>
-      <c r="B96" s="143"/>
-      <c r="C96" s="143"/>
-      <c r="D96" s="143"/>
-      <c r="E96" s="143"/>
-      <c r="F96" s="144"/>
+      <c r="B96" s="141"/>
+      <c r="C96" s="141"/>
+      <c r="D96" s="141"/>
+      <c r="E96" s="141"/>
+      <c r="F96" s="142"/>
       <c r="G96" s="17" t="s">
         <v>37</v>
       </c>
@@ -11641,21 +11785,21 @@
         <f>IF(H96="I",N96*Contagem!$U$11,IF(H96="E",N96*Contagem!$U$13,IF(H96="A",N96*Contagem!$U$12,IF(H96="T",N96*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P96" s="140"/>
-      <c r="Q96" s="141"/>
-      <c r="R96" s="141"/>
-      <c r="S96" s="141"/>
-      <c r="T96" s="141"/>
+      <c r="P96" s="143"/>
+      <c r="Q96" s="144"/>
+      <c r="R96" s="144"/>
+      <c r="S96" s="144"/>
+      <c r="T96" s="144"/>
     </row>
     <row r="97" spans="1:20" ht="18" customHeight="1">
-      <c r="A97" s="142" t="s">
+      <c r="A97" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="B97" s="143"/>
-      <c r="C97" s="143"/>
-      <c r="D97" s="143"/>
-      <c r="E97" s="143"/>
-      <c r="F97" s="144"/>
+      <c r="B97" s="141"/>
+      <c r="C97" s="141"/>
+      <c r="D97" s="141"/>
+      <c r="E97" s="141"/>
+      <c r="F97" s="142"/>
       <c r="G97" s="17" t="s">
         <v>38</v>
       </c>
@@ -11684,11 +11828,11 @@
         <f>IF(H97="I",N97*Contagem!$U$11,IF(H97="E",N97*Contagem!$U$13,IF(H97="A",N97*Contagem!$U$12,IF(H97="T",N97*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P97" s="140"/>
-      <c r="Q97" s="141"/>
-      <c r="R97" s="141"/>
-      <c r="S97" s="141"/>
-      <c r="T97" s="141"/>
+      <c r="P97" s="143"/>
+      <c r="Q97" s="144"/>
+      <c r="R97" s="144"/>
+      <c r="S97" s="144"/>
+      <c r="T97" s="144"/>
     </row>
     <row r="98" spans="1:20" ht="18" customHeight="1">
       <c r="A98" s="24" t="s">
@@ -11727,11 +11871,11 @@
         <f>IF(H98="I",N98*Contagem!$U$11,IF(H98="E",N98*Contagem!$U$13,IF(H98="A",N98*Contagem!$U$12,IF(H98="T",N98*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P98" s="140"/>
-      <c r="Q98" s="141"/>
-      <c r="R98" s="141"/>
-      <c r="S98" s="141"/>
-      <c r="T98" s="141"/>
+      <c r="P98" s="143"/>
+      <c r="Q98" s="144"/>
+      <c r="R98" s="144"/>
+      <c r="S98" s="144"/>
+      <c r="T98" s="144"/>
     </row>
     <row r="99" spans="1:20" ht="15" customHeight="1">
       <c r="A99" s="24" t="s">
@@ -11770,11 +11914,11 @@
         <f>IF(H99="I",N99*Contagem!$U$11,IF(H99="E",N99*Contagem!$U$13,IF(H99="A",N99*Contagem!$U$12,IF(H99="T",N99*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P99" s="140"/>
-      <c r="Q99" s="141"/>
-      <c r="R99" s="141"/>
-      <c r="S99" s="141"/>
-      <c r="T99" s="141"/>
+      <c r="P99" s="143"/>
+      <c r="Q99" s="144"/>
+      <c r="R99" s="144"/>
+      <c r="S99" s="144"/>
+      <c r="T99" s="144"/>
     </row>
     <row r="100" spans="1:20" ht="15" customHeight="1">
       <c r="A100" s="24" t="s">
@@ -11813,11 +11957,11 @@
         <f>IF(H100="I",N100*Contagem!$U$11,IF(H100="E",N100*Contagem!$U$13,IF(H100="A",N100*Contagem!$U$12,IF(H100="T",N100*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P100" s="140"/>
-      <c r="Q100" s="141"/>
-      <c r="R100" s="141"/>
-      <c r="S100" s="141"/>
-      <c r="T100" s="141"/>
+      <c r="P100" s="143"/>
+      <c r="Q100" s="144"/>
+      <c r="R100" s="144"/>
+      <c r="S100" s="144"/>
+      <c r="T100" s="144"/>
     </row>
     <row r="101" spans="1:20" ht="15" customHeight="1">
       <c r="A101" s="24" t="s">
@@ -11856,11 +12000,11 @@
         <f>IF(H101="I",N101*Contagem!$U$11,IF(H101="E",N101*Contagem!$U$13,IF(H101="A",N101*Contagem!$U$12,IF(H101="T",N101*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P101" s="140"/>
-      <c r="Q101" s="141"/>
-      <c r="R101" s="141"/>
-      <c r="S101" s="141"/>
-      <c r="T101" s="141"/>
+      <c r="P101" s="143"/>
+      <c r="Q101" s="144"/>
+      <c r="R101" s="144"/>
+      <c r="S101" s="144"/>
+      <c r="T101" s="144"/>
     </row>
     <row r="102" spans="1:20" ht="15" customHeight="1">
       <c r="A102" s="24" t="s">
@@ -11899,11 +12043,11 @@
         <f>IF(H102="I",N102*Contagem!$U$11,IF(H102="E",N102*Contagem!$U$13,IF(H102="A",N102*Contagem!$U$12,IF(H102="T",N102*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P102" s="140"/>
-      <c r="Q102" s="141"/>
-      <c r="R102" s="141"/>
-      <c r="S102" s="141"/>
-      <c r="T102" s="141"/>
+      <c r="P102" s="143"/>
+      <c r="Q102" s="144"/>
+      <c r="R102" s="144"/>
+      <c r="S102" s="144"/>
+      <c r="T102" s="144"/>
     </row>
     <row r="103" spans="1:20" ht="15" customHeight="1">
       <c r="A103" s="24" t="s">
@@ -11942,11 +12086,11 @@
         <f>IF(H103="I",N103*Contagem!$U$11,IF(H103="E",N103*Contagem!$U$13,IF(H103="A",N103*Contagem!$U$12,IF(H103="T",N103*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P103" s="140"/>
-      <c r="Q103" s="141"/>
-      <c r="R103" s="141"/>
-      <c r="S103" s="141"/>
-      <c r="T103" s="141"/>
+      <c r="P103" s="143"/>
+      <c r="Q103" s="144"/>
+      <c r="R103" s="144"/>
+      <c r="S103" s="144"/>
+      <c r="T103" s="144"/>
     </row>
     <row r="104" spans="1:20" ht="15" customHeight="1">
       <c r="A104" s="107" t="s">
@@ -12024,11 +12168,11 @@
         <f>IF(H105="I",N105*Contagem!$U$11,IF(H105="E",N105*Contagem!$U$13,IF(H105="A",N105*Contagem!$U$12,IF(H105="T",N105*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P105" s="140"/>
-      <c r="Q105" s="141"/>
-      <c r="R105" s="141"/>
-      <c r="S105" s="141"/>
-      <c r="T105" s="141"/>
+      <c r="P105" s="143"/>
+      <c r="Q105" s="144"/>
+      <c r="R105" s="144"/>
+      <c r="S105" s="144"/>
+      <c r="T105" s="144"/>
     </row>
     <row r="106" spans="1:20" ht="15" customHeight="1">
       <c r="A106" s="24" t="s">
@@ -12067,11 +12211,11 @@
         <f>IF(H106="I",N106*Contagem!$U$11,IF(H106="E",N106*Contagem!$U$13,IF(H106="A",N106*Contagem!$U$12,IF(H106="T",N106*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P106" s="140"/>
-      <c r="Q106" s="141"/>
-      <c r="R106" s="141"/>
-      <c r="S106" s="141"/>
-      <c r="T106" s="141"/>
+      <c r="P106" s="143"/>
+      <c r="Q106" s="144"/>
+      <c r="R106" s="144"/>
+      <c r="S106" s="144"/>
+      <c r="T106" s="144"/>
     </row>
     <row r="107" spans="1:20" ht="15" customHeight="1">
       <c r="A107" s="24" t="s">
@@ -12110,11 +12254,11 @@
         <f>IF(H107="I",N107*Contagem!$U$11,IF(H107="E",N107*Contagem!$U$13,IF(H107="A",N107*Contagem!$U$12,IF(H107="T",N107*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P107" s="140"/>
-      <c r="Q107" s="141"/>
-      <c r="R107" s="141"/>
-      <c r="S107" s="141"/>
-      <c r="T107" s="141"/>
+      <c r="P107" s="143"/>
+      <c r="Q107" s="144"/>
+      <c r="R107" s="144"/>
+      <c r="S107" s="144"/>
+      <c r="T107" s="144"/>
     </row>
     <row r="108" spans="1:20" ht="15" customHeight="1">
       <c r="A108" s="24" t="s">
@@ -12153,11 +12297,11 @@
         <f>IF(H108="I",N108*Contagem!$U$11,IF(H108="E",N108*Contagem!$U$13,IF(H108="A",N108*Contagem!$U$12,IF(H108="T",N108*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P108" s="140"/>
-      <c r="Q108" s="141"/>
-      <c r="R108" s="141"/>
-      <c r="S108" s="141"/>
-      <c r="T108" s="141"/>
+      <c r="P108" s="143"/>
+      <c r="Q108" s="144"/>
+      <c r="R108" s="144"/>
+      <c r="S108" s="144"/>
+      <c r="T108" s="144"/>
     </row>
     <row r="109" spans="1:20" ht="15" customHeight="1">
       <c r="A109" s="24" t="s">
@@ -12196,11 +12340,11 @@
         <f>IF(H109="I",N109*Contagem!$U$11,IF(H109="E",N109*Contagem!$U$13,IF(H109="A",N109*Contagem!$U$12,IF(H109="T",N109*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P109" s="140"/>
-      <c r="Q109" s="141"/>
-      <c r="R109" s="141"/>
-      <c r="S109" s="141"/>
-      <c r="T109" s="141"/>
+      <c r="P109" s="143"/>
+      <c r="Q109" s="144"/>
+      <c r="R109" s="144"/>
+      <c r="S109" s="144"/>
+      <c r="T109" s="144"/>
     </row>
     <row r="110" spans="1:20" ht="15" customHeight="1">
       <c r="A110" s="24"/>
@@ -12233,11 +12377,11 @@
         <f>IF(H110="I",N110*Contagem!$U$11,IF(H110="E",N110*Contagem!$U$13,IF(H110="A",N110*Contagem!$U$12,IF(H110="T",N110*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P110" s="140"/>
-      <c r="Q110" s="141"/>
-      <c r="R110" s="141"/>
-      <c r="S110" s="141"/>
-      <c r="T110" s="141"/>
+      <c r="P110" s="143"/>
+      <c r="Q110" s="144"/>
+      <c r="R110" s="144"/>
+      <c r="S110" s="144"/>
+      <c r="T110" s="144"/>
     </row>
     <row r="111" spans="1:20" ht="15" customHeight="1">
       <c r="A111" s="24"/>
@@ -12270,11 +12414,11 @@
         <f>IF(H111="I",N111*Contagem!$U$11,IF(H111="E",N111*Contagem!$U$13,IF(H111="A",N111*Contagem!$U$12,IF(H111="T",N111*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P111" s="140"/>
-      <c r="Q111" s="141"/>
-      <c r="R111" s="141"/>
-      <c r="S111" s="141"/>
-      <c r="T111" s="141"/>
+      <c r="P111" s="143"/>
+      <c r="Q111" s="144"/>
+      <c r="R111" s="144"/>
+      <c r="S111" s="144"/>
+      <c r="T111" s="144"/>
     </row>
     <row r="112" spans="1:20" ht="15" customHeight="1">
       <c r="A112" s="24"/>
@@ -12307,11 +12451,11 @@
         <f>IF(H112="I",N112*Contagem!$U$11,IF(H112="E",N112*Contagem!$U$13,IF(H112="A",N112*Contagem!$U$12,IF(H112="T",N112*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P112" s="140"/>
-      <c r="Q112" s="141"/>
-      <c r="R112" s="141"/>
-      <c r="S112" s="141"/>
-      <c r="T112" s="141"/>
+      <c r="P112" s="143"/>
+      <c r="Q112" s="144"/>
+      <c r="R112" s="144"/>
+      <c r="S112" s="144"/>
+      <c r="T112" s="144"/>
     </row>
     <row r="113" spans="1:20" ht="15" customHeight="1">
       <c r="A113" s="24"/>
@@ -12344,11 +12488,11 @@
         <f>IF(H113="I",N113*Contagem!$U$11,IF(H113="E",N113*Contagem!$U$13,IF(H113="A",N113*Contagem!$U$12,IF(H113="T",N113*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P113" s="140"/>
-      <c r="Q113" s="141"/>
-      <c r="R113" s="141"/>
-      <c r="S113" s="141"/>
-      <c r="T113" s="141"/>
+      <c r="P113" s="143"/>
+      <c r="Q113" s="144"/>
+      <c r="R113" s="144"/>
+      <c r="S113" s="144"/>
+      <c r="T113" s="144"/>
     </row>
     <row r="114" spans="1:20" ht="15" customHeight="1">
       <c r="A114" s="24"/>
@@ -12381,11 +12525,11 @@
         <f>IF(H114="I",N114*Contagem!$U$11,IF(H114="E",N114*Contagem!$U$13,IF(H114="A",N114*Contagem!$U$12,IF(H114="T",N114*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P114" s="140"/>
-      <c r="Q114" s="141"/>
-      <c r="R114" s="141"/>
-      <c r="S114" s="141"/>
-      <c r="T114" s="141"/>
+      <c r="P114" s="143"/>
+      <c r="Q114" s="144"/>
+      <c r="R114" s="144"/>
+      <c r="S114" s="144"/>
+      <c r="T114" s="144"/>
     </row>
     <row r="115" spans="1:20" ht="15" customHeight="1">
       <c r="A115" s="24"/>
@@ -12418,11 +12562,11 @@
         <f>IF(H115="I",N115*Contagem!$U$11,IF(H115="E",N115*Contagem!$U$13,IF(H115="A",N115*Contagem!$U$12,IF(H115="T",N115*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P115" s="140"/>
-      <c r="Q115" s="141"/>
-      <c r="R115" s="141"/>
-      <c r="S115" s="141"/>
-      <c r="T115" s="141"/>
+      <c r="P115" s="143"/>
+      <c r="Q115" s="144"/>
+      <c r="R115" s="144"/>
+      <c r="S115" s="144"/>
+      <c r="T115" s="144"/>
     </row>
     <row r="116" spans="1:20" ht="15" customHeight="1">
       <c r="A116" s="24"/>
@@ -12455,11 +12599,11 @@
         <f>IF(H116="I",N116*Contagem!$U$11,IF(H116="E",N116*Contagem!$U$13,IF(H116="A",N116*Contagem!$U$12,IF(H116="T",N116*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P116" s="140"/>
-      <c r="Q116" s="141"/>
-      <c r="R116" s="141"/>
-      <c r="S116" s="141"/>
-      <c r="T116" s="141"/>
+      <c r="P116" s="143"/>
+      <c r="Q116" s="144"/>
+      <c r="R116" s="144"/>
+      <c r="S116" s="144"/>
+      <c r="T116" s="144"/>
     </row>
     <row r="117" spans="1:20" ht="15" customHeight="1">
       <c r="A117" s="24"/>
@@ -12492,11 +12636,11 @@
         <f>IF(H117="I",N117*Contagem!$U$11,IF(H117="E",N117*Contagem!$U$13,IF(H117="A",N117*Contagem!$U$12,IF(H117="T",N117*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P117" s="140"/>
-      <c r="Q117" s="141"/>
-      <c r="R117" s="141"/>
-      <c r="S117" s="141"/>
-      <c r="T117" s="141"/>
+      <c r="P117" s="143"/>
+      <c r="Q117" s="144"/>
+      <c r="R117" s="144"/>
+      <c r="S117" s="144"/>
+      <c r="T117" s="144"/>
     </row>
     <row r="118" spans="1:20" ht="15" customHeight="1">
       <c r="A118" s="24"/>
@@ -12529,11 +12673,11 @@
         <f>IF(H118="I",N118*Contagem!$U$11,IF(H118="E",N118*Contagem!$U$13,IF(H118="A",N118*Contagem!$U$12,IF(H118="T",N118*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P118" s="140"/>
-      <c r="Q118" s="141"/>
-      <c r="R118" s="141"/>
-      <c r="S118" s="141"/>
-      <c r="T118" s="141"/>
+      <c r="P118" s="143"/>
+      <c r="Q118" s="144"/>
+      <c r="R118" s="144"/>
+      <c r="S118" s="144"/>
+      <c r="T118" s="144"/>
     </row>
     <row r="119" spans="1:20" ht="15" customHeight="1">
       <c r="A119" s="24"/>
@@ -12566,11 +12710,11 @@
         <f>IF(H119="I",N119*Contagem!$U$11,IF(H119="E",N119*Contagem!$U$13,IF(H119="A",N119*Contagem!$U$12,IF(H119="T",N119*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P119" s="140"/>
-      <c r="Q119" s="141"/>
-      <c r="R119" s="141"/>
-      <c r="S119" s="141"/>
-      <c r="T119" s="141"/>
+      <c r="P119" s="143"/>
+      <c r="Q119" s="144"/>
+      <c r="R119" s="144"/>
+      <c r="S119" s="144"/>
+      <c r="T119" s="144"/>
     </row>
     <row r="120" spans="1:20" ht="15" customHeight="1">
       <c r="A120" s="24"/>
@@ -12603,11 +12747,11 @@
         <f>IF(H120="I",N120*Contagem!$U$11,IF(H120="E",N120*Contagem!$U$13,IF(H120="A",N120*Contagem!$U$12,IF(H120="T",N120*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P120" s="140"/>
-      <c r="Q120" s="141"/>
-      <c r="R120" s="141"/>
-      <c r="S120" s="141"/>
-      <c r="T120" s="141"/>
+      <c r="P120" s="143"/>
+      <c r="Q120" s="144"/>
+      <c r="R120" s="144"/>
+      <c r="S120" s="144"/>
+      <c r="T120" s="144"/>
     </row>
     <row r="121" spans="1:20" ht="15" customHeight="1">
       <c r="A121" s="24"/>
@@ -12640,11 +12784,11 @@
         <f>IF(H121="I",N121*Contagem!$U$11,IF(H121="E",N121*Contagem!$U$13,IF(H121="A",N121*Contagem!$U$12,IF(H121="T",N121*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P121" s="140"/>
-      <c r="Q121" s="141"/>
-      <c r="R121" s="141"/>
-      <c r="S121" s="141"/>
-      <c r="T121" s="141"/>
+      <c r="P121" s="143"/>
+      <c r="Q121" s="144"/>
+      <c r="R121" s="144"/>
+      <c r="S121" s="144"/>
+      <c r="T121" s="144"/>
     </row>
     <row r="122" spans="1:20" ht="15" customHeight="1">
       <c r="A122" s="24"/>
@@ -12677,11 +12821,11 @@
         <f>IF(H122="I",N122*Contagem!$U$11,IF(H122="E",N122*Contagem!$U$13,IF(H122="A",N122*Contagem!$U$12,IF(H122="T",N122*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P122" s="140"/>
-      <c r="Q122" s="141"/>
-      <c r="R122" s="141"/>
-      <c r="S122" s="141"/>
-      <c r="T122" s="141"/>
+      <c r="P122" s="143"/>
+      <c r="Q122" s="144"/>
+      <c r="R122" s="144"/>
+      <c r="S122" s="144"/>
+      <c r="T122" s="144"/>
     </row>
     <row r="123" spans="1:20" ht="15" customHeight="1">
       <c r="A123" s="24"/>
@@ -12714,11 +12858,11 @@
         <f>IF(H123="I",N123*Contagem!$U$11,IF(H123="E",N123*Contagem!$U$13,IF(H123="A",N123*Contagem!$U$12,IF(H123="T",N123*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P123" s="140"/>
-      <c r="Q123" s="141"/>
-      <c r="R123" s="141"/>
-      <c r="S123" s="141"/>
-      <c r="T123" s="141"/>
+      <c r="P123" s="143"/>
+      <c r="Q123" s="144"/>
+      <c r="R123" s="144"/>
+      <c r="S123" s="144"/>
+      <c r="T123" s="144"/>
     </row>
     <row r="124" spans="1:20" ht="15" customHeight="1">
       <c r="A124" s="24"/>
@@ -12751,11 +12895,11 @@
         <f>IF(H124="I",N124*Contagem!$U$11,IF(H124="E",N124*Contagem!$U$13,IF(H124="A",N124*Contagem!$U$12,IF(H124="T",N124*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P124" s="140"/>
-      <c r="Q124" s="141"/>
-      <c r="R124" s="141"/>
-      <c r="S124" s="141"/>
-      <c r="T124" s="141"/>
+      <c r="P124" s="143"/>
+      <c r="Q124" s="144"/>
+      <c r="R124" s="144"/>
+      <c r="S124" s="144"/>
+      <c r="T124" s="144"/>
     </row>
     <row r="125" spans="1:20" ht="15" customHeight="1">
       <c r="A125" s="24"/>
@@ -12788,11 +12932,11 @@
         <f>IF(H125="I",N125*Contagem!$U$11,IF(H125="E",N125*Contagem!$U$13,IF(H125="A",N125*Contagem!$U$12,IF(H125="T",N125*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P125" s="140"/>
-      <c r="Q125" s="141"/>
-      <c r="R125" s="141"/>
-      <c r="S125" s="141"/>
-      <c r="T125" s="141"/>
+      <c r="P125" s="143"/>
+      <c r="Q125" s="144"/>
+      <c r="R125" s="144"/>
+      <c r="S125" s="144"/>
+      <c r="T125" s="144"/>
     </row>
     <row r="126" spans="1:20" ht="15" customHeight="1">
       <c r="A126" s="24"/>
@@ -12825,11 +12969,11 @@
         <f>IF(H126="I",N126*Contagem!$U$11,IF(H126="E",N126*Contagem!$U$13,IF(H126="A",N126*Contagem!$U$12,IF(H126="T",N126*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P126" s="140"/>
-      <c r="Q126" s="141"/>
-      <c r="R126" s="141"/>
-      <c r="S126" s="141"/>
-      <c r="T126" s="141"/>
+      <c r="P126" s="143"/>
+      <c r="Q126" s="144"/>
+      <c r="R126" s="144"/>
+      <c r="S126" s="144"/>
+      <c r="T126" s="144"/>
     </row>
     <row r="127" spans="1:20" ht="15" customHeight="1">
       <c r="A127" s="24"/>
@@ -12862,11 +13006,11 @@
         <f>IF(H127="I",N127*Contagem!$U$11,IF(H127="E",N127*Contagem!$U$13,IF(H127="A",N127*Contagem!$U$12,IF(H127="T",N127*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P127" s="140"/>
-      <c r="Q127" s="141"/>
-      <c r="R127" s="141"/>
-      <c r="S127" s="141"/>
-      <c r="T127" s="141"/>
+      <c r="P127" s="143"/>
+      <c r="Q127" s="144"/>
+      <c r="R127" s="144"/>
+      <c r="S127" s="144"/>
+      <c r="T127" s="144"/>
     </row>
     <row r="128" spans="1:20" ht="15" customHeight="1">
       <c r="A128" s="24"/>
@@ -12899,11 +13043,11 @@
         <f>IF(H128="I",N128*Contagem!$U$11,IF(H128="E",N128*Contagem!$U$13,IF(H128="A",N128*Contagem!$U$12,IF(H128="T",N128*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P128" s="140"/>
-      <c r="Q128" s="141"/>
-      <c r="R128" s="141"/>
-      <c r="S128" s="141"/>
-      <c r="T128" s="141"/>
+      <c r="P128" s="143"/>
+      <c r="Q128" s="144"/>
+      <c r="R128" s="144"/>
+      <c r="S128" s="144"/>
+      <c r="T128" s="144"/>
     </row>
     <row r="129" spans="1:20" ht="15" customHeight="1">
       <c r="A129" s="24"/>
@@ -12936,11 +13080,11 @@
         <f>IF(H129="I",N129*Contagem!$U$11,IF(H129="E",N129*Contagem!$U$13,IF(H129="A",N129*Contagem!$U$12,IF(H129="T",N129*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P129" s="140"/>
-      <c r="Q129" s="141"/>
-      <c r="R129" s="141"/>
-      <c r="S129" s="141"/>
-      <c r="T129" s="141"/>
+      <c r="P129" s="143"/>
+      <c r="Q129" s="144"/>
+      <c r="R129" s="144"/>
+      <c r="S129" s="144"/>
+      <c r="T129" s="144"/>
     </row>
     <row r="130" spans="1:20" ht="15" customHeight="1">
       <c r="A130" s="24"/>
@@ -12973,11 +13117,11 @@
         <f>IF(H130="I",N130*Contagem!$U$11,IF(H130="E",N130*Contagem!$U$13,IF(H130="A",N130*Contagem!$U$12,IF(H130="T",N130*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P130" s="140"/>
-      <c r="Q130" s="141"/>
-      <c r="R130" s="141"/>
-      <c r="S130" s="141"/>
-      <c r="T130" s="141"/>
+      <c r="P130" s="143"/>
+      <c r="Q130" s="144"/>
+      <c r="R130" s="144"/>
+      <c r="S130" s="144"/>
+      <c r="T130" s="144"/>
     </row>
     <row r="131" spans="1:20" ht="15" customHeight="1">
       <c r="A131" s="24"/>
@@ -13010,11 +13154,11 @@
         <f>IF(H131="I",N131*Contagem!$U$11,IF(H131="E",N131*Contagem!$U$13,IF(H131="A",N131*Contagem!$U$12,IF(H131="T",N131*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P131" s="140"/>
-      <c r="Q131" s="141"/>
-      <c r="R131" s="141"/>
-      <c r="S131" s="141"/>
-      <c r="T131" s="141"/>
+      <c r="P131" s="143"/>
+      <c r="Q131" s="144"/>
+      <c r="R131" s="144"/>
+      <c r="S131" s="144"/>
+      <c r="T131" s="144"/>
     </row>
     <row r="132" spans="1:20" ht="15" customHeight="1">
       <c r="A132" s="24"/>
@@ -13047,11 +13191,11 @@
         <f>IF(H132="I",N132*Contagem!$U$11,IF(H132="E",N132*Contagem!$U$13,IF(H132="A",N132*Contagem!$U$12,IF(H132="T",N132*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P132" s="140"/>
-      <c r="Q132" s="141"/>
-      <c r="R132" s="141"/>
-      <c r="S132" s="141"/>
-      <c r="T132" s="141"/>
+      <c r="P132" s="143"/>
+      <c r="Q132" s="144"/>
+      <c r="R132" s="144"/>
+      <c r="S132" s="144"/>
+      <c r="T132" s="144"/>
     </row>
     <row r="133" spans="1:20" ht="15" customHeight="1">
       <c r="A133" s="24"/>
@@ -13084,11 +13228,11 @@
         <f>IF(H133="I",N133*Contagem!$U$11,IF(H133="E",N133*Contagem!$U$13,IF(H133="A",N133*Contagem!$U$12,IF(H133="T",N133*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P133" s="140"/>
-      <c r="Q133" s="141"/>
-      <c r="R133" s="141"/>
-      <c r="S133" s="141"/>
-      <c r="T133" s="141"/>
+      <c r="P133" s="143"/>
+      <c r="Q133" s="144"/>
+      <c r="R133" s="144"/>
+      <c r="S133" s="144"/>
+      <c r="T133" s="144"/>
     </row>
     <row r="134" spans="1:20" ht="15" customHeight="1">
       <c r="A134" s="24"/>
@@ -13121,11 +13265,11 @@
         <f>IF(H134="I",N134*Contagem!$U$11,IF(H134="E",N134*Contagem!$U$13,IF(H134="A",N134*Contagem!$U$12,IF(H134="T",N134*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P134" s="140"/>
-      <c r="Q134" s="141"/>
-      <c r="R134" s="141"/>
-      <c r="S134" s="141"/>
-      <c r="T134" s="141"/>
+      <c r="P134" s="143"/>
+      <c r="Q134" s="144"/>
+      <c r="R134" s="144"/>
+      <c r="S134" s="144"/>
+      <c r="T134" s="144"/>
     </row>
     <row r="135" spans="1:20" ht="15" customHeight="1">
       <c r="A135" s="24"/>
@@ -13158,11 +13302,11 @@
         <f>IF(H135="I",N135*Contagem!$U$11,IF(H135="E",N135*Contagem!$U$13,IF(H135="A",N135*Contagem!$U$12,IF(H135="T",N135*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P135" s="140"/>
-      <c r="Q135" s="141"/>
-      <c r="R135" s="141"/>
-      <c r="S135" s="141"/>
-      <c r="T135" s="141"/>
+      <c r="P135" s="143"/>
+      <c r="Q135" s="144"/>
+      <c r="R135" s="144"/>
+      <c r="S135" s="144"/>
+      <c r="T135" s="144"/>
     </row>
     <row r="136" spans="1:20" ht="15" customHeight="1">
       <c r="A136" s="24"/>
@@ -13195,11 +13339,11 @@
         <f>IF(H136="I",N136*Contagem!$U$11,IF(H136="E",N136*Contagem!$U$13,IF(H136="A",N136*Contagem!$U$12,IF(H136="T",N136*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P136" s="140"/>
-      <c r="Q136" s="141"/>
-      <c r="R136" s="141"/>
-      <c r="S136" s="141"/>
-      <c r="T136" s="141"/>
+      <c r="P136" s="143"/>
+      <c r="Q136" s="144"/>
+      <c r="R136" s="144"/>
+      <c r="S136" s="144"/>
+      <c r="T136" s="144"/>
     </row>
     <row r="137" spans="1:20" ht="15" customHeight="1">
       <c r="A137" s="24"/>
@@ -13232,11 +13376,11 @@
         <f>IF(H137="I",N137*Contagem!$U$11,IF(H137="E",N137*Contagem!$U$13,IF(H137="A",N137*Contagem!$U$12,IF(H137="T",N137*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P137" s="140"/>
-      <c r="Q137" s="141"/>
-      <c r="R137" s="141"/>
-      <c r="S137" s="141"/>
-      <c r="T137" s="141"/>
+      <c r="P137" s="143"/>
+      <c r="Q137" s="144"/>
+      <c r="R137" s="144"/>
+      <c r="S137" s="144"/>
+      <c r="T137" s="144"/>
     </row>
     <row r="138" spans="1:20" ht="15" customHeight="1">
       <c r="A138" s="24"/>
@@ -13269,11 +13413,11 @@
         <f>IF(H138="I",N138*Contagem!$U$11,IF(H138="E",N138*Contagem!$U$13,IF(H138="A",N138*Contagem!$U$12,IF(H138="T",N138*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P138" s="140"/>
-      <c r="Q138" s="141"/>
-      <c r="R138" s="141"/>
-      <c r="S138" s="141"/>
-      <c r="T138" s="141"/>
+      <c r="P138" s="143"/>
+      <c r="Q138" s="144"/>
+      <c r="R138" s="144"/>
+      <c r="S138" s="144"/>
+      <c r="T138" s="144"/>
     </row>
     <row r="139" spans="1:20" ht="15" customHeight="1">
       <c r="A139" s="24"/>
@@ -13306,11 +13450,11 @@
         <f>IF(H139="I",N139*Contagem!$U$11,IF(H139="E",N139*Contagem!$U$13,IF(H139="A",N139*Contagem!$U$12,IF(H139="T",N139*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P139" s="140"/>
-      <c r="Q139" s="141"/>
-      <c r="R139" s="141"/>
-      <c r="S139" s="141"/>
-      <c r="T139" s="141"/>
+      <c r="P139" s="143"/>
+      <c r="Q139" s="144"/>
+      <c r="R139" s="144"/>
+      <c r="S139" s="144"/>
+      <c r="T139" s="144"/>
     </row>
     <row r="140" spans="1:20" ht="15" customHeight="1">
       <c r="A140" s="24"/>
@@ -13343,11 +13487,11 @@
         <f>IF(H140="I",N140*Contagem!$U$11,IF(H140="E",N140*Contagem!$U$13,IF(H140="A",N140*Contagem!$U$12,IF(H140="T",N140*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P140" s="140"/>
-      <c r="Q140" s="141"/>
-      <c r="R140" s="141"/>
-      <c r="S140" s="141"/>
-      <c r="T140" s="141"/>
+      <c r="P140" s="143"/>
+      <c r="Q140" s="144"/>
+      <c r="R140" s="144"/>
+      <c r="S140" s="144"/>
+      <c r="T140" s="144"/>
     </row>
     <row r="141" spans="1:20" ht="15" customHeight="1">
       <c r="A141" s="24"/>
@@ -13380,35 +13524,171 @@
         <f>IF(H141="I",N141*Contagem!$U$11,IF(H141="E",N141*Contagem!$U$13,IF(H141="A",N141*Contagem!$U$12,IF(H141="T",N141*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P141" s="140"/>
-      <c r="Q141" s="141"/>
-      <c r="R141" s="141"/>
-      <c r="S141" s="141"/>
-      <c r="T141" s="141"/>
+      <c r="P141" s="143"/>
+      <c r="Q141" s="144"/>
+      <c r="R141" s="144"/>
+      <c r="S141" s="144"/>
+      <c r="T141" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="202">
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="P94:T94"/>
-    <mergeCell ref="P95:T95"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="P71:T71"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="P82:T82"/>
-    <mergeCell ref="P70:T70"/>
-    <mergeCell ref="P78:T78"/>
+    <mergeCell ref="P125:T125"/>
+    <mergeCell ref="P135:T135"/>
+    <mergeCell ref="P136:T136"/>
+    <mergeCell ref="P137:T137"/>
+    <mergeCell ref="P138:T138"/>
+    <mergeCell ref="P139:T139"/>
+    <mergeCell ref="P140:T140"/>
+    <mergeCell ref="P141:T141"/>
+    <mergeCell ref="P126:T126"/>
+    <mergeCell ref="P127:T127"/>
+    <mergeCell ref="P128:T128"/>
+    <mergeCell ref="P129:T129"/>
+    <mergeCell ref="P130:T130"/>
+    <mergeCell ref="P131:T131"/>
+    <mergeCell ref="P132:T132"/>
+    <mergeCell ref="P133:T133"/>
+    <mergeCell ref="P134:T134"/>
+    <mergeCell ref="P116:T116"/>
+    <mergeCell ref="P117:T117"/>
+    <mergeCell ref="P118:T118"/>
+    <mergeCell ref="P119:T119"/>
+    <mergeCell ref="P120:T120"/>
+    <mergeCell ref="P121:T121"/>
+    <mergeCell ref="P122:T122"/>
+    <mergeCell ref="P123:T123"/>
+    <mergeCell ref="P124:T124"/>
+    <mergeCell ref="P107:T107"/>
+    <mergeCell ref="P108:T108"/>
+    <mergeCell ref="P109:T109"/>
+    <mergeCell ref="P110:T110"/>
+    <mergeCell ref="P111:T111"/>
+    <mergeCell ref="P112:T112"/>
+    <mergeCell ref="P113:T113"/>
+    <mergeCell ref="P114:T114"/>
+    <mergeCell ref="P115:T115"/>
+    <mergeCell ref="P102:T102"/>
+    <mergeCell ref="P103:T103"/>
+    <mergeCell ref="P105:T105"/>
+    <mergeCell ref="P106:T106"/>
+    <mergeCell ref="P99:T99"/>
+    <mergeCell ref="P100:T100"/>
+    <mergeCell ref="P101:T101"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="P75:T75"/>
+    <mergeCell ref="P77:T77"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="P66:T66"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="P34:T34"/>
+    <mergeCell ref="P35:T35"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="P79:T79"/>
+    <mergeCell ref="P80:T80"/>
+    <mergeCell ref="P81:T81"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="P60:T60"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="P57:T57"/>
+    <mergeCell ref="P58:T58"/>
+    <mergeCell ref="P59:T59"/>
+    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="P52:T52"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="P49:T49"/>
+    <mergeCell ref="P50:T50"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="P44:T44"/>
+    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="P46:T46"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="P61:T61"/>
+    <mergeCell ref="P22:T22"/>
+    <mergeCell ref="P31:T31"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="A1:O3"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="P20:T20"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:T4"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G5:T5"/>
     <mergeCell ref="P97:T97"/>
     <mergeCell ref="P98:T98"/>
     <mergeCell ref="A87:F87"/>
@@ -13433,163 +13713,27 @@
     <mergeCell ref="A93:F93"/>
     <mergeCell ref="A94:F94"/>
     <mergeCell ref="P93:T93"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:T4"/>
-    <mergeCell ref="P18:T18"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="P22:T22"/>
-    <mergeCell ref="P31:T31"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="A1:O3"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="P20:T20"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="P49:T49"/>
-    <mergeCell ref="P50:T50"/>
-    <mergeCell ref="P43:T43"/>
-    <mergeCell ref="P44:T44"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="P46:T46"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="P61:T61"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="P79:T79"/>
-    <mergeCell ref="P80:T80"/>
-    <mergeCell ref="P81:T81"/>
-    <mergeCell ref="P68:T68"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="P55:T55"/>
-    <mergeCell ref="P60:T60"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="P57:T57"/>
-    <mergeCell ref="P58:T58"/>
-    <mergeCell ref="P59:T59"/>
-    <mergeCell ref="P51:T51"/>
-    <mergeCell ref="P52:T52"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="P34:T34"/>
-    <mergeCell ref="P35:T35"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="P102:T102"/>
-    <mergeCell ref="P103:T103"/>
-    <mergeCell ref="P105:T105"/>
-    <mergeCell ref="P106:T106"/>
-    <mergeCell ref="P99:T99"/>
-    <mergeCell ref="P100:T100"/>
-    <mergeCell ref="P101:T101"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="P38:T38"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="P75:T75"/>
-    <mergeCell ref="P77:T77"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="P107:T107"/>
-    <mergeCell ref="P108:T108"/>
-    <mergeCell ref="P109:T109"/>
-    <mergeCell ref="P110:T110"/>
-    <mergeCell ref="P111:T111"/>
-    <mergeCell ref="P112:T112"/>
-    <mergeCell ref="P113:T113"/>
-    <mergeCell ref="P114:T114"/>
-    <mergeCell ref="P115:T115"/>
-    <mergeCell ref="P116:T116"/>
-    <mergeCell ref="P117:T117"/>
-    <mergeCell ref="P118:T118"/>
-    <mergeCell ref="P119:T119"/>
-    <mergeCell ref="P120:T120"/>
-    <mergeCell ref="P121:T121"/>
-    <mergeCell ref="P122:T122"/>
-    <mergeCell ref="P123:T123"/>
-    <mergeCell ref="P124:T124"/>
-    <mergeCell ref="P125:T125"/>
-    <mergeCell ref="P135:T135"/>
-    <mergeCell ref="P136:T136"/>
-    <mergeCell ref="P137:T137"/>
-    <mergeCell ref="P138:T138"/>
-    <mergeCell ref="P139:T139"/>
-    <mergeCell ref="P140:T140"/>
-    <mergeCell ref="P141:T141"/>
-    <mergeCell ref="P126:T126"/>
-    <mergeCell ref="P127:T127"/>
-    <mergeCell ref="P128:T128"/>
-    <mergeCell ref="P129:T129"/>
-    <mergeCell ref="P130:T130"/>
-    <mergeCell ref="P131:T131"/>
-    <mergeCell ref="P132:T132"/>
-    <mergeCell ref="P133:T133"/>
-    <mergeCell ref="P134:T134"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="P94:T94"/>
+    <mergeCell ref="P95:T95"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="P71:T71"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="P82:T82"/>
+    <mergeCell ref="P70:T70"/>
+    <mergeCell ref="P78:T78"/>
   </mergeCells>
   <conditionalFormatting sqref="H34:H39 H25:H31 H41:H47 H77:H84 H86:H103 H105:H141 H49:H55 H66:H75 H8:H23 H57:H64">
     <cfRule type="cellIs" dxfId="32" priority="70" operator="equal">
@@ -13788,88 +13932,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="170"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="172"/>
     </row>
     <row r="2" spans="1:12" ht="12" customHeight="1">
-      <c r="A2" s="146"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="171"/>
+      <c r="A2" s="156"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="173"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1">
-      <c r="A3" s="172"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="173"/>
+      <c r="A3" s="174"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="175"/>
     </row>
     <row r="4" spans="1:12" ht="12" customHeight="1">
-      <c r="A4" s="178" t="str">
+      <c r="A4" s="165" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : Siscei</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="166" t="str">
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="168" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v>Projeto : Siscei</v>
       </c>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="167"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="169"/>
     </row>
     <row r="5" spans="1:12" ht="12" customHeight="1">
-      <c r="A5" s="178" t="str">
+      <c r="A5" s="165" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v>Responsável : Felipe Nami</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="166" t="str">
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="168" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="167"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="169"/>
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1">
       <c r="A6" s="26" t="str">
@@ -13880,58 +14024,58 @@
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="165" t="str">
+      <c r="F6" s="167" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 0</v>
       </c>
-      <c r="G6" s="127"/>
-      <c r="H6" s="165" t="str">
+      <c r="G6" s="119"/>
+      <c r="H6" s="167" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 0,00</v>
       </c>
-      <c r="I6" s="126"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="176" t="str">
+      <c r="I6" s="117"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="178" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
         <v>PF  = 421</v>
       </c>
-      <c r="L6" s="167"/>
+      <c r="L6" s="169"/>
     </row>
     <row r="7" spans="1:12" ht="12" customHeight="1">
-      <c r="A7" s="177" t="s">
+      <c r="A7" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="174" t="s">
+      <c r="B7" s="123"/>
+      <c r="C7" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="164" t="s">
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="166" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164" t="s">
+      <c r="H7" s="166"/>
+      <c r="I7" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="175"/>
-      <c r="K7" s="164"/>
-      <c r="L7" s="175"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="166"/>
+      <c r="L7" s="177"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1">
-      <c r="A8" s="172"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="173"/>
+      <c r="A8" s="174"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="175"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="175"/>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1">
       <c r="A9" s="29"/>
@@ -14827,11 +14971,11 @@
     </row>
     <row r="55" spans="1:12" ht="12" customHeight="1">
       <c r="A55" s="32"/>
-      <c r="B55" s="179" t="s">
+      <c r="B55" s="164" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="126"/>
-      <c r="D55" s="127"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="119"/>
       <c r="E55" s="48">
         <f>SUMIF(Funções!$H$8:$H$198,"I",Funções!$N$8:$N$198)</f>
         <v>421</v>
@@ -14854,11 +14998,11 @@
     </row>
     <row r="56" spans="1:12" ht="12" customHeight="1">
       <c r="A56" s="32"/>
-      <c r="B56" s="179" t="s">
+      <c r="B56" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="126"/>
-      <c r="D56" s="127"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="119"/>
       <c r="E56" s="48">
         <f>SUMIF(Funções!$H$8:$H$98,"A",Funções!$N$8:$N$98)</f>
         <v>0</v>
@@ -14882,11 +15026,11 @@
     </row>
     <row r="57" spans="1:12" ht="12" customHeight="1">
       <c r="A57" s="32"/>
-      <c r="B57" s="179" t="s">
+      <c r="B57" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="126"/>
-      <c r="D57" s="127"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="119"/>
       <c r="E57" s="48">
         <f>SUMIF(Funções!$H$8:$H$98,"E",Funções!$N$8:$N$98)</f>
         <v>0</v>
@@ -14907,11 +15051,11 @@
     </row>
     <row r="58" spans="1:12" ht="12" customHeight="1">
       <c r="A58" s="32"/>
-      <c r="B58" s="179" t="s">
+      <c r="B58" s="164" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="126"/>
-      <c r="D58" s="127"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="119"/>
       <c r="E58" s="48">
         <f>SUMIF(Funções!$H$8:$H$98,"T",Funções!$N$8:$N$98)</f>
         <v>0</v>
@@ -14946,11 +15090,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="A4:E4"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F4:L4"/>
@@ -14964,6 +15103,11 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/2-Requisitos/2.5-Planilha_de_Contagem/[SISCEI] Planilha de Contagem em APF.xlsx
+++ b/2-Requisitos/2.5-Planilha_de_Contagem/[SISCEI] Planilha de Contagem em APF.xlsx
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="172">
   <si>
     <t>Identificação da Contagem</t>
   </si>
@@ -1625,20 +1625,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1648,66 +1636,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1721,10 +1700,25 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1754,6 +1748,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3184,6 +3184,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4005,6 +4053,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4890,6 +4986,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="AutoShape 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5176,36 +5320,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12" customHeight="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="124"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="118"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
@@ -5214,34 +5358,34 @@
       <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:35" ht="12" customHeight="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="126"/>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="126"/>
-      <c r="AA2" s="126"/>
-      <c r="AB2" s="127"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="121"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -5251,34 +5395,34 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="12" customHeight="1">
-      <c r="A3" s="128"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="129"/>
-      <c r="S3" s="129"/>
-      <c r="T3" s="129"/>
-      <c r="U3" s="129"/>
-      <c r="V3" s="129"/>
-      <c r="W3" s="129"/>
-      <c r="X3" s="129"/>
-      <c r="Y3" s="129"/>
-      <c r="Z3" s="129"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="130"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
+      <c r="Q3" s="123"/>
+      <c r="R3" s="123"/>
+      <c r="S3" s="123"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="123"/>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="124"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -5288,45 +5432,45 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="136" t="s">
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="126"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="119"/>
+      <c r="S4" s="127"/>
       <c r="T4" s="2">
         <v>0</v>
       </c>
-      <c r="U4" s="136" t="s">
+      <c r="U4" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="119"/>
-      <c r="W4" s="139">
+      <c r="V4" s="127"/>
+      <c r="W4" s="134">
         <f>W5*T4</f>
         <v>0</v>
       </c>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="117"/>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="117"/>
-      <c r="AB4" s="119"/>
+      <c r="X4" s="126"/>
+      <c r="Y4" s="126"/>
+      <c r="Z4" s="126"/>
+      <c r="AA4" s="126"/>
+      <c r="AB4" s="127"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -5336,43 +5480,43 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" ht="12" customHeight="1">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="133" t="s">
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="136" t="s">
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="127"/>
+      <c r="U5" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="V5" s="119"/>
-      <c r="W5" s="132">
+      <c r="V5" s="127"/>
+      <c r="W5" s="133">
         <f>SUM(Y11:Y14)</f>
-        <v>421</v>
-      </c>
-      <c r="X5" s="117"/>
-      <c r="Y5" s="117"/>
-      <c r="Z5" s="117"/>
-      <c r="AA5" s="117"/>
-      <c r="AB5" s="119"/>
+        <v>417</v>
+      </c>
+      <c r="X5" s="126"/>
+      <c r="Y5" s="126"/>
+      <c r="Z5" s="126"/>
+      <c r="AA5" s="126"/>
+      <c r="AB5" s="127"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -5382,38 +5526,38 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" ht="12" customHeight="1">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="133" t="s">
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="117"/>
-      <c r="Q6" s="117"/>
-      <c r="R6" s="117"/>
-      <c r="S6" s="117"/>
-      <c r="T6" s="117"/>
-      <c r="U6" s="117"/>
-      <c r="V6" s="117"/>
-      <c r="W6" s="117"/>
-      <c r="X6" s="117"/>
-      <c r="Y6" s="117"/>
-      <c r="Z6" s="117"/>
-      <c r="AA6" s="117"/>
-      <c r="AB6" s="119"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="127"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -5423,40 +5567,40 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="133" t="s">
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="117"/>
-      <c r="Q7" s="117"/>
-      <c r="R7" s="117"/>
-      <c r="S7" s="117"/>
-      <c r="T7" s="119"/>
-      <c r="U7" s="120" t="s">
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="127"/>
+      <c r="U7" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="117"/>
-      <c r="W7" s="119"/>
-      <c r="X7" s="131"/>
-      <c r="Y7" s="117"/>
-      <c r="Z7" s="117"/>
-      <c r="AA7" s="117"/>
-      <c r="AB7" s="119"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="127"/>
+      <c r="X7" s="139"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="127"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -5466,38 +5610,38 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="117"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="120" t="s">
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="127"/>
+      <c r="U8" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="117"/>
-      <c r="W8" s="119"/>
-      <c r="X8" s="131"/>
-      <c r="Y8" s="117"/>
-      <c r="Z8" s="117"/>
-      <c r="AA8" s="117"/>
-      <c r="AB8" s="119"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="127"/>
+      <c r="X8" s="139"/>
+      <c r="Y8" s="126"/>
+      <c r="Z8" s="126"/>
+      <c r="AA8" s="126"/>
+      <c r="AB8" s="127"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
@@ -5543,46 +5687,46 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="118" t="s">
+      <c r="B10" s="118"/>
+      <c r="C10" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="119"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="127"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="135" t="s">
+      <c r="O10" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="136" t="s">
+      <c r="P10" s="117"/>
+      <c r="Q10" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="119"/>
-      <c r="U10" s="136" t="s">
+      <c r="R10" s="126"/>
+      <c r="S10" s="126"/>
+      <c r="T10" s="127"/>
+      <c r="U10" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="119"/>
-      <c r="Y10" s="136" t="s">
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="Z10" s="117"/>
-      <c r="AA10" s="117"/>
-      <c r="AB10" s="119"/>
+      <c r="Z10" s="126"/>
+      <c r="AA10" s="126"/>
+      <c r="AB10" s="127"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -5592,46 +5736,46 @@
       <c r="AI10" s="1"/>
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1">
-      <c r="A11" s="125"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="118" t="s">
+      <c r="A11" s="119"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="119"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="127"/>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="120" t="s">
+      <c r="O11" s="119"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="119"/>
-      <c r="S11" s="132">
+      <c r="R11" s="127"/>
+      <c r="S11" s="133">
         <f>Sumário!E55</f>
-        <v>421</v>
-      </c>
-      <c r="T11" s="119"/>
-      <c r="U11" s="121">
+        <v>417</v>
+      </c>
+      <c r="T11" s="127"/>
+      <c r="U11" s="138">
         <v>1</v>
       </c>
-      <c r="V11" s="117"/>
-      <c r="W11" s="117"/>
-      <c r="X11" s="119"/>
-      <c r="Y11" s="132">
+      <c r="V11" s="126"/>
+      <c r="W11" s="126"/>
+      <c r="X11" s="127"/>
+      <c r="Y11" s="133">
         <f>S11*U11</f>
-        <v>421</v>
-      </c>
-      <c r="Z11" s="117"/>
-      <c r="AA11" s="117"/>
-      <c r="AB11" s="119"/>
+        <v>417</v>
+      </c>
+      <c r="Z11" s="126"/>
+      <c r="AA11" s="126"/>
+      <c r="AB11" s="127"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -5641,46 +5785,46 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1">
-      <c r="A12" s="125"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="118" t="s">
+      <c r="A12" s="119"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="119"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="127"/>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="125"/>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="120" t="s">
+      <c r="O12" s="119"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="117"/>
-      <c r="S12" s="132">
+      <c r="R12" s="126"/>
+      <c r="S12" s="133">
         <f>Sumário!E56</f>
         <v>0</v>
       </c>
-      <c r="T12" s="119"/>
-      <c r="U12" s="121">
+      <c r="T12" s="127"/>
+      <c r="U12" s="138">
         <v>1</v>
       </c>
-      <c r="V12" s="117"/>
-      <c r="W12" s="117"/>
-      <c r="X12" s="119"/>
-      <c r="Y12" s="132">
+      <c r="V12" s="126"/>
+      <c r="W12" s="126"/>
+      <c r="X12" s="127"/>
+      <c r="Y12" s="133">
         <f t="shared" ref="Y12:Y14" si="0">S12*U12</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="117"/>
-      <c r="AA12" s="117"/>
-      <c r="AB12" s="119"/>
+      <c r="Z12" s="126"/>
+      <c r="AA12" s="126"/>
+      <c r="AB12" s="127"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -5690,46 +5834,46 @@
       <c r="AI12" s="1"/>
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1">
-      <c r="A13" s="125"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="118" t="s">
+      <c r="A13" s="119"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="119"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="127"/>
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="125"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="120" t="s">
+      <c r="O13" s="119"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="117"/>
-      <c r="S13" s="132">
+      <c r="R13" s="126"/>
+      <c r="S13" s="133">
         <f>Sumário!E57</f>
         <v>0</v>
       </c>
-      <c r="T13" s="119"/>
-      <c r="U13" s="121">
+      <c r="T13" s="127"/>
+      <c r="U13" s="138">
         <v>1</v>
       </c>
-      <c r="V13" s="117"/>
-      <c r="W13" s="117"/>
-      <c r="X13" s="119"/>
-      <c r="Y13" s="132">
+      <c r="V13" s="126"/>
+      <c r="W13" s="126"/>
+      <c r="X13" s="127"/>
+      <c r="Y13" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="117"/>
-      <c r="AA13" s="117"/>
-      <c r="AB13" s="119"/>
+      <c r="Z13" s="126"/>
+      <c r="AA13" s="126"/>
+      <c r="AB13" s="127"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -5739,8 +5883,8 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1">
-      <c r="A14" s="128"/>
-      <c r="B14" s="130"/>
+      <c r="A14" s="122"/>
+      <c r="B14" s="124"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -5753,26 +5897,26 @@
       <c r="L14" s="1"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="128"/>
-      <c r="P14" s="129"/>
-      <c r="Q14" s="120"/>
-      <c r="R14" s="117"/>
-      <c r="S14" s="132">
+      <c r="O14" s="122"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="126"/>
+      <c r="S14" s="133">
         <f>Sumário!E58</f>
         <v>0</v>
       </c>
-      <c r="T14" s="119"/>
-      <c r="U14" s="121"/>
-      <c r="V14" s="117"/>
-      <c r="W14" s="117"/>
-      <c r="X14" s="119"/>
-      <c r="Y14" s="132">
+      <c r="T14" s="127"/>
+      <c r="U14" s="138"/>
+      <c r="V14" s="126"/>
+      <c r="W14" s="126"/>
+      <c r="X14" s="127"/>
+      <c r="Y14" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="117"/>
-      <c r="AA14" s="117"/>
-      <c r="AB14" s="119"/>
+      <c r="Z14" s="126"/>
+      <c r="AA14" s="126"/>
+      <c r="AB14" s="127"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -5832,17 +5976,17 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="134" t="s">
+      <c r="K16" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="129"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="123"/>
+      <c r="S16" s="123"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -5861,34 +6005,34 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1">
-      <c r="A17" s="122"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="123"/>
-      <c r="T17" s="123"/>
-      <c r="U17" s="123"/>
-      <c r="V17" s="123"/>
-      <c r="W17" s="123"/>
-      <c r="X17" s="123"/>
-      <c r="Y17" s="123"/>
-      <c r="Z17" s="123"/>
-      <c r="AA17" s="123"/>
-      <c r="AB17" s="124"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="117"/>
+      <c r="Q17" s="117"/>
+      <c r="R17" s="117"/>
+      <c r="S17" s="117"/>
+      <c r="T17" s="117"/>
+      <c r="U17" s="117"/>
+      <c r="V17" s="117"/>
+      <c r="W17" s="117"/>
+      <c r="X17" s="117"/>
+      <c r="Y17" s="117"/>
+      <c r="Z17" s="117"/>
+      <c r="AA17" s="117"/>
+      <c r="AB17" s="118"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
@@ -5898,34 +6042,34 @@
       <c r="AI17" s="1"/>
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1">
-      <c r="A18" s="125"/>
-      <c r="B18" s="126"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="126"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="126"/>
-      <c r="M18" s="126"/>
-      <c r="N18" s="126"/>
-      <c r="O18" s="126"/>
-      <c r="P18" s="126"/>
-      <c r="Q18" s="126"/>
-      <c r="R18" s="126"/>
-      <c r="S18" s="126"/>
-      <c r="T18" s="126"/>
-      <c r="U18" s="126"/>
-      <c r="V18" s="126"/>
-      <c r="W18" s="126"/>
-      <c r="X18" s="126"/>
-      <c r="Y18" s="126"/>
-      <c r="Z18" s="126"/>
-      <c r="AA18" s="126"/>
-      <c r="AB18" s="127"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="120"/>
+      <c r="S18" s="120"/>
+      <c r="T18" s="120"/>
+      <c r="U18" s="120"/>
+      <c r="V18" s="120"/>
+      <c r="W18" s="120"/>
+      <c r="X18" s="120"/>
+      <c r="Y18" s="120"/>
+      <c r="Z18" s="120"/>
+      <c r="AA18" s="120"/>
+      <c r="AB18" s="121"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
@@ -5935,34 +6079,34 @@
       <c r="AI18" s="1"/>
     </row>
     <row r="19" spans="1:35" ht="12" customHeight="1">
-      <c r="A19" s="125"/>
-      <c r="B19" s="126"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="126"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="126"/>
-      <c r="S19" s="126"/>
-      <c r="T19" s="126"/>
-      <c r="U19" s="126"/>
-      <c r="V19" s="126"/>
-      <c r="W19" s="126"/>
-      <c r="X19" s="126"/>
-      <c r="Y19" s="126"/>
-      <c r="Z19" s="126"/>
-      <c r="AA19" s="126"/>
-      <c r="AB19" s="127"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="120"/>
+      <c r="Q19" s="120"/>
+      <c r="R19" s="120"/>
+      <c r="S19" s="120"/>
+      <c r="T19" s="120"/>
+      <c r="U19" s="120"/>
+      <c r="V19" s="120"/>
+      <c r="W19" s="120"/>
+      <c r="X19" s="120"/>
+      <c r="Y19" s="120"/>
+      <c r="Z19" s="120"/>
+      <c r="AA19" s="120"/>
+      <c r="AB19" s="121"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
@@ -5972,34 +6116,34 @@
       <c r="AI19" s="1"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
-      <c r="A20" s="125"/>
-      <c r="B20" s="126"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="126"/>
-      <c r="L20" s="126"/>
-      <c r="M20" s="126"/>
-      <c r="N20" s="126"/>
-      <c r="O20" s="126"/>
-      <c r="P20" s="126"/>
-      <c r="Q20" s="126"/>
-      <c r="R20" s="126"/>
-      <c r="S20" s="126"/>
-      <c r="T20" s="126"/>
-      <c r="U20" s="126"/>
-      <c r="V20" s="126"/>
-      <c r="W20" s="126"/>
-      <c r="X20" s="126"/>
-      <c r="Y20" s="126"/>
-      <c r="Z20" s="126"/>
-      <c r="AA20" s="126"/>
-      <c r="AB20" s="127"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="120"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="120"/>
+      <c r="S20" s="120"/>
+      <c r="T20" s="120"/>
+      <c r="U20" s="120"/>
+      <c r="V20" s="120"/>
+      <c r="W20" s="120"/>
+      <c r="X20" s="120"/>
+      <c r="Y20" s="120"/>
+      <c r="Z20" s="120"/>
+      <c r="AA20" s="120"/>
+      <c r="AB20" s="121"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
@@ -6009,34 +6153,34 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1">
-      <c r="A21" s="125"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="126"/>
-      <c r="O21" s="126"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="126"/>
-      <c r="R21" s="126"/>
-      <c r="S21" s="126"/>
-      <c r="T21" s="126"/>
-      <c r="U21" s="126"/>
-      <c r="V21" s="126"/>
-      <c r="W21" s="126"/>
-      <c r="X21" s="126"/>
-      <c r="Y21" s="126"/>
-      <c r="Z21" s="126"/>
-      <c r="AA21" s="126"/>
-      <c r="AB21" s="127"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="120"/>
+      <c r="S21" s="120"/>
+      <c r="T21" s="120"/>
+      <c r="U21" s="120"/>
+      <c r="V21" s="120"/>
+      <c r="W21" s="120"/>
+      <c r="X21" s="120"/>
+      <c r="Y21" s="120"/>
+      <c r="Z21" s="120"/>
+      <c r="AA21" s="120"/>
+      <c r="AB21" s="121"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
@@ -6046,34 +6190,34 @@
       <c r="AI21" s="1"/>
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1">
-      <c r="A22" s="125"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="126"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="126"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="126"/>
-      <c r="R22" s="126"/>
-      <c r="S22" s="126"/>
-      <c r="T22" s="126"/>
-      <c r="U22" s="126"/>
-      <c r="V22" s="126"/>
-      <c r="W22" s="126"/>
-      <c r="X22" s="126"/>
-      <c r="Y22" s="126"/>
-      <c r="Z22" s="126"/>
-      <c r="AA22" s="126"/>
-      <c r="AB22" s="127"/>
+      <c r="A22" s="119"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="120"/>
+      <c r="Q22" s="120"/>
+      <c r="R22" s="120"/>
+      <c r="S22" s="120"/>
+      <c r="T22" s="120"/>
+      <c r="U22" s="120"/>
+      <c r="V22" s="120"/>
+      <c r="W22" s="120"/>
+      <c r="X22" s="120"/>
+      <c r="Y22" s="120"/>
+      <c r="Z22" s="120"/>
+      <c r="AA22" s="120"/>
+      <c r="AB22" s="121"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
@@ -6083,34 +6227,34 @@
       <c r="AI22" s="1"/>
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1">
-      <c r="A23" s="125"/>
-      <c r="B23" s="126"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="126"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="126"/>
-      <c r="S23" s="126"/>
-      <c r="T23" s="126"/>
-      <c r="U23" s="126"/>
-      <c r="V23" s="126"/>
-      <c r="W23" s="126"/>
-      <c r="X23" s="126"/>
-      <c r="Y23" s="126"/>
-      <c r="Z23" s="126"/>
-      <c r="AA23" s="126"/>
-      <c r="AB23" s="127"/>
+      <c r="A23" s="119"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="120"/>
+      <c r="Q23" s="120"/>
+      <c r="R23" s="120"/>
+      <c r="S23" s="120"/>
+      <c r="T23" s="120"/>
+      <c r="U23" s="120"/>
+      <c r="V23" s="120"/>
+      <c r="W23" s="120"/>
+      <c r="X23" s="120"/>
+      <c r="Y23" s="120"/>
+      <c r="Z23" s="120"/>
+      <c r="AA23" s="120"/>
+      <c r="AB23" s="121"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
@@ -6120,34 +6264,34 @@
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1">
-      <c r="A24" s="125"/>
-      <c r="B24" s="126"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="126"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="126"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="126"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="126"/>
-      <c r="R24" s="126"/>
-      <c r="S24" s="126"/>
-      <c r="T24" s="126"/>
-      <c r="U24" s="126"/>
-      <c r="V24" s="126"/>
-      <c r="W24" s="126"/>
-      <c r="X24" s="126"/>
-      <c r="Y24" s="126"/>
-      <c r="Z24" s="126"/>
-      <c r="AA24" s="126"/>
-      <c r="AB24" s="127"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="120"/>
+      <c r="S24" s="120"/>
+      <c r="T24" s="120"/>
+      <c r="U24" s="120"/>
+      <c r="V24" s="120"/>
+      <c r="W24" s="120"/>
+      <c r="X24" s="120"/>
+      <c r="Y24" s="120"/>
+      <c r="Z24" s="120"/>
+      <c r="AA24" s="120"/>
+      <c r="AB24" s="121"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
@@ -6157,34 +6301,34 @@
       <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" ht="12" customHeight="1">
-      <c r="A25" s="125"/>
-      <c r="B25" s="126"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="126"/>
-      <c r="K25" s="126"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="126"/>
-      <c r="N25" s="126"/>
-      <c r="O25" s="126"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="126"/>
-      <c r="R25" s="126"/>
-      <c r="S25" s="126"/>
-      <c r="T25" s="126"/>
-      <c r="U25" s="126"/>
-      <c r="V25" s="126"/>
-      <c r="W25" s="126"/>
-      <c r="X25" s="126"/>
-      <c r="Y25" s="126"/>
-      <c r="Z25" s="126"/>
-      <c r="AA25" s="126"/>
-      <c r="AB25" s="127"/>
+      <c r="A25" s="119"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="120"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="120"/>
+      <c r="N25" s="120"/>
+      <c r="O25" s="120"/>
+      <c r="P25" s="120"/>
+      <c r="Q25" s="120"/>
+      <c r="R25" s="120"/>
+      <c r="S25" s="120"/>
+      <c r="T25" s="120"/>
+      <c r="U25" s="120"/>
+      <c r="V25" s="120"/>
+      <c r="W25" s="120"/>
+      <c r="X25" s="120"/>
+      <c r="Y25" s="120"/>
+      <c r="Z25" s="120"/>
+      <c r="AA25" s="120"/>
+      <c r="AB25" s="121"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
@@ -6194,34 +6338,34 @@
       <c r="AI25" s="1"/>
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1">
-      <c r="A26" s="125"/>
-      <c r="B26" s="126"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
-      <c r="T26" s="126"/>
-      <c r="U26" s="126"/>
-      <c r="V26" s="126"/>
-      <c r="W26" s="126"/>
-      <c r="X26" s="126"/>
-      <c r="Y26" s="126"/>
-      <c r="Z26" s="126"/>
-      <c r="AA26" s="126"/>
-      <c r="AB26" s="127"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="120"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="120"/>
+      <c r="S26" s="120"/>
+      <c r="T26" s="120"/>
+      <c r="U26" s="120"/>
+      <c r="V26" s="120"/>
+      <c r="W26" s="120"/>
+      <c r="X26" s="120"/>
+      <c r="Y26" s="120"/>
+      <c r="Z26" s="120"/>
+      <c r="AA26" s="120"/>
+      <c r="AB26" s="121"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
@@ -6231,34 +6375,34 @@
       <c r="AI26" s="1"/>
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1">
-      <c r="A27" s="125"/>
-      <c r="B27" s="126"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="126"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="126"/>
-      <c r="S27" s="126"/>
-      <c r="T27" s="126"/>
-      <c r="U27" s="126"/>
-      <c r="V27" s="126"/>
-      <c r="W27" s="126"/>
-      <c r="X27" s="126"/>
-      <c r="Y27" s="126"/>
-      <c r="Z27" s="126"/>
-      <c r="AA27" s="126"/>
-      <c r="AB27" s="127"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="120"/>
+      <c r="S27" s="120"/>
+      <c r="T27" s="120"/>
+      <c r="U27" s="120"/>
+      <c r="V27" s="120"/>
+      <c r="W27" s="120"/>
+      <c r="X27" s="120"/>
+      <c r="Y27" s="120"/>
+      <c r="Z27" s="120"/>
+      <c r="AA27" s="120"/>
+      <c r="AB27" s="121"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
@@ -6268,34 +6412,34 @@
       <c r="AI27" s="1"/>
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1">
-      <c r="A28" s="125"/>
-      <c r="B28" s="126"/>
-      <c r="C28" s="126"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="126"/>
-      <c r="J28" s="126"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="126"/>
-      <c r="M28" s="126"/>
-      <c r="N28" s="126"/>
-      <c r="O28" s="126"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="126"/>
-      <c r="S28" s="126"/>
-      <c r="T28" s="126"/>
-      <c r="U28" s="126"/>
-      <c r="V28" s="126"/>
-      <c r="W28" s="126"/>
-      <c r="X28" s="126"/>
-      <c r="Y28" s="126"/>
-      <c r="Z28" s="126"/>
-      <c r="AA28" s="126"/>
-      <c r="AB28" s="127"/>
+      <c r="A28" s="119"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="120"/>
+      <c r="P28" s="120"/>
+      <c r="Q28" s="120"/>
+      <c r="R28" s="120"/>
+      <c r="S28" s="120"/>
+      <c r="T28" s="120"/>
+      <c r="U28" s="120"/>
+      <c r="V28" s="120"/>
+      <c r="W28" s="120"/>
+      <c r="X28" s="120"/>
+      <c r="Y28" s="120"/>
+      <c r="Z28" s="120"/>
+      <c r="AA28" s="120"/>
+      <c r="AB28" s="121"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
@@ -6305,34 +6449,34 @@
       <c r="AI28" s="1"/>
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1">
-      <c r="A29" s="125"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="126"/>
-      <c r="N29" s="126"/>
-      <c r="O29" s="126"/>
-      <c r="P29" s="126"/>
-      <c r="Q29" s="126"/>
-      <c r="R29" s="126"/>
-      <c r="S29" s="126"/>
-      <c r="T29" s="126"/>
-      <c r="U29" s="126"/>
-      <c r="V29" s="126"/>
-      <c r="W29" s="126"/>
-      <c r="X29" s="126"/>
-      <c r="Y29" s="126"/>
-      <c r="Z29" s="126"/>
-      <c r="AA29" s="126"/>
-      <c r="AB29" s="127"/>
+      <c r="A29" s="119"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="120"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="120"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="120"/>
+      <c r="S29" s="120"/>
+      <c r="T29" s="120"/>
+      <c r="U29" s="120"/>
+      <c r="V29" s="120"/>
+      <c r="W29" s="120"/>
+      <c r="X29" s="120"/>
+      <c r="Y29" s="120"/>
+      <c r="Z29" s="120"/>
+      <c r="AA29" s="120"/>
+      <c r="AB29" s="121"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
@@ -6342,34 +6486,34 @@
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1">
-      <c r="A30" s="125"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="126"/>
-      <c r="N30" s="126"/>
-      <c r="O30" s="126"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="126"/>
-      <c r="S30" s="126"/>
-      <c r="T30" s="126"/>
-      <c r="U30" s="126"/>
-      <c r="V30" s="126"/>
-      <c r="W30" s="126"/>
-      <c r="X30" s="126"/>
-      <c r="Y30" s="126"/>
-      <c r="Z30" s="126"/>
-      <c r="AA30" s="126"/>
-      <c r="AB30" s="127"/>
+      <c r="A30" s="119"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="120"/>
+      <c r="N30" s="120"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="120"/>
+      <c r="Q30" s="120"/>
+      <c r="R30" s="120"/>
+      <c r="S30" s="120"/>
+      <c r="T30" s="120"/>
+      <c r="U30" s="120"/>
+      <c r="V30" s="120"/>
+      <c r="W30" s="120"/>
+      <c r="X30" s="120"/>
+      <c r="Y30" s="120"/>
+      <c r="Z30" s="120"/>
+      <c r="AA30" s="120"/>
+      <c r="AB30" s="121"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
@@ -6379,34 +6523,34 @@
       <c r="AI30" s="1"/>
     </row>
     <row r="31" spans="1:35" ht="12" customHeight="1">
-      <c r="A31" s="125"/>
-      <c r="B31" s="126"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="126"/>
-      <c r="N31" s="126"/>
-      <c r="O31" s="126"/>
-      <c r="P31" s="126"/>
-      <c r="Q31" s="126"/>
-      <c r="R31" s="126"/>
-      <c r="S31" s="126"/>
-      <c r="T31" s="126"/>
-      <c r="U31" s="126"/>
-      <c r="V31" s="126"/>
-      <c r="W31" s="126"/>
-      <c r="X31" s="126"/>
-      <c r="Y31" s="126"/>
-      <c r="Z31" s="126"/>
-      <c r="AA31" s="126"/>
-      <c r="AB31" s="127"/>
+      <c r="A31" s="119"/>
+      <c r="B31" s="120"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="120"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="120"/>
+      <c r="N31" s="120"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="120"/>
+      <c r="Q31" s="120"/>
+      <c r="R31" s="120"/>
+      <c r="S31" s="120"/>
+      <c r="T31" s="120"/>
+      <c r="U31" s="120"/>
+      <c r="V31" s="120"/>
+      <c r="W31" s="120"/>
+      <c r="X31" s="120"/>
+      <c r="Y31" s="120"/>
+      <c r="Z31" s="120"/>
+      <c r="AA31" s="120"/>
+      <c r="AB31" s="121"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
@@ -6416,34 +6560,34 @@
       <c r="AI31" s="1"/>
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1">
-      <c r="A32" s="125"/>
-      <c r="B32" s="126"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="126"/>
-      <c r="L32" s="126"/>
-      <c r="M32" s="126"/>
-      <c r="N32" s="126"/>
-      <c r="O32" s="126"/>
-      <c r="P32" s="126"/>
-      <c r="Q32" s="126"/>
-      <c r="R32" s="126"/>
-      <c r="S32" s="126"/>
-      <c r="T32" s="126"/>
-      <c r="U32" s="126"/>
-      <c r="V32" s="126"/>
-      <c r="W32" s="126"/>
-      <c r="X32" s="126"/>
-      <c r="Y32" s="126"/>
-      <c r="Z32" s="126"/>
-      <c r="AA32" s="126"/>
-      <c r="AB32" s="127"/>
+      <c r="A32" s="119"/>
+      <c r="B32" s="120"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="120"/>
+      <c r="J32" s="120"/>
+      <c r="K32" s="120"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="120"/>
+      <c r="N32" s="120"/>
+      <c r="O32" s="120"/>
+      <c r="P32" s="120"/>
+      <c r="Q32" s="120"/>
+      <c r="R32" s="120"/>
+      <c r="S32" s="120"/>
+      <c r="T32" s="120"/>
+      <c r="U32" s="120"/>
+      <c r="V32" s="120"/>
+      <c r="W32" s="120"/>
+      <c r="X32" s="120"/>
+      <c r="Y32" s="120"/>
+      <c r="Z32" s="120"/>
+      <c r="AA32" s="120"/>
+      <c r="AB32" s="121"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
@@ -6453,34 +6597,34 @@
       <c r="AI32" s="1"/>
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1">
-      <c r="A33" s="125"/>
-      <c r="B33" s="126"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="126"/>
-      <c r="N33" s="126"/>
-      <c r="O33" s="126"/>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="126"/>
-      <c r="R33" s="126"/>
-      <c r="S33" s="126"/>
-      <c r="T33" s="126"/>
-      <c r="U33" s="126"/>
-      <c r="V33" s="126"/>
-      <c r="W33" s="126"/>
-      <c r="X33" s="126"/>
-      <c r="Y33" s="126"/>
-      <c r="Z33" s="126"/>
-      <c r="AA33" s="126"/>
-      <c r="AB33" s="127"/>
+      <c r="A33" s="119"/>
+      <c r="B33" s="120"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="120"/>
+      <c r="J33" s="120"/>
+      <c r="K33" s="120"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="120"/>
+      <c r="N33" s="120"/>
+      <c r="O33" s="120"/>
+      <c r="P33" s="120"/>
+      <c r="Q33" s="120"/>
+      <c r="R33" s="120"/>
+      <c r="S33" s="120"/>
+      <c r="T33" s="120"/>
+      <c r="U33" s="120"/>
+      <c r="V33" s="120"/>
+      <c r="W33" s="120"/>
+      <c r="X33" s="120"/>
+      <c r="Y33" s="120"/>
+      <c r="Z33" s="120"/>
+      <c r="AA33" s="120"/>
+      <c r="AB33" s="121"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
@@ -6490,34 +6634,34 @@
       <c r="AI33" s="1"/>
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1">
-      <c r="A34" s="125"/>
-      <c r="B34" s="126"/>
-      <c r="C34" s="126"/>
-      <c r="D34" s="126"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="126"/>
-      <c r="H34" s="126"/>
-      <c r="I34" s="126"/>
-      <c r="J34" s="126"/>
-      <c r="K34" s="126"/>
-      <c r="L34" s="126"/>
-      <c r="M34" s="126"/>
-      <c r="N34" s="126"/>
-      <c r="O34" s="126"/>
-      <c r="P34" s="126"/>
-      <c r="Q34" s="126"/>
-      <c r="R34" s="126"/>
-      <c r="S34" s="126"/>
-      <c r="T34" s="126"/>
-      <c r="U34" s="126"/>
-      <c r="V34" s="126"/>
-      <c r="W34" s="126"/>
-      <c r="X34" s="126"/>
-      <c r="Y34" s="126"/>
-      <c r="Z34" s="126"/>
-      <c r="AA34" s="126"/>
-      <c r="AB34" s="127"/>
+      <c r="A34" s="119"/>
+      <c r="B34" s="120"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="120"/>
+      <c r="K34" s="120"/>
+      <c r="L34" s="120"/>
+      <c r="M34" s="120"/>
+      <c r="N34" s="120"/>
+      <c r="O34" s="120"/>
+      <c r="P34" s="120"/>
+      <c r="Q34" s="120"/>
+      <c r="R34" s="120"/>
+      <c r="S34" s="120"/>
+      <c r="T34" s="120"/>
+      <c r="U34" s="120"/>
+      <c r="V34" s="120"/>
+      <c r="W34" s="120"/>
+      <c r="X34" s="120"/>
+      <c r="Y34" s="120"/>
+      <c r="Z34" s="120"/>
+      <c r="AA34" s="120"/>
+      <c r="AB34" s="121"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
@@ -6527,34 +6671,34 @@
       <c r="AI34" s="1"/>
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1">
-      <c r="A35" s="125"/>
-      <c r="B35" s="126"/>
-      <c r="C35" s="126"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="126"/>
-      <c r="N35" s="126"/>
-      <c r="O35" s="126"/>
-      <c r="P35" s="126"/>
-      <c r="Q35" s="126"/>
-      <c r="R35" s="126"/>
-      <c r="S35" s="126"/>
-      <c r="T35" s="126"/>
-      <c r="U35" s="126"/>
-      <c r="V35" s="126"/>
-      <c r="W35" s="126"/>
-      <c r="X35" s="126"/>
-      <c r="Y35" s="126"/>
-      <c r="Z35" s="126"/>
-      <c r="AA35" s="126"/>
-      <c r="AB35" s="127"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="120"/>
+      <c r="K35" s="120"/>
+      <c r="L35" s="120"/>
+      <c r="M35" s="120"/>
+      <c r="N35" s="120"/>
+      <c r="O35" s="120"/>
+      <c r="P35" s="120"/>
+      <c r="Q35" s="120"/>
+      <c r="R35" s="120"/>
+      <c r="S35" s="120"/>
+      <c r="T35" s="120"/>
+      <c r="U35" s="120"/>
+      <c r="V35" s="120"/>
+      <c r="W35" s="120"/>
+      <c r="X35" s="120"/>
+      <c r="Y35" s="120"/>
+      <c r="Z35" s="120"/>
+      <c r="AA35" s="120"/>
+      <c r="AB35" s="121"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
@@ -6564,34 +6708,34 @@
       <c r="AI35" s="1"/>
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1">
-      <c r="A36" s="125"/>
-      <c r="B36" s="126"/>
-      <c r="C36" s="126"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="126"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="126"/>
-      <c r="N36" s="126"/>
-      <c r="O36" s="126"/>
-      <c r="P36" s="126"/>
-      <c r="Q36" s="126"/>
-      <c r="R36" s="126"/>
-      <c r="S36" s="126"/>
-      <c r="T36" s="126"/>
-      <c r="U36" s="126"/>
-      <c r="V36" s="126"/>
-      <c r="W36" s="126"/>
-      <c r="X36" s="126"/>
-      <c r="Y36" s="126"/>
-      <c r="Z36" s="126"/>
-      <c r="AA36" s="126"/>
-      <c r="AB36" s="127"/>
+      <c r="A36" s="119"/>
+      <c r="B36" s="120"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="120"/>
+      <c r="K36" s="120"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="120"/>
+      <c r="N36" s="120"/>
+      <c r="O36" s="120"/>
+      <c r="P36" s="120"/>
+      <c r="Q36" s="120"/>
+      <c r="R36" s="120"/>
+      <c r="S36" s="120"/>
+      <c r="T36" s="120"/>
+      <c r="U36" s="120"/>
+      <c r="V36" s="120"/>
+      <c r="W36" s="120"/>
+      <c r="X36" s="120"/>
+      <c r="Y36" s="120"/>
+      <c r="Z36" s="120"/>
+      <c r="AA36" s="120"/>
+      <c r="AB36" s="121"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
@@ -6601,34 +6745,34 @@
       <c r="AI36" s="1"/>
     </row>
     <row r="37" spans="1:35" ht="12" customHeight="1">
-      <c r="A37" s="125"/>
-      <c r="B37" s="126"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="126"/>
-      <c r="L37" s="126"/>
-      <c r="M37" s="126"/>
-      <c r="N37" s="126"/>
-      <c r="O37" s="126"/>
-      <c r="P37" s="126"/>
-      <c r="Q37" s="126"/>
-      <c r="R37" s="126"/>
-      <c r="S37" s="126"/>
-      <c r="T37" s="126"/>
-      <c r="U37" s="126"/>
-      <c r="V37" s="126"/>
-      <c r="W37" s="126"/>
-      <c r="X37" s="126"/>
-      <c r="Y37" s="126"/>
-      <c r="Z37" s="126"/>
-      <c r="AA37" s="126"/>
-      <c r="AB37" s="127"/>
+      <c r="A37" s="119"/>
+      <c r="B37" s="120"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="120"/>
+      <c r="K37" s="120"/>
+      <c r="L37" s="120"/>
+      <c r="M37" s="120"/>
+      <c r="N37" s="120"/>
+      <c r="O37" s="120"/>
+      <c r="P37" s="120"/>
+      <c r="Q37" s="120"/>
+      <c r="R37" s="120"/>
+      <c r="S37" s="120"/>
+      <c r="T37" s="120"/>
+      <c r="U37" s="120"/>
+      <c r="V37" s="120"/>
+      <c r="W37" s="120"/>
+      <c r="X37" s="120"/>
+      <c r="Y37" s="120"/>
+      <c r="Z37" s="120"/>
+      <c r="AA37" s="120"/>
+      <c r="AB37" s="121"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
@@ -6638,34 +6782,34 @@
       <c r="AI37" s="1"/>
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1">
-      <c r="A38" s="128"/>
-      <c r="B38" s="129"/>
-      <c r="C38" s="129"/>
-      <c r="D38" s="129"/>
-      <c r="E38" s="129"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="129"/>
-      <c r="J38" s="129"/>
-      <c r="K38" s="129"/>
-      <c r="L38" s="129"/>
-      <c r="M38" s="129"/>
-      <c r="N38" s="129"/>
-      <c r="O38" s="129"/>
-      <c r="P38" s="129"/>
-      <c r="Q38" s="129"/>
-      <c r="R38" s="129"/>
-      <c r="S38" s="129"/>
-      <c r="T38" s="129"/>
-      <c r="U38" s="129"/>
-      <c r="V38" s="129"/>
-      <c r="W38" s="129"/>
-      <c r="X38" s="129"/>
-      <c r="Y38" s="129"/>
-      <c r="Z38" s="129"/>
-      <c r="AA38" s="129"/>
-      <c r="AB38" s="130"/>
+      <c r="A38" s="122"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="123"/>
+      <c r="K38" s="123"/>
+      <c r="L38" s="123"/>
+      <c r="M38" s="123"/>
+      <c r="N38" s="123"/>
+      <c r="O38" s="123"/>
+      <c r="P38" s="123"/>
+      <c r="Q38" s="123"/>
+      <c r="R38" s="123"/>
+      <c r="S38" s="123"/>
+      <c r="T38" s="123"/>
+      <c r="U38" s="123"/>
+      <c r="V38" s="123"/>
+      <c r="W38" s="123"/>
+      <c r="X38" s="123"/>
+      <c r="Y38" s="123"/>
+      <c r="Z38" s="123"/>
+      <c r="AA38" s="123"/>
+      <c r="AB38" s="124"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
@@ -6722,17 +6866,17 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="134" t="s">
+      <c r="K40" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="129"/>
-      <c r="M40" s="129"/>
-      <c r="N40" s="129"/>
-      <c r="O40" s="129"/>
-      <c r="P40" s="129"/>
-      <c r="Q40" s="129"/>
-      <c r="R40" s="129"/>
-      <c r="S40" s="129"/>
+      <c r="L40" s="123"/>
+      <c r="M40" s="123"/>
+      <c r="N40" s="123"/>
+      <c r="O40" s="123"/>
+      <c r="P40" s="123"/>
+      <c r="Q40" s="123"/>
+      <c r="R40" s="123"/>
+      <c r="S40" s="123"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -6751,34 +6895,34 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1">
-      <c r="A41" s="122"/>
-      <c r="B41" s="123"/>
-      <c r="C41" s="123"/>
-      <c r="D41" s="123"/>
-      <c r="E41" s="123"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="123"/>
-      <c r="I41" s="123"/>
-      <c r="J41" s="123"/>
-      <c r="K41" s="123"/>
-      <c r="L41" s="123"/>
-      <c r="M41" s="123"/>
-      <c r="N41" s="123"/>
-      <c r="O41" s="123"/>
-      <c r="P41" s="123"/>
-      <c r="Q41" s="123"/>
-      <c r="R41" s="123"/>
-      <c r="S41" s="123"/>
-      <c r="T41" s="123"/>
-      <c r="U41" s="123"/>
-      <c r="V41" s="123"/>
-      <c r="W41" s="123"/>
-      <c r="X41" s="123"/>
-      <c r="Y41" s="123"/>
-      <c r="Z41" s="123"/>
-      <c r="AA41" s="123"/>
-      <c r="AB41" s="124"/>
+      <c r="A41" s="136"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="117"/>
+      <c r="J41" s="117"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="117"/>
+      <c r="M41" s="117"/>
+      <c r="N41" s="117"/>
+      <c r="O41" s="117"/>
+      <c r="P41" s="117"/>
+      <c r="Q41" s="117"/>
+      <c r="R41" s="117"/>
+      <c r="S41" s="117"/>
+      <c r="T41" s="117"/>
+      <c r="U41" s="117"/>
+      <c r="V41" s="117"/>
+      <c r="W41" s="117"/>
+      <c r="X41" s="117"/>
+      <c r="Y41" s="117"/>
+      <c r="Z41" s="117"/>
+      <c r="AA41" s="117"/>
+      <c r="AB41" s="118"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
@@ -6788,34 +6932,34 @@
       <c r="AI41" s="1"/>
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1">
-      <c r="A42" s="125"/>
-      <c r="B42" s="126"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="126"/>
-      <c r="K42" s="126"/>
-      <c r="L42" s="126"/>
-      <c r="M42" s="126"/>
-      <c r="N42" s="126"/>
-      <c r="O42" s="126"/>
-      <c r="P42" s="126"/>
-      <c r="Q42" s="126"/>
-      <c r="R42" s="126"/>
-      <c r="S42" s="126"/>
-      <c r="T42" s="126"/>
-      <c r="U42" s="126"/>
-      <c r="V42" s="126"/>
-      <c r="W42" s="126"/>
-      <c r="X42" s="126"/>
-      <c r="Y42" s="126"/>
-      <c r="Z42" s="126"/>
-      <c r="AA42" s="126"/>
-      <c r="AB42" s="127"/>
+      <c r="A42" s="119"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="120"/>
+      <c r="J42" s="120"/>
+      <c r="K42" s="120"/>
+      <c r="L42" s="120"/>
+      <c r="M42" s="120"/>
+      <c r="N42" s="120"/>
+      <c r="O42" s="120"/>
+      <c r="P42" s="120"/>
+      <c r="Q42" s="120"/>
+      <c r="R42" s="120"/>
+      <c r="S42" s="120"/>
+      <c r="T42" s="120"/>
+      <c r="U42" s="120"/>
+      <c r="V42" s="120"/>
+      <c r="W42" s="120"/>
+      <c r="X42" s="120"/>
+      <c r="Y42" s="120"/>
+      <c r="Z42" s="120"/>
+      <c r="AA42" s="120"/>
+      <c r="AB42" s="121"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
@@ -6825,34 +6969,34 @@
       <c r="AI42" s="1"/>
     </row>
     <row r="43" spans="1:35" ht="12" customHeight="1">
-      <c r="A43" s="125"/>
-      <c r="B43" s="126"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="126"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="126"/>
-      <c r="G43" s="126"/>
-      <c r="H43" s="126"/>
-      <c r="I43" s="126"/>
-      <c r="J43" s="126"/>
-      <c r="K43" s="126"/>
-      <c r="L43" s="126"/>
-      <c r="M43" s="126"/>
-      <c r="N43" s="126"/>
-      <c r="O43" s="126"/>
-      <c r="P43" s="126"/>
-      <c r="Q43" s="126"/>
-      <c r="R43" s="126"/>
-      <c r="S43" s="126"/>
-      <c r="T43" s="126"/>
-      <c r="U43" s="126"/>
-      <c r="V43" s="126"/>
-      <c r="W43" s="126"/>
-      <c r="X43" s="126"/>
-      <c r="Y43" s="126"/>
-      <c r="Z43" s="126"/>
-      <c r="AA43" s="126"/>
-      <c r="AB43" s="127"/>
+      <c r="A43" s="119"/>
+      <c r="B43" s="120"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="120"/>
+      <c r="K43" s="120"/>
+      <c r="L43" s="120"/>
+      <c r="M43" s="120"/>
+      <c r="N43" s="120"/>
+      <c r="O43" s="120"/>
+      <c r="P43" s="120"/>
+      <c r="Q43" s="120"/>
+      <c r="R43" s="120"/>
+      <c r="S43" s="120"/>
+      <c r="T43" s="120"/>
+      <c r="U43" s="120"/>
+      <c r="V43" s="120"/>
+      <c r="W43" s="120"/>
+      <c r="X43" s="120"/>
+      <c r="Y43" s="120"/>
+      <c r="Z43" s="120"/>
+      <c r="AA43" s="120"/>
+      <c r="AB43" s="121"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
@@ -6862,34 +7006,34 @@
       <c r="AI43" s="1"/>
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1">
-      <c r="A44" s="125"/>
-      <c r="B44" s="126"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="126"/>
-      <c r="E44" s="126"/>
-      <c r="F44" s="126"/>
-      <c r="G44" s="126"/>
-      <c r="H44" s="126"/>
-      <c r="I44" s="126"/>
-      <c r="J44" s="126"/>
-      <c r="K44" s="126"/>
-      <c r="L44" s="126"/>
-      <c r="M44" s="126"/>
-      <c r="N44" s="126"/>
-      <c r="O44" s="126"/>
-      <c r="P44" s="126"/>
-      <c r="Q44" s="126"/>
-      <c r="R44" s="126"/>
-      <c r="S44" s="126"/>
-      <c r="T44" s="126"/>
-      <c r="U44" s="126"/>
-      <c r="V44" s="126"/>
-      <c r="W44" s="126"/>
-      <c r="X44" s="126"/>
-      <c r="Y44" s="126"/>
-      <c r="Z44" s="126"/>
-      <c r="AA44" s="126"/>
-      <c r="AB44" s="127"/>
+      <c r="A44" s="119"/>
+      <c r="B44" s="120"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="120"/>
+      <c r="K44" s="120"/>
+      <c r="L44" s="120"/>
+      <c r="M44" s="120"/>
+      <c r="N44" s="120"/>
+      <c r="O44" s="120"/>
+      <c r="P44" s="120"/>
+      <c r="Q44" s="120"/>
+      <c r="R44" s="120"/>
+      <c r="S44" s="120"/>
+      <c r="T44" s="120"/>
+      <c r="U44" s="120"/>
+      <c r="V44" s="120"/>
+      <c r="W44" s="120"/>
+      <c r="X44" s="120"/>
+      <c r="Y44" s="120"/>
+      <c r="Z44" s="120"/>
+      <c r="AA44" s="120"/>
+      <c r="AB44" s="121"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -6899,34 +7043,34 @@
       <c r="AI44" s="1"/>
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1">
-      <c r="A45" s="125"/>
-      <c r="B45" s="126"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="126"/>
-      <c r="E45" s="126"/>
-      <c r="F45" s="126"/>
-      <c r="G45" s="126"/>
-      <c r="H45" s="126"/>
-      <c r="I45" s="126"/>
-      <c r="J45" s="126"/>
-      <c r="K45" s="126"/>
-      <c r="L45" s="126"/>
-      <c r="M45" s="126"/>
-      <c r="N45" s="126"/>
-      <c r="O45" s="126"/>
-      <c r="P45" s="126"/>
-      <c r="Q45" s="126"/>
-      <c r="R45" s="126"/>
-      <c r="S45" s="126"/>
-      <c r="T45" s="126"/>
-      <c r="U45" s="126"/>
-      <c r="V45" s="126"/>
-      <c r="W45" s="126"/>
-      <c r="X45" s="126"/>
-      <c r="Y45" s="126"/>
-      <c r="Z45" s="126"/>
-      <c r="AA45" s="126"/>
-      <c r="AB45" s="127"/>
+      <c r="A45" s="119"/>
+      <c r="B45" s="120"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="120"/>
+      <c r="J45" s="120"/>
+      <c r="K45" s="120"/>
+      <c r="L45" s="120"/>
+      <c r="M45" s="120"/>
+      <c r="N45" s="120"/>
+      <c r="O45" s="120"/>
+      <c r="P45" s="120"/>
+      <c r="Q45" s="120"/>
+      <c r="R45" s="120"/>
+      <c r="S45" s="120"/>
+      <c r="T45" s="120"/>
+      <c r="U45" s="120"/>
+      <c r="V45" s="120"/>
+      <c r="W45" s="120"/>
+      <c r="X45" s="120"/>
+      <c r="Y45" s="120"/>
+      <c r="Z45" s="120"/>
+      <c r="AA45" s="120"/>
+      <c r="AB45" s="121"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
@@ -6936,34 +7080,34 @@
       <c r="AI45" s="1"/>
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1">
-      <c r="A46" s="125"/>
-      <c r="B46" s="126"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="126"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="126"/>
-      <c r="H46" s="126"/>
-      <c r="I46" s="126"/>
-      <c r="J46" s="126"/>
-      <c r="K46" s="126"/>
-      <c r="L46" s="126"/>
-      <c r="M46" s="126"/>
-      <c r="N46" s="126"/>
-      <c r="O46" s="126"/>
-      <c r="P46" s="126"/>
-      <c r="Q46" s="126"/>
-      <c r="R46" s="126"/>
-      <c r="S46" s="126"/>
-      <c r="T46" s="126"/>
-      <c r="U46" s="126"/>
-      <c r="V46" s="126"/>
-      <c r="W46" s="126"/>
-      <c r="X46" s="126"/>
-      <c r="Y46" s="126"/>
-      <c r="Z46" s="126"/>
-      <c r="AA46" s="126"/>
-      <c r="AB46" s="127"/>
+      <c r="A46" s="119"/>
+      <c r="B46" s="120"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="120"/>
+      <c r="G46" s="120"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="120"/>
+      <c r="J46" s="120"/>
+      <c r="K46" s="120"/>
+      <c r="L46" s="120"/>
+      <c r="M46" s="120"/>
+      <c r="N46" s="120"/>
+      <c r="O46" s="120"/>
+      <c r="P46" s="120"/>
+      <c r="Q46" s="120"/>
+      <c r="R46" s="120"/>
+      <c r="S46" s="120"/>
+      <c r="T46" s="120"/>
+      <c r="U46" s="120"/>
+      <c r="V46" s="120"/>
+      <c r="W46" s="120"/>
+      <c r="X46" s="120"/>
+      <c r="Y46" s="120"/>
+      <c r="Z46" s="120"/>
+      <c r="AA46" s="120"/>
+      <c r="AB46" s="121"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -6973,34 +7117,34 @@
       <c r="AI46" s="1"/>
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1">
-      <c r="A47" s="125"/>
-      <c r="B47" s="126"/>
-      <c r="C47" s="126"/>
-      <c r="D47" s="126"/>
-      <c r="E47" s="126"/>
-      <c r="F47" s="126"/>
-      <c r="G47" s="126"/>
-      <c r="H47" s="126"/>
-      <c r="I47" s="126"/>
-      <c r="J47" s="126"/>
-      <c r="K47" s="126"/>
-      <c r="L47" s="126"/>
-      <c r="M47" s="126"/>
-      <c r="N47" s="126"/>
-      <c r="O47" s="126"/>
-      <c r="P47" s="126"/>
-      <c r="Q47" s="126"/>
-      <c r="R47" s="126"/>
-      <c r="S47" s="126"/>
-      <c r="T47" s="126"/>
-      <c r="U47" s="126"/>
-      <c r="V47" s="126"/>
-      <c r="W47" s="126"/>
-      <c r="X47" s="126"/>
-      <c r="Y47" s="126"/>
-      <c r="Z47" s="126"/>
-      <c r="AA47" s="126"/>
-      <c r="AB47" s="127"/>
+      <c r="A47" s="119"/>
+      <c r="B47" s="120"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
+      <c r="K47" s="120"/>
+      <c r="L47" s="120"/>
+      <c r="M47" s="120"/>
+      <c r="N47" s="120"/>
+      <c r="O47" s="120"/>
+      <c r="P47" s="120"/>
+      <c r="Q47" s="120"/>
+      <c r="R47" s="120"/>
+      <c r="S47" s="120"/>
+      <c r="T47" s="120"/>
+      <c r="U47" s="120"/>
+      <c r="V47" s="120"/>
+      <c r="W47" s="120"/>
+      <c r="X47" s="120"/>
+      <c r="Y47" s="120"/>
+      <c r="Z47" s="120"/>
+      <c r="AA47" s="120"/>
+      <c r="AB47" s="121"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
@@ -7010,34 +7154,34 @@
       <c r="AI47" s="1"/>
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1">
-      <c r="A48" s="125"/>
-      <c r="B48" s="126"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
-      <c r="G48" s="126"/>
-      <c r="H48" s="126"/>
-      <c r="I48" s="126"/>
-      <c r="J48" s="126"/>
-      <c r="K48" s="126"/>
-      <c r="L48" s="126"/>
-      <c r="M48" s="126"/>
-      <c r="N48" s="126"/>
-      <c r="O48" s="126"/>
-      <c r="P48" s="126"/>
-      <c r="Q48" s="126"/>
-      <c r="R48" s="126"/>
-      <c r="S48" s="126"/>
-      <c r="T48" s="126"/>
-      <c r="U48" s="126"/>
-      <c r="V48" s="126"/>
-      <c r="W48" s="126"/>
-      <c r="X48" s="126"/>
-      <c r="Y48" s="126"/>
-      <c r="Z48" s="126"/>
-      <c r="AA48" s="126"/>
-      <c r="AB48" s="127"/>
+      <c r="A48" s="119"/>
+      <c r="B48" s="120"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="120"/>
+      <c r="G48" s="120"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="120"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="120"/>
+      <c r="L48" s="120"/>
+      <c r="M48" s="120"/>
+      <c r="N48" s="120"/>
+      <c r="O48" s="120"/>
+      <c r="P48" s="120"/>
+      <c r="Q48" s="120"/>
+      <c r="R48" s="120"/>
+      <c r="S48" s="120"/>
+      <c r="T48" s="120"/>
+      <c r="U48" s="120"/>
+      <c r="V48" s="120"/>
+      <c r="W48" s="120"/>
+      <c r="X48" s="120"/>
+      <c r="Y48" s="120"/>
+      <c r="Z48" s="120"/>
+      <c r="AA48" s="120"/>
+      <c r="AB48" s="121"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
@@ -7047,34 +7191,34 @@
       <c r="AI48" s="1"/>
     </row>
     <row r="49" spans="1:35" ht="12" customHeight="1">
-      <c r="A49" s="125"/>
-      <c r="B49" s="126"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
-      <c r="G49" s="126"/>
-      <c r="H49" s="126"/>
-      <c r="I49" s="126"/>
-      <c r="J49" s="126"/>
-      <c r="K49" s="126"/>
-      <c r="L49" s="126"/>
-      <c r="M49" s="126"/>
-      <c r="N49" s="126"/>
-      <c r="O49" s="126"/>
-      <c r="P49" s="126"/>
-      <c r="Q49" s="126"/>
-      <c r="R49" s="126"/>
-      <c r="S49" s="126"/>
-      <c r="T49" s="126"/>
-      <c r="U49" s="126"/>
-      <c r="V49" s="126"/>
-      <c r="W49" s="126"/>
-      <c r="X49" s="126"/>
-      <c r="Y49" s="126"/>
-      <c r="Z49" s="126"/>
-      <c r="AA49" s="126"/>
-      <c r="AB49" s="127"/>
+      <c r="A49" s="119"/>
+      <c r="B49" s="120"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="120"/>
+      <c r="H49" s="120"/>
+      <c r="I49" s="120"/>
+      <c r="J49" s="120"/>
+      <c r="K49" s="120"/>
+      <c r="L49" s="120"/>
+      <c r="M49" s="120"/>
+      <c r="N49" s="120"/>
+      <c r="O49" s="120"/>
+      <c r="P49" s="120"/>
+      <c r="Q49" s="120"/>
+      <c r="R49" s="120"/>
+      <c r="S49" s="120"/>
+      <c r="T49" s="120"/>
+      <c r="U49" s="120"/>
+      <c r="V49" s="120"/>
+      <c r="W49" s="120"/>
+      <c r="X49" s="120"/>
+      <c r="Y49" s="120"/>
+      <c r="Z49" s="120"/>
+      <c r="AA49" s="120"/>
+      <c r="AB49" s="121"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
@@ -7084,34 +7228,34 @@
       <c r="AI49" s="1"/>
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1">
-      <c r="A50" s="125"/>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
-      <c r="G50" s="126"/>
-      <c r="H50" s="126"/>
-      <c r="I50" s="126"/>
-      <c r="J50" s="126"/>
-      <c r="K50" s="126"/>
-      <c r="L50" s="126"/>
-      <c r="M50" s="126"/>
-      <c r="N50" s="126"/>
-      <c r="O50" s="126"/>
-      <c r="P50" s="126"/>
-      <c r="Q50" s="126"/>
-      <c r="R50" s="126"/>
-      <c r="S50" s="126"/>
-      <c r="T50" s="126"/>
-      <c r="U50" s="126"/>
-      <c r="V50" s="126"/>
-      <c r="W50" s="126"/>
-      <c r="X50" s="126"/>
-      <c r="Y50" s="126"/>
-      <c r="Z50" s="126"/>
-      <c r="AA50" s="126"/>
-      <c r="AB50" s="127"/>
+      <c r="A50" s="119"/>
+      <c r="B50" s="120"/>
+      <c r="C50" s="120"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="120"/>
+      <c r="G50" s="120"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="120"/>
+      <c r="J50" s="120"/>
+      <c r="K50" s="120"/>
+      <c r="L50" s="120"/>
+      <c r="M50" s="120"/>
+      <c r="N50" s="120"/>
+      <c r="O50" s="120"/>
+      <c r="P50" s="120"/>
+      <c r="Q50" s="120"/>
+      <c r="R50" s="120"/>
+      <c r="S50" s="120"/>
+      <c r="T50" s="120"/>
+      <c r="U50" s="120"/>
+      <c r="V50" s="120"/>
+      <c r="W50" s="120"/>
+      <c r="X50" s="120"/>
+      <c r="Y50" s="120"/>
+      <c r="Z50" s="120"/>
+      <c r="AA50" s="120"/>
+      <c r="AB50" s="121"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
@@ -7121,34 +7265,34 @@
       <c r="AI50" s="1"/>
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1">
-      <c r="A51" s="125"/>
-      <c r="B51" s="126"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
-      <c r="G51" s="126"/>
-      <c r="H51" s="126"/>
-      <c r="I51" s="126"/>
-      <c r="J51" s="126"/>
-      <c r="K51" s="126"/>
-      <c r="L51" s="126"/>
-      <c r="M51" s="126"/>
-      <c r="N51" s="126"/>
-      <c r="O51" s="126"/>
-      <c r="P51" s="126"/>
-      <c r="Q51" s="126"/>
-      <c r="R51" s="126"/>
-      <c r="S51" s="126"/>
-      <c r="T51" s="126"/>
-      <c r="U51" s="126"/>
-      <c r="V51" s="126"/>
-      <c r="W51" s="126"/>
-      <c r="X51" s="126"/>
-      <c r="Y51" s="126"/>
-      <c r="Z51" s="126"/>
-      <c r="AA51" s="126"/>
-      <c r="AB51" s="127"/>
+      <c r="A51" s="119"/>
+      <c r="B51" s="120"/>
+      <c r="C51" s="120"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="120"/>
+      <c r="K51" s="120"/>
+      <c r="L51" s="120"/>
+      <c r="M51" s="120"/>
+      <c r="N51" s="120"/>
+      <c r="O51" s="120"/>
+      <c r="P51" s="120"/>
+      <c r="Q51" s="120"/>
+      <c r="R51" s="120"/>
+      <c r="S51" s="120"/>
+      <c r="T51" s="120"/>
+      <c r="U51" s="120"/>
+      <c r="V51" s="120"/>
+      <c r="W51" s="120"/>
+      <c r="X51" s="120"/>
+      <c r="Y51" s="120"/>
+      <c r="Z51" s="120"/>
+      <c r="AA51" s="120"/>
+      <c r="AB51" s="121"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
@@ -7158,34 +7302,34 @@
       <c r="AI51" s="1"/>
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1">
-      <c r="A52" s="125"/>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
-      <c r="G52" s="126"/>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
-      <c r="J52" s="126"/>
-      <c r="K52" s="126"/>
-      <c r="L52" s="126"/>
-      <c r="M52" s="126"/>
-      <c r="N52" s="126"/>
-      <c r="O52" s="126"/>
-      <c r="P52" s="126"/>
-      <c r="Q52" s="126"/>
-      <c r="R52" s="126"/>
-      <c r="S52" s="126"/>
-      <c r="T52" s="126"/>
-      <c r="U52" s="126"/>
-      <c r="V52" s="126"/>
-      <c r="W52" s="126"/>
-      <c r="X52" s="126"/>
-      <c r="Y52" s="126"/>
-      <c r="Z52" s="126"/>
-      <c r="AA52" s="126"/>
-      <c r="AB52" s="127"/>
+      <c r="A52" s="119"/>
+      <c r="B52" s="120"/>
+      <c r="C52" s="120"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="120"/>
+      <c r="K52" s="120"/>
+      <c r="L52" s="120"/>
+      <c r="M52" s="120"/>
+      <c r="N52" s="120"/>
+      <c r="O52" s="120"/>
+      <c r="P52" s="120"/>
+      <c r="Q52" s="120"/>
+      <c r="R52" s="120"/>
+      <c r="S52" s="120"/>
+      <c r="T52" s="120"/>
+      <c r="U52" s="120"/>
+      <c r="V52" s="120"/>
+      <c r="W52" s="120"/>
+      <c r="X52" s="120"/>
+      <c r="Y52" s="120"/>
+      <c r="Z52" s="120"/>
+      <c r="AA52" s="120"/>
+      <c r="AB52" s="121"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
@@ -7195,34 +7339,34 @@
       <c r="AI52" s="1"/>
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1">
-      <c r="A53" s="125"/>
-      <c r="B53" s="126"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
-      <c r="G53" s="126"/>
-      <c r="H53" s="126"/>
-      <c r="I53" s="126"/>
-      <c r="J53" s="126"/>
-      <c r="K53" s="126"/>
-      <c r="L53" s="126"/>
-      <c r="M53" s="126"/>
-      <c r="N53" s="126"/>
-      <c r="O53" s="126"/>
-      <c r="P53" s="126"/>
-      <c r="Q53" s="126"/>
-      <c r="R53" s="126"/>
-      <c r="S53" s="126"/>
-      <c r="T53" s="126"/>
-      <c r="U53" s="126"/>
-      <c r="V53" s="126"/>
-      <c r="W53" s="126"/>
-      <c r="X53" s="126"/>
-      <c r="Y53" s="126"/>
-      <c r="Z53" s="126"/>
-      <c r="AA53" s="126"/>
-      <c r="AB53" s="127"/>
+      <c r="A53" s="119"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
+      <c r="I53" s="120"/>
+      <c r="J53" s="120"/>
+      <c r="K53" s="120"/>
+      <c r="L53" s="120"/>
+      <c r="M53" s="120"/>
+      <c r="N53" s="120"/>
+      <c r="O53" s="120"/>
+      <c r="P53" s="120"/>
+      <c r="Q53" s="120"/>
+      <c r="R53" s="120"/>
+      <c r="S53" s="120"/>
+      <c r="T53" s="120"/>
+      <c r="U53" s="120"/>
+      <c r="V53" s="120"/>
+      <c r="W53" s="120"/>
+      <c r="X53" s="120"/>
+      <c r="Y53" s="120"/>
+      <c r="Z53" s="120"/>
+      <c r="AA53" s="120"/>
+      <c r="AB53" s="121"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
@@ -7232,34 +7376,34 @@
       <c r="AI53" s="1"/>
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1">
-      <c r="A54" s="125"/>
-      <c r="B54" s="126"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
-      <c r="G54" s="126"/>
-      <c r="H54" s="126"/>
-      <c r="I54" s="126"/>
-      <c r="J54" s="126"/>
-      <c r="K54" s="126"/>
-      <c r="L54" s="126"/>
-      <c r="M54" s="126"/>
-      <c r="N54" s="126"/>
-      <c r="O54" s="126"/>
-      <c r="P54" s="126"/>
-      <c r="Q54" s="126"/>
-      <c r="R54" s="126"/>
-      <c r="S54" s="126"/>
-      <c r="T54" s="126"/>
-      <c r="U54" s="126"/>
-      <c r="V54" s="126"/>
-      <c r="W54" s="126"/>
-      <c r="X54" s="126"/>
-      <c r="Y54" s="126"/>
-      <c r="Z54" s="126"/>
-      <c r="AA54" s="126"/>
-      <c r="AB54" s="127"/>
+      <c r="A54" s="119"/>
+      <c r="B54" s="120"/>
+      <c r="C54" s="120"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="120"/>
+      <c r="F54" s="120"/>
+      <c r="G54" s="120"/>
+      <c r="H54" s="120"/>
+      <c r="I54" s="120"/>
+      <c r="J54" s="120"/>
+      <c r="K54" s="120"/>
+      <c r="L54" s="120"/>
+      <c r="M54" s="120"/>
+      <c r="N54" s="120"/>
+      <c r="O54" s="120"/>
+      <c r="P54" s="120"/>
+      <c r="Q54" s="120"/>
+      <c r="R54" s="120"/>
+      <c r="S54" s="120"/>
+      <c r="T54" s="120"/>
+      <c r="U54" s="120"/>
+      <c r="V54" s="120"/>
+      <c r="W54" s="120"/>
+      <c r="X54" s="120"/>
+      <c r="Y54" s="120"/>
+      <c r="Z54" s="120"/>
+      <c r="AA54" s="120"/>
+      <c r="AB54" s="121"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
@@ -7269,34 +7413,34 @@
       <c r="AI54" s="1"/>
     </row>
     <row r="55" spans="1:35" ht="12" customHeight="1">
-      <c r="A55" s="125"/>
-      <c r="B55" s="126"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
-      <c r="G55" s="126"/>
-      <c r="H55" s="126"/>
-      <c r="I55" s="126"/>
-      <c r="J55" s="126"/>
-      <c r="K55" s="126"/>
-      <c r="L55" s="126"/>
-      <c r="M55" s="126"/>
-      <c r="N55" s="126"/>
-      <c r="O55" s="126"/>
-      <c r="P55" s="126"/>
-      <c r="Q55" s="126"/>
-      <c r="R55" s="126"/>
-      <c r="S55" s="126"/>
-      <c r="T55" s="126"/>
-      <c r="U55" s="126"/>
-      <c r="V55" s="126"/>
-      <c r="W55" s="126"/>
-      <c r="X55" s="126"/>
-      <c r="Y55" s="126"/>
-      <c r="Z55" s="126"/>
-      <c r="AA55" s="126"/>
-      <c r="AB55" s="127"/>
+      <c r="A55" s="119"/>
+      <c r="B55" s="120"/>
+      <c r="C55" s="120"/>
+      <c r="D55" s="120"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="120"/>
+      <c r="G55" s="120"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="120"/>
+      <c r="J55" s="120"/>
+      <c r="K55" s="120"/>
+      <c r="L55" s="120"/>
+      <c r="M55" s="120"/>
+      <c r="N55" s="120"/>
+      <c r="O55" s="120"/>
+      <c r="P55" s="120"/>
+      <c r="Q55" s="120"/>
+      <c r="R55" s="120"/>
+      <c r="S55" s="120"/>
+      <c r="T55" s="120"/>
+      <c r="U55" s="120"/>
+      <c r="V55" s="120"/>
+      <c r="W55" s="120"/>
+      <c r="X55" s="120"/>
+      <c r="Y55" s="120"/>
+      <c r="Z55" s="120"/>
+      <c r="AA55" s="120"/>
+      <c r="AB55" s="121"/>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
@@ -7306,34 +7450,34 @@
       <c r="AI55" s="1"/>
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1">
-      <c r="A56" s="125"/>
-      <c r="B56" s="126"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
-      <c r="G56" s="126"/>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126"/>
-      <c r="J56" s="126"/>
-      <c r="K56" s="126"/>
-      <c r="L56" s="126"/>
-      <c r="M56" s="126"/>
-      <c r="N56" s="126"/>
-      <c r="O56" s="126"/>
-      <c r="P56" s="126"/>
-      <c r="Q56" s="126"/>
-      <c r="R56" s="126"/>
-      <c r="S56" s="126"/>
-      <c r="T56" s="126"/>
-      <c r="U56" s="126"/>
-      <c r="V56" s="126"/>
-      <c r="W56" s="126"/>
-      <c r="X56" s="126"/>
-      <c r="Y56" s="126"/>
-      <c r="Z56" s="126"/>
-      <c r="AA56" s="126"/>
-      <c r="AB56" s="127"/>
+      <c r="A56" s="119"/>
+      <c r="B56" s="120"/>
+      <c r="C56" s="120"/>
+      <c r="D56" s="120"/>
+      <c r="E56" s="120"/>
+      <c r="F56" s="120"/>
+      <c r="G56" s="120"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="120"/>
+      <c r="J56" s="120"/>
+      <c r="K56" s="120"/>
+      <c r="L56" s="120"/>
+      <c r="M56" s="120"/>
+      <c r="N56" s="120"/>
+      <c r="O56" s="120"/>
+      <c r="P56" s="120"/>
+      <c r="Q56" s="120"/>
+      <c r="R56" s="120"/>
+      <c r="S56" s="120"/>
+      <c r="T56" s="120"/>
+      <c r="U56" s="120"/>
+      <c r="V56" s="120"/>
+      <c r="W56" s="120"/>
+      <c r="X56" s="120"/>
+      <c r="Y56" s="120"/>
+      <c r="Z56" s="120"/>
+      <c r="AA56" s="120"/>
+      <c r="AB56" s="121"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
@@ -7343,34 +7487,34 @@
       <c r="AI56" s="1"/>
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1">
-      <c r="A57" s="125"/>
-      <c r="B57" s="126"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
-      <c r="G57" s="126"/>
-      <c r="H57" s="126"/>
-      <c r="I57" s="126"/>
-      <c r="J57" s="126"/>
-      <c r="K57" s="126"/>
-      <c r="L57" s="126"/>
-      <c r="M57" s="126"/>
-      <c r="N57" s="126"/>
-      <c r="O57" s="126"/>
-      <c r="P57" s="126"/>
-      <c r="Q57" s="126"/>
-      <c r="R57" s="126"/>
-      <c r="S57" s="126"/>
-      <c r="T57" s="126"/>
-      <c r="U57" s="126"/>
-      <c r="V57" s="126"/>
-      <c r="W57" s="126"/>
-      <c r="X57" s="126"/>
-      <c r="Y57" s="126"/>
-      <c r="Z57" s="126"/>
-      <c r="AA57" s="126"/>
-      <c r="AB57" s="127"/>
+      <c r="A57" s="119"/>
+      <c r="B57" s="120"/>
+      <c r="C57" s="120"/>
+      <c r="D57" s="120"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="120"/>
+      <c r="G57" s="120"/>
+      <c r="H57" s="120"/>
+      <c r="I57" s="120"/>
+      <c r="J57" s="120"/>
+      <c r="K57" s="120"/>
+      <c r="L57" s="120"/>
+      <c r="M57" s="120"/>
+      <c r="N57" s="120"/>
+      <c r="O57" s="120"/>
+      <c r="P57" s="120"/>
+      <c r="Q57" s="120"/>
+      <c r="R57" s="120"/>
+      <c r="S57" s="120"/>
+      <c r="T57" s="120"/>
+      <c r="U57" s="120"/>
+      <c r="V57" s="120"/>
+      <c r="W57" s="120"/>
+      <c r="X57" s="120"/>
+      <c r="Y57" s="120"/>
+      <c r="Z57" s="120"/>
+      <c r="AA57" s="120"/>
+      <c r="AB57" s="121"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
@@ -7380,34 +7524,34 @@
       <c r="AI57" s="1"/>
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1">
-      <c r="A58" s="125"/>
-      <c r="B58" s="126"/>
-      <c r="C58" s="126"/>
-      <c r="D58" s="126"/>
-      <c r="E58" s="126"/>
-      <c r="F58" s="126"/>
-      <c r="G58" s="126"/>
-      <c r="H58" s="126"/>
-      <c r="I58" s="126"/>
-      <c r="J58" s="126"/>
-      <c r="K58" s="126"/>
-      <c r="L58" s="126"/>
-      <c r="M58" s="126"/>
-      <c r="N58" s="126"/>
-      <c r="O58" s="126"/>
-      <c r="P58" s="126"/>
-      <c r="Q58" s="126"/>
-      <c r="R58" s="126"/>
-      <c r="S58" s="126"/>
-      <c r="T58" s="126"/>
-      <c r="U58" s="126"/>
-      <c r="V58" s="126"/>
-      <c r="W58" s="126"/>
-      <c r="X58" s="126"/>
-      <c r="Y58" s="126"/>
-      <c r="Z58" s="126"/>
-      <c r="AA58" s="126"/>
-      <c r="AB58" s="127"/>
+      <c r="A58" s="119"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="120"/>
+      <c r="E58" s="120"/>
+      <c r="F58" s="120"/>
+      <c r="G58" s="120"/>
+      <c r="H58" s="120"/>
+      <c r="I58" s="120"/>
+      <c r="J58" s="120"/>
+      <c r="K58" s="120"/>
+      <c r="L58" s="120"/>
+      <c r="M58" s="120"/>
+      <c r="N58" s="120"/>
+      <c r="O58" s="120"/>
+      <c r="P58" s="120"/>
+      <c r="Q58" s="120"/>
+      <c r="R58" s="120"/>
+      <c r="S58" s="120"/>
+      <c r="T58" s="120"/>
+      <c r="U58" s="120"/>
+      <c r="V58" s="120"/>
+      <c r="W58" s="120"/>
+      <c r="X58" s="120"/>
+      <c r="Y58" s="120"/>
+      <c r="Z58" s="120"/>
+      <c r="AA58" s="120"/>
+      <c r="AB58" s="121"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
@@ -7417,34 +7561,34 @@
       <c r="AI58" s="1"/>
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1">
-      <c r="A59" s="125"/>
-      <c r="B59" s="126"/>
-      <c r="C59" s="126"/>
-      <c r="D59" s="126"/>
-      <c r="E59" s="126"/>
-      <c r="F59" s="126"/>
-      <c r="G59" s="126"/>
-      <c r="H59" s="126"/>
-      <c r="I59" s="126"/>
-      <c r="J59" s="126"/>
-      <c r="K59" s="126"/>
-      <c r="L59" s="126"/>
-      <c r="M59" s="126"/>
-      <c r="N59" s="126"/>
-      <c r="O59" s="126"/>
-      <c r="P59" s="126"/>
-      <c r="Q59" s="126"/>
-      <c r="R59" s="126"/>
-      <c r="S59" s="126"/>
-      <c r="T59" s="126"/>
-      <c r="U59" s="126"/>
-      <c r="V59" s="126"/>
-      <c r="W59" s="126"/>
-      <c r="X59" s="126"/>
-      <c r="Y59" s="126"/>
-      <c r="Z59" s="126"/>
-      <c r="AA59" s="126"/>
-      <c r="AB59" s="127"/>
+      <c r="A59" s="119"/>
+      <c r="B59" s="120"/>
+      <c r="C59" s="120"/>
+      <c r="D59" s="120"/>
+      <c r="E59" s="120"/>
+      <c r="F59" s="120"/>
+      <c r="G59" s="120"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="120"/>
+      <c r="J59" s="120"/>
+      <c r="K59" s="120"/>
+      <c r="L59" s="120"/>
+      <c r="M59" s="120"/>
+      <c r="N59" s="120"/>
+      <c r="O59" s="120"/>
+      <c r="P59" s="120"/>
+      <c r="Q59" s="120"/>
+      <c r="R59" s="120"/>
+      <c r="S59" s="120"/>
+      <c r="T59" s="120"/>
+      <c r="U59" s="120"/>
+      <c r="V59" s="120"/>
+      <c r="W59" s="120"/>
+      <c r="X59" s="120"/>
+      <c r="Y59" s="120"/>
+      <c r="Z59" s="120"/>
+      <c r="AA59" s="120"/>
+      <c r="AB59" s="121"/>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
@@ -7454,34 +7598,34 @@
       <c r="AI59" s="1"/>
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1">
-      <c r="A60" s="128"/>
-      <c r="B60" s="129"/>
-      <c r="C60" s="129"/>
-      <c r="D60" s="129"/>
-      <c r="E60" s="129"/>
-      <c r="F60" s="129"/>
-      <c r="G60" s="129"/>
-      <c r="H60" s="129"/>
-      <c r="I60" s="129"/>
-      <c r="J60" s="129"/>
-      <c r="K60" s="129"/>
-      <c r="L60" s="129"/>
-      <c r="M60" s="129"/>
-      <c r="N60" s="129"/>
-      <c r="O60" s="129"/>
-      <c r="P60" s="129"/>
-      <c r="Q60" s="129"/>
-      <c r="R60" s="129"/>
-      <c r="S60" s="129"/>
-      <c r="T60" s="129"/>
-      <c r="U60" s="129"/>
-      <c r="V60" s="129"/>
-      <c r="W60" s="129"/>
-      <c r="X60" s="129"/>
-      <c r="Y60" s="129"/>
-      <c r="Z60" s="129"/>
-      <c r="AA60" s="129"/>
-      <c r="AB60" s="130"/>
+      <c r="A60" s="122"/>
+      <c r="B60" s="123"/>
+      <c r="C60" s="123"/>
+      <c r="D60" s="123"/>
+      <c r="E60" s="123"/>
+      <c r="F60" s="123"/>
+      <c r="G60" s="123"/>
+      <c r="H60" s="123"/>
+      <c r="I60" s="123"/>
+      <c r="J60" s="123"/>
+      <c r="K60" s="123"/>
+      <c r="L60" s="123"/>
+      <c r="M60" s="123"/>
+      <c r="N60" s="123"/>
+      <c r="O60" s="123"/>
+      <c r="P60" s="123"/>
+      <c r="Q60" s="123"/>
+      <c r="R60" s="123"/>
+      <c r="S60" s="123"/>
+      <c r="T60" s="123"/>
+      <c r="U60" s="123"/>
+      <c r="V60" s="123"/>
+      <c r="W60" s="123"/>
+      <c r="X60" s="123"/>
+      <c r="Y60" s="123"/>
+      <c r="Z60" s="123"/>
+      <c r="AA60" s="123"/>
+      <c r="AB60" s="124"/>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
@@ -7529,6 +7673,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="A17:AB38"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="F8:T8"/>
+    <mergeCell ref="F7:T7"/>
+    <mergeCell ref="A41:AB60"/>
+    <mergeCell ref="K40:S40"/>
+    <mergeCell ref="K16:S16"/>
+    <mergeCell ref="A10:B14"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="F6:AB6"/>
     <mergeCell ref="A1:AB3"/>
     <mergeCell ref="F5:T5"/>
     <mergeCell ref="A4:E4"/>
@@ -7545,39 +7722,6 @@
     <mergeCell ref="Y12:AB12"/>
     <mergeCell ref="Y13:AB13"/>
     <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="F6:AB6"/>
-    <mergeCell ref="A41:AB60"/>
-    <mergeCell ref="K40:S40"/>
-    <mergeCell ref="K16:S16"/>
-    <mergeCell ref="A10:B14"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="A17:AB38"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="F8:T8"/>
-    <mergeCell ref="F7:T7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="http://www.fattocs.com.br/download/GuiaPlanilhaIFPUG.pdf"/>
@@ -7590,11 +7734,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T141"/>
+  <dimension ref="A1:T140"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -7617,23 +7761,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
@@ -7641,21 +7785,21 @@
       <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="156"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
@@ -7663,21 +7807,21 @@
       <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="A3" s="156"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -7685,89 +7829,89 @@
       <c r="T3" s="9"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="148" t="str">
+      <c r="A4" s="158" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : Siscei</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="149" t="str">
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="147" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v>Projeto : Siscei</v>
       </c>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="119"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="126"/>
+      <c r="Q4" s="126"/>
+      <c r="R4" s="126"/>
+      <c r="S4" s="126"/>
+      <c r="T4" s="127"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
-      <c r="A5" s="159" t="str">
+      <c r="A5" s="150" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v>Responsável : Felipe Nami</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="149" t="str">
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="147" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="119"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="127"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="159" t="str">
+      <c r="A6" s="150" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v xml:space="preserve">Empresa : </v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="149" t="str">
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="147" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 0</v>
       </c>
-      <c r="G6" s="119"/>
-      <c r="H6" s="147" t="str">
+      <c r="G6" s="127"/>
+      <c r="H6" s="157" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 0,00</v>
       </c>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="145" t="str">
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="155" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
-        <v>PF  = 421</v>
-      </c>
-      <c r="O6" s="146"/>
+        <v>PF  = 417</v>
+      </c>
+      <c r="O6" s="156"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -7775,14 +7919,14 @@
       <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1">
-      <c r="A7" s="163" t="s">
+      <c r="A7" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="119"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="127"/>
       <c r="G7" s="12" t="s">
         <v>27</v>
       </c>
@@ -7810,23 +7954,23 @@
       <c r="O7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="150" t="s">
+      <c r="P7" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="151"/>
-      <c r="R7" s="151"/>
-      <c r="S7" s="151"/>
-      <c r="T7" s="151"/>
+      <c r="Q7" s="160"/>
+      <c r="R7" s="160"/>
+      <c r="S7" s="160"/>
+      <c r="T7" s="160"/>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="161"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="162"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="153"/>
       <c r="G8" s="65"/>
       <c r="H8" s="66"/>
       <c r="I8" s="65"/>
@@ -7851,21 +7995,21 @@
         <f>IF(H8="I",N8*Contagem!$U$11,IF(H8="E",N8*Contagem!$U$13,IF(H8="A",N8*Contagem!$U$12,IF(H8="T",N8*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P8" s="152"/>
-      <c r="Q8" s="153"/>
-      <c r="R8" s="153"/>
-      <c r="S8" s="153"/>
-      <c r="T8" s="153"/>
+      <c r="P8" s="161"/>
+      <c r="Q8" s="162"/>
+      <c r="R8" s="162"/>
+      <c r="S8" s="162"/>
+      <c r="T8" s="162"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="142"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="144"/>
       <c r="G9" s="16" t="s">
         <v>35</v>
       </c>
@@ -7898,24 +8042,24 @@
         <f>IF(H9="I",N9*Contagem!$U$11,IF(H9="E",N9*Contagem!$U$13,IF(H9="A",N9*Contagem!$U$12,IF(H9="T",N9*Contagem!$U$14,""))))</f>
         <v>15</v>
       </c>
-      <c r="P9" s="154">
+      <c r="P9" s="163">
         <f>SUM(O9:O15,O49:O64,O77:O84)+O23+O31</f>
         <v>153</v>
       </c>
-      <c r="Q9" s="144"/>
-      <c r="R9" s="144"/>
-      <c r="S9" s="144"/>
-      <c r="T9" s="144"/>
+      <c r="Q9" s="141"/>
+      <c r="R9" s="141"/>
+      <c r="S9" s="141"/>
+      <c r="T9" s="141"/>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="142" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="142"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="144"/>
       <c r="G10" s="16" t="s">
         <v>37</v>
       </c>
@@ -7948,21 +8092,21 @@
         <f>IF(H10="I",N10*Contagem!$U$11,IF(H10="E",N10*Contagem!$U$13,IF(H10="A",N10*Contagem!$U$12,IF(H10="T",N10*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P10" s="143"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="144"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="141"/>
+      <c r="R10" s="141"/>
+      <c r="S10" s="141"/>
+      <c r="T10" s="141"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1">
-      <c r="A11" s="140" t="s">
+      <c r="A11" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="142"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="144"/>
       <c r="G11" s="16" t="s">
         <v>37</v>
       </c>
@@ -7995,21 +8139,21 @@
         <f>IF(H11="I",N11*Contagem!$U$11,IF(H11="E",N11*Contagem!$U$13,IF(H11="A",N11*Contagem!$U$12,IF(H11="T",N11*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P11" s="143"/>
-      <c r="Q11" s="144"/>
-      <c r="R11" s="144"/>
-      <c r="S11" s="144"/>
-      <c r="T11" s="144"/>
+      <c r="P11" s="140"/>
+      <c r="Q11" s="141"/>
+      <c r="R11" s="141"/>
+      <c r="S11" s="141"/>
+      <c r="T11" s="141"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1">
-      <c r="A12" s="140" t="s">
+      <c r="A12" s="142" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="142"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="144"/>
       <c r="G12" s="16" t="s">
         <v>38</v>
       </c>
@@ -8042,21 +8186,21 @@
         <f>IF(H12="I",N12*Contagem!$U$11,IF(H12="E",N12*Contagem!$U$13,IF(H12="A",N12*Contagem!$U$12,IF(H12="T",N12*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P12" s="143"/>
-      <c r="Q12" s="144"/>
-      <c r="R12" s="144"/>
-      <c r="S12" s="144"/>
-      <c r="T12" s="144"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="141"/>
+      <c r="R12" s="141"/>
+      <c r="S12" s="141"/>
+      <c r="T12" s="141"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1">
-      <c r="A13" s="140" t="s">
+      <c r="A13" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="142"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="144"/>
       <c r="G13" s="16" t="s">
         <v>38</v>
       </c>
@@ -8089,11 +8233,11 @@
         <f>IF(H13="I",N13*Contagem!$U$11,IF(H13="E",N13*Contagem!$U$13,IF(H13="A",N13*Contagem!$U$12,IF(H13="T",N13*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
+      <c r="P13" s="140"/>
+      <c r="Q13" s="141"/>
+      <c r="R13" s="141"/>
+      <c r="S13" s="141"/>
+      <c r="T13" s="141"/>
     </row>
     <row r="14" spans="1:20" s="79" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="80" t="s">
@@ -8214,14 +8358,14 @@
       <c r="T16" s="72"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="140" t="s">
+      <c r="A17" s="142" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="157"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="158"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="149"/>
       <c r="G17" s="17" t="s">
         <v>35</v>
       </c>
@@ -8254,21 +8398,21 @@
         <f>IF(H17="I",N17*Contagem!$U$11,IF(H17="E",N17*Contagem!$U$13,IF(H17="A",N17*Contagem!$U$12,IF(H17="T",N17*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P17" s="143"/>
-      <c r="Q17" s="144"/>
-      <c r="R17" s="144"/>
-      <c r="S17" s="144"/>
-      <c r="T17" s="144"/>
+      <c r="P17" s="140"/>
+      <c r="Q17" s="141"/>
+      <c r="R17" s="141"/>
+      <c r="S17" s="141"/>
+      <c r="T17" s="141"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="140" t="s">
+      <c r="A18" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="141"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="142"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="144"/>
       <c r="G18" s="17" t="s">
         <v>37</v>
       </c>
@@ -8301,21 +8445,21 @@
         <f>IF(H18="I",N18*Contagem!$U$11,IF(H18="E",N18*Contagem!$U$13,IF(H18="A",N18*Contagem!$U$12,IF(H18="T",N18*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P18" s="143"/>
-      <c r="Q18" s="144"/>
-      <c r="R18" s="144"/>
-      <c r="S18" s="144"/>
-      <c r="T18" s="144"/>
+      <c r="P18" s="140"/>
+      <c r="Q18" s="141"/>
+      <c r="R18" s="141"/>
+      <c r="S18" s="141"/>
+      <c r="T18" s="141"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="140" t="s">
+      <c r="A19" s="142" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="141"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="142"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="144"/>
       <c r="G19" s="17" t="s">
         <v>37</v>
       </c>
@@ -8348,21 +8492,21 @@
         <f>IF(H19="I",N19*Contagem!$U$11,IF(H19="E",N19*Contagem!$U$13,IF(H19="A",N19*Contagem!$U$12,IF(H19="T",N19*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="144"/>
-      <c r="R19" s="144"/>
-      <c r="S19" s="144"/>
-      <c r="T19" s="144"/>
+      <c r="P19" s="140"/>
+      <c r="Q19" s="141"/>
+      <c r="R19" s="141"/>
+      <c r="S19" s="141"/>
+      <c r="T19" s="141"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="140" t="s">
+      <c r="A20" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="141"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="142"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="144"/>
       <c r="G20" s="17" t="s">
         <v>51</v>
       </c>
@@ -8395,21 +8539,21 @@
         <f>IF(H20="I",N20*Contagem!$U$11,IF(H20="E",N20*Contagem!$U$13,IF(H20="A",N20*Contagem!$U$12,IF(H20="T",N20*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P20" s="143"/>
-      <c r="Q20" s="144"/>
-      <c r="R20" s="144"/>
-      <c r="S20" s="144"/>
-      <c r="T20" s="144"/>
+      <c r="P20" s="140"/>
+      <c r="Q20" s="141"/>
+      <c r="R20" s="141"/>
+      <c r="S20" s="141"/>
+      <c r="T20" s="141"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="140" t="s">
+      <c r="A21" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="141"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="142"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="144"/>
       <c r="G21" s="17" t="s">
         <v>38</v>
       </c>
@@ -8442,21 +8586,21 @@
         <f>IF(H21="I",N21*Contagem!$U$11,IF(H21="E",N21*Contagem!$U$13,IF(H21="A",N21*Contagem!$U$12,IF(H21="T",N21*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P21" s="143"/>
-      <c r="Q21" s="144"/>
-      <c r="R21" s="144"/>
-      <c r="S21" s="144"/>
-      <c r="T21" s="144"/>
+      <c r="P21" s="140"/>
+      <c r="Q21" s="141"/>
+      <c r="R21" s="141"/>
+      <c r="S21" s="141"/>
+      <c r="T21" s="141"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="140" t="s">
+      <c r="A22" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="141"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="142"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="144"/>
       <c r="G22" s="17" t="s">
         <v>38</v>
       </c>
@@ -8489,11 +8633,11 @@
         <f>IF(H22="I",N22*Contagem!$U$11,IF(H22="E",N22*Contagem!$U$13,IF(H22="A",N22*Contagem!$U$12,IF(H22="T",N22*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P22" s="143"/>
-      <c r="Q22" s="144"/>
-      <c r="R22" s="144"/>
-      <c r="S22" s="144"/>
-      <c r="T22" s="144"/>
+      <c r="P22" s="140"/>
+      <c r="Q22" s="141"/>
+      <c r="R22" s="141"/>
+      <c r="S22" s="141"/>
+      <c r="T22" s="141"/>
     </row>
     <row r="23" spans="1:20" s="79" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="80" t="s">
@@ -8536,11 +8680,11 @@
         <f>IF(H23="I",N23*Contagem!$U$11,IF(H23="E",N23*Contagem!$U$13,IF(H23="A",N23*Contagem!$U$12,IF(H23="T",N23*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P23" s="143"/>
-      <c r="Q23" s="144"/>
-      <c r="R23" s="144"/>
-      <c r="S23" s="144"/>
-      <c r="T23" s="144"/>
+      <c r="P23" s="140"/>
+      <c r="Q23" s="141"/>
+      <c r="R23" s="141"/>
+      <c r="S23" s="141"/>
+      <c r="T23" s="141"/>
     </row>
     <row r="24" spans="1:20" s="73" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="74" t="s">
@@ -8567,14 +8711,14 @@
       <c r="T24" s="78"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="140" t="s">
+      <c r="A25" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="B25" s="141"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="142"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="144"/>
       <c r="G25" s="17" t="s">
         <v>35</v>
       </c>
@@ -8607,21 +8751,21 @@
         <f>IF(H25="I",N25*Contagem!$U$11,IF(H25="E",N25*Contagem!$U$13,IF(H25="A",N25*Contagem!$U$12,IF(H25="T",N25*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P25" s="143"/>
-      <c r="Q25" s="144"/>
-      <c r="R25" s="144"/>
-      <c r="S25" s="144"/>
-      <c r="T25" s="144"/>
+      <c r="P25" s="140"/>
+      <c r="Q25" s="141"/>
+      <c r="R25" s="141"/>
+      <c r="S25" s="141"/>
+      <c r="T25" s="141"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="140" t="s">
+      <c r="A26" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="141"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="144"/>
       <c r="G26" s="17" t="s">
         <v>37</v>
       </c>
@@ -8654,21 +8798,21 @@
         <f>IF(H26="I",N26*Contagem!$U$11,IF(H26="E",N26*Contagem!$U$13,IF(H26="A",N26*Contagem!$U$12,IF(H26="T",N26*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P26" s="143"/>
-      <c r="Q26" s="144"/>
-      <c r="R26" s="144"/>
-      <c r="S26" s="144"/>
-      <c r="T26" s="144"/>
+      <c r="P26" s="140"/>
+      <c r="Q26" s="141"/>
+      <c r="R26" s="141"/>
+      <c r="S26" s="141"/>
+      <c r="T26" s="141"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1">
-      <c r="A27" s="140" t="s">
+      <c r="A27" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="141"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="142"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="144"/>
       <c r="G27" s="17" t="s">
         <v>37</v>
       </c>
@@ -8701,21 +8845,21 @@
         <f>IF(H27="I",N27*Contagem!$U$11,IF(H27="E",N27*Contagem!$U$13,IF(H27="A",N27*Contagem!$U$12,IF(H27="T",N27*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P27" s="143"/>
-      <c r="Q27" s="144"/>
-      <c r="R27" s="144"/>
-      <c r="S27" s="144"/>
-      <c r="T27" s="144"/>
+      <c r="P27" s="140"/>
+      <c r="Q27" s="141"/>
+      <c r="R27" s="141"/>
+      <c r="S27" s="141"/>
+      <c r="T27" s="141"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1">
-      <c r="A28" s="140" t="s">
+      <c r="A28" s="142" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="142"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="144"/>
       <c r="G28" s="17" t="s">
         <v>51</v>
       </c>
@@ -8748,21 +8892,21 @@
         <f>IF(H28="I",N28*Contagem!$U$11,IF(H28="E",N28*Contagem!$U$13,IF(H28="A",N28*Contagem!$U$12,IF(H28="T",N28*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P28" s="143"/>
-      <c r="Q28" s="144"/>
-      <c r="R28" s="144"/>
-      <c r="S28" s="144"/>
-      <c r="T28" s="144"/>
+      <c r="P28" s="140"/>
+      <c r="Q28" s="141"/>
+      <c r="R28" s="141"/>
+      <c r="S28" s="141"/>
+      <c r="T28" s="141"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="A29" s="140" t="s">
+      <c r="A29" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="141"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="142"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="144"/>
       <c r="G29" s="17" t="s">
         <v>38</v>
       </c>
@@ -8795,21 +8939,21 @@
         <f>IF(H29="I",N29*Contagem!$U$11,IF(H29="E",N29*Contagem!$U$13,IF(H29="A",N29*Contagem!$U$12,IF(H29="T",N29*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P29" s="143"/>
-      <c r="Q29" s="144"/>
-      <c r="R29" s="144"/>
-      <c r="S29" s="144"/>
-      <c r="T29" s="144"/>
+      <c r="P29" s="140"/>
+      <c r="Q29" s="141"/>
+      <c r="R29" s="141"/>
+      <c r="S29" s="141"/>
+      <c r="T29" s="141"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
-      <c r="A30" s="140" t="s">
+      <c r="A30" s="142" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="141"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="142"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="143"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="144"/>
       <c r="G30" s="17" t="s">
         <v>38</v>
       </c>
@@ -8842,11 +8986,11 @@
         <f>IF(H30="I",N30*Contagem!$U$11,IF(H30="E",N30*Contagem!$U$13,IF(H30="A",N30*Contagem!$U$12,IF(H30="T",N30*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P30" s="143"/>
-      <c r="Q30" s="144"/>
-      <c r="R30" s="144"/>
-      <c r="S30" s="144"/>
-      <c r="T30" s="144"/>
+      <c r="P30" s="140"/>
+      <c r="Q30" s="141"/>
+      <c r="R30" s="141"/>
+      <c r="S30" s="141"/>
+      <c r="T30" s="141"/>
     </row>
     <row r="31" spans="1:20" s="79" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="80" t="s">
@@ -8889,11 +9033,11 @@
         <f>IF(H31="I",N31*Contagem!$U$11,IF(H31="E",N31*Contagem!$U$13,IF(H31="A",N31*Contagem!$U$12,IF(H31="T",N31*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P31" s="143"/>
-      <c r="Q31" s="144"/>
-      <c r="R31" s="144"/>
-      <c r="S31" s="144"/>
-      <c r="T31" s="144"/>
+      <c r="P31" s="140"/>
+      <c r="Q31" s="141"/>
+      <c r="R31" s="141"/>
+      <c r="S31" s="141"/>
+      <c r="T31" s="141"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="94" t="s">
@@ -8920,14 +9064,14 @@
       <c r="T32" s="93"/>
     </row>
     <row r="33" spans="1:20" s="79" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="140" t="s">
+      <c r="A33" s="142" t="s">
         <v>141</v>
       </c>
-      <c r="B33" s="141"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="142"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="144"/>
       <c r="G33" s="17" t="s">
         <v>89</v>
       </c>
@@ -8960,21 +9104,21 @@
         <f>IF(H33="I",N33*Contagem!$U$11,IF(H33="E",N33*Contagem!$U$13,IF(H33="A",N33*Contagem!$U$12,IF(H33="T",N33*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P33" s="143"/>
-      <c r="Q33" s="144"/>
-      <c r="R33" s="144"/>
-      <c r="S33" s="144"/>
-      <c r="T33" s="144"/>
+      <c r="P33" s="140"/>
+      <c r="Q33" s="141"/>
+      <c r="R33" s="141"/>
+      <c r="S33" s="141"/>
+      <c r="T33" s="141"/>
     </row>
     <row r="34" spans="1:20" ht="18" customHeight="1">
-      <c r="A34" s="140" t="s">
+      <c r="A34" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="141"/>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="142"/>
+      <c r="B34" s="143"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="143"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="144"/>
       <c r="G34" s="17" t="s">
         <v>37</v>
       </c>
@@ -9007,21 +9151,21 @@
         <f>IF(H34="I",N34*Contagem!$U$11,IF(H34="E",N34*Contagem!$U$13,IF(H34="A",N34*Contagem!$U$12,IF(H34="T",N34*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P34" s="143"/>
-      <c r="Q34" s="144"/>
-      <c r="R34" s="144"/>
-      <c r="S34" s="144"/>
-      <c r="T34" s="144"/>
+      <c r="P34" s="140"/>
+      <c r="Q34" s="141"/>
+      <c r="R34" s="141"/>
+      <c r="S34" s="141"/>
+      <c r="T34" s="141"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
-      <c r="A35" s="140" t="s">
+      <c r="A35" s="142" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="141"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="142"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="144"/>
       <c r="G35" s="17" t="s">
         <v>37</v>
       </c>
@@ -9054,21 +9198,21 @@
         <f>IF(H35="I",N35*Contagem!$U$11,IF(H35="E",N35*Contagem!$U$13,IF(H35="A",N35*Contagem!$U$12,IF(H35="T",N35*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P35" s="143"/>
-      <c r="Q35" s="144"/>
-      <c r="R35" s="144"/>
-      <c r="S35" s="144"/>
-      <c r="T35" s="144"/>
+      <c r="P35" s="140"/>
+      <c r="Q35" s="141"/>
+      <c r="R35" s="141"/>
+      <c r="S35" s="141"/>
+      <c r="T35" s="141"/>
     </row>
     <row r="36" spans="1:20" ht="18" customHeight="1">
-      <c r="A36" s="140" t="s">
+      <c r="A36" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="141"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="142"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="144"/>
       <c r="G36" s="17" t="s">
         <v>38</v>
       </c>
@@ -9101,21 +9245,21 @@
         <f>IF(H36="I",N36*Contagem!$U$11,IF(H36="E",N36*Contagem!$U$13,IF(H36="A",N36*Contagem!$U$12,IF(H36="T",N36*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P36" s="143"/>
-      <c r="Q36" s="144"/>
-      <c r="R36" s="144"/>
-      <c r="S36" s="144"/>
-      <c r="T36" s="144"/>
+      <c r="P36" s="140"/>
+      <c r="Q36" s="141"/>
+      <c r="R36" s="141"/>
+      <c r="S36" s="141"/>
+      <c r="T36" s="141"/>
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1">
-      <c r="A37" s="140" t="s">
+      <c r="A37" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="142"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="143"/>
+      <c r="E37" s="143"/>
+      <c r="F37" s="144"/>
       <c r="G37" s="17" t="s">
         <v>51</v>
       </c>
@@ -9148,21 +9292,21 @@
         <f>IF(H37="I",N37*Contagem!$U$11,IF(H37="E",N37*Contagem!$U$13,IF(H37="A",N37*Contagem!$U$12,IF(H37="T",N37*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P37" s="143"/>
-      <c r="Q37" s="144"/>
-      <c r="R37" s="144"/>
-      <c r="S37" s="144"/>
-      <c r="T37" s="144"/>
+      <c r="P37" s="140"/>
+      <c r="Q37" s="141"/>
+      <c r="R37" s="141"/>
+      <c r="S37" s="141"/>
+      <c r="T37" s="141"/>
     </row>
     <row r="38" spans="1:20" ht="18" customHeight="1">
-      <c r="A38" s="140" t="s">
+      <c r="A38" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="141"/>
-      <c r="C38" s="141"/>
-      <c r="D38" s="141"/>
-      <c r="E38" s="141"/>
-      <c r="F38" s="142"/>
+      <c r="B38" s="143"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="143"/>
+      <c r="E38" s="143"/>
+      <c r="F38" s="144"/>
       <c r="G38" s="17" t="s">
         <v>38</v>
       </c>
@@ -9195,21 +9339,21 @@
         <f>IF(H38="I",N38*Contagem!$U$11,IF(H38="E",N38*Contagem!$U$13,IF(H38="A",N38*Contagem!$U$12,IF(H38="T",N38*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P38" s="143"/>
-      <c r="Q38" s="144"/>
-      <c r="R38" s="144"/>
-      <c r="S38" s="144"/>
-      <c r="T38" s="144"/>
+      <c r="P38" s="140"/>
+      <c r="Q38" s="141"/>
+      <c r="R38" s="141"/>
+      <c r="S38" s="141"/>
+      <c r="T38" s="141"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
-      <c r="A39" s="140" t="s">
+      <c r="A39" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="141"/>
-      <c r="C39" s="141"/>
-      <c r="D39" s="141"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="142"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="143"/>
+      <c r="E39" s="143"/>
+      <c r="F39" s="144"/>
       <c r="G39" s="17" t="s">
         <v>51</v>
       </c>
@@ -9242,11 +9386,11 @@
         <f>IF(H39="I",N39*Contagem!$U$11,IF(H39="E",N39*Contagem!$U$13,IF(H39="A",N39*Contagem!$U$12,IF(H39="T",N39*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P39" s="143"/>
-      <c r="Q39" s="144"/>
-      <c r="R39" s="144"/>
-      <c r="S39" s="144"/>
-      <c r="T39" s="144"/>
+      <c r="P39" s="140"/>
+      <c r="Q39" s="141"/>
+      <c r="R39" s="141"/>
+      <c r="S39" s="141"/>
+      <c r="T39" s="141"/>
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1">
       <c r="A40" s="94" t="s">
@@ -9288,14 +9432,14 @@
       <c r="T40" s="93"/>
     </row>
     <row r="41" spans="1:20" ht="18" customHeight="1">
-      <c r="A41" s="140" t="s">
+      <c r="A41" s="142" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="141"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="142"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
+      <c r="E41" s="143"/>
+      <c r="F41" s="144"/>
       <c r="G41" s="17" t="s">
         <v>37</v>
       </c>
@@ -9328,21 +9472,21 @@
         <f>IF(H41="I",N41*Contagem!$U$11,IF(H41="E",N41*Contagem!$U$13,IF(H41="A",N41*Contagem!$U$12,IF(H41="T",N41*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P41" s="143"/>
-      <c r="Q41" s="144"/>
-      <c r="R41" s="144"/>
-      <c r="S41" s="144"/>
-      <c r="T41" s="144"/>
+      <c r="P41" s="140"/>
+      <c r="Q41" s="141"/>
+      <c r="R41" s="141"/>
+      <c r="S41" s="141"/>
+      <c r="T41" s="141"/>
     </row>
     <row r="42" spans="1:20" ht="18" customHeight="1">
-      <c r="A42" s="140" t="s">
+      <c r="A42" s="142" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="141"/>
-      <c r="C42" s="141"/>
-      <c r="D42" s="141"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="142"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="144"/>
       <c r="G42" s="17" t="s">
         <v>37</v>
       </c>
@@ -9375,21 +9519,21 @@
         <f>IF(H42="I",N42*Contagem!$U$11,IF(H42="E",N42*Contagem!$U$13,IF(H42="A",N42*Contagem!$U$12,IF(H42="T",N42*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P42" s="143"/>
-      <c r="Q42" s="144"/>
-      <c r="R42" s="144"/>
-      <c r="S42" s="144"/>
-      <c r="T42" s="144"/>
+      <c r="P42" s="140"/>
+      <c r="Q42" s="141"/>
+      <c r="R42" s="141"/>
+      <c r="S42" s="141"/>
+      <c r="T42" s="141"/>
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1">
-      <c r="A43" s="140" t="s">
+      <c r="A43" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="141"/>
-      <c r="C43" s="141"/>
-      <c r="D43" s="141"/>
-      <c r="E43" s="141"/>
-      <c r="F43" s="142"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
+      <c r="E43" s="143"/>
+      <c r="F43" s="144"/>
       <c r="G43" s="17" t="s">
         <v>51</v>
       </c>
@@ -9422,21 +9566,21 @@
         <f>IF(H43="I",N43*Contagem!$U$11,IF(H43="E",N43*Contagem!$U$13,IF(H43="A",N43*Contagem!$U$12,IF(H43="T",N43*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P43" s="143"/>
-      <c r="Q43" s="144"/>
-      <c r="R43" s="144"/>
-      <c r="S43" s="144"/>
-      <c r="T43" s="144"/>
+      <c r="P43" s="140"/>
+      <c r="Q43" s="141"/>
+      <c r="R43" s="141"/>
+      <c r="S43" s="141"/>
+      <c r="T43" s="141"/>
     </row>
     <row r="44" spans="1:20" ht="18" customHeight="1">
-      <c r="A44" s="140" t="s">
+      <c r="A44" s="142" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="141"/>
-      <c r="C44" s="141"/>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="142"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="143"/>
+      <c r="E44" s="143"/>
+      <c r="F44" s="144"/>
       <c r="G44" s="17" t="s">
         <v>38</v>
       </c>
@@ -9469,21 +9613,21 @@
         <f>IF(H44="I",N44*Contagem!$U$11,IF(H44="E",N44*Contagem!$U$13,IF(H44="A",N44*Contagem!$U$12,IF(H44="T",N44*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P44" s="143"/>
-      <c r="Q44" s="144"/>
-      <c r="R44" s="144"/>
-      <c r="S44" s="144"/>
-      <c r="T44" s="144"/>
+      <c r="P44" s="140"/>
+      <c r="Q44" s="141"/>
+      <c r="R44" s="141"/>
+      <c r="S44" s="141"/>
+      <c r="T44" s="141"/>
     </row>
     <row r="45" spans="1:20" ht="18" customHeight="1">
-      <c r="A45" s="140" t="s">
+      <c r="A45" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="141"/>
-      <c r="C45" s="141"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="142"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="143"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="144"/>
       <c r="G45" s="17" t="s">
         <v>38</v>
       </c>
@@ -9516,21 +9660,21 @@
         <f>IF(H45="I",N45*Contagem!$U$11,IF(H45="E",N45*Contagem!$U$13,IF(H45="A",N45*Contagem!$U$12,IF(H45="T",N45*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P45" s="143"/>
-      <c r="Q45" s="144"/>
-      <c r="R45" s="144"/>
-      <c r="S45" s="144"/>
-      <c r="T45" s="144"/>
+      <c r="P45" s="140"/>
+      <c r="Q45" s="141"/>
+      <c r="R45" s="141"/>
+      <c r="S45" s="141"/>
+      <c r="T45" s="141"/>
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
-      <c r="A46" s="140" t="s">
+      <c r="A46" s="142" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="141"/>
-      <c r="C46" s="141"/>
-      <c r="D46" s="141"/>
-      <c r="E46" s="141"/>
-      <c r="F46" s="142"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="144"/>
       <c r="G46" s="17" t="s">
         <v>51</v>
       </c>
@@ -9563,21 +9707,21 @@
         <f>IF(H46="I",N46*Contagem!$U$11,IF(H46="E",N46*Contagem!$U$13,IF(H46="A",N46*Contagem!$U$12,IF(H46="T",N46*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P46" s="143"/>
-      <c r="Q46" s="144"/>
-      <c r="R46" s="144"/>
-      <c r="S46" s="144"/>
-      <c r="T46" s="144"/>
+      <c r="P46" s="140"/>
+      <c r="Q46" s="141"/>
+      <c r="R46" s="141"/>
+      <c r="S46" s="141"/>
+      <c r="T46" s="141"/>
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1">
-      <c r="A47" s="140" t="s">
+      <c r="A47" s="142" t="s">
         <v>140</v>
       </c>
-      <c r="B47" s="141"/>
-      <c r="C47" s="141"/>
-      <c r="D47" s="141"/>
-      <c r="E47" s="141"/>
-      <c r="F47" s="142"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="143"/>
+      <c r="E47" s="143"/>
+      <c r="F47" s="144"/>
       <c r="G47" s="17" t="s">
         <v>35</v>
       </c>
@@ -9610,11 +9754,11 @@
         <f>IF(H47="I",N47*Contagem!$U$11,IF(H47="E",N47*Contagem!$U$13,IF(H47="A",N47*Contagem!$U$12,IF(H47="T",N47*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P47" s="143"/>
-      <c r="Q47" s="144"/>
-      <c r="R47" s="144"/>
-      <c r="S47" s="144"/>
-      <c r="T47" s="144"/>
+      <c r="P47" s="140"/>
+      <c r="Q47" s="141"/>
+      <c r="R47" s="141"/>
+      <c r="S47" s="141"/>
+      <c r="T47" s="141"/>
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1">
       <c r="A48" s="85" t="s">
@@ -9656,14 +9800,14 @@
       <c r="T48" s="93"/>
     </row>
     <row r="49" spans="1:20" ht="18" customHeight="1">
-      <c r="A49" s="140" t="s">
+      <c r="A49" s="142" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="141"/>
-      <c r="C49" s="141"/>
-      <c r="D49" s="141"/>
-      <c r="E49" s="141"/>
-      <c r="F49" s="142"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="143"/>
+      <c r="E49" s="143"/>
+      <c r="F49" s="144"/>
       <c r="G49" s="17" t="s">
         <v>37</v>
       </c>
@@ -9696,21 +9840,21 @@
         <f>IF(H49="I",N49*Contagem!$U$11,IF(H49="E",N49*Contagem!$U$13,IF(H49="A",N49*Contagem!$U$12,IF(H49="T",N49*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P49" s="143"/>
-      <c r="Q49" s="144"/>
-      <c r="R49" s="144"/>
-      <c r="S49" s="144"/>
-      <c r="T49" s="144"/>
+      <c r="P49" s="140"/>
+      <c r="Q49" s="141"/>
+      <c r="R49" s="141"/>
+      <c r="S49" s="141"/>
+      <c r="T49" s="141"/>
     </row>
     <row r="50" spans="1:20" ht="18" customHeight="1">
-      <c r="A50" s="140" t="s">
+      <c r="A50" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="141"/>
-      <c r="C50" s="141"/>
-      <c r="D50" s="141"/>
-      <c r="E50" s="141"/>
-      <c r="F50" s="142"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="143"/>
+      <c r="E50" s="143"/>
+      <c r="F50" s="144"/>
       <c r="G50" s="17" t="s">
         <v>37</v>
       </c>
@@ -9743,21 +9887,21 @@
         <f>IF(H50="I",N50*Contagem!$U$11,IF(H50="E",N50*Contagem!$U$13,IF(H50="A",N50*Contagem!$U$12,IF(H50="T",N50*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P50" s="143"/>
-      <c r="Q50" s="144"/>
-      <c r="R50" s="144"/>
-      <c r="S50" s="144"/>
-      <c r="T50" s="144"/>
+      <c r="P50" s="140"/>
+      <c r="Q50" s="141"/>
+      <c r="R50" s="141"/>
+      <c r="S50" s="141"/>
+      <c r="T50" s="141"/>
     </row>
     <row r="51" spans="1:20" ht="18" customHeight="1">
-      <c r="A51" s="140" t="s">
+      <c r="A51" s="142" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="141"/>
-      <c r="C51" s="141"/>
-      <c r="D51" s="141"/>
-      <c r="E51" s="141"/>
-      <c r="F51" s="142"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="143"/>
+      <c r="E51" s="143"/>
+      <c r="F51" s="144"/>
       <c r="G51" s="17" t="s">
         <v>38</v>
       </c>
@@ -9790,21 +9934,21 @@
         <f>IF(H51="I",N51*Contagem!$U$11,IF(H51="E",N51*Contagem!$U$13,IF(H51="A",N51*Contagem!$U$12,IF(H51="T",N51*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P51" s="143"/>
-      <c r="Q51" s="144"/>
-      <c r="R51" s="144"/>
-      <c r="S51" s="144"/>
-      <c r="T51" s="144"/>
+      <c r="P51" s="140"/>
+      <c r="Q51" s="141"/>
+      <c r="R51" s="141"/>
+      <c r="S51" s="141"/>
+      <c r="T51" s="141"/>
     </row>
     <row r="52" spans="1:20" ht="18" customHeight="1">
-      <c r="A52" s="140" t="s">
+      <c r="A52" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="141"/>
-      <c r="C52" s="141"/>
-      <c r="D52" s="141"/>
-      <c r="E52" s="141"/>
-      <c r="F52" s="142"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="143"/>
+      <c r="E52" s="143"/>
+      <c r="F52" s="144"/>
       <c r="G52" s="17" t="s">
         <v>37</v>
       </c>
@@ -9837,11 +9981,11 @@
         <f>IF(H52="I",N52*Contagem!$U$11,IF(H52="E",N52*Contagem!$U$13,IF(H52="A",N52*Contagem!$U$12,IF(H52="T",N52*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P52" s="143"/>
-      <c r="Q52" s="144"/>
-      <c r="R52" s="144"/>
-      <c r="S52" s="144"/>
-      <c r="T52" s="144"/>
+      <c r="P52" s="140"/>
+      <c r="Q52" s="141"/>
+      <c r="R52" s="141"/>
+      <c r="S52" s="141"/>
+      <c r="T52" s="141"/>
     </row>
     <row r="53" spans="1:20" s="86" customFormat="1" ht="18" customHeight="1">
       <c r="A53" s="87" t="s">
@@ -9938,14 +10082,14 @@
       <c r="T54" s="115"/>
     </row>
     <row r="55" spans="1:20" ht="18" customHeight="1">
-      <c r="A55" s="140" t="s">
+      <c r="A55" s="142" t="s">
         <v>139</v>
       </c>
-      <c r="B55" s="141"/>
-      <c r="C55" s="141"/>
-      <c r="D55" s="141"/>
-      <c r="E55" s="141"/>
-      <c r="F55" s="142"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="143"/>
+      <c r="E55" s="143"/>
+      <c r="F55" s="144"/>
       <c r="G55" s="17" t="s">
         <v>35</v>
       </c>
@@ -9978,11 +10122,11 @@
         <f>IF(H55="I",N55*Contagem!$U$11,IF(H55="E",N55*Contagem!$U$13,IF(H55="A",N55*Contagem!$U$12,IF(H55="T",N55*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P55" s="143"/>
-      <c r="Q55" s="144"/>
-      <c r="R55" s="144"/>
-      <c r="S55" s="144"/>
-      <c r="T55" s="144"/>
+      <c r="P55" s="140"/>
+      <c r="Q55" s="141"/>
+      <c r="R55" s="141"/>
+      <c r="S55" s="141"/>
+      <c r="T55" s="141"/>
     </row>
     <row r="56" spans="1:20" ht="18" customHeight="1">
       <c r="A56" s="94" t="s">
@@ -10024,14 +10168,14 @@
       <c r="T56" s="93"/>
     </row>
     <row r="57" spans="1:20" ht="18" customHeight="1">
-      <c r="A57" s="140" t="s">
+      <c r="A57" s="142" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="141"/>
-      <c r="C57" s="141"/>
-      <c r="D57" s="141"/>
-      <c r="E57" s="141"/>
-      <c r="F57" s="142"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="143"/>
+      <c r="F57" s="144"/>
       <c r="G57" s="97" t="s">
         <v>37</v>
       </c>
@@ -10064,21 +10208,21 @@
         <f>IF(H57="I",N57*Contagem!$U$11,IF(H57="E",N57*Contagem!$U$13,IF(H57="A",N57*Contagem!$U$12,IF(H57="T",N57*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P57" s="143"/>
-      <c r="Q57" s="144"/>
-      <c r="R57" s="144"/>
-      <c r="S57" s="144"/>
-      <c r="T57" s="144"/>
+      <c r="P57" s="140"/>
+      <c r="Q57" s="141"/>
+      <c r="R57" s="141"/>
+      <c r="S57" s="141"/>
+      <c r="T57" s="141"/>
     </row>
     <row r="58" spans="1:20" ht="18" customHeight="1">
-      <c r="A58" s="140" t="s">
+      <c r="A58" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="141"/>
-      <c r="C58" s="141"/>
-      <c r="D58" s="141"/>
-      <c r="E58" s="141"/>
-      <c r="F58" s="142"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="143"/>
+      <c r="F58" s="144"/>
       <c r="G58" s="98" t="s">
         <v>37</v>
       </c>
@@ -10111,21 +10255,21 @@
         <f>IF(H58="I",N58*Contagem!$U$11,IF(H58="E",N58*Contagem!$U$13,IF(H58="A",N58*Contagem!$U$12,IF(H58="T",N58*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P58" s="143"/>
-      <c r="Q58" s="144"/>
-      <c r="R58" s="144"/>
-      <c r="S58" s="144"/>
-      <c r="T58" s="144"/>
+      <c r="P58" s="140"/>
+      <c r="Q58" s="141"/>
+      <c r="R58" s="141"/>
+      <c r="S58" s="141"/>
+      <c r="T58" s="141"/>
     </row>
     <row r="59" spans="1:20" ht="18" customHeight="1">
-      <c r="A59" s="140" t="s">
+      <c r="A59" s="142" t="s">
         <v>170</v>
       </c>
-      <c r="B59" s="141"/>
-      <c r="C59" s="141"/>
-      <c r="D59" s="141"/>
-      <c r="E59" s="141"/>
-      <c r="F59" s="142"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="143"/>
+      <c r="E59" s="143"/>
+      <c r="F59" s="144"/>
       <c r="G59" s="98" t="s">
         <v>37</v>
       </c>
@@ -10158,21 +10302,21 @@
         <f>IF(H59="I",N59*Contagem!$U$11,IF(H59="E",N59*Contagem!$U$13,IF(H59="A",N59*Contagem!$U$12,IF(H59="T",N59*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P59" s="143"/>
-      <c r="Q59" s="144"/>
-      <c r="R59" s="144"/>
-      <c r="S59" s="144"/>
-      <c r="T59" s="144"/>
+      <c r="P59" s="140"/>
+      <c r="Q59" s="141"/>
+      <c r="R59" s="141"/>
+      <c r="S59" s="141"/>
+      <c r="T59" s="141"/>
     </row>
     <row r="60" spans="1:20" ht="18" customHeight="1">
-      <c r="A60" s="140" t="s">
+      <c r="A60" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="141"/>
-      <c r="C60" s="141"/>
-      <c r="D60" s="141"/>
-      <c r="E60" s="141"/>
-      <c r="F60" s="142"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="143"/>
+      <c r="E60" s="143"/>
+      <c r="F60" s="144"/>
       <c r="G60" s="98" t="s">
         <v>38</v>
       </c>
@@ -10205,21 +10349,21 @@
         <f>IF(H60="I",N60*Contagem!$U$11,IF(H60="E",N60*Contagem!$U$13,IF(H60="A",N60*Contagem!$U$12,IF(H60="T",N60*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P60" s="143"/>
-      <c r="Q60" s="144"/>
-      <c r="R60" s="144"/>
-      <c r="S60" s="144"/>
-      <c r="T60" s="144"/>
+      <c r="P60" s="140"/>
+      <c r="Q60" s="141"/>
+      <c r="R60" s="141"/>
+      <c r="S60" s="141"/>
+      <c r="T60" s="141"/>
     </row>
     <row r="61" spans="1:20" ht="18" customHeight="1">
-      <c r="A61" s="140" t="s">
+      <c r="A61" s="142" t="s">
         <v>111</v>
       </c>
-      <c r="B61" s="141"/>
-      <c r="C61" s="141"/>
-      <c r="D61" s="141"/>
-      <c r="E61" s="141"/>
-      <c r="F61" s="142"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="144"/>
       <c r="G61" s="98" t="s">
         <v>37</v>
       </c>
@@ -10252,21 +10396,21 @@
         <f>IF(H61="I",N61*Contagem!$U$11,IF(H61="E",N61*Contagem!$U$13,IF(H61="A",N61*Contagem!$U$12,IF(H61="T",N61*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P61" s="143"/>
-      <c r="Q61" s="144"/>
-      <c r="R61" s="144"/>
-      <c r="S61" s="144"/>
-      <c r="T61" s="144"/>
+      <c r="P61" s="140"/>
+      <c r="Q61" s="141"/>
+      <c r="R61" s="141"/>
+      <c r="S61" s="141"/>
+      <c r="T61" s="141"/>
     </row>
     <row r="62" spans="1:20" ht="18" customHeight="1">
-      <c r="A62" s="140" t="s">
+      <c r="A62" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="141"/>
-      <c r="C62" s="141"/>
-      <c r="D62" s="141"/>
-      <c r="E62" s="141"/>
-      <c r="F62" s="142"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="143"/>
+      <c r="E62" s="143"/>
+      <c r="F62" s="144"/>
       <c r="G62" s="98" t="s">
         <v>38</v>
       </c>
@@ -10299,21 +10443,21 @@
         <f>IF(H62="I",N62*Contagem!$U$11,IF(H62="E",N62*Contagem!$U$13,IF(H62="A",N62*Contagem!$U$12,IF(H62="T",N62*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P62" s="143"/>
-      <c r="Q62" s="144"/>
-      <c r="R62" s="144"/>
-      <c r="S62" s="144"/>
-      <c r="T62" s="144"/>
+      <c r="P62" s="140"/>
+      <c r="Q62" s="141"/>
+      <c r="R62" s="141"/>
+      <c r="S62" s="141"/>
+      <c r="T62" s="141"/>
     </row>
     <row r="63" spans="1:20" ht="18" customHeight="1">
-      <c r="A63" s="140" t="s">
+      <c r="A63" s="142" t="s">
         <v>113</v>
       </c>
-      <c r="B63" s="141"/>
-      <c r="C63" s="141"/>
-      <c r="D63" s="141"/>
-      <c r="E63" s="141"/>
-      <c r="F63" s="142"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="143"/>
+      <c r="E63" s="143"/>
+      <c r="F63" s="144"/>
       <c r="G63" s="98" t="s">
         <v>51</v>
       </c>
@@ -10346,21 +10490,21 @@
         <f>IF(H63="I",N63*Contagem!$U$11,IF(H63="E",N63*Contagem!$U$13,IF(H63="A",N63*Contagem!$U$12,IF(H63="T",N63*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P63" s="143"/>
-      <c r="Q63" s="144"/>
-      <c r="R63" s="144"/>
-      <c r="S63" s="144"/>
-      <c r="T63" s="144"/>
+      <c r="P63" s="140"/>
+      <c r="Q63" s="141"/>
+      <c r="R63" s="141"/>
+      <c r="S63" s="141"/>
+      <c r="T63" s="141"/>
     </row>
     <row r="64" spans="1:20" ht="18" customHeight="1">
-      <c r="A64" s="140" t="s">
+      <c r="A64" s="142" t="s">
         <v>138</v>
       </c>
-      <c r="B64" s="141"/>
-      <c r="C64" s="141"/>
-      <c r="D64" s="141"/>
-      <c r="E64" s="141"/>
-      <c r="F64" s="142"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="143"/>
+      <c r="E64" s="143"/>
+      <c r="F64" s="144"/>
       <c r="G64" s="17" t="s">
         <v>35</v>
       </c>
@@ -10393,11 +10537,11 @@
         <f>IF(H64="I",N64*Contagem!$U$11,IF(H64="E",N64*Contagem!$U$13,IF(H64="A",N64*Contagem!$U$12,IF(H64="T",N64*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P64" s="143"/>
-      <c r="Q64" s="144"/>
-      <c r="R64" s="144"/>
-      <c r="S64" s="144"/>
-      <c r="T64" s="144"/>
+      <c r="P64" s="140"/>
+      <c r="Q64" s="141"/>
+      <c r="R64" s="141"/>
+      <c r="S64" s="141"/>
+      <c r="T64" s="141"/>
     </row>
     <row r="65" spans="1:20" ht="18" customHeight="1">
       <c r="A65" s="94" t="s">
@@ -10439,14 +10583,14 @@
       <c r="T65" s="93"/>
     </row>
     <row r="66" spans="1:20" ht="18" customHeight="1">
-      <c r="A66" s="140" t="s">
+      <c r="A66" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="B66" s="141"/>
-      <c r="C66" s="141"/>
-      <c r="D66" s="141"/>
-      <c r="E66" s="141"/>
-      <c r="F66" s="142"/>
+      <c r="B66" s="143"/>
+      <c r="C66" s="143"/>
+      <c r="D66" s="143"/>
+      <c r="E66" s="143"/>
+      <c r="F66" s="144"/>
       <c r="G66" s="17" t="s">
         <v>35</v>
       </c>
@@ -10475,21 +10619,21 @@
         <f>IF(H66="I",N66*Contagem!$U$11,IF(H66="E",N66*Contagem!$U$13,IF(H66="A",N66*Contagem!$U$12,IF(H66="T",N66*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P66" s="143"/>
-      <c r="Q66" s="144"/>
-      <c r="R66" s="144"/>
-      <c r="S66" s="144"/>
-      <c r="T66" s="144"/>
+      <c r="P66" s="140"/>
+      <c r="Q66" s="141"/>
+      <c r="R66" s="141"/>
+      <c r="S66" s="141"/>
+      <c r="T66" s="141"/>
     </row>
     <row r="67" spans="1:20" ht="18" customHeight="1">
-      <c r="A67" s="140" t="s">
+      <c r="A67" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="141"/>
-      <c r="C67" s="141"/>
-      <c r="D67" s="141"/>
-      <c r="E67" s="141"/>
-      <c r="F67" s="142"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="143"/>
+      <c r="E67" s="143"/>
+      <c r="F67" s="144"/>
       <c r="G67" s="17" t="s">
         <v>37</v>
       </c>
@@ -10518,21 +10662,21 @@
         <f>IF(H67="I",N67*Contagem!$U$11,IF(H67="E",N67*Contagem!$U$13,IF(H67="A",N67*Contagem!$U$12,IF(H67="T",N67*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P67" s="143"/>
-      <c r="Q67" s="144"/>
-      <c r="R67" s="144"/>
-      <c r="S67" s="144"/>
-      <c r="T67" s="144"/>
+      <c r="P67" s="140"/>
+      <c r="Q67" s="141"/>
+      <c r="R67" s="141"/>
+      <c r="S67" s="141"/>
+      <c r="T67" s="141"/>
     </row>
     <row r="68" spans="1:20" ht="18" customHeight="1">
-      <c r="A68" s="140" t="s">
+      <c r="A68" s="142" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="141"/>
-      <c r="C68" s="141"/>
-      <c r="D68" s="141"/>
-      <c r="E68" s="141"/>
-      <c r="F68" s="142"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143"/>
+      <c r="E68" s="143"/>
+      <c r="F68" s="144"/>
       <c r="G68" s="17" t="s">
         <v>37</v>
       </c>
@@ -10561,21 +10705,21 @@
         <f>IF(H68="I",N68*Contagem!$U$11,IF(H68="E",N68*Contagem!$U$13,IF(H68="A",N68*Contagem!$U$12,IF(H68="T",N68*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P68" s="143"/>
-      <c r="Q68" s="144"/>
-      <c r="R68" s="144"/>
-      <c r="S68" s="144"/>
-      <c r="T68" s="144"/>
+      <c r="P68" s="140"/>
+      <c r="Q68" s="141"/>
+      <c r="R68" s="141"/>
+      <c r="S68" s="141"/>
+      <c r="T68" s="141"/>
     </row>
     <row r="69" spans="1:20" ht="18" customHeight="1">
-      <c r="A69" s="140" t="s">
+      <c r="A69" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="B69" s="141"/>
-      <c r="C69" s="141"/>
-      <c r="D69" s="141"/>
-      <c r="E69" s="141"/>
-      <c r="F69" s="142"/>
+      <c r="B69" s="143"/>
+      <c r="C69" s="143"/>
+      <c r="D69" s="143"/>
+      <c r="E69" s="143"/>
+      <c r="F69" s="144"/>
       <c r="G69" s="17" t="s">
         <v>38</v>
       </c>
@@ -10604,21 +10748,21 @@
         <f>IF(H69="I",N69*Contagem!$U$11,IF(H69="E",N69*Contagem!$U$13,IF(H69="A",N69*Contagem!$U$12,IF(H69="T",N69*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P69" s="143"/>
-      <c r="Q69" s="144"/>
-      <c r="R69" s="144"/>
-      <c r="S69" s="144"/>
-      <c r="T69" s="144"/>
+      <c r="P69" s="140"/>
+      <c r="Q69" s="141"/>
+      <c r="R69" s="141"/>
+      <c r="S69" s="141"/>
+      <c r="T69" s="141"/>
     </row>
     <row r="70" spans="1:20" ht="18" customHeight="1">
-      <c r="A70" s="140" t="s">
+      <c r="A70" s="142" t="s">
         <v>124</v>
       </c>
-      <c r="B70" s="141"/>
-      <c r="C70" s="141"/>
-      <c r="D70" s="141"/>
-      <c r="E70" s="141"/>
-      <c r="F70" s="142"/>
+      <c r="B70" s="143"/>
+      <c r="C70" s="143"/>
+      <c r="D70" s="143"/>
+      <c r="E70" s="143"/>
+      <c r="F70" s="144"/>
       <c r="G70" s="17" t="s">
         <v>37</v>
       </c>
@@ -10647,21 +10791,21 @@
         <f>IF(H70="I",N70*Contagem!$U$11,IF(H70="E",N70*Contagem!$U$13,IF(H70="A",N70*Contagem!$U$12,IF(H70="T",N70*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P70" s="143"/>
-      <c r="Q70" s="144"/>
-      <c r="R70" s="144"/>
-      <c r="S70" s="144"/>
-      <c r="T70" s="144"/>
+      <c r="P70" s="140"/>
+      <c r="Q70" s="141"/>
+      <c r="R70" s="141"/>
+      <c r="S70" s="141"/>
+      <c r="T70" s="141"/>
     </row>
     <row r="71" spans="1:20" ht="18" customHeight="1">
-      <c r="A71" s="140" t="s">
+      <c r="A71" s="142" t="s">
         <v>125</v>
       </c>
-      <c r="B71" s="141"/>
-      <c r="C71" s="141"/>
-      <c r="D71" s="141"/>
-      <c r="E71" s="141"/>
-      <c r="F71" s="142"/>
+      <c r="B71" s="143"/>
+      <c r="C71" s="143"/>
+      <c r="D71" s="143"/>
+      <c r="E71" s="143"/>
+      <c r="F71" s="144"/>
       <c r="G71" s="17" t="s">
         <v>51</v>
       </c>
@@ -10690,21 +10834,21 @@
         <f>IF(H71="I",N71*Contagem!$U$11,IF(H71="E",N71*Contagem!$U$13,IF(H71="A",N71*Contagem!$U$12,IF(H71="T",N71*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P71" s="143"/>
-      <c r="Q71" s="144"/>
-      <c r="R71" s="144"/>
-      <c r="S71" s="144"/>
-      <c r="T71" s="144"/>
+      <c r="P71" s="140"/>
+      <c r="Q71" s="141"/>
+      <c r="R71" s="141"/>
+      <c r="S71" s="141"/>
+      <c r="T71" s="141"/>
     </row>
     <row r="72" spans="1:20" ht="18" customHeight="1">
-      <c r="A72" s="140" t="s">
+      <c r="A72" s="142" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="141"/>
-      <c r="C72" s="141"/>
-      <c r="D72" s="141"/>
-      <c r="E72" s="141"/>
-      <c r="F72" s="142"/>
+      <c r="B72" s="143"/>
+      <c r="C72" s="143"/>
+      <c r="D72" s="143"/>
+      <c r="E72" s="143"/>
+      <c r="F72" s="144"/>
       <c r="G72" s="17" t="s">
         <v>51</v>
       </c>
@@ -10733,11 +10877,11 @@
         <f>IF(H72="I",N72*Contagem!$U$11,IF(H72="E",N72*Contagem!$U$13,IF(H72="A",N72*Contagem!$U$12,IF(H72="T",N72*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P72" s="143"/>
-      <c r="Q72" s="144"/>
-      <c r="R72" s="144"/>
-      <c r="S72" s="144"/>
-      <c r="T72" s="144"/>
+      <c r="P72" s="140"/>
+      <c r="Q72" s="141"/>
+      <c r="R72" s="141"/>
+      <c r="S72" s="141"/>
+      <c r="T72" s="141"/>
     </row>
     <row r="73" spans="1:20" s="110" customFormat="1" ht="18" customHeight="1">
       <c r="A73" s="111" t="s">
@@ -10826,14 +10970,14 @@
       <c r="T74" s="115"/>
     </row>
     <row r="75" spans="1:20" ht="18" customHeight="1">
-      <c r="A75" s="140" t="s">
+      <c r="A75" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="B75" s="141"/>
-      <c r="C75" s="141"/>
-      <c r="D75" s="141"/>
-      <c r="E75" s="141"/>
-      <c r="F75" s="142"/>
+      <c r="B75" s="143"/>
+      <c r="C75" s="143"/>
+      <c r="D75" s="143"/>
+      <c r="E75" s="143"/>
+      <c r="F75" s="144"/>
       <c r="G75" s="17" t="s">
         <v>51</v>
       </c>
@@ -10862,11 +11006,11 @@
         <f>IF(H75="I",N75*Contagem!$U$11,IF(H75="E",N75*Contagem!$U$13,IF(H75="A",N75*Contagem!$U$12,IF(H75="T",N75*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P75" s="143"/>
-      <c r="Q75" s="144"/>
-      <c r="R75" s="144"/>
-      <c r="S75" s="144"/>
-      <c r="T75" s="144"/>
+      <c r="P75" s="140"/>
+      <c r="Q75" s="141"/>
+      <c r="R75" s="141"/>
+      <c r="S75" s="141"/>
+      <c r="T75" s="141"/>
     </row>
     <row r="76" spans="1:20" ht="18" customHeight="1">
       <c r="A76" s="94" t="s">
@@ -10908,14 +11052,14 @@
       <c r="T76" s="93"/>
     </row>
     <row r="77" spans="1:20" ht="18" customHeight="1">
-      <c r="A77" s="140" t="s">
+      <c r="A77" s="142" t="s">
         <v>136</v>
       </c>
-      <c r="B77" s="141"/>
-      <c r="C77" s="141"/>
-      <c r="D77" s="141"/>
-      <c r="E77" s="141"/>
-      <c r="F77" s="142"/>
+      <c r="B77" s="143"/>
+      <c r="C77" s="143"/>
+      <c r="D77" s="143"/>
+      <c r="E77" s="143"/>
+      <c r="F77" s="144"/>
       <c r="G77" s="17" t="s">
         <v>35</v>
       </c>
@@ -10948,21 +11092,21 @@
         <f>IF(H77="I",N77*Contagem!$U$11,IF(H77="E",N77*Contagem!$U$13,IF(H77="A",N77*Contagem!$U$12,IF(H77="T",N77*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P77" s="143"/>
-      <c r="Q77" s="144"/>
-      <c r="R77" s="144"/>
-      <c r="S77" s="144"/>
-      <c r="T77" s="144"/>
+      <c r="P77" s="140"/>
+      <c r="Q77" s="141"/>
+      <c r="R77" s="141"/>
+      <c r="S77" s="141"/>
+      <c r="T77" s="141"/>
     </row>
     <row r="78" spans="1:20" ht="18" customHeight="1">
-      <c r="A78" s="140" t="s">
+      <c r="A78" s="142" t="s">
         <v>129</v>
       </c>
-      <c r="B78" s="141"/>
-      <c r="C78" s="141"/>
-      <c r="D78" s="141"/>
-      <c r="E78" s="141"/>
-      <c r="F78" s="142"/>
+      <c r="B78" s="143"/>
+      <c r="C78" s="143"/>
+      <c r="D78" s="143"/>
+      <c r="E78" s="143"/>
+      <c r="F78" s="144"/>
       <c r="G78" s="17" t="s">
         <v>37</v>
       </c>
@@ -10995,21 +11139,21 @@
         <f>IF(H78="I",N78*Contagem!$U$11,IF(H78="E",N78*Contagem!$U$13,IF(H78="A",N78*Contagem!$U$12,IF(H78="T",N78*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P78" s="143"/>
-      <c r="Q78" s="144"/>
-      <c r="R78" s="144"/>
-      <c r="S78" s="144"/>
-      <c r="T78" s="144"/>
+      <c r="P78" s="140"/>
+      <c r="Q78" s="141"/>
+      <c r="R78" s="141"/>
+      <c r="S78" s="141"/>
+      <c r="T78" s="141"/>
     </row>
     <row r="79" spans="1:20" ht="18" customHeight="1">
-      <c r="A79" s="140" t="s">
+      <c r="A79" s="142" t="s">
         <v>130</v>
       </c>
-      <c r="B79" s="141"/>
-      <c r="C79" s="141"/>
-      <c r="D79" s="141"/>
-      <c r="E79" s="141"/>
-      <c r="F79" s="142"/>
+      <c r="B79" s="143"/>
+      <c r="C79" s="143"/>
+      <c r="D79" s="143"/>
+      <c r="E79" s="143"/>
+      <c r="F79" s="144"/>
       <c r="G79" s="17" t="s">
         <v>37</v>
       </c>
@@ -11042,21 +11186,21 @@
         <f>IF(H79="I",N79*Contagem!$U$11,IF(H79="E",N79*Contagem!$U$13,IF(H79="A",N79*Contagem!$U$12,IF(H79="T",N79*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P79" s="143"/>
-      <c r="Q79" s="144"/>
-      <c r="R79" s="144"/>
-      <c r="S79" s="144"/>
-      <c r="T79" s="144"/>
+      <c r="P79" s="140"/>
+      <c r="Q79" s="141"/>
+      <c r="R79" s="141"/>
+      <c r="S79" s="141"/>
+      <c r="T79" s="141"/>
     </row>
     <row r="80" spans="1:20" ht="18" customHeight="1">
-      <c r="A80" s="140" t="s">
+      <c r="A80" s="142" t="s">
         <v>131</v>
       </c>
-      <c r="B80" s="141"/>
-      <c r="C80" s="141"/>
-      <c r="D80" s="141"/>
-      <c r="E80" s="141"/>
-      <c r="F80" s="142"/>
+      <c r="B80" s="143"/>
+      <c r="C80" s="143"/>
+      <c r="D80" s="143"/>
+      <c r="E80" s="143"/>
+      <c r="F80" s="144"/>
       <c r="G80" s="17" t="s">
         <v>38</v>
       </c>
@@ -11089,21 +11233,21 @@
         <f>IF(H80="I",N80*Contagem!$U$11,IF(H80="E",N80*Contagem!$U$13,IF(H80="A",N80*Contagem!$U$12,IF(H80="T",N80*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P80" s="143"/>
-      <c r="Q80" s="144"/>
-      <c r="R80" s="144"/>
-      <c r="S80" s="144"/>
-      <c r="T80" s="144"/>
+      <c r="P80" s="140"/>
+      <c r="Q80" s="141"/>
+      <c r="R80" s="141"/>
+      <c r="S80" s="141"/>
+      <c r="T80" s="141"/>
     </row>
     <row r="81" spans="1:20" ht="18" customHeight="1">
-      <c r="A81" s="140" t="s">
+      <c r="A81" s="142" t="s">
         <v>132</v>
       </c>
-      <c r="B81" s="141"/>
-      <c r="C81" s="141"/>
-      <c r="D81" s="141"/>
-      <c r="E81" s="141"/>
-      <c r="F81" s="142"/>
+      <c r="B81" s="143"/>
+      <c r="C81" s="143"/>
+      <c r="D81" s="143"/>
+      <c r="E81" s="143"/>
+      <c r="F81" s="144"/>
       <c r="G81" s="17" t="s">
         <v>51</v>
       </c>
@@ -11136,21 +11280,21 @@
         <f>IF(H81="I",N81*Contagem!$U$11,IF(H81="E",N81*Contagem!$U$13,IF(H81="A",N81*Contagem!$U$12,IF(H81="T",N81*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P81" s="143"/>
-      <c r="Q81" s="144"/>
-      <c r="R81" s="144"/>
-      <c r="S81" s="144"/>
-      <c r="T81" s="144"/>
+      <c r="P81" s="140"/>
+      <c r="Q81" s="141"/>
+      <c r="R81" s="141"/>
+      <c r="S81" s="141"/>
+      <c r="T81" s="141"/>
     </row>
     <row r="82" spans="1:20" ht="18" customHeight="1">
-      <c r="A82" s="140" t="s">
+      <c r="A82" s="142" t="s">
         <v>133</v>
       </c>
-      <c r="B82" s="141"/>
-      <c r="C82" s="141"/>
-      <c r="D82" s="141"/>
-      <c r="E82" s="141"/>
-      <c r="F82" s="142"/>
+      <c r="B82" s="143"/>
+      <c r="C82" s="143"/>
+      <c r="D82" s="143"/>
+      <c r="E82" s="143"/>
+      <c r="F82" s="144"/>
       <c r="G82" s="17" t="s">
         <v>37</v>
       </c>
@@ -11183,21 +11327,21 @@
         <f>IF(H82="I",N82*Contagem!$U$11,IF(H82="E",N82*Contagem!$U$13,IF(H82="A",N82*Contagem!$U$12,IF(H82="T",N82*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P82" s="143"/>
-      <c r="Q82" s="144"/>
-      <c r="R82" s="144"/>
-      <c r="S82" s="144"/>
-      <c r="T82" s="144"/>
+      <c r="P82" s="140"/>
+      <c r="Q82" s="141"/>
+      <c r="R82" s="141"/>
+      <c r="S82" s="141"/>
+      <c r="T82" s="141"/>
     </row>
     <row r="83" spans="1:20" ht="18" customHeight="1">
-      <c r="A83" s="140" t="s">
+      <c r="A83" s="142" t="s">
         <v>134</v>
       </c>
-      <c r="B83" s="141"/>
-      <c r="C83" s="141"/>
-      <c r="D83" s="141"/>
-      <c r="E83" s="141"/>
-      <c r="F83" s="142"/>
+      <c r="B83" s="143"/>
+      <c r="C83" s="143"/>
+      <c r="D83" s="143"/>
+      <c r="E83" s="143"/>
+      <c r="F83" s="144"/>
       <c r="G83" s="17" t="s">
         <v>51</v>
       </c>
@@ -11230,21 +11374,21 @@
         <f>IF(H83="I",N83*Contagem!$U$11,IF(H83="E",N83*Contagem!$U$13,IF(H83="A",N83*Contagem!$U$12,IF(H83="T",N83*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P83" s="143"/>
-      <c r="Q83" s="144"/>
-      <c r="R83" s="144"/>
-      <c r="S83" s="144"/>
-      <c r="T83" s="144"/>
+      <c r="P83" s="140"/>
+      <c r="Q83" s="141"/>
+      <c r="R83" s="141"/>
+      <c r="S83" s="141"/>
+      <c r="T83" s="141"/>
     </row>
     <row r="84" spans="1:20" ht="18" customHeight="1">
-      <c r="A84" s="140" t="s">
+      <c r="A84" s="142" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="141"/>
-      <c r="C84" s="141"/>
-      <c r="D84" s="141"/>
-      <c r="E84" s="141"/>
-      <c r="F84" s="142"/>
+      <c r="B84" s="143"/>
+      <c r="C84" s="143"/>
+      <c r="D84" s="143"/>
+      <c r="E84" s="143"/>
+      <c r="F84" s="144"/>
       <c r="G84" s="17" t="s">
         <v>38</v>
       </c>
@@ -11277,11 +11421,11 @@
         <f>IF(H84="I",N84*Contagem!$U$11,IF(H84="E",N84*Contagem!$U$13,IF(H84="A",N84*Contagem!$U$12,IF(H84="T",N84*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P84" s="143"/>
-      <c r="Q84" s="144"/>
-      <c r="R84" s="144"/>
-      <c r="S84" s="144"/>
-      <c r="T84" s="144"/>
+      <c r="P84" s="140"/>
+      <c r="Q84" s="141"/>
+      <c r="R84" s="141"/>
+      <c r="S84" s="141"/>
+      <c r="T84" s="141"/>
     </row>
     <row r="85" spans="1:20" ht="18" customHeight="1">
       <c r="A85" s="100" t="s">
@@ -11323,14 +11467,14 @@
       <c r="T85" s="104"/>
     </row>
     <row r="86" spans="1:20" ht="18" customHeight="1">
-      <c r="A86" s="140" t="s">
+      <c r="A86" s="142" t="s">
         <v>152</v>
       </c>
-      <c r="B86" s="141"/>
-      <c r="C86" s="141"/>
-      <c r="D86" s="141"/>
-      <c r="E86" s="141"/>
-      <c r="F86" s="142"/>
+      <c r="B86" s="143"/>
+      <c r="C86" s="143"/>
+      <c r="D86" s="143"/>
+      <c r="E86" s="143"/>
+      <c r="F86" s="144"/>
       <c r="G86" s="17" t="s">
         <v>35</v>
       </c>
@@ -11359,21 +11503,21 @@
         <f>IF(H86="I",N86*Contagem!$U$11,IF(H86="E",N86*Contagem!$U$13,IF(H86="A",N86*Contagem!$U$12,IF(H86="T",N86*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P86" s="143"/>
-      <c r="Q86" s="144"/>
-      <c r="R86" s="144"/>
-      <c r="S86" s="144"/>
-      <c r="T86" s="144"/>
+      <c r="P86" s="140"/>
+      <c r="Q86" s="141"/>
+      <c r="R86" s="141"/>
+      <c r="S86" s="141"/>
+      <c r="T86" s="141"/>
     </row>
     <row r="87" spans="1:20" ht="18" customHeight="1">
-      <c r="A87" s="140" t="s">
+      <c r="A87" s="142" t="s">
         <v>144</v>
       </c>
-      <c r="B87" s="141"/>
-      <c r="C87" s="141"/>
-      <c r="D87" s="141"/>
-      <c r="E87" s="141"/>
-      <c r="F87" s="142"/>
+      <c r="B87" s="143"/>
+      <c r="C87" s="143"/>
+      <c r="D87" s="143"/>
+      <c r="E87" s="143"/>
+      <c r="F87" s="144"/>
       <c r="G87" s="17"/>
       <c r="H87" s="23"/>
       <c r="I87" s="17"/>
@@ -11398,21 +11542,21 @@
         <f>IF(H87="I",N87*Contagem!$U$11,IF(H87="E",N87*Contagem!$U$13,IF(H87="A",N87*Contagem!$U$12,IF(H87="T",N87*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P87" s="143"/>
-      <c r="Q87" s="144"/>
-      <c r="R87" s="144"/>
-      <c r="S87" s="144"/>
-      <c r="T87" s="144"/>
+      <c r="P87" s="140"/>
+      <c r="Q87" s="141"/>
+      <c r="R87" s="141"/>
+      <c r="S87" s="141"/>
+      <c r="T87" s="141"/>
     </row>
     <row r="88" spans="1:20" ht="18" customHeight="1">
-      <c r="A88" s="140" t="s">
+      <c r="A88" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="B88" s="141"/>
-      <c r="C88" s="141"/>
-      <c r="D88" s="141"/>
-      <c r="E88" s="141"/>
-      <c r="F88" s="142"/>
+      <c r="B88" s="143"/>
+      <c r="C88" s="143"/>
+      <c r="D88" s="143"/>
+      <c r="E88" s="143"/>
+      <c r="F88" s="144"/>
       <c r="G88" s="17" t="s">
         <v>37</v>
       </c>
@@ -11441,21 +11585,21 @@
         <f>IF(H88="I",N88*Contagem!$U$11,IF(H88="E",N88*Contagem!$U$13,IF(H88="A",N88*Contagem!$U$12,IF(H88="T",N88*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P88" s="143"/>
-      <c r="Q88" s="144"/>
-      <c r="R88" s="144"/>
-      <c r="S88" s="144"/>
-      <c r="T88" s="144"/>
+      <c r="P88" s="140"/>
+      <c r="Q88" s="141"/>
+      <c r="R88" s="141"/>
+      <c r="S88" s="141"/>
+      <c r="T88" s="141"/>
     </row>
     <row r="89" spans="1:20" ht="18" customHeight="1">
-      <c r="A89" s="140" t="s">
+      <c r="A89" s="142" t="s">
         <v>146</v>
       </c>
-      <c r="B89" s="141"/>
-      <c r="C89" s="141"/>
-      <c r="D89" s="141"/>
-      <c r="E89" s="141"/>
-      <c r="F89" s="142"/>
+      <c r="B89" s="143"/>
+      <c r="C89" s="143"/>
+      <c r="D89" s="143"/>
+      <c r="E89" s="143"/>
+      <c r="F89" s="144"/>
       <c r="G89" s="17" t="s">
         <v>37</v>
       </c>
@@ -11484,21 +11628,21 @@
         <f>IF(H89="I",N89*Contagem!$U$11,IF(H89="E",N89*Contagem!$U$13,IF(H89="A",N89*Contagem!$U$12,IF(H89="T",N89*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P89" s="143"/>
-      <c r="Q89" s="144"/>
-      <c r="R89" s="144"/>
-      <c r="S89" s="144"/>
-      <c r="T89" s="144"/>
+      <c r="P89" s="140"/>
+      <c r="Q89" s="141"/>
+      <c r="R89" s="141"/>
+      <c r="S89" s="141"/>
+      <c r="T89" s="141"/>
     </row>
     <row r="90" spans="1:20" ht="18" customHeight="1">
-      <c r="A90" s="140" t="s">
+      <c r="A90" s="142" t="s">
         <v>145</v>
       </c>
-      <c r="B90" s="141"/>
-      <c r="C90" s="141"/>
-      <c r="D90" s="141"/>
-      <c r="E90" s="141"/>
-      <c r="F90" s="142"/>
+      <c r="B90" s="143"/>
+      <c r="C90" s="143"/>
+      <c r="D90" s="143"/>
+      <c r="E90" s="143"/>
+      <c r="F90" s="144"/>
       <c r="G90" s="17" t="s">
         <v>38</v>
       </c>
@@ -11527,21 +11671,21 @@
         <f>IF(H90="I",N90*Contagem!$U$11,IF(H90="E",N90*Contagem!$U$13,IF(H90="A",N90*Contagem!$U$12,IF(H90="T",N90*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P90" s="143"/>
-      <c r="Q90" s="144"/>
-      <c r="R90" s="144"/>
-      <c r="S90" s="144"/>
-      <c r="T90" s="144"/>
+      <c r="P90" s="140"/>
+      <c r="Q90" s="141"/>
+      <c r="R90" s="141"/>
+      <c r="S90" s="141"/>
+      <c r="T90" s="141"/>
     </row>
     <row r="91" spans="1:20" ht="18" customHeight="1">
-      <c r="A91" s="140" t="s">
+      <c r="A91" s="142" t="s">
         <v>148</v>
       </c>
-      <c r="B91" s="141"/>
-      <c r="C91" s="141"/>
-      <c r="D91" s="141"/>
-      <c r="E91" s="141"/>
-      <c r="F91" s="142"/>
+      <c r="B91" s="143"/>
+      <c r="C91" s="143"/>
+      <c r="D91" s="143"/>
+      <c r="E91" s="143"/>
+      <c r="F91" s="144"/>
       <c r="G91" s="17" t="s">
         <v>38</v>
       </c>
@@ -11570,21 +11714,21 @@
         <f>IF(H91="I",N91*Contagem!$U$11,IF(H91="E",N91*Contagem!$U$13,IF(H91="A",N91*Contagem!$U$12,IF(H91="T",N91*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P91" s="143"/>
-      <c r="Q91" s="144"/>
-      <c r="R91" s="144"/>
-      <c r="S91" s="144"/>
-      <c r="T91" s="144"/>
+      <c r="P91" s="140"/>
+      <c r="Q91" s="141"/>
+      <c r="R91" s="141"/>
+      <c r="S91" s="141"/>
+      <c r="T91" s="141"/>
     </row>
     <row r="92" spans="1:20" ht="18" customHeight="1">
-      <c r="A92" s="140" t="s">
+      <c r="A92" s="142" t="s">
         <v>149</v>
       </c>
-      <c r="B92" s="141"/>
-      <c r="C92" s="141"/>
-      <c r="D92" s="141"/>
-      <c r="E92" s="141"/>
-      <c r="F92" s="142"/>
+      <c r="B92" s="143"/>
+      <c r="C92" s="143"/>
+      <c r="D92" s="143"/>
+      <c r="E92" s="143"/>
+      <c r="F92" s="144"/>
       <c r="G92" s="17" t="s">
         <v>37</v>
       </c>
@@ -11613,21 +11757,21 @@
         <f>IF(H92="I",N92*Contagem!$U$11,IF(H92="E",N92*Contagem!$U$13,IF(H92="A",N92*Contagem!$U$12,IF(H92="T",N92*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P92" s="143"/>
-      <c r="Q92" s="144"/>
-      <c r="R92" s="144"/>
-      <c r="S92" s="144"/>
-      <c r="T92" s="144"/>
+      <c r="P92" s="140"/>
+      <c r="Q92" s="141"/>
+      <c r="R92" s="141"/>
+      <c r="S92" s="141"/>
+      <c r="T92" s="141"/>
     </row>
     <row r="93" spans="1:20" ht="18" customHeight="1">
-      <c r="A93" s="140" t="s">
+      <c r="A93" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="B93" s="141"/>
-      <c r="C93" s="141"/>
-      <c r="D93" s="141"/>
-      <c r="E93" s="141"/>
-      <c r="F93" s="142"/>
+      <c r="B93" s="143"/>
+      <c r="C93" s="143"/>
+      <c r="D93" s="143"/>
+      <c r="E93" s="143"/>
+      <c r="F93" s="144"/>
       <c r="G93" s="17" t="s">
         <v>38</v>
       </c>
@@ -11656,21 +11800,21 @@
         <f>IF(H93="I",N93*Contagem!$U$11,IF(H93="E",N93*Contagem!$U$13,IF(H93="A",N93*Contagem!$U$12,IF(H93="T",N93*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P93" s="143"/>
-      <c r="Q93" s="144"/>
-      <c r="R93" s="144"/>
-      <c r="S93" s="144"/>
-      <c r="T93" s="144"/>
+      <c r="P93" s="140"/>
+      <c r="Q93" s="141"/>
+      <c r="R93" s="141"/>
+      <c r="S93" s="141"/>
+      <c r="T93" s="141"/>
     </row>
     <row r="94" spans="1:20" ht="18" customHeight="1">
-      <c r="A94" s="140" t="s">
+      <c r="A94" s="142" t="s">
         <v>150</v>
       </c>
-      <c r="B94" s="141"/>
-      <c r="C94" s="141"/>
-      <c r="D94" s="141"/>
-      <c r="E94" s="141"/>
-      <c r="F94" s="142"/>
+      <c r="B94" s="143"/>
+      <c r="C94" s="143"/>
+      <c r="D94" s="143"/>
+      <c r="E94" s="143"/>
+      <c r="F94" s="144"/>
       <c r="G94" s="17" t="s">
         <v>38</v>
       </c>
@@ -11699,21 +11843,21 @@
         <f>IF(H94="I",N94*Contagem!$U$11,IF(H94="E",N94*Contagem!$U$13,IF(H94="A",N94*Contagem!$U$12,IF(H94="T",N94*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P94" s="143"/>
-      <c r="Q94" s="144"/>
-      <c r="R94" s="144"/>
-      <c r="S94" s="144"/>
-      <c r="T94" s="144"/>
+      <c r="P94" s="140"/>
+      <c r="Q94" s="141"/>
+      <c r="R94" s="141"/>
+      <c r="S94" s="141"/>
+      <c r="T94" s="141"/>
     </row>
     <row r="95" spans="1:20" ht="18" customHeight="1">
-      <c r="A95" s="140" t="s">
+      <c r="A95" s="142" t="s">
         <v>151</v>
       </c>
-      <c r="B95" s="141"/>
-      <c r="C95" s="141"/>
-      <c r="D95" s="141"/>
-      <c r="E95" s="141"/>
-      <c r="F95" s="142"/>
+      <c r="B95" s="143"/>
+      <c r="C95" s="143"/>
+      <c r="D95" s="143"/>
+      <c r="E95" s="143"/>
+      <c r="F95" s="144"/>
       <c r="G95" s="17" t="s">
         <v>37</v>
       </c>
@@ -11742,21 +11886,21 @@
         <f>IF(H95="I",N95*Contagem!$U$11,IF(H95="E",N95*Contagem!$U$13,IF(H95="A",N95*Contagem!$U$12,IF(H95="T",N95*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P95" s="143"/>
-      <c r="Q95" s="144"/>
-      <c r="R95" s="144"/>
-      <c r="S95" s="144"/>
-      <c r="T95" s="144"/>
+      <c r="P95" s="140"/>
+      <c r="Q95" s="141"/>
+      <c r="R95" s="141"/>
+      <c r="S95" s="141"/>
+      <c r="T95" s="141"/>
     </row>
     <row r="96" spans="1:20" ht="18" customHeight="1">
-      <c r="A96" s="140" t="s">
+      <c r="A96" s="142" t="s">
         <v>153</v>
       </c>
-      <c r="B96" s="141"/>
-      <c r="C96" s="141"/>
-      <c r="D96" s="141"/>
-      <c r="E96" s="141"/>
-      <c r="F96" s="142"/>
+      <c r="B96" s="143"/>
+      <c r="C96" s="143"/>
+      <c r="D96" s="143"/>
+      <c r="E96" s="143"/>
+      <c r="F96" s="144"/>
       <c r="G96" s="17" t="s">
         <v>37</v>
       </c>
@@ -11785,21 +11929,21 @@
         <f>IF(H96="I",N96*Contagem!$U$11,IF(H96="E",N96*Contagem!$U$13,IF(H96="A",N96*Contagem!$U$12,IF(H96="T",N96*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P96" s="143"/>
-      <c r="Q96" s="144"/>
-      <c r="R96" s="144"/>
-      <c r="S96" s="144"/>
-      <c r="T96" s="144"/>
+      <c r="P96" s="140"/>
+      <c r="Q96" s="141"/>
+      <c r="R96" s="141"/>
+      <c r="S96" s="141"/>
+      <c r="T96" s="141"/>
     </row>
     <row r="97" spans="1:20" ht="18" customHeight="1">
-      <c r="A97" s="140" t="s">
+      <c r="A97" s="142" t="s">
         <v>154</v>
       </c>
-      <c r="B97" s="141"/>
-      <c r="C97" s="141"/>
-      <c r="D97" s="141"/>
-      <c r="E97" s="141"/>
-      <c r="F97" s="142"/>
+      <c r="B97" s="143"/>
+      <c r="C97" s="143"/>
+      <c r="D97" s="143"/>
+      <c r="E97" s="143"/>
+      <c r="F97" s="144"/>
       <c r="G97" s="17" t="s">
         <v>38</v>
       </c>
@@ -11828,11 +11972,11 @@
         <f>IF(H97="I",N97*Contagem!$U$11,IF(H97="E",N97*Contagem!$U$13,IF(H97="A",N97*Contagem!$U$12,IF(H97="T",N97*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P97" s="143"/>
-      <c r="Q97" s="144"/>
-      <c r="R97" s="144"/>
-      <c r="S97" s="144"/>
-      <c r="T97" s="144"/>
+      <c r="P97" s="140"/>
+      <c r="Q97" s="141"/>
+      <c r="R97" s="141"/>
+      <c r="S97" s="141"/>
+      <c r="T97" s="141"/>
     </row>
     <row r="98" spans="1:20" ht="18" customHeight="1">
       <c r="A98" s="24" t="s">
@@ -11871,11 +12015,11 @@
         <f>IF(H98="I",N98*Contagem!$U$11,IF(H98="E",N98*Contagem!$U$13,IF(H98="A",N98*Contagem!$U$12,IF(H98="T",N98*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P98" s="143"/>
-      <c r="Q98" s="144"/>
-      <c r="R98" s="144"/>
-      <c r="S98" s="144"/>
-      <c r="T98" s="144"/>
+      <c r="P98" s="140"/>
+      <c r="Q98" s="141"/>
+      <c r="R98" s="141"/>
+      <c r="S98" s="141"/>
+      <c r="T98" s="141"/>
     </row>
     <row r="99" spans="1:20" ht="15" customHeight="1">
       <c r="A99" s="24" t="s">
@@ -11895,30 +12039,30 @@
       <c r="I99" s="17"/>
       <c r="J99" s="17"/>
       <c r="K99" s="17" t="str">
-        <f t="shared" ref="K99:K120" si="28">CONCATENATE(G99,L99)</f>
+        <f t="shared" ref="K99:K119" si="28">CONCATENATE(G99,L99)</f>
         <v>EEA</v>
       </c>
       <c r="L99" s="18" t="str">
-        <f t="shared" ref="L99:L120" si="29">IF(OR(ISBLANK(I99),ISBLANK(J99)),IF(OR(G99="ALI",G99="AIE"),"L",IF(ISBLANK(G99),"","A")),IF(G99="EE",IF(J99&gt;=3,IF(I99&gt;=5,"H","A"),IF(J99&gt;=2,IF(I99&gt;=16,"H",IF(I99&lt;=4,"L","A")),IF(I99&lt;=15,"L","A"))),IF(OR(G99="SE",G99="CE"),IF(J99&gt;=4,IF(I99&gt;=6,"H","A"),IF(J99&gt;=2,IF(I99&gt;=20,"H",IF(I99&lt;=5,"L","A")),IF(I99&lt;=19,"L","A"))),IF(OR(G99="ALI",G99="AIE"),IF(J99&gt;=6,IF(I99&gt;=20,"H","A"),IF(J99&gt;=2,IF(I99&gt;=51,"H",IF(I99&lt;=19,"L","A")),IF(I99&lt;=50,"L","A")))))))</f>
+        <f t="shared" ref="L99:L119" si="29">IF(OR(ISBLANK(I99),ISBLANK(J99)),IF(OR(G99="ALI",G99="AIE"),"L",IF(ISBLANK(G99),"","A")),IF(G99="EE",IF(J99&gt;=3,IF(I99&gt;=5,"H","A"),IF(J99&gt;=2,IF(I99&gt;=16,"H",IF(I99&lt;=4,"L","A")),IF(I99&lt;=15,"L","A"))),IF(OR(G99="SE",G99="CE"),IF(J99&gt;=4,IF(I99&gt;=6,"H","A"),IF(J99&gt;=2,IF(I99&gt;=20,"H",IF(I99&lt;=5,"L","A")),IF(I99&lt;=19,"L","A"))),IF(OR(G99="ALI",G99="AIE"),IF(J99&gt;=6,IF(I99&gt;=20,"H","A"),IF(J99&gt;=2,IF(I99&gt;=51,"H",IF(I99&lt;=19,"L","A")),IF(I99&lt;=50,"L","A")))))))</f>
         <v>A</v>
       </c>
       <c r="M99" s="19" t="str">
-        <f t="shared" ref="M99:M120" si="30">IF(L99="L","Baixa",IF(L99="A","Média",IF(L99="","","Alta")))</f>
+        <f t="shared" ref="M99:M119" si="30">IF(L99="L","Baixa",IF(L99="A","Média",IF(L99="","","Alta")))</f>
         <v>Média</v>
       </c>
       <c r="N99" s="20">
-        <f t="shared" ref="N99:N120" si="31">IF(ISBLANK(G99),"",IF(G99="ALI",IF(L99="L",7,IF(L99="A",10,15)),IF(G99="AIE",IF(L99="L",5,IF(L99="A",7,10)),IF(G99="SE",IF(L99="L",4,IF(L99="A",5,7)),IF(OR(G99="EE",G99="CE"),IF(L99="L",3,IF(L99="A",4,6)))))))</f>
+        <f t="shared" ref="N99:N119" si="31">IF(ISBLANK(G99),"",IF(G99="ALI",IF(L99="L",7,IF(L99="A",10,15)),IF(G99="AIE",IF(L99="L",5,IF(L99="A",7,10)),IF(G99="SE",IF(L99="L",4,IF(L99="A",5,7)),IF(OR(G99="EE",G99="CE"),IF(L99="L",3,IF(L99="A",4,6)))))))</f>
         <v>4</v>
       </c>
       <c r="O99" s="21">
         <f>IF(H99="I",N99*Contagem!$U$11,IF(H99="E",N99*Contagem!$U$13,IF(H99="A",N99*Contagem!$U$12,IF(H99="T",N99*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P99" s="143"/>
-      <c r="Q99" s="144"/>
-      <c r="R99" s="144"/>
-      <c r="S99" s="144"/>
-      <c r="T99" s="144"/>
+      <c r="P99" s="140"/>
+      <c r="Q99" s="141"/>
+      <c r="R99" s="141"/>
+      <c r="S99" s="141"/>
+      <c r="T99" s="141"/>
     </row>
     <row r="100" spans="1:20" ht="15" customHeight="1">
       <c r="A100" s="24" t="s">
@@ -11957,11 +12101,11 @@
         <f>IF(H100="I",N100*Contagem!$U$11,IF(H100="E",N100*Contagem!$U$13,IF(H100="A",N100*Contagem!$U$12,IF(H100="T",N100*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P100" s="143"/>
-      <c r="Q100" s="144"/>
-      <c r="R100" s="144"/>
-      <c r="S100" s="144"/>
-      <c r="T100" s="144"/>
+      <c r="P100" s="140"/>
+      <c r="Q100" s="141"/>
+      <c r="R100" s="141"/>
+      <c r="S100" s="141"/>
+      <c r="T100" s="141"/>
     </row>
     <row r="101" spans="1:20" ht="15" customHeight="1">
       <c r="A101" s="24" t="s">
@@ -12000,11 +12144,11 @@
         <f>IF(H101="I",N101*Contagem!$U$11,IF(H101="E",N101*Contagem!$U$13,IF(H101="A",N101*Contagem!$U$12,IF(H101="T",N101*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P101" s="143"/>
-      <c r="Q101" s="144"/>
-      <c r="R101" s="144"/>
-      <c r="S101" s="144"/>
-      <c r="T101" s="144"/>
+      <c r="P101" s="140"/>
+      <c r="Q101" s="141"/>
+      <c r="R101" s="141"/>
+      <c r="S101" s="141"/>
+      <c r="T101" s="141"/>
     </row>
     <row r="102" spans="1:20" ht="15" customHeight="1">
       <c r="A102" s="24" t="s">
@@ -12043,11 +12187,11 @@
         <f>IF(H102="I",N102*Contagem!$U$11,IF(H102="E",N102*Contagem!$U$13,IF(H102="A",N102*Contagem!$U$12,IF(H102="T",N102*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P102" s="143"/>
-      <c r="Q102" s="144"/>
-      <c r="R102" s="144"/>
-      <c r="S102" s="144"/>
-      <c r="T102" s="144"/>
+      <c r="P102" s="140"/>
+      <c r="Q102" s="141"/>
+      <c r="R102" s="141"/>
+      <c r="S102" s="141"/>
+      <c r="T102" s="141"/>
     </row>
     <row r="103" spans="1:20" ht="15" customHeight="1">
       <c r="A103" s="24" t="s">
@@ -12086,11 +12230,11 @@
         <f>IF(H103="I",N103*Contagem!$U$11,IF(H103="E",N103*Contagem!$U$13,IF(H103="A",N103*Contagem!$U$12,IF(H103="T",N103*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P103" s="143"/>
-      <c r="Q103" s="144"/>
-      <c r="R103" s="144"/>
-      <c r="S103" s="144"/>
-      <c r="T103" s="144"/>
+      <c r="P103" s="140"/>
+      <c r="Q103" s="141"/>
+      <c r="R103" s="141"/>
+      <c r="S103" s="141"/>
+      <c r="T103" s="141"/>
     </row>
     <row r="104" spans="1:20" ht="15" customHeight="1">
       <c r="A104" s="107" t="s">
@@ -12168,15 +12312,15 @@
         <f>IF(H105="I",N105*Contagem!$U$11,IF(H105="E",N105*Contagem!$U$13,IF(H105="A",N105*Contagem!$U$12,IF(H105="T",N105*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P105" s="143"/>
-      <c r="Q105" s="144"/>
-      <c r="R105" s="144"/>
-      <c r="S105" s="144"/>
-      <c r="T105" s="144"/>
+      <c r="P105" s="140"/>
+      <c r="Q105" s="141"/>
+      <c r="R105" s="141"/>
+      <c r="S105" s="141"/>
+      <c r="T105" s="141"/>
     </row>
     <row r="106" spans="1:20" ht="15" customHeight="1">
       <c r="A106" s="24" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="B106" s="99"/>
       <c r="C106" s="99"/>
@@ -12211,15 +12355,15 @@
         <f>IF(H106="I",N106*Contagem!$U$11,IF(H106="E",N106*Contagem!$U$13,IF(H106="A",N106*Contagem!$U$12,IF(H106="T",N106*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P106" s="143"/>
-      <c r="Q106" s="144"/>
-      <c r="R106" s="144"/>
-      <c r="S106" s="144"/>
-      <c r="T106" s="144"/>
+      <c r="P106" s="140"/>
+      <c r="Q106" s="141"/>
+      <c r="R106" s="141"/>
+      <c r="S106" s="141"/>
+      <c r="T106" s="141"/>
     </row>
     <row r="107" spans="1:20" ht="15" customHeight="1">
       <c r="A107" s="24" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B107" s="99"/>
       <c r="C107" s="99"/>
@@ -12227,7 +12371,7 @@
       <c r="E107" s="99"/>
       <c r="F107" s="25"/>
       <c r="G107" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H107" s="23" t="s">
         <v>36</v>
@@ -12236,7 +12380,7 @@
       <c r="J107" s="17"/>
       <c r="K107" s="17" t="str">
         <f t="shared" si="28"/>
-        <v>CEA</v>
+        <v>EEA</v>
       </c>
       <c r="L107" s="18" t="str">
         <f t="shared" si="29"/>
@@ -12254,15 +12398,15 @@
         <f>IF(H107="I",N107*Contagem!$U$11,IF(H107="E",N107*Contagem!$U$13,IF(H107="A",N107*Contagem!$U$12,IF(H107="T",N107*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P107" s="143"/>
-      <c r="Q107" s="144"/>
-      <c r="R107" s="144"/>
-      <c r="S107" s="144"/>
-      <c r="T107" s="144"/>
+      <c r="P107" s="140"/>
+      <c r="Q107" s="141"/>
+      <c r="R107" s="141"/>
+      <c r="S107" s="141"/>
+      <c r="T107" s="141"/>
     </row>
     <row r="108" spans="1:20" ht="15" customHeight="1">
       <c r="A108" s="24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B108" s="99"/>
       <c r="C108" s="99"/>
@@ -12270,7 +12414,7 @@
       <c r="E108" s="99"/>
       <c r="F108" s="25"/>
       <c r="G108" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H108" s="23" t="s">
         <v>36</v>
@@ -12279,7 +12423,7 @@
       <c r="J108" s="17"/>
       <c r="K108" s="17" t="str">
         <f t="shared" si="28"/>
-        <v>EEA</v>
+        <v>CEA</v>
       </c>
       <c r="L108" s="18" t="str">
         <f t="shared" si="29"/>
@@ -12297,54 +12441,48 @@
         <f>IF(H108="I",N108*Contagem!$U$11,IF(H108="E",N108*Contagem!$U$13,IF(H108="A",N108*Contagem!$U$12,IF(H108="T",N108*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P108" s="143"/>
-      <c r="Q108" s="144"/>
-      <c r="R108" s="144"/>
-      <c r="S108" s="144"/>
-      <c r="T108" s="144"/>
+      <c r="P108" s="140"/>
+      <c r="Q108" s="141"/>
+      <c r="R108" s="141"/>
+      <c r="S108" s="141"/>
+      <c r="T108" s="141"/>
     </row>
     <row r="109" spans="1:20" ht="15" customHeight="1">
-      <c r="A109" s="24" t="s">
-        <v>164</v>
-      </c>
+      <c r="A109" s="24"/>
       <c r="B109" s="99"/>
       <c r="C109" s="99"/>
       <c r="D109" s="99"/>
       <c r="E109" s="99"/>
       <c r="F109" s="25"/>
-      <c r="G109" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H109" s="23" t="s">
-        <v>36</v>
-      </c>
+      <c r="G109" s="17"/>
+      <c r="H109" s="23"/>
       <c r="I109" s="17"/>
       <c r="J109" s="17"/>
       <c r="K109" s="17" t="str">
         <f t="shared" si="28"/>
-        <v>CEA</v>
+        <v/>
       </c>
       <c r="L109" s="18" t="str">
         <f t="shared" si="29"/>
-        <v>A</v>
+        <v/>
       </c>
       <c r="M109" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>Média</v>
-      </c>
-      <c r="N109" s="20">
+        <v/>
+      </c>
+      <c r="N109" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>4</v>
-      </c>
-      <c r="O109" s="21">
+        <v/>
+      </c>
+      <c r="O109" s="21" t="str">
         <f>IF(H109="I",N109*Contagem!$U$11,IF(H109="E",N109*Contagem!$U$13,IF(H109="A",N109*Contagem!$U$12,IF(H109="T",N109*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P109" s="143"/>
-      <c r="Q109" s="144"/>
-      <c r="R109" s="144"/>
-      <c r="S109" s="144"/>
-      <c r="T109" s="144"/>
+        <v/>
+      </c>
+      <c r="P109" s="140"/>
+      <c r="Q109" s="141"/>
+      <c r="R109" s="141"/>
+      <c r="S109" s="141"/>
+      <c r="T109" s="141"/>
     </row>
     <row r="110" spans="1:20" ht="15" customHeight="1">
       <c r="A110" s="24"/>
@@ -12377,11 +12515,11 @@
         <f>IF(H110="I",N110*Contagem!$U$11,IF(H110="E",N110*Contagem!$U$13,IF(H110="A",N110*Contagem!$U$12,IF(H110="T",N110*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P110" s="143"/>
-      <c r="Q110" s="144"/>
-      <c r="R110" s="144"/>
-      <c r="S110" s="144"/>
-      <c r="T110" s="144"/>
+      <c r="P110" s="140"/>
+      <c r="Q110" s="141"/>
+      <c r="R110" s="141"/>
+      <c r="S110" s="141"/>
+      <c r="T110" s="141"/>
     </row>
     <row r="111" spans="1:20" ht="15" customHeight="1">
       <c r="A111" s="24"/>
@@ -12414,11 +12552,11 @@
         <f>IF(H111="I",N111*Contagem!$U$11,IF(H111="E",N111*Contagem!$U$13,IF(H111="A",N111*Contagem!$U$12,IF(H111="T",N111*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P111" s="143"/>
-      <c r="Q111" s="144"/>
-      <c r="R111" s="144"/>
-      <c r="S111" s="144"/>
-      <c r="T111" s="144"/>
+      <c r="P111" s="140"/>
+      <c r="Q111" s="141"/>
+      <c r="R111" s="141"/>
+      <c r="S111" s="141"/>
+      <c r="T111" s="141"/>
     </row>
     <row r="112" spans="1:20" ht="15" customHeight="1">
       <c r="A112" s="24"/>
@@ -12451,11 +12589,11 @@
         <f>IF(H112="I",N112*Contagem!$U$11,IF(H112="E",N112*Contagem!$U$13,IF(H112="A",N112*Contagem!$U$12,IF(H112="T",N112*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P112" s="143"/>
-      <c r="Q112" s="144"/>
-      <c r="R112" s="144"/>
-      <c r="S112" s="144"/>
-      <c r="T112" s="144"/>
+      <c r="P112" s="140"/>
+      <c r="Q112" s="141"/>
+      <c r="R112" s="141"/>
+      <c r="S112" s="141"/>
+      <c r="T112" s="141"/>
     </row>
     <row r="113" spans="1:20" ht="15" customHeight="1">
       <c r="A113" s="24"/>
@@ -12488,11 +12626,11 @@
         <f>IF(H113="I",N113*Contagem!$U$11,IF(H113="E",N113*Contagem!$U$13,IF(H113="A",N113*Contagem!$U$12,IF(H113="T",N113*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P113" s="143"/>
-      <c r="Q113" s="144"/>
-      <c r="R113" s="144"/>
-      <c r="S113" s="144"/>
-      <c r="T113" s="144"/>
+      <c r="P113" s="140"/>
+      <c r="Q113" s="141"/>
+      <c r="R113" s="141"/>
+      <c r="S113" s="141"/>
+      <c r="T113" s="141"/>
     </row>
     <row r="114" spans="1:20" ht="15" customHeight="1">
       <c r="A114" s="24"/>
@@ -12525,11 +12663,11 @@
         <f>IF(H114="I",N114*Contagem!$U$11,IF(H114="E",N114*Contagem!$U$13,IF(H114="A",N114*Contagem!$U$12,IF(H114="T",N114*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P114" s="143"/>
-      <c r="Q114" s="144"/>
-      <c r="R114" s="144"/>
-      <c r="S114" s="144"/>
-      <c r="T114" s="144"/>
+      <c r="P114" s="140"/>
+      <c r="Q114" s="141"/>
+      <c r="R114" s="141"/>
+      <c r="S114" s="141"/>
+      <c r="T114" s="141"/>
     </row>
     <row r="115" spans="1:20" ht="15" customHeight="1">
       <c r="A115" s="24"/>
@@ -12562,11 +12700,11 @@
         <f>IF(H115="I",N115*Contagem!$U$11,IF(H115="E",N115*Contagem!$U$13,IF(H115="A",N115*Contagem!$U$12,IF(H115="T",N115*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P115" s="143"/>
-      <c r="Q115" s="144"/>
-      <c r="R115" s="144"/>
-      <c r="S115" s="144"/>
-      <c r="T115" s="144"/>
+      <c r="P115" s="140"/>
+      <c r="Q115" s="141"/>
+      <c r="R115" s="141"/>
+      <c r="S115" s="141"/>
+      <c r="T115" s="141"/>
     </row>
     <row r="116" spans="1:20" ht="15" customHeight="1">
       <c r="A116" s="24"/>
@@ -12599,11 +12737,11 @@
         <f>IF(H116="I",N116*Contagem!$U$11,IF(H116="E",N116*Contagem!$U$13,IF(H116="A",N116*Contagem!$U$12,IF(H116="T",N116*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P116" s="143"/>
-      <c r="Q116" s="144"/>
-      <c r="R116" s="144"/>
-      <c r="S116" s="144"/>
-      <c r="T116" s="144"/>
+      <c r="P116" s="140"/>
+      <c r="Q116" s="141"/>
+      <c r="R116" s="141"/>
+      <c r="S116" s="141"/>
+      <c r="T116" s="141"/>
     </row>
     <row r="117" spans="1:20" ht="15" customHeight="1">
       <c r="A117" s="24"/>
@@ -12636,11 +12774,11 @@
         <f>IF(H117="I",N117*Contagem!$U$11,IF(H117="E",N117*Contagem!$U$13,IF(H117="A",N117*Contagem!$U$12,IF(H117="T",N117*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P117" s="143"/>
-      <c r="Q117" s="144"/>
-      <c r="R117" s="144"/>
-      <c r="S117" s="144"/>
-      <c r="T117" s="144"/>
+      <c r="P117" s="140"/>
+      <c r="Q117" s="141"/>
+      <c r="R117" s="141"/>
+      <c r="S117" s="141"/>
+      <c r="T117" s="141"/>
     </row>
     <row r="118" spans="1:20" ht="15" customHeight="1">
       <c r="A118" s="24"/>
@@ -12673,11 +12811,11 @@
         <f>IF(H118="I",N118*Contagem!$U$11,IF(H118="E",N118*Contagem!$U$13,IF(H118="A",N118*Contagem!$U$12,IF(H118="T",N118*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P118" s="143"/>
-      <c r="Q118" s="144"/>
-      <c r="R118" s="144"/>
-      <c r="S118" s="144"/>
-      <c r="T118" s="144"/>
+      <c r="P118" s="140"/>
+      <c r="Q118" s="141"/>
+      <c r="R118" s="141"/>
+      <c r="S118" s="141"/>
+      <c r="T118" s="141"/>
     </row>
     <row r="119" spans="1:20" ht="15" customHeight="1">
       <c r="A119" s="24"/>
@@ -12710,11 +12848,11 @@
         <f>IF(H119="I",N119*Contagem!$U$11,IF(H119="E",N119*Contagem!$U$13,IF(H119="A",N119*Contagem!$U$12,IF(H119="T",N119*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P119" s="143"/>
-      <c r="Q119" s="144"/>
-      <c r="R119" s="144"/>
-      <c r="S119" s="144"/>
-      <c r="T119" s="144"/>
+      <c r="P119" s="140"/>
+      <c r="Q119" s="141"/>
+      <c r="R119" s="141"/>
+      <c r="S119" s="141"/>
+      <c r="T119" s="141"/>
     </row>
     <row r="120" spans="1:20" ht="15" customHeight="1">
       <c r="A120" s="24"/>
@@ -12728,30 +12866,30 @@
       <c r="I120" s="17"/>
       <c r="J120" s="17"/>
       <c r="K120" s="17" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="K120:K140" si="32">CONCATENATE(G120,L120)</f>
         <v/>
       </c>
       <c r="L120" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="L120:L140" si="33">IF(OR(ISBLANK(I120),ISBLANK(J120)),IF(OR(G120="ALI",G120="AIE"),"L",IF(ISBLANK(G120),"","A")),IF(G120="EE",IF(J120&gt;=3,IF(I120&gt;=5,"H","A"),IF(J120&gt;=2,IF(I120&gt;=16,"H",IF(I120&lt;=4,"L","A")),IF(I120&lt;=15,"L","A"))),IF(OR(G120="SE",G120="CE"),IF(J120&gt;=4,IF(I120&gt;=6,"H","A"),IF(J120&gt;=2,IF(I120&gt;=20,"H",IF(I120&lt;=5,"L","A")),IF(I120&lt;=19,"L","A"))),IF(OR(G120="ALI",G120="AIE"),IF(J120&gt;=6,IF(I120&gt;=20,"H","A"),IF(J120&gt;=2,IF(I120&gt;=51,"H",IF(I120&lt;=19,"L","A")),IF(I120&lt;=50,"L","A")))))))</f>
         <v/>
       </c>
       <c r="M120" s="19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="M120:M140" si="34">IF(L120="L","Baixa",IF(L120="A","Média",IF(L120="","","Alta")))</f>
         <v/>
       </c>
       <c r="N120" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="N120:N140" si="35">IF(ISBLANK(G120),"",IF(G120="ALI",IF(L120="L",7,IF(L120="A",10,15)),IF(G120="AIE",IF(L120="L",5,IF(L120="A",7,10)),IF(G120="SE",IF(L120="L",4,IF(L120="A",5,7)),IF(OR(G120="EE",G120="CE"),IF(L120="L",3,IF(L120="A",4,6)))))))</f>
         <v/>
       </c>
       <c r="O120" s="21" t="str">
         <f>IF(H120="I",N120*Contagem!$U$11,IF(H120="E",N120*Contagem!$U$13,IF(H120="A",N120*Contagem!$U$12,IF(H120="T",N120*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P120" s="143"/>
-      <c r="Q120" s="144"/>
-      <c r="R120" s="144"/>
-      <c r="S120" s="144"/>
-      <c r="T120" s="144"/>
+      <c r="P120" s="140"/>
+      <c r="Q120" s="141"/>
+      <c r="R120" s="141"/>
+      <c r="S120" s="141"/>
+      <c r="T120" s="141"/>
     </row>
     <row r="121" spans="1:20" ht="15" customHeight="1">
       <c r="A121" s="24"/>
@@ -12765,30 +12903,30 @@
       <c r="I121" s="17"/>
       <c r="J121" s="17"/>
       <c r="K121" s="17" t="str">
-        <f t="shared" ref="K121:K141" si="32">CONCATENATE(G121,L121)</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="L121" s="18" t="str">
-        <f t="shared" ref="L121:L141" si="33">IF(OR(ISBLANK(I121),ISBLANK(J121)),IF(OR(G121="ALI",G121="AIE"),"L",IF(ISBLANK(G121),"","A")),IF(G121="EE",IF(J121&gt;=3,IF(I121&gt;=5,"H","A"),IF(J121&gt;=2,IF(I121&gt;=16,"H",IF(I121&lt;=4,"L","A")),IF(I121&lt;=15,"L","A"))),IF(OR(G121="SE",G121="CE"),IF(J121&gt;=4,IF(I121&gt;=6,"H","A"),IF(J121&gt;=2,IF(I121&gt;=20,"H",IF(I121&lt;=5,"L","A")),IF(I121&lt;=19,"L","A"))),IF(OR(G121="ALI",G121="AIE"),IF(J121&gt;=6,IF(I121&gt;=20,"H","A"),IF(J121&gt;=2,IF(I121&gt;=51,"H",IF(I121&lt;=19,"L","A")),IF(I121&lt;=50,"L","A")))))))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M121" s="19" t="str">
-        <f t="shared" ref="M121:M141" si="34">IF(L121="L","Baixa",IF(L121="A","Média",IF(L121="","","Alta")))</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N121" s="20" t="str">
-        <f t="shared" ref="N121:N141" si="35">IF(ISBLANK(G121),"",IF(G121="ALI",IF(L121="L",7,IF(L121="A",10,15)),IF(G121="AIE",IF(L121="L",5,IF(L121="A",7,10)),IF(G121="SE",IF(L121="L",4,IF(L121="A",5,7)),IF(OR(G121="EE",G121="CE"),IF(L121="L",3,IF(L121="A",4,6)))))))</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="O121" s="21" t="str">
         <f>IF(H121="I",N121*Contagem!$U$11,IF(H121="E",N121*Contagem!$U$13,IF(H121="A",N121*Contagem!$U$12,IF(H121="T",N121*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P121" s="143"/>
-      <c r="Q121" s="144"/>
-      <c r="R121" s="144"/>
-      <c r="S121" s="144"/>
-      <c r="T121" s="144"/>
+      <c r="P121" s="140"/>
+      <c r="Q121" s="141"/>
+      <c r="R121" s="141"/>
+      <c r="S121" s="141"/>
+      <c r="T121" s="141"/>
     </row>
     <row r="122" spans="1:20" ht="15" customHeight="1">
       <c r="A122" s="24"/>
@@ -12821,11 +12959,11 @@
         <f>IF(H122="I",N122*Contagem!$U$11,IF(H122="E",N122*Contagem!$U$13,IF(H122="A",N122*Contagem!$U$12,IF(H122="T",N122*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P122" s="143"/>
-      <c r="Q122" s="144"/>
-      <c r="R122" s="144"/>
-      <c r="S122" s="144"/>
-      <c r="T122" s="144"/>
+      <c r="P122" s="140"/>
+      <c r="Q122" s="141"/>
+      <c r="R122" s="141"/>
+      <c r="S122" s="141"/>
+      <c r="T122" s="141"/>
     </row>
     <row r="123" spans="1:20" ht="15" customHeight="1">
       <c r="A123" s="24"/>
@@ -12858,11 +12996,11 @@
         <f>IF(H123="I",N123*Contagem!$U$11,IF(H123="E",N123*Contagem!$U$13,IF(H123="A",N123*Contagem!$U$12,IF(H123="T",N123*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P123" s="143"/>
-      <c r="Q123" s="144"/>
-      <c r="R123" s="144"/>
-      <c r="S123" s="144"/>
-      <c r="T123" s="144"/>
+      <c r="P123" s="140"/>
+      <c r="Q123" s="141"/>
+      <c r="R123" s="141"/>
+      <c r="S123" s="141"/>
+      <c r="T123" s="141"/>
     </row>
     <row r="124" spans="1:20" ht="15" customHeight="1">
       <c r="A124" s="24"/>
@@ -12895,11 +13033,11 @@
         <f>IF(H124="I",N124*Contagem!$U$11,IF(H124="E",N124*Contagem!$U$13,IF(H124="A",N124*Contagem!$U$12,IF(H124="T",N124*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P124" s="143"/>
-      <c r="Q124" s="144"/>
-      <c r="R124" s="144"/>
-      <c r="S124" s="144"/>
-      <c r="T124" s="144"/>
+      <c r="P124" s="140"/>
+      <c r="Q124" s="141"/>
+      <c r="R124" s="141"/>
+      <c r="S124" s="141"/>
+      <c r="T124" s="141"/>
     </row>
     <row r="125" spans="1:20" ht="15" customHeight="1">
       <c r="A125" s="24"/>
@@ -12932,11 +13070,11 @@
         <f>IF(H125="I",N125*Contagem!$U$11,IF(H125="E",N125*Contagem!$U$13,IF(H125="A",N125*Contagem!$U$12,IF(H125="T",N125*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P125" s="143"/>
-      <c r="Q125" s="144"/>
-      <c r="R125" s="144"/>
-      <c r="S125" s="144"/>
-      <c r="T125" s="144"/>
+      <c r="P125" s="140"/>
+      <c r="Q125" s="141"/>
+      <c r="R125" s="141"/>
+      <c r="S125" s="141"/>
+      <c r="T125" s="141"/>
     </row>
     <row r="126" spans="1:20" ht="15" customHeight="1">
       <c r="A126" s="24"/>
@@ -12969,11 +13107,11 @@
         <f>IF(H126="I",N126*Contagem!$U$11,IF(H126="E",N126*Contagem!$U$13,IF(H126="A",N126*Contagem!$U$12,IF(H126="T",N126*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P126" s="143"/>
-      <c r="Q126" s="144"/>
-      <c r="R126" s="144"/>
-      <c r="S126" s="144"/>
-      <c r="T126" s="144"/>
+      <c r="P126" s="140"/>
+      <c r="Q126" s="141"/>
+      <c r="R126" s="141"/>
+      <c r="S126" s="141"/>
+      <c r="T126" s="141"/>
     </row>
     <row r="127" spans="1:20" ht="15" customHeight="1">
       <c r="A127" s="24"/>
@@ -13006,11 +13144,11 @@
         <f>IF(H127="I",N127*Contagem!$U$11,IF(H127="E",N127*Contagem!$U$13,IF(H127="A",N127*Contagem!$U$12,IF(H127="T",N127*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P127" s="143"/>
-      <c r="Q127" s="144"/>
-      <c r="R127" s="144"/>
-      <c r="S127" s="144"/>
-      <c r="T127" s="144"/>
+      <c r="P127" s="140"/>
+      <c r="Q127" s="141"/>
+      <c r="R127" s="141"/>
+      <c r="S127" s="141"/>
+      <c r="T127" s="141"/>
     </row>
     <row r="128" spans="1:20" ht="15" customHeight="1">
       <c r="A128" s="24"/>
@@ -13043,11 +13181,11 @@
         <f>IF(H128="I",N128*Contagem!$U$11,IF(H128="E",N128*Contagem!$U$13,IF(H128="A",N128*Contagem!$U$12,IF(H128="T",N128*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P128" s="143"/>
-      <c r="Q128" s="144"/>
-      <c r="R128" s="144"/>
-      <c r="S128" s="144"/>
-      <c r="T128" s="144"/>
+      <c r="P128" s="140"/>
+      <c r="Q128" s="141"/>
+      <c r="R128" s="141"/>
+      <c r="S128" s="141"/>
+      <c r="T128" s="141"/>
     </row>
     <row r="129" spans="1:20" ht="15" customHeight="1">
       <c r="A129" s="24"/>
@@ -13080,11 +13218,11 @@
         <f>IF(H129="I",N129*Contagem!$U$11,IF(H129="E",N129*Contagem!$U$13,IF(H129="A",N129*Contagem!$U$12,IF(H129="T",N129*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P129" s="143"/>
-      <c r="Q129" s="144"/>
-      <c r="R129" s="144"/>
-      <c r="S129" s="144"/>
-      <c r="T129" s="144"/>
+      <c r="P129" s="140"/>
+      <c r="Q129" s="141"/>
+      <c r="R129" s="141"/>
+      <c r="S129" s="141"/>
+      <c r="T129" s="141"/>
     </row>
     <row r="130" spans="1:20" ht="15" customHeight="1">
       <c r="A130" s="24"/>
@@ -13117,11 +13255,11 @@
         <f>IF(H130="I",N130*Contagem!$U$11,IF(H130="E",N130*Contagem!$U$13,IF(H130="A",N130*Contagem!$U$12,IF(H130="T",N130*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P130" s="143"/>
-      <c r="Q130" s="144"/>
-      <c r="R130" s="144"/>
-      <c r="S130" s="144"/>
-      <c r="T130" s="144"/>
+      <c r="P130" s="140"/>
+      <c r="Q130" s="141"/>
+      <c r="R130" s="141"/>
+      <c r="S130" s="141"/>
+      <c r="T130" s="141"/>
     </row>
     <row r="131" spans="1:20" ht="15" customHeight="1">
       <c r="A131" s="24"/>
@@ -13154,11 +13292,11 @@
         <f>IF(H131="I",N131*Contagem!$U$11,IF(H131="E",N131*Contagem!$U$13,IF(H131="A",N131*Contagem!$U$12,IF(H131="T",N131*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P131" s="143"/>
-      <c r="Q131" s="144"/>
-      <c r="R131" s="144"/>
-      <c r="S131" s="144"/>
-      <c r="T131" s="144"/>
+      <c r="P131" s="140"/>
+      <c r="Q131" s="141"/>
+      <c r="R131" s="141"/>
+      <c r="S131" s="141"/>
+      <c r="T131" s="141"/>
     </row>
     <row r="132" spans="1:20" ht="15" customHeight="1">
       <c r="A132" s="24"/>
@@ -13191,11 +13329,11 @@
         <f>IF(H132="I",N132*Contagem!$U$11,IF(H132="E",N132*Contagem!$U$13,IF(H132="A",N132*Contagem!$U$12,IF(H132="T",N132*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P132" s="143"/>
-      <c r="Q132" s="144"/>
-      <c r="R132" s="144"/>
-      <c r="S132" s="144"/>
-      <c r="T132" s="144"/>
+      <c r="P132" s="140"/>
+      <c r="Q132" s="141"/>
+      <c r="R132" s="141"/>
+      <c r="S132" s="141"/>
+      <c r="T132" s="141"/>
     </row>
     <row r="133" spans="1:20" ht="15" customHeight="1">
       <c r="A133" s="24"/>
@@ -13228,11 +13366,11 @@
         <f>IF(H133="I",N133*Contagem!$U$11,IF(H133="E",N133*Contagem!$U$13,IF(H133="A",N133*Contagem!$U$12,IF(H133="T",N133*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P133" s="143"/>
-      <c r="Q133" s="144"/>
-      <c r="R133" s="144"/>
-      <c r="S133" s="144"/>
-      <c r="T133" s="144"/>
+      <c r="P133" s="140"/>
+      <c r="Q133" s="141"/>
+      <c r="R133" s="141"/>
+      <c r="S133" s="141"/>
+      <c r="T133" s="141"/>
     </row>
     <row r="134" spans="1:20" ht="15" customHeight="1">
       <c r="A134" s="24"/>
@@ -13265,11 +13403,11 @@
         <f>IF(H134="I",N134*Contagem!$U$11,IF(H134="E",N134*Contagem!$U$13,IF(H134="A",N134*Contagem!$U$12,IF(H134="T",N134*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P134" s="143"/>
-      <c r="Q134" s="144"/>
-      <c r="R134" s="144"/>
-      <c r="S134" s="144"/>
-      <c r="T134" s="144"/>
+      <c r="P134" s="140"/>
+      <c r="Q134" s="141"/>
+      <c r="R134" s="141"/>
+      <c r="S134" s="141"/>
+      <c r="T134" s="141"/>
     </row>
     <row r="135" spans="1:20" ht="15" customHeight="1">
       <c r="A135" s="24"/>
@@ -13302,11 +13440,11 @@
         <f>IF(H135="I",N135*Contagem!$U$11,IF(H135="E",N135*Contagem!$U$13,IF(H135="A",N135*Contagem!$U$12,IF(H135="T",N135*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P135" s="143"/>
-      <c r="Q135" s="144"/>
-      <c r="R135" s="144"/>
-      <c r="S135" s="144"/>
-      <c r="T135" s="144"/>
+      <c r="P135" s="140"/>
+      <c r="Q135" s="141"/>
+      <c r="R135" s="141"/>
+      <c r="S135" s="141"/>
+      <c r="T135" s="141"/>
     </row>
     <row r="136" spans="1:20" ht="15" customHeight="1">
       <c r="A136" s="24"/>
@@ -13339,11 +13477,11 @@
         <f>IF(H136="I",N136*Contagem!$U$11,IF(H136="E",N136*Contagem!$U$13,IF(H136="A",N136*Contagem!$U$12,IF(H136="T",N136*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P136" s="143"/>
-      <c r="Q136" s="144"/>
-      <c r="R136" s="144"/>
-      <c r="S136" s="144"/>
-      <c r="T136" s="144"/>
+      <c r="P136" s="140"/>
+      <c r="Q136" s="141"/>
+      <c r="R136" s="141"/>
+      <c r="S136" s="141"/>
+      <c r="T136" s="141"/>
     </row>
     <row r="137" spans="1:20" ht="15" customHeight="1">
       <c r="A137" s="24"/>
@@ -13376,11 +13514,11 @@
         <f>IF(H137="I",N137*Contagem!$U$11,IF(H137="E",N137*Contagem!$U$13,IF(H137="A",N137*Contagem!$U$12,IF(H137="T",N137*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P137" s="143"/>
-      <c r="Q137" s="144"/>
-      <c r="R137" s="144"/>
-      <c r="S137" s="144"/>
-      <c r="T137" s="144"/>
+      <c r="P137" s="140"/>
+      <c r="Q137" s="141"/>
+      <c r="R137" s="141"/>
+      <c r="S137" s="141"/>
+      <c r="T137" s="141"/>
     </row>
     <row r="138" spans="1:20" ht="15" customHeight="1">
       <c r="A138" s="24"/>
@@ -13413,11 +13551,11 @@
         <f>IF(H138="I",N138*Contagem!$U$11,IF(H138="E",N138*Contagem!$U$13,IF(H138="A",N138*Contagem!$U$12,IF(H138="T",N138*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P138" s="143"/>
-      <c r="Q138" s="144"/>
-      <c r="R138" s="144"/>
-      <c r="S138" s="144"/>
-      <c r="T138" s="144"/>
+      <c r="P138" s="140"/>
+      <c r="Q138" s="141"/>
+      <c r="R138" s="141"/>
+      <c r="S138" s="141"/>
+      <c r="T138" s="141"/>
     </row>
     <row r="139" spans="1:20" ht="15" customHeight="1">
       <c r="A139" s="24"/>
@@ -13450,11 +13588,11 @@
         <f>IF(H139="I",N139*Contagem!$U$11,IF(H139="E",N139*Contagem!$U$13,IF(H139="A",N139*Contagem!$U$12,IF(H139="T",N139*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P139" s="143"/>
-      <c r="Q139" s="144"/>
-      <c r="R139" s="144"/>
-      <c r="S139" s="144"/>
-      <c r="T139" s="144"/>
+      <c r="P139" s="140"/>
+      <c r="Q139" s="141"/>
+      <c r="R139" s="141"/>
+      <c r="S139" s="141"/>
+      <c r="T139" s="141"/>
     </row>
     <row r="140" spans="1:20" ht="15" customHeight="1">
       <c r="A140" s="24"/>
@@ -13487,170 +13625,73 @@
         <f>IF(H140="I",N140*Contagem!$U$11,IF(H140="E",N140*Contagem!$U$13,IF(H140="A",N140*Contagem!$U$12,IF(H140="T",N140*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P140" s="143"/>
-      <c r="Q140" s="144"/>
-      <c r="R140" s="144"/>
-      <c r="S140" s="144"/>
-      <c r="T140" s="144"/>
-    </row>
-    <row r="141" spans="1:20" ht="15" customHeight="1">
-      <c r="A141" s="24"/>
-      <c r="B141" s="99"/>
-      <c r="C141" s="99"/>
-      <c r="D141" s="99"/>
-      <c r="E141" s="99"/>
-      <c r="F141" s="25"/>
-      <c r="G141" s="17"/>
-      <c r="H141" s="23"/>
-      <c r="I141" s="17"/>
-      <c r="J141" s="17"/>
-      <c r="K141" s="17" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L141" s="18" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M141" s="19" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="N141" s="20" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="O141" s="21" t="str">
-        <f>IF(H141="I",N141*Contagem!$U$11,IF(H141="E",N141*Contagem!$U$13,IF(H141="A",N141*Contagem!$U$12,IF(H141="T",N141*Contagem!$U$14,""))))</f>
-        <v/>
-      </c>
-      <c r="P141" s="143"/>
-      <c r="Q141" s="144"/>
-      <c r="R141" s="144"/>
-      <c r="S141" s="144"/>
-      <c r="T141" s="144"/>
+      <c r="P140" s="140"/>
+      <c r="Q140" s="141"/>
+      <c r="R140" s="141"/>
+      <c r="S140" s="141"/>
+      <c r="T140" s="141"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
-    <mergeCell ref="P125:T125"/>
-    <mergeCell ref="P135:T135"/>
-    <mergeCell ref="P136:T136"/>
-    <mergeCell ref="P137:T137"/>
-    <mergeCell ref="P138:T138"/>
-    <mergeCell ref="P139:T139"/>
-    <mergeCell ref="P140:T140"/>
-    <mergeCell ref="P141:T141"/>
-    <mergeCell ref="P126:T126"/>
-    <mergeCell ref="P127:T127"/>
-    <mergeCell ref="P128:T128"/>
-    <mergeCell ref="P129:T129"/>
-    <mergeCell ref="P130:T130"/>
-    <mergeCell ref="P131:T131"/>
-    <mergeCell ref="P132:T132"/>
-    <mergeCell ref="P133:T133"/>
-    <mergeCell ref="P134:T134"/>
-    <mergeCell ref="P116:T116"/>
-    <mergeCell ref="P117:T117"/>
-    <mergeCell ref="P118:T118"/>
-    <mergeCell ref="P119:T119"/>
-    <mergeCell ref="P120:T120"/>
-    <mergeCell ref="P121:T121"/>
-    <mergeCell ref="P122:T122"/>
-    <mergeCell ref="P123:T123"/>
-    <mergeCell ref="P124:T124"/>
-    <mergeCell ref="P107:T107"/>
-    <mergeCell ref="P108:T108"/>
-    <mergeCell ref="P109:T109"/>
-    <mergeCell ref="P110:T110"/>
-    <mergeCell ref="P111:T111"/>
-    <mergeCell ref="P112:T112"/>
-    <mergeCell ref="P113:T113"/>
-    <mergeCell ref="P114:T114"/>
-    <mergeCell ref="P115:T115"/>
-    <mergeCell ref="P102:T102"/>
-    <mergeCell ref="P103:T103"/>
-    <mergeCell ref="P105:T105"/>
-    <mergeCell ref="P106:T106"/>
-    <mergeCell ref="P99:T99"/>
-    <mergeCell ref="P100:T100"/>
-    <mergeCell ref="P101:T101"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="P38:T38"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="P75:T75"/>
-    <mergeCell ref="P77:T77"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="P34:T34"/>
-    <mergeCell ref="P35:T35"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="P79:T79"/>
-    <mergeCell ref="P80:T80"/>
-    <mergeCell ref="P81:T81"/>
-    <mergeCell ref="P68:T68"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="P55:T55"/>
-    <mergeCell ref="P60:T60"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="P57:T57"/>
-    <mergeCell ref="P58:T58"/>
-    <mergeCell ref="P59:T59"/>
-    <mergeCell ref="P51:T51"/>
-    <mergeCell ref="P52:T52"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="P49:T49"/>
-    <mergeCell ref="P50:T50"/>
-    <mergeCell ref="P43:T43"/>
-    <mergeCell ref="P44:T44"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="P46:T46"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="P61:T61"/>
+  <mergeCells count="201">
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="P94:T94"/>
+    <mergeCell ref="P95:T95"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="P71:T71"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="P82:T82"/>
+    <mergeCell ref="P70:T70"/>
+    <mergeCell ref="P78:T78"/>
+    <mergeCell ref="P97:T97"/>
+    <mergeCell ref="P98:T98"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="P91:T91"/>
+    <mergeCell ref="P92:T92"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="P83:T83"/>
+    <mergeCell ref="P84:T84"/>
+    <mergeCell ref="P86:T86"/>
+    <mergeCell ref="P90:T90"/>
+    <mergeCell ref="P87:T87"/>
+    <mergeCell ref="P88:T88"/>
+    <mergeCell ref="P89:T89"/>
+    <mergeCell ref="P96:T96"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="P93:T93"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:T4"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G5:T5"/>
     <mergeCell ref="P22:T22"/>
     <mergeCell ref="P31:T31"/>
     <mergeCell ref="P23:T23"/>
@@ -13675,77 +13716,136 @@
     <mergeCell ref="P21:T21"/>
     <mergeCell ref="P20:T20"/>
     <mergeCell ref="A25:F25"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:T4"/>
-    <mergeCell ref="P18:T18"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="P97:T97"/>
-    <mergeCell ref="P98:T98"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="P91:T91"/>
-    <mergeCell ref="P92:T92"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="P83:T83"/>
-    <mergeCell ref="P84:T84"/>
-    <mergeCell ref="P86:T86"/>
-    <mergeCell ref="P90:T90"/>
-    <mergeCell ref="P87:T87"/>
-    <mergeCell ref="P88:T88"/>
-    <mergeCell ref="P89:T89"/>
-    <mergeCell ref="P96:T96"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="P93:T93"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="P94:T94"/>
-    <mergeCell ref="P95:T95"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="P71:T71"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="P82:T82"/>
-    <mergeCell ref="P70:T70"/>
-    <mergeCell ref="P78:T78"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="P49:T49"/>
+    <mergeCell ref="P50:T50"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="P44:T44"/>
+    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="P46:T46"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="P61:T61"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="P79:T79"/>
+    <mergeCell ref="P80:T80"/>
+    <mergeCell ref="P81:T81"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="P60:T60"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="P57:T57"/>
+    <mergeCell ref="P58:T58"/>
+    <mergeCell ref="P59:T59"/>
+    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="P52:T52"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="P34:T34"/>
+    <mergeCell ref="P35:T35"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="P102:T102"/>
+    <mergeCell ref="P103:T103"/>
+    <mergeCell ref="P105:T105"/>
+    <mergeCell ref="P99:T99"/>
+    <mergeCell ref="P100:T100"/>
+    <mergeCell ref="P101:T101"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="P75:T75"/>
+    <mergeCell ref="P77:T77"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="P66:T66"/>
+    <mergeCell ref="P106:T106"/>
+    <mergeCell ref="P107:T107"/>
+    <mergeCell ref="P108:T108"/>
+    <mergeCell ref="P109:T109"/>
+    <mergeCell ref="P110:T110"/>
+    <mergeCell ref="P111:T111"/>
+    <mergeCell ref="P112:T112"/>
+    <mergeCell ref="P113:T113"/>
+    <mergeCell ref="P114:T114"/>
+    <mergeCell ref="P115:T115"/>
+    <mergeCell ref="P116:T116"/>
+    <mergeCell ref="P117:T117"/>
+    <mergeCell ref="P118:T118"/>
+    <mergeCell ref="P119:T119"/>
+    <mergeCell ref="P120:T120"/>
+    <mergeCell ref="P121:T121"/>
+    <mergeCell ref="P122:T122"/>
+    <mergeCell ref="P123:T123"/>
+    <mergeCell ref="P124:T124"/>
+    <mergeCell ref="P134:T134"/>
+    <mergeCell ref="P135:T135"/>
+    <mergeCell ref="P136:T136"/>
+    <mergeCell ref="P137:T137"/>
+    <mergeCell ref="P138:T138"/>
+    <mergeCell ref="P139:T139"/>
+    <mergeCell ref="P140:T140"/>
+    <mergeCell ref="P125:T125"/>
+    <mergeCell ref="P126:T126"/>
+    <mergeCell ref="P127:T127"/>
+    <mergeCell ref="P128:T128"/>
+    <mergeCell ref="P129:T129"/>
+    <mergeCell ref="P130:T130"/>
+    <mergeCell ref="P131:T131"/>
+    <mergeCell ref="P132:T132"/>
+    <mergeCell ref="P133:T133"/>
   </mergeCells>
-  <conditionalFormatting sqref="H34:H39 H25:H31 H41:H47 H77:H84 H86:H103 H105:H141 H49:H55 H66:H75 H8:H23 H57:H64">
+  <conditionalFormatting sqref="H34:H39 H25:H31 H41:H47 H77:H84 H86:H103 H49:H55 H66:H75 H8:H23 H57:H64 H105:H140">
     <cfRule type="cellIs" dxfId="32" priority="70" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34:H39 H25:H31 H41:H47 H77:H84 H86:H103 H105:H141 H49:H55 H66:H75 H8:H23 H57:H64">
+  <conditionalFormatting sqref="H34:H39 H25:H31 H41:H47 H77:H84 H86:H103 H49:H55 H66:H75 H8:H23 H57:H64 H105:H140">
     <cfRule type="cellIs" dxfId="31" priority="71" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34:H39 H25:H31 H41:H47 H77:H84 H86:H103 H105:H141 H49:H55 H66:H75 H8:H23 H57:H64">
+  <conditionalFormatting sqref="H34:H39 H25:H31 H41:H47 H77:H84 H86:H103 H49:H55 H66:H75 H8:H23 H57:H64 H105:H140">
     <cfRule type="cellIs" dxfId="30" priority="72" operator="equal">
       <formula>"E"</formula>
     </cfRule>
@@ -13932,88 +14032,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="172"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="170"/>
     </row>
     <row r="2" spans="1:12" ht="12" customHeight="1">
-      <c r="A2" s="156"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="173"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="171"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1">
-      <c r="A3" s="174"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="175"/>
+      <c r="A3" s="172"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="173"/>
     </row>
     <row r="4" spans="1:12" ht="12" customHeight="1">
-      <c r="A4" s="165" t="str">
+      <c r="A4" s="178" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : Siscei</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="168" t="str">
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="166" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v>Projeto : Siscei</v>
       </c>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="169"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="167"/>
     </row>
     <row r="5" spans="1:12" ht="12" customHeight="1">
-      <c r="A5" s="165" t="str">
+      <c r="A5" s="178" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v>Responsável : Felipe Nami</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="168" t="str">
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="166" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="169"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="167"/>
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1">
       <c r="A6" s="26" t="str">
@@ -14024,58 +14124,58 @@
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="167" t="str">
+      <c r="F6" s="165" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 0</v>
       </c>
-      <c r="G6" s="119"/>
-      <c r="H6" s="167" t="str">
+      <c r="G6" s="127"/>
+      <c r="H6" s="165" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 0,00</v>
       </c>
-      <c r="I6" s="117"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="178" t="str">
+      <c r="I6" s="126"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="176" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
-        <v>PF  = 421</v>
-      </c>
-      <c r="L6" s="169"/>
+        <v>PF  = 417</v>
+      </c>
+      <c r="L6" s="167"/>
     </row>
     <row r="7" spans="1:12" ht="12" customHeight="1">
-      <c r="A7" s="179" t="s">
+      <c r="A7" s="177" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="176" t="s">
+      <c r="B7" s="117"/>
+      <c r="C7" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="166" t="s">
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="166"/>
-      <c r="I7" s="166" t="s">
+      <c r="H7" s="164"/>
+      <c r="I7" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="177"/>
-      <c r="K7" s="166"/>
-      <c r="L7" s="177"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="175"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1">
-      <c r="A8" s="174"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="175"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="175"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="173"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="173"/>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1">
       <c r="A9" s="29"/>
@@ -14971,14 +15071,14 @@
     </row>
     <row r="55" spans="1:12" ht="12" customHeight="1">
       <c r="A55" s="32"/>
-      <c r="B55" s="164" t="s">
+      <c r="B55" s="179" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="117"/>
-      <c r="D55" s="119"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="127"/>
       <c r="E55" s="48">
-        <f>SUMIF(Funções!$H$8:$H$198,"I",Funções!$N$8:$N$198)</f>
-        <v>421</v>
+        <f>SUMIF(Funções!$H$8:$H$197,"I",Funções!$N$8:$N$197)</f>
+        <v>417</v>
       </c>
       <c r="F55" s="48">
         <f>Contagem!U11</f>
@@ -14986,7 +15086,7 @@
       </c>
       <c r="G55" s="48">
         <f t="shared" ref="G55:G58" si="0">F55*E55</f>
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H55" s="49"/>
       <c r="I55" s="49"/>
@@ -14998,11 +15098,11 @@
     </row>
     <row r="56" spans="1:12" ht="12" customHeight="1">
       <c r="A56" s="32"/>
-      <c r="B56" s="164" t="s">
+      <c r="B56" s="179" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="117"/>
-      <c r="D56" s="119"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="127"/>
       <c r="E56" s="48">
         <f>SUMIF(Funções!$H$8:$H$98,"A",Funções!$N$8:$N$98)</f>
         <v>0</v>
@@ -15020,17 +15120,17 @@
       <c r="J56" s="49"/>
       <c r="K56" s="51">
         <f>Contagem!W5</f>
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L56" s="37"/>
     </row>
     <row r="57" spans="1:12" ht="12" customHeight="1">
       <c r="A57" s="32"/>
-      <c r="B57" s="164" t="s">
+      <c r="B57" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="117"/>
-      <c r="D57" s="119"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="127"/>
       <c r="E57" s="48">
         <f>SUMIF(Funções!$H$8:$H$98,"E",Funções!$N$8:$N$98)</f>
         <v>0</v>
@@ -15051,11 +15151,11 @@
     </row>
     <row r="58" spans="1:12" ht="12" customHeight="1">
       <c r="A58" s="32"/>
-      <c r="B58" s="164" t="s">
+      <c r="B58" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="117"/>
-      <c r="D58" s="119"/>
+      <c r="C58" s="126"/>
+      <c r="D58" s="127"/>
       <c r="E58" s="48">
         <f>SUMIF(Funções!$H$8:$H$98,"T",Funções!$N$8:$N$98)</f>
         <v>0</v>
@@ -15090,6 +15190,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F4:L4"/>
@@ -15103,11 +15208,6 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
